--- a/Unity/Assets/Config/Excel/AbilityConfig/DropRuleConfig/DropRuleCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/DropRuleConfig/DropRuleCfg.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\DropRuleConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\DropRuleConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAF0E19-B7B8-458E-902D-B6788FCAD5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E11784-5370-4616-85F0-EF66DEAB053F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rule" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>##var</t>
   </si>
@@ -164,6 +164,30 @@
   </si>
   <si>
     <t>DropRuleOne</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropItemRule_First_Ar_Challenge6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropItemRule_First_Ar_Challenge8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropItemRule_First_Ar_Challenge10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow25_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow11_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow21_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -621,22 +645,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.77734375" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.77734375" customWidth="1"/>
+    <col min="4" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,7 +677,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,7 +692,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,7 +703,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -696,7 +720,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -707,7 +731,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -730,7 +754,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
@@ -750,7 +774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
@@ -770,7 +794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C9" s="7"/>
       <c r="D9" s="8" t="s">
         <v>37</v>
@@ -785,7 +809,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
@@ -805,7 +829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C11" s="7"/>
       <c r="D11" s="8" t="s">
         <v>36</v>
@@ -820,7 +844,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>21</v>
       </c>
@@ -840,7 +864,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C13" s="7"/>
       <c r="D13" s="8" t="s">
         <v>36</v>
@@ -855,10 +879,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>26</v>
       </c>
@@ -878,7 +902,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>27</v>
       </c>
@@ -898,7 +922,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
         <v>28</v>
       </c>
@@ -918,7 +942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
         <v>29</v>
       </c>
@@ -938,12 +962,65 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1</v>
+      </c>
+      <c r="F20" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1</v>
+      </c>
+      <c r="F21" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1</v>
+      </c>
+      <c r="F22" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Unity/Assets/Config/Excel/AbilityConfig/DropRuleConfig/DropRuleCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/DropRuleConfig/DropRuleCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\DropRuleConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E11784-5370-4616-85F0-EF66DEAB053F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EC690E-1C7A-4352-B213-9A984FEF0A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rule" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="99">
   <si>
     <t>##var</t>
   </si>
@@ -113,18 +113,6 @@
     <t>DropAll</t>
   </si>
   <si>
-    <t>Tow7_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tow6_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tow8_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>DropItemRule_First_Ar_Challenge1</t>
   </si>
   <si>
@@ -188,6 +176,189 @@
   </si>
   <si>
     <t>Tow21_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Ar_Challenge1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Ar_Challenge2</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Ar_Challenge3</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Ar_Challenge4</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Ar_Challenge5</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Ar_Challenge6</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Ar_Challenge7</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Ar_Challenge8</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Ar_Challenge9</t>
+  </si>
+  <si>
+    <t>DropItemRule_Common_Ar_Challenge10</t>
+  </si>
+  <si>
+    <t>Token_Diamond</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropItemRule_First_Ar_Challenge5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropItemRule_First_Ar_Challenge7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropItemRule_First_Ar_Challenge9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season1_Challenge1</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season1_Challenge2</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season1_Challenge3</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season1_Challenge4</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season1_Challenge5</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season2_Challenge1</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season2_Challenge2</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season2_Challenge3</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season2_Challenge4</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season2_Challenge5</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season3_Challenge1</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season3_Challenge2</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season3_Challenge3</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season3_Challenge4</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season3_Challenge5</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season4_Challenge1</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season4_Challenge2</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season4_Challenge3</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season4_Challenge4</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season4_Challenge5</t>
+  </si>
+  <si>
+    <t>DropItemRule_Season1_Challenge1</t>
+  </si>
+  <si>
+    <t>DropItemRule_Season1_Challenge2</t>
+  </si>
+  <si>
+    <t>DropItemRule_Season1_Challenge3</t>
+  </si>
+  <si>
+    <t>DropItemRule_Season1_Challenge4</t>
+  </si>
+  <si>
+    <t>DropItemRule_Season1_Challenge5</t>
+  </si>
+  <si>
+    <t>DropItemRule_Season4_Challenge1</t>
+  </si>
+  <si>
+    <t>DropItemRule_Season4_Challenge2</t>
+  </si>
+  <si>
+    <t>DropItemRule_Season4_Challenge3</t>
+  </si>
+  <si>
+    <t>DropItemRule_Season4_Challenge4</t>
+  </si>
+  <si>
+    <t>DropItemRule_Season4_Challenge5</t>
+  </si>
+  <si>
+    <t>DropItemRule_Season3_Challenge1</t>
+  </si>
+  <si>
+    <t>DropItemRule_Season3_Challenge2</t>
+  </si>
+  <si>
+    <t>DropItemRule_Season3_Challenge3</t>
+  </si>
+  <si>
+    <t>DropItemRule_Season3_Challenge4</t>
+  </si>
+  <si>
+    <t>DropItemRule_Season3_Challenge5</t>
+  </si>
+  <si>
+    <t>DropItemRule_Season2_Challenge1</t>
+  </si>
+  <si>
+    <t>DropItemRule_Season2_Challenge2</t>
+  </si>
+  <si>
+    <t>DropItemRule_Season2_Challenge3</t>
+  </si>
+  <si>
+    <t>DropItemRule_Season2_Challenge4</t>
+  </si>
+  <si>
+    <t>DropItemRule_Season2_Challenge5</t>
+  </si>
+  <si>
+    <t>Tow26_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow9_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow17_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow23_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -330,7 +501,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
@@ -350,6 +521,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -645,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -665,16 +842,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -684,13 +861,13 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -713,12 +890,12 @@
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="D4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -742,7 +919,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>13</v>
@@ -751,7 +928,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -762,7 +939,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7" s="8">
         <v>1</v>
@@ -782,7 +959,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E8" s="8">
         <v>1</v>
@@ -797,7 +974,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C9" s="7"/>
       <c r="D9" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E9" s="8">
         <v>1</v>
@@ -817,7 +994,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E10" s="8">
         <v>1</v>
@@ -832,7 +1009,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C11" s="7"/>
       <c r="D11" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E11" s="8">
         <v>1</v>
@@ -852,7 +1029,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E12" s="8">
         <v>1</v>
@@ -867,7 +1044,7 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C13" s="7"/>
       <c r="D13" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E13" s="8">
         <v>1</v>
@@ -884,13 +1061,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E16" s="10">
         <v>1</v>
@@ -899,98 +1076,93 @@
         <v>10000</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
+      <c r="B17" s="9"/>
       <c r="D17" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E17" s="10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F17" s="10">
         <v>10000</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>24</v>
+      <c r="G17" s="12" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E18" s="10">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F18" s="10">
         <v>10000</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>17</v>
+      <c r="G18" s="12" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E19" s="10">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F19" s="10">
         <v>10000</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>25</v>
+      <c r="G19" s="12" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E20" s="10">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F20" s="10">
         <v>10000</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>41</v>
+      <c r="G20" s="12" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E21" s="10">
         <v>1</v>
@@ -999,27 +1171,1235 @@
         <v>10000</v>
       </c>
       <c r="G21" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="10">
+        <v>50</v>
+      </c>
+      <c r="F22" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="10">
+        <v>60</v>
+      </c>
+      <c r="F23" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="10">
+        <v>70</v>
+      </c>
+      <c r="F24" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="10">
+        <v>80</v>
+      </c>
+      <c r="F25" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="10">
+        <v>90</v>
+      </c>
+      <c r="F26" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="10">
+        <v>1</v>
+      </c>
+      <c r="F27" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="9"/>
+      <c r="D28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="10">
+        <v>100</v>
+      </c>
+      <c r="F28" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="10">
+        <v>1</v>
+      </c>
+      <c r="F30" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="10">
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="10">
+        <v>2</v>
+      </c>
+      <c r="F31" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="10">
+        <v>3</v>
+      </c>
+      <c r="F32" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="10">
+        <v>4</v>
+      </c>
+      <c r="F33" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="10">
+        <v>5</v>
+      </c>
+      <c r="F34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="10">
+        <v>6</v>
+      </c>
+      <c r="F35" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="10">
+        <v>7</v>
+      </c>
+      <c r="F36" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="10">
+        <v>8</v>
+      </c>
+      <c r="F37" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="10">
+        <v>9</v>
+      </c>
+      <c r="F38" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="10">
+        <v>10</v>
+      </c>
+      <c r="F39" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K40" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B41" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41">
+        <v>500</v>
+      </c>
+      <c r="F41" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42">
+        <v>1000</v>
+      </c>
+      <c r="F42" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B43" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43">
+        <v>1500</v>
+      </c>
+      <c r="F43" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44">
+        <v>2100</v>
+      </c>
+      <c r="F44" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B45" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45">
+        <v>2600</v>
+      </c>
+      <c r="F45" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B46" s="13"/>
+      <c r="D46" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="10">
         <v>1</v>
       </c>
-      <c r="F22" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>43</v>
+      <c r="F46" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B47" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="10">
+        <v>30</v>
+      </c>
+      <c r="F47" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B48" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="10">
+        <v>30</v>
+      </c>
+      <c r="F48" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B49" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="10">
+        <v>30</v>
+      </c>
+      <c r="F49" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B50" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="10">
+        <v>30</v>
+      </c>
+      <c r="F50" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B51" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="10">
+        <v>30</v>
+      </c>
+      <c r="F51" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B52" s="13"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B53" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53">
+        <v>500</v>
+      </c>
+      <c r="F53" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B54" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54">
+        <v>1000</v>
+      </c>
+      <c r="F54" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B55" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55">
+        <v>1500</v>
+      </c>
+      <c r="F55" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B56" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56">
+        <v>2100</v>
+      </c>
+      <c r="F56" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B57" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57">
+        <v>2600</v>
+      </c>
+      <c r="F57" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B58" s="13"/>
+      <c r="D58" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="10">
+        <v>1</v>
+      </c>
+      <c r="F58" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B59" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" s="10">
+        <v>30</v>
+      </c>
+      <c r="F59" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B60" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" s="10">
+        <v>30</v>
+      </c>
+      <c r="F60" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B61" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61" s="10">
+        <v>30</v>
+      </c>
+      <c r="F61" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B62" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" s="10">
+        <v>30</v>
+      </c>
+      <c r="F62" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B63" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" s="10">
+        <v>30</v>
+      </c>
+      <c r="F63" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B64" s="13"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B65" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65">
+        <v>500</v>
+      </c>
+      <c r="F65" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B66" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66">
+        <v>1000</v>
+      </c>
+      <c r="F66" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B67" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E67">
+        <v>1500</v>
+      </c>
+      <c r="F67" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B68" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68">
+        <v>2100</v>
+      </c>
+      <c r="F68" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B69" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E69">
+        <v>2600</v>
+      </c>
+      <c r="F69" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B70" s="13"/>
+      <c r="D70" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" s="10">
+        <v>1</v>
+      </c>
+      <c r="F70" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B71" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71" s="10">
+        <v>30</v>
+      </c>
+      <c r="F71" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B72" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E72" s="10">
+        <v>30</v>
+      </c>
+      <c r="F72" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B73" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" s="10">
+        <v>30</v>
+      </c>
+      <c r="F73" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B74" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E74" s="10">
+        <v>30</v>
+      </c>
+      <c r="F74" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B75" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E75" s="10">
+        <v>30</v>
+      </c>
+      <c r="F75" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B76" s="13"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B77" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C77" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E77">
+        <v>500</v>
+      </c>
+      <c r="F77" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B78" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78">
+        <v>1000</v>
+      </c>
+      <c r="F78" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B79" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E79">
+        <v>1500</v>
+      </c>
+      <c r="F79" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B80" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E80">
+        <v>2100</v>
+      </c>
+      <c r="F80" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B81" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E81">
+        <v>2600</v>
+      </c>
+      <c r="F81" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B82" s="13"/>
+      <c r="D82" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E82" s="10">
+        <v>1</v>
+      </c>
+      <c r="F82" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B83" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E83" s="10">
+        <v>30</v>
+      </c>
+      <c r="F83" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B84" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84" s="10">
+        <v>30</v>
+      </c>
+      <c r="F84" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B85" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E85" s="10">
+        <v>30</v>
+      </c>
+      <c r="F85" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B86" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C86" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E86" s="10">
+        <v>30</v>
+      </c>
+      <c r="F86" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G86" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B87" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C87" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E87" s="10">
+        <v>30</v>
+      </c>
+      <c r="F87" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/DropRuleConfig/DropRuleCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/DropRuleConfig/DropRuleCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\DropRuleConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EC690E-1C7A-4352-B213-9A984FEF0A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E229619-D744-4B59-9E05-54C5A02F7916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="140">
   <si>
     <t>##var</t>
   </si>
@@ -360,6 +360,134 @@
   <si>
     <t>Tow23_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tow8_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season1_Rank1</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season1_Rank2</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season1_Rank3</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season1_Rank4</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season2_Rank1</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season2_Rank2</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season2_Rank3</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season2_Rank4</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season3_Rank1</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season3_Rank2</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season3_Rank3</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season3_Rank4</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season4_Rank1</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season4_Rank2</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season4_Rank3</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season4_Rank4</t>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season1_Rank5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season2_Rank5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season3_Rank5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropItemRule_First_Season4_Rank5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvatarFrame_Season1_1</t>
+  </si>
+  <si>
+    <t>AvatarFrame_Season1_2</t>
+  </si>
+  <si>
+    <t>AvatarFrame_Season1_3</t>
+  </si>
+  <si>
+    <t>AvatarFrame_Season1_4</t>
+  </si>
+  <si>
+    <t>AvatarFrame_Season1_5</t>
+  </si>
+  <si>
+    <t>AvatarFrame_Season2_1</t>
+  </si>
+  <si>
+    <t>AvatarFrame_Season2_2</t>
+  </si>
+  <si>
+    <t>AvatarFrame_Season2_3</t>
+  </si>
+  <si>
+    <t>AvatarFrame_Season2_4</t>
+  </si>
+  <si>
+    <t>AvatarFrame_Season2_5</t>
+  </si>
+  <si>
+    <t>AvatarFrame_Season3_1</t>
+  </si>
+  <si>
+    <t>AvatarFrame_Season3_2</t>
+  </si>
+  <si>
+    <t>AvatarFrame_Season3_3</t>
+  </si>
+  <si>
+    <t>AvatarFrame_Season3_4</t>
+  </si>
+  <si>
+    <t>AvatarFrame_Season3_5</t>
+  </si>
+  <si>
+    <t>AvatarFrame_Season4_1</t>
+  </si>
+  <si>
+    <t>AvatarFrame_Season4_2</t>
+  </si>
+  <si>
+    <t>AvatarFrame_Season4_3</t>
+  </si>
+  <si>
+    <t>AvatarFrame_Season4_4</t>
+  </si>
+  <si>
+    <t>AvatarFrame_Season4_5</t>
   </si>
 </sst>
 </file>
@@ -822,15 +950,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="J82" sqref="J82"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.875" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13.75" customWidth="1"/>
     <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
@@ -1076,7 +1204,7 @@
         <v>10000</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
@@ -1085,7 +1213,7 @@
         <v>33</v>
       </c>
       <c r="E17" s="10">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F17" s="10">
         <v>10000</v>
@@ -1105,7 +1233,7 @@
         <v>33</v>
       </c>
       <c r="E18" s="10">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F18" s="10">
         <v>10000</v>
@@ -1125,27 +1253,22 @@
         <v>33</v>
       </c>
       <c r="E19" s="10">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F19" s="10">
         <v>10000</v>
       </c>
-      <c r="G19" s="12" t="s">
-        <v>51</v>
+      <c r="G19" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
+      <c r="B20" s="9"/>
       <c r="D20" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E20" s="10">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F20" s="10">
         <v>10000</v>
@@ -1156,51 +1279,51 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="10">
+        <v>100</v>
+      </c>
+      <c r="F21" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="10">
-        <v>1</v>
-      </c>
-      <c r="F21" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G21" s="10" t="s">
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1</v>
+      </c>
+      <c r="F22" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="9"/>
-      <c r="D22" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="10">
-        <v>50</v>
-      </c>
-      <c r="F22" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
+      <c r="B23" s="9"/>
       <c r="D23" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="10">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="F23" s="10">
         <v>10000</v>
@@ -1211,7 +1334,7 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
         <v>22</v>
@@ -1220,7 +1343,7 @@
         <v>33</v>
       </c>
       <c r="E24" s="10">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F24" s="10">
         <v>10000</v>
@@ -1231,7 +1354,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="9" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
         <v>22</v>
@@ -1240,7 +1363,7 @@
         <v>33</v>
       </c>
       <c r="E25" s="10">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F25" s="10">
         <v>10000</v>
@@ -1251,7 +1374,7 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="9" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
         <v>22</v>
@@ -1260,7 +1383,7 @@
         <v>33</v>
       </c>
       <c r="E26" s="10">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F26" s="10">
         <v>10000</v>
@@ -1271,62 +1394,62 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="10">
+        <v>100</v>
+      </c>
+      <c r="F27" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="10">
-        <v>1</v>
-      </c>
-      <c r="F27" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G27" s="10" t="s">
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="10">
+        <v>1</v>
+      </c>
+      <c r="F28" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="9"/>
-      <c r="D28" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="10">
-        <v>100</v>
-      </c>
-      <c r="F28" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="10">
-        <v>1</v>
-      </c>
-      <c r="F30" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G30" s="12" t="s">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="9"/>
+      <c r="D29" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="10">
+        <v>400</v>
+      </c>
+      <c r="F29" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G29" s="12" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
         <v>22</v>
@@ -1335,7 +1458,7 @@
         <v>33</v>
       </c>
       <c r="E31" s="10">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F31" s="10">
         <v>10000</v>
@@ -1346,7 +1469,7 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
         <v>22</v>
@@ -1355,7 +1478,7 @@
         <v>33</v>
       </c>
       <c r="E32" s="10">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F32" s="10">
         <v>10000</v>
@@ -1366,7 +1489,7 @@
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
         <v>22</v>
@@ -1375,7 +1498,7 @@
         <v>33</v>
       </c>
       <c r="E33" s="10">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F33" s="10">
         <v>10000</v>
@@ -1386,7 +1509,7 @@
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
         <v>22</v>
@@ -1395,7 +1518,7 @@
         <v>33</v>
       </c>
       <c r="E34" s="10">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F34" s="10">
         <v>10000</v>
@@ -1406,7 +1529,7 @@
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
         <v>22</v>
@@ -1415,7 +1538,7 @@
         <v>33</v>
       </c>
       <c r="E35" s="10">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F35" s="10">
         <v>10000</v>
@@ -1426,7 +1549,7 @@
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
         <v>22</v>
@@ -1435,7 +1558,7 @@
         <v>33</v>
       </c>
       <c r="E36" s="10">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F36" s="10">
         <v>10000</v>
@@ -1446,7 +1569,7 @@
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
         <v>22</v>
@@ -1455,7 +1578,7 @@
         <v>33</v>
       </c>
       <c r="E37" s="10">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F37" s="10">
         <v>10000</v>
@@ -1466,7 +1589,7 @@
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
         <v>22</v>
@@ -1475,7 +1598,7 @@
         <v>33</v>
       </c>
       <c r="E38" s="10">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="F38" s="10">
         <v>10000</v>
@@ -1486,55 +1609,50 @@
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="10">
+        <v>30</v>
+      </c>
+      <c r="F39" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="10">
-        <v>10</v>
-      </c>
-      <c r="F39" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="K40" s="9" t="s">
-        <v>75</v>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="10">
+        <v>30</v>
+      </c>
+      <c r="F40" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41">
-        <v>500</v>
-      </c>
-      <c r="F41" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>76</v>
-      </c>
+      <c r="K41" s="9"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
         <v>22</v>
@@ -1543,7 +1661,7 @@
         <v>33</v>
       </c>
       <c r="E42">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F42" s="10">
         <v>10000</v>
@@ -1551,13 +1669,11 @@
       <c r="G42" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="K42" s="9" t="s">
-        <v>77</v>
-      </c>
+      <c r="K42" s="9"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
         <v>22</v>
@@ -1566,7 +1682,7 @@
         <v>33</v>
       </c>
       <c r="E43">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F43" s="10">
         <v>10000</v>
@@ -1574,13 +1690,11 @@
       <c r="G43" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="K43" s="9" t="s">
-        <v>78</v>
-      </c>
+      <c r="K43" s="9"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
         <v>22</v>
@@ -1589,7 +1703,7 @@
         <v>33</v>
       </c>
       <c r="E44">
-        <v>2100</v>
+        <v>1500</v>
       </c>
       <c r="F44" s="10">
         <v>10000</v>
@@ -1597,68 +1711,67 @@
       <c r="G44" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="K44" s="9" t="s">
-        <v>79</v>
-      </c>
+      <c r="K44" s="9"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45">
+        <v>2100</v>
+      </c>
+      <c r="F45" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K45" s="9"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B46" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C45" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45">
+      <c r="C46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46">
         <v>2600</v>
       </c>
-      <c r="F45" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="13"/>
-      <c r="D46" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" s="10">
-        <v>1</v>
-      </c>
       <c r="F46" s="10">
         <v>10000</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G46" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B47" s="13"/>
+      <c r="D47" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="10">
+        <v>1</v>
+      </c>
+      <c r="F47" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G47" s="10" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E47" s="10">
-        <v>30</v>
-      </c>
-      <c r="F47" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C48" t="s">
         <v>22</v>
@@ -1678,7 +1791,7 @@
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
         <v>22</v>
@@ -1698,7 +1811,7 @@
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s">
         <v>22</v>
@@ -1718,54 +1831,54 @@
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="10">
+        <v>30</v>
+      </c>
+      <c r="F51" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B52" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C51" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" s="10">
-        <v>30</v>
-      </c>
-      <c r="F51" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="13"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
+      <c r="C52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" s="10">
+        <v>30</v>
+      </c>
+      <c r="F52" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B53" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E53">
-        <v>500</v>
-      </c>
-      <c r="F53" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>51</v>
-      </c>
+      <c r="B53" s="13"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
         <v>22</v>
@@ -1774,7 +1887,7 @@
         <v>33</v>
       </c>
       <c r="E54">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F54" s="10">
         <v>10000</v>
@@ -1785,7 +1898,7 @@
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
         <v>22</v>
@@ -1794,7 +1907,7 @@
         <v>33</v>
       </c>
       <c r="E55">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F55" s="10">
         <v>10000</v>
@@ -1805,7 +1918,7 @@
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s">
         <v>22</v>
@@ -1814,7 +1927,7 @@
         <v>33</v>
       </c>
       <c r="E56">
-        <v>2100</v>
+        <v>1500</v>
       </c>
       <c r="F56" s="10">
         <v>10000</v>
@@ -1825,62 +1938,62 @@
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57">
+        <v>2100</v>
+      </c>
+      <c r="F57" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B58" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C57" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E57">
+      <c r="C58" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58">
         <v>2600</v>
       </c>
-      <c r="F57" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B58" s="13"/>
-      <c r="D58" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E58" s="10">
-        <v>1</v>
-      </c>
       <c r="F58" s="10">
         <v>10000</v>
       </c>
-      <c r="G58" s="10" t="s">
+      <c r="G58" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B59" s="13"/>
+      <c r="D59" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" s="10">
+        <v>1</v>
+      </c>
+      <c r="F59" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G59" s="10" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B59" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E59" s="10">
-        <v>30</v>
-      </c>
-      <c r="F59" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B60" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C60" t="s">
         <v>22</v>
@@ -1900,7 +2013,7 @@
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" t="s">
         <v>22</v>
@@ -1920,7 +2033,7 @@
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C62" t="s">
         <v>22</v>
@@ -1940,54 +2053,54 @@
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" s="10">
+        <v>30</v>
+      </c>
+      <c r="F63" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B64" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C63" t="s">
-        <v>22</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E63" s="10">
-        <v>30</v>
-      </c>
-      <c r="F63" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G63" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B64" s="13"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
+      <c r="C64" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" s="10">
+        <v>30</v>
+      </c>
+      <c r="F64" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B65" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E65">
-        <v>500</v>
-      </c>
-      <c r="F65" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G65" s="12" t="s">
-        <v>51</v>
-      </c>
+      <c r="B65" s="13"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B66" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C66" t="s">
         <v>22</v>
@@ -1996,7 +2109,7 @@
         <v>33</v>
       </c>
       <c r="E66">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F66" s="10">
         <v>10000</v>
@@ -2007,7 +2120,7 @@
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B67" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C67" t="s">
         <v>22</v>
@@ -2016,7 +2129,7 @@
         <v>33</v>
       </c>
       <c r="E67">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F67" s="10">
         <v>10000</v>
@@ -2027,7 +2140,7 @@
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B68" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C68" t="s">
         <v>22</v>
@@ -2036,7 +2149,7 @@
         <v>33</v>
       </c>
       <c r="E68">
-        <v>2100</v>
+        <v>1500</v>
       </c>
       <c r="F68" s="10">
         <v>10000</v>
@@ -2047,62 +2160,62 @@
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B69" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E69">
+        <v>2100</v>
+      </c>
+      <c r="F69" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B70" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E69">
+      <c r="C70" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70">
         <v>2600</v>
       </c>
-      <c r="F69" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G69" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B70" s="13"/>
-      <c r="D70" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E70" s="10">
-        <v>1</v>
-      </c>
       <c r="F70" s="10">
         <v>10000</v>
       </c>
-      <c r="G70" s="10" t="s">
+      <c r="G70" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B71" s="13"/>
+      <c r="D71" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71" s="10">
+        <v>1</v>
+      </c>
+      <c r="F71" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G71" s="10" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B71" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C71" t="s">
-        <v>22</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E71" s="10">
-        <v>30</v>
-      </c>
-      <c r="F71" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B72" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C72" t="s">
         <v>22</v>
@@ -2122,7 +2235,7 @@
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B73" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C73" t="s">
         <v>22</v>
@@ -2142,7 +2255,7 @@
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B74" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C74" t="s">
         <v>22</v>
@@ -2162,54 +2275,54 @@
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B75" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E75" s="10">
+        <v>30</v>
+      </c>
+      <c r="F75" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B76" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C75" t="s">
-        <v>22</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E75" s="10">
-        <v>30</v>
-      </c>
-      <c r="F75" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G75" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B76" s="13"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
+      <c r="C76" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" s="10">
+        <v>30</v>
+      </c>
+      <c r="F76" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B77" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C77" t="s">
-        <v>22</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E77">
-        <v>500</v>
-      </c>
-      <c r="F77" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G77" s="12" t="s">
-        <v>51</v>
-      </c>
+      <c r="B77" s="13"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B78" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C78" t="s">
         <v>22</v>
@@ -2218,7 +2331,7 @@
         <v>33</v>
       </c>
       <c r="E78">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F78" s="10">
         <v>10000</v>
@@ -2229,7 +2342,7 @@
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B79" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C79" t="s">
         <v>22</v>
@@ -2238,7 +2351,7 @@
         <v>33</v>
       </c>
       <c r="E79">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F79" s="10">
         <v>10000</v>
@@ -2249,7 +2362,7 @@
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B80" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C80" t="s">
         <v>22</v>
@@ -2258,7 +2371,7 @@
         <v>33</v>
       </c>
       <c r="E80">
-        <v>2100</v>
+        <v>1500</v>
       </c>
       <c r="F80" s="10">
         <v>10000</v>
@@ -2269,62 +2382,62 @@
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B81" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C81" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E81">
+        <v>2100</v>
+      </c>
+      <c r="F81" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B82" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C81" t="s">
-        <v>22</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E81">
+      <c r="C82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E82">
         <v>2600</v>
       </c>
-      <c r="F81" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G81" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B82" s="13"/>
-      <c r="D82" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E82" s="10">
-        <v>1</v>
-      </c>
       <c r="F82" s="10">
         <v>10000</v>
       </c>
-      <c r="G82" s="10" t="s">
+      <c r="G82" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B83" s="13"/>
+      <c r="D83" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E83" s="10">
+        <v>1</v>
+      </c>
+      <c r="F83" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G83" s="10" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B83" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C83" t="s">
-        <v>22</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E83" s="10">
-        <v>30</v>
-      </c>
-      <c r="F83" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G83" s="12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B84" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C84" t="s">
         <v>22</v>
@@ -2344,7 +2457,7 @@
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B85" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C85" t="s">
         <v>22</v>
@@ -2364,7 +2477,7 @@
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B86" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C86" t="s">
         <v>22</v>
@@ -2384,25 +2497,448 @@
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B87" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E87" s="10">
+        <v>30</v>
+      </c>
+      <c r="F87" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B88" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C87" t="s">
-        <v>22</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E87" s="10">
-        <v>30</v>
-      </c>
-      <c r="F87" s="10">
-        <v>10000</v>
-      </c>
-      <c r="G87" s="12" t="s">
-        <v>51</v>
+      <c r="C88" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E88" s="10">
+        <v>30</v>
+      </c>
+      <c r="F88" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90" t="s">
+        <v>22</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G90" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>101</v>
+      </c>
+      <c r="C91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>102</v>
+      </c>
+      <c r="C92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>103</v>
+      </c>
+      <c r="C93" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G93" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C94" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G94" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" t="s">
+        <v>22</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G96" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>105</v>
+      </c>
+      <c r="C97" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G97" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G98" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>107</v>
+      </c>
+      <c r="C99" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>117</v>
+      </c>
+      <c r="C100" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>108</v>
+      </c>
+      <c r="C102" t="s">
+        <v>22</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G102" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>109</v>
+      </c>
+      <c r="C103" t="s">
+        <v>22</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G103" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>110</v>
+      </c>
+      <c r="C104" t="s">
+        <v>22</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>111</v>
+      </c>
+      <c r="C105" t="s">
+        <v>22</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G105" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>118</v>
+      </c>
+      <c r="C106" t="s">
+        <v>22</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G106" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G108" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" t="s">
+        <v>22</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G109" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>114</v>
+      </c>
+      <c r="C110" t="s">
+        <v>22</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G110" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" t="s">
+        <v>22</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G111" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>119</v>
+      </c>
+      <c r="C112" t="s">
+        <v>22</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G112" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F119:F141">
+    <sortCondition descending="1" ref="F119:F141"/>
+  </sortState>
   <mergeCells count="3">
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="E2:G2"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/DropRuleConfig/DropRuleCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/DropRuleConfig/DropRuleCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\DropRuleConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FAE267-9B5F-43A8-9B54-C975C28ECBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF4C235-E038-4119-9236-E080AC6E4F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rule" sheetId="1" r:id="rId1"/>
@@ -1715,7 +1715,7 @@
             <v>龙击炮</v>
           </cell>
           <cell r="BC2">
-            <v>50</v>
+            <v>100</v>
           </cell>
           <cell r="BD2">
             <v>30</v>
@@ -3645,7 +3645,7 @@
   <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="E7">
         <f>IF(VLOOKUP(H7&amp;"_"&amp;I7,[1]挑战模式!$AV:$BG,9-J7,FALSE)="","",IF(ISNUMBER(VLOOKUP(H7&amp;"_"&amp;I7,[1]挑战模式!$AV:$BG,9-J7,FALSE)),VLOOKUP(H7&amp;"_"&amp;I7,[1]挑战模式!$AV:$BG,9-J7,FALSE),1))</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F7">
         <f>IF(E7="","",10000)</f>

--- a/Unity/Assets/Config/Excel/AbilityConfig/DropRuleConfig/DropRuleCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/DropRuleConfig/DropRuleCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\DropRuleConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF4C235-E038-4119-9236-E080AC6E4F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90830A7D-28A5-4AD9-95D2-AF48896E3C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -497,6 +497,7 @@
     <sheetNames>
       <sheetName val="防御塔"/>
       <sheetName val="怪物"/>
+      <sheetName val="技能"/>
       <sheetName val="无限模式"/>
       <sheetName val="挑战模式"/>
       <sheetName val="引导"/>
@@ -586,16 +587,16 @@
             <v>100</v>
           </cell>
           <cell r="F2" t="str">
-            <v>快速单体，能应对各种情况</v>
+            <v>快速单体，2级连发，3级暴击</v>
           </cell>
           <cell r="G2">
             <v>50</v>
           </cell>
           <cell r="H2">
-            <v>180</v>
+            <v>90</v>
           </cell>
           <cell r="I2">
-            <v>648</v>
+            <v>324</v>
           </cell>
           <cell r="J2">
             <v>0.5</v>
@@ -607,12 +608,15 @@
             <v>9</v>
           </cell>
           <cell r="M2" t="str">
-            <v>3级暴击率/爆伤</v>
+            <v>3级暴击率/爆伤/23级连发数</v>
           </cell>
           <cell r="N2">
             <v>0.15</v>
           </cell>
           <cell r="O2">
+            <v>2</v>
+          </cell>
+          <cell r="P2">
             <v>2</v>
           </cell>
           <cell r="R2">
@@ -645,25 +649,31 @@
             <v>100</v>
           </cell>
           <cell r="F3" t="str">
-            <v>快速群体，能应对各种情况</v>
+            <v>快速群体，2级3次高爆弹，3级全高爆弹</v>
           </cell>
           <cell r="G3">
-            <v>17</v>
+            <v>25</v>
           </cell>
           <cell r="H3">
-            <v>61</v>
+            <v>54</v>
           </cell>
           <cell r="I3">
-            <v>220</v>
+            <v>324</v>
           </cell>
           <cell r="J3">
             <v>0.5</v>
           </cell>
           <cell r="K3">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="L3">
             <v>9</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>2级高爆倍率</v>
+          </cell>
+          <cell r="N3">
+            <v>3</v>
           </cell>
           <cell r="R3">
             <v>1</v>
@@ -695,7 +705,7 @@
             <v>560</v>
           </cell>
           <cell r="F4" t="str">
-            <v>直线群体，高级后可灼烧</v>
+            <v>直线点燃，2级扇形，3级永久点燃</v>
           </cell>
           <cell r="G4">
             <v>17</v>
@@ -710,7 +720,7 @@
             <v>0.3</v>
           </cell>
           <cell r="K4">
-            <v>5</v>
+            <v>7</v>
           </cell>
           <cell r="L4">
             <v>9</v>
@@ -719,7 +729,7 @@
             <v>3级灼烧总伤害/总时间/间隔/输出补正</v>
           </cell>
           <cell r="N4">
-            <v>0.5</v>
+            <v>0.3</v>
           </cell>
           <cell r="O4">
             <v>10</v>
@@ -728,7 +738,7 @@
             <v>0.3</v>
           </cell>
           <cell r="Q4">
-            <v>0.5</v>
+            <v>0.7</v>
           </cell>
           <cell r="R4">
             <v>1</v>
@@ -760,16 +770,16 @@
             <v>240</v>
           </cell>
           <cell r="F5" t="str">
-            <v>圆形群体</v>
+            <v>圆形群体，2级冰雾减速，3级破甲</v>
           </cell>
           <cell r="G5">
             <v>7</v>
           </cell>
           <cell r="H5">
-            <v>25</v>
+            <v>22</v>
           </cell>
           <cell r="I5">
-            <v>90</v>
+            <v>72</v>
           </cell>
           <cell r="J5">
             <v>0.3</v>
@@ -781,10 +791,16 @@
             <v>9</v>
           </cell>
           <cell r="M5" t="str">
-            <v>远处增伤率</v>
+            <v>远处增伤率/2级减速率/3级减甲价率</v>
           </cell>
           <cell r="N5">
             <v>0.06</v>
+          </cell>
+          <cell r="O5">
+            <v>0.1</v>
+          </cell>
+          <cell r="P5">
+            <v>0.2</v>
           </cell>
           <cell r="R5">
             <v>1</v>
@@ -816,19 +832,19 @@
             <v>240</v>
           </cell>
           <cell r="F6" t="str">
-            <v>慢速单体，单发伤害高</v>
+            <v>慢速单体，2级2连发，3级3连发</v>
           </cell>
           <cell r="G6">
-            <v>480</v>
+            <v>600</v>
           </cell>
           <cell r="H6">
-            <v>1728</v>
+            <v>1080</v>
           </cell>
           <cell r="I6">
-            <v>3110</v>
+            <v>2592</v>
           </cell>
           <cell r="J6">
-            <v>2</v>
+            <v>2.5</v>
           </cell>
           <cell r="K6">
             <v>1</v>
@@ -837,10 +853,13 @@
             <v>9</v>
           </cell>
           <cell r="M6" t="str">
-            <v>3级目标</v>
+            <v>2级目标/3级目标</v>
           </cell>
           <cell r="N6">
             <v>2</v>
+          </cell>
+          <cell r="O6">
+            <v>3</v>
           </cell>
           <cell r="R6">
             <v>1</v>
@@ -872,7 +891,7 @@
             <v>560</v>
           </cell>
           <cell r="F7" t="str">
-            <v>高处加成，单体</v>
+            <v>高处加成，2级3次眩晕，3级2连</v>
           </cell>
           <cell r="G7">
             <v>373</v>
@@ -893,7 +912,7 @@
             <v>7.5</v>
           </cell>
           <cell r="M7" t="str">
-            <v>低处增伤率，3级目标，加成高度</v>
+            <v>低处增伤率，3级目标，加成高度，眩晕时间</v>
           </cell>
           <cell r="N7">
             <v>0.1</v>
@@ -925,25 +944,25 @@
             <v>1</v>
           </cell>
           <cell r="C8">
-            <v>1</v>
+            <v>0.8</v>
           </cell>
           <cell r="D8">
             <v>100</v>
           </cell>
           <cell r="E8">
-            <v>100</v>
+            <v>80</v>
           </cell>
           <cell r="F8" t="str">
-            <v>减速</v>
+            <v>减速，2级2目标，3级3目标</v>
           </cell>
           <cell r="G8">
-            <v>33</v>
+            <v>27</v>
           </cell>
           <cell r="H8">
-            <v>118</v>
+            <v>48</v>
           </cell>
           <cell r="I8">
-            <v>427</v>
+            <v>116</v>
           </cell>
           <cell r="J8">
             <v>1</v>
@@ -1058,7 +1077,7 @@
             <v>100</v>
           </cell>
           <cell r="F10" t="str">
-            <v>加速友军</v>
+            <v>加速友军，2级加攻击，3级大范围</v>
           </cell>
           <cell r="G10">
             <v>0</v>
@@ -1079,16 +1098,19 @@
             <v>7.5</v>
           </cell>
           <cell r="M10" t="str">
-            <v>CD减少lv1/2/3</v>
+            <v>CD减少lv1/2/3/23级加攻击</v>
           </cell>
           <cell r="N10">
             <v>0.3</v>
           </cell>
           <cell r="O10">
+            <v>0.4</v>
+          </cell>
+          <cell r="P10">
             <v>0.5</v>
           </cell>
-          <cell r="P10">
-            <v>0.6</v>
+          <cell r="Q10">
+            <v>0.2</v>
           </cell>
           <cell r="R10">
             <v>1</v>
@@ -1120,19 +1142,19 @@
             <v>240</v>
           </cell>
           <cell r="F11" t="str">
-            <v>单体，让敌人中毒</v>
+            <v>单体中毒，2级2目标，3级3目标</v>
           </cell>
           <cell r="G11">
-            <v>120</v>
+            <v>300</v>
           </cell>
           <cell r="H11">
-            <v>432</v>
+            <v>540</v>
           </cell>
           <cell r="I11">
-            <v>1555</v>
+            <v>1296</v>
           </cell>
           <cell r="J11">
-            <v>1</v>
+            <v>2.5</v>
           </cell>
           <cell r="K11">
             <v>1</v>
@@ -1185,7 +1207,7 @@
             <v>70</v>
           </cell>
           <cell r="F12" t="str">
-            <v>消耗型，用完造成一次高额伤害</v>
+            <v>造成一次高额伤害，2级减速，3级眩晕，</v>
           </cell>
           <cell r="G12">
             <v>2000</v>
@@ -1206,13 +1228,16 @@
             <v>7.5</v>
           </cell>
           <cell r="M12" t="str">
-            <v>伤害/眩晕</v>
+            <v>伤害/眩晕/2级减速率</v>
           </cell>
           <cell r="N12">
             <v>2000</v>
           </cell>
           <cell r="O12">
             <v>3</v>
+          </cell>
+          <cell r="P12">
+            <v>0.5</v>
           </cell>
           <cell r="R12">
             <v>1</v>
@@ -1235,25 +1260,25 @@
             <v>1</v>
           </cell>
           <cell r="C13">
-            <v>1</v>
+            <v>0.8</v>
           </cell>
           <cell r="D13">
             <v>100</v>
           </cell>
           <cell r="E13">
-            <v>100</v>
+            <v>80</v>
           </cell>
           <cell r="F13" t="str">
-            <v>攻击偷金币</v>
+            <v>攻击偷金币，2级远距离，3级偷2此</v>
           </cell>
           <cell r="G13">
-            <v>50</v>
+            <v>40</v>
           </cell>
           <cell r="H13">
-            <v>180</v>
+            <v>144</v>
           </cell>
           <cell r="I13">
-            <v>648</v>
+            <v>518</v>
           </cell>
           <cell r="J13">
             <v>1</v>
@@ -1274,7 +1299,7 @@
             <v>4</v>
           </cell>
           <cell r="P13">
-            <v>15</v>
+            <v>8</v>
           </cell>
           <cell r="Q13">
             <v>0.5</v>
@@ -1309,19 +1334,19 @@
             <v>240</v>
           </cell>
           <cell r="F14" t="str">
-            <v>抛物线群体，打远处伤害高</v>
+            <v>抛物线群体，2级大范围 ，3级2连发</v>
           </cell>
           <cell r="G14">
-            <v>104</v>
+            <v>130</v>
           </cell>
           <cell r="H14">
-            <v>374</v>
+            <v>468</v>
           </cell>
           <cell r="I14">
-            <v>1347</v>
+            <v>842</v>
           </cell>
           <cell r="J14">
-            <v>2</v>
+            <v>2.5</v>
           </cell>
           <cell r="K14">
             <v>3</v>
@@ -1330,10 +1355,13 @@
             <v>9</v>
           </cell>
           <cell r="M14" t="str">
-            <v>远处增伤率lv1/2/3</v>
+            <v>远处增伤率lv1/2/3/3级目标数</v>
           </cell>
           <cell r="N14">
             <v>0.06</v>
+          </cell>
+          <cell r="O14">
+            <v>2</v>
           </cell>
           <cell r="R14">
             <v>1</v>
@@ -1365,19 +1393,19 @@
             <v>560</v>
           </cell>
           <cell r="F15" t="str">
-            <v>扇形群体，可击退敌人</v>
+            <v>扇形击退，2级远距离，3级眩晕</v>
           </cell>
           <cell r="G15">
-            <v>373</v>
+            <v>467</v>
           </cell>
           <cell r="H15">
-            <v>1342</v>
+            <v>1681</v>
           </cell>
           <cell r="I15">
-            <v>4834</v>
+            <v>6052</v>
           </cell>
           <cell r="J15">
-            <v>2</v>
+            <v>2.5</v>
           </cell>
           <cell r="K15">
             <v>3</v>
@@ -1424,19 +1452,19 @@
             <v>240</v>
           </cell>
           <cell r="F16" t="str">
-            <v>直线群体，子弹可穿透</v>
+            <v>直线穿透，2级加粗，3级超长</v>
           </cell>
           <cell r="G16">
-            <v>160</v>
+            <v>200</v>
           </cell>
           <cell r="H16">
-            <v>576</v>
+            <v>720</v>
           </cell>
           <cell r="I16">
-            <v>2073</v>
+            <v>2592</v>
           </cell>
           <cell r="J16">
-            <v>2</v>
+            <v>2.5</v>
           </cell>
           <cell r="K16">
             <v>3</v>
@@ -1480,34 +1508,37 @@
             <v>560</v>
           </cell>
           <cell r="F17" t="str">
-            <v>同时发射多弹道，可单可群</v>
+            <v>同时发射多弹道，2级加量，3级加范围</v>
           </cell>
           <cell r="G17">
-            <v>187</v>
+            <v>467</v>
           </cell>
           <cell r="H17">
-            <v>673</v>
+            <v>630</v>
           </cell>
           <cell r="I17">
-            <v>1615</v>
+            <v>2269</v>
           </cell>
           <cell r="J17">
-            <v>2</v>
+            <v>2.5</v>
           </cell>
           <cell r="K17">
             <v>1</v>
           </cell>
           <cell r="L17">
-            <v>9</v>
+            <v>7.5</v>
           </cell>
           <cell r="M17" t="str">
-            <v>1、2级弹药/3级弹药</v>
+            <v>1级弹药/2级弹药/3级弹药</v>
           </cell>
           <cell r="N17">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="O17">
-            <v>9</v>
+            <v>8</v>
+          </cell>
+          <cell r="P17">
+            <v>8</v>
           </cell>
           <cell r="R17">
             <v>1</v>
@@ -1522,1184 +1553,1469 @@
             <v>Tow9_1</v>
           </cell>
         </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>破甲弹</v>
+          </cell>
+          <cell r="U19" t="str">
+            <v>PlayerSkill_BreakArmor</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>冰霜漩涡</v>
+          </cell>
+          <cell r="U20" t="str">
+            <v>PlayerSkill_IceBind</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>时空结界</v>
+          </cell>
+          <cell r="U21" t="str">
+            <v>PlayerSkill_TimeBarrier</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>净化药水</v>
+          </cell>
+          <cell r="U22" t="str">
+            <v>PlayerSkill_PurifyWater</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>强化子弹</v>
+          </cell>
+          <cell r="U23" t="str">
+            <v>PlayerSkill_Enhance</v>
+          </cell>
+        </row>
         <row r="24">
-          <cell r="D24" t="str">
-            <v>弩箭塔</v>
-          </cell>
-          <cell r="E24" t="str">
-            <v>快速单体，能应对各种情况</v>
+          <cell r="A24" t="str">
+            <v>雷电领域</v>
+          </cell>
+          <cell r="U24" t="str">
+            <v>PlayerSkill_Silence</v>
           </cell>
         </row>
         <row r="25">
-          <cell r="D25" t="str">
-            <v>加农炮</v>
-          </cell>
-          <cell r="E25" t="str">
-            <v>快速群体，能应对各种情况</v>
+          <cell r="A25" t="str">
+            <v>哥布林召唤</v>
+          </cell>
+          <cell r="U25" t="str">
+            <v>PlayerSkill_GoblinSummon</v>
           </cell>
         </row>
         <row r="26">
-          <cell r="D26" t="str">
-            <v>火焰塔</v>
-          </cell>
-          <cell r="E26" t="str">
-            <v>直线群体，高级后可灼烧</v>
+          <cell r="A26" t="str">
+            <v>地狱烈焰</v>
+          </cell>
+          <cell r="U26" t="str">
+            <v>PlayerSkill_Hellfire</v>
           </cell>
         </row>
         <row r="27">
-          <cell r="D27" t="str">
-            <v>毒雾塔</v>
-          </cell>
-          <cell r="E27" t="str">
-            <v>圆形群体</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="D28" t="str">
-            <v>龙击炮</v>
-          </cell>
-          <cell r="E28" t="str">
-            <v>慢速单体，单发伤害高</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="D29" t="str">
-            <v>雷电塔</v>
-          </cell>
-          <cell r="E29" t="str">
-            <v>高处加成，单体</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="D30" t="str">
-            <v>冰魔塔</v>
-          </cell>
-          <cell r="E30" t="str">
-            <v>减速</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="D31" t="str">
-            <v>炼金塔</v>
-          </cell>
-          <cell r="E31" t="str">
-            <v>生产金币</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="D32" t="str">
-            <v>加速塔</v>
-          </cell>
-          <cell r="E32" t="str">
-            <v>加速友军</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="D33" t="str">
-            <v>毒蝎塔</v>
-          </cell>
-          <cell r="E33" t="str">
-            <v>单体，让敌人中毒</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="D34" t="str">
-            <v>炸弹</v>
-          </cell>
-          <cell r="E34" t="str">
-            <v>消耗型，用完造成一次高额伤害</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="D35" t="str">
-            <v>哥布林</v>
-          </cell>
-          <cell r="E35" t="str">
-            <v>攻击偷金币</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="D36" t="str">
-            <v>火箭塔</v>
-          </cell>
-          <cell r="E36" t="str">
-            <v>抛物线群体，打远处伤害高</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="D37" t="str">
-            <v>魔像</v>
-          </cell>
-          <cell r="E37" t="str">
-            <v>扇形群体，可击退敌人</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="D38" t="str">
-            <v>水晶</v>
-          </cell>
-          <cell r="E38" t="str">
-            <v>直线群体，子弹可穿透</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="D39" t="str">
-            <v>奥术天球</v>
-          </cell>
-          <cell r="E39" t="str">
-            <v>同时发射多弹道，可单可群</v>
+          <cell r="A27" t="str">
+            <v>黑洞</v>
+          </cell>
+          <cell r="U27" t="str">
+            <v>PlayerSkill_Blackhole</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
         <row r="1">
-          <cell r="AV1" t="str">
+          <cell r="BH1" t="str">
             <v>索引</v>
           </cell>
-          <cell r="AW1" t="str">
+          <cell r="BI1" t="str">
             <v>赛季</v>
           </cell>
-          <cell r="AX1" t="str">
+          <cell r="BJ1" t="str">
             <v>关卡</v>
           </cell>
-          <cell r="AY1" t="str">
-            <v>特殊怪</v>
-          </cell>
-          <cell r="AZ1" t="str">
+          <cell r="BK1" t="str">
+            <v>技巧</v>
+          </cell>
+          <cell r="BL1" t="str">
             <v>怪物</v>
           </cell>
-          <cell r="BA1" t="str">
+          <cell r="BM1" t="str">
             <v>新内容/技巧</v>
           </cell>
-          <cell r="BB1" t="str">
+          <cell r="BN1" t="str">
             <v>奖励塔</v>
           </cell>
-          <cell r="BC1" t="str">
+          <cell r="BO1" t="str">
             <v>首次奖励钻石</v>
           </cell>
-          <cell r="BD1" t="str">
+          <cell r="BP1" t="str">
             <v>重复奖励钻石</v>
           </cell>
-          <cell r="BE1" t="str">
+          <cell r="BQ1" t="str">
             <v>展示怪物1</v>
           </cell>
-          <cell r="BF1" t="str">
+          <cell r="BR1" t="str">
             <v>展示怪物2</v>
           </cell>
-          <cell r="BG1" t="str">
+          <cell r="BS1" t="str">
             <v>展示怪物3</v>
           </cell>
         </row>
         <row r="2">
-          <cell r="AV2" t="str">
+          <cell r="BH2" t="str">
             <v>0_1</v>
           </cell>
-          <cell r="AW2">
+          <cell r="BI2">
             <v>0</v>
           </cell>
-          <cell r="AX2">
+          <cell r="BJ2">
             <v>1</v>
           </cell>
-          <cell r="AY2" t="str">
-            <v>肉</v>
-          </cell>
-          <cell r="AZ2" t="str">
-            <v>蜜蜂1、蜜蜂2</v>
-          </cell>
-          <cell r="BA2" t="str">
+          <cell r="BK2" t="str">
+            <v>放塔</v>
+          </cell>
+          <cell r="BL2" t="str">
+            <v xml:space="preserve">蜜蜂1                  </v>
+          </cell>
+          <cell r="BM2" t="str">
             <v>弩箭塔、加农炮、冰魔塔</v>
           </cell>
-          <cell r="BB2" t="str">
-            <v>龙击炮</v>
-          </cell>
-          <cell r="BC2">
+          <cell r="BN2" t="str">
+            <v>毒雾塔</v>
+          </cell>
+          <cell r="BO2">
             <v>100</v>
           </cell>
-          <cell r="BD2">
+          <cell r="BP2">
             <v>30</v>
           </cell>
-          <cell r="BE2" t="str">
+          <cell r="BQ2" t="str">
             <v>蜜蜂1</v>
-          </cell>
-          <cell r="BF2" t="str">
-            <v>蜜蜂2</v>
           </cell>
         </row>
         <row r="3">
-          <cell r="AV3" t="str">
+          <cell r="BH3" t="str">
             <v>0_2</v>
           </cell>
-          <cell r="AW3">
+          <cell r="BI3">
             <v>0</v>
           </cell>
-          <cell r="AX3">
+          <cell r="BJ3">
             <v>2</v>
           </cell>
-          <cell r="AY3" t="str">
-            <v>快速</v>
-          </cell>
-          <cell r="AZ3" t="str">
-            <v>蜜蜂1、蜜蜂2、蜘蛛1</v>
-          </cell>
-          <cell r="BA3" t="str">
-            <v>龙击炮</v>
-          </cell>
-          <cell r="BB3" t="str">
-            <v>雷电塔</v>
-          </cell>
-          <cell r="BC3">
+          <cell r="BK3" t="str">
+            <v>技能</v>
+          </cell>
+          <cell r="BL3" t="str">
+            <v xml:space="preserve">蜜蜂1   鬼1               </v>
+          </cell>
+          <cell r="BN3" t="str">
+            <v>加速塔</v>
+          </cell>
+          <cell r="BO3">
             <v>80</v>
           </cell>
-          <cell r="BD3">
+          <cell r="BP3">
             <v>30</v>
           </cell>
-          <cell r="BE3" t="str">
-            <v>蜜蜂2</v>
-          </cell>
-          <cell r="BF3" t="str">
-            <v>蜘蛛1</v>
+          <cell r="BQ3" t="str">
+            <v>蜜蜂1</v>
+          </cell>
+          <cell r="BR3" t="str">
+            <v>鬼1</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="AV4" t="str">
+          <cell r="BH4" t="str">
             <v>0_3</v>
           </cell>
-          <cell r="AW4">
+          <cell r="BI4">
             <v>0</v>
           </cell>
-          <cell r="AX4">
+          <cell r="BJ4">
             <v>3</v>
           </cell>
-          <cell r="AY4" t="str">
-            <v>隐身</v>
-          </cell>
-          <cell r="AZ4" t="str">
-            <v>蜜蜂1、蜜蜂2、蜘蛛1、鬼1</v>
-          </cell>
-          <cell r="BA4" t="str">
+          <cell r="BK4" t="str">
+            <v>升级</v>
+          </cell>
+          <cell r="BL4" t="str">
+            <v xml:space="preserve">蜜蜂1   鬼1   种子1   蝙蝠1         </v>
+          </cell>
+          <cell r="BM4" t="str">
             <v>雷电塔</v>
           </cell>
-          <cell r="BB4" t="str">
-            <v>加速塔</v>
-          </cell>
-          <cell r="BC4">
+          <cell r="BN4" t="str">
+            <v>龙击炮</v>
+          </cell>
+          <cell r="BO4">
             <v>110</v>
           </cell>
-          <cell r="BD4">
+          <cell r="BP4">
             <v>30</v>
           </cell>
-          <cell r="BE4" t="str">
-            <v>蜘蛛1</v>
-          </cell>
-          <cell r="BF4" t="str">
+          <cell r="BQ4" t="str">
             <v>鬼1</v>
+          </cell>
+          <cell r="BR4" t="str">
+            <v>种子1</v>
+          </cell>
+          <cell r="BS4" t="str">
+            <v>蝙蝠1</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="AV5" t="str">
+          <cell r="BH5" t="str">
             <v>0_4</v>
           </cell>
-          <cell r="AW5">
+          <cell r="BI5">
             <v>0</v>
           </cell>
-          <cell r="AX5">
+          <cell r="BJ5">
             <v>4</v>
           </cell>
-          <cell r="AY5" t="str">
-            <v>治疗</v>
-          </cell>
-          <cell r="AZ5" t="str">
-            <v>蜜蜂1、蜜蜂2、蜘蛛1、鬼1、种子1</v>
-          </cell>
-          <cell r="BA5" t="str">
-            <v>加速塔</v>
-          </cell>
-          <cell r="BB5" t="str">
-            <v>哥布林</v>
-          </cell>
-          <cell r="BC5">
+          <cell r="BK5" t="str">
+            <v>拖动</v>
+          </cell>
+          <cell r="BL5" t="str">
+            <v xml:space="preserve">鬼1   种子1   蝙蝠1   蜘蛛1         </v>
+          </cell>
+          <cell r="BO5">
             <v>150</v>
           </cell>
-          <cell r="BD5">
+          <cell r="BP5">
             <v>30</v>
           </cell>
-          <cell r="BE5" t="str">
+          <cell r="BQ5" t="str">
+            <v>种子1</v>
+          </cell>
+          <cell r="BR5" t="str">
+            <v>蝙蝠1</v>
+          </cell>
+          <cell r="BS5" t="str">
             <v>蜘蛛1</v>
-          </cell>
-          <cell r="BF5" t="str">
-            <v>鬼1</v>
-          </cell>
-          <cell r="BG5" t="str">
-            <v>种子1</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="AV6" t="str">
+          <cell r="BH6" t="str">
             <v>0_5</v>
           </cell>
-          <cell r="AW6">
+          <cell r="BI6">
             <v>0</v>
           </cell>
-          <cell r="AX6">
+          <cell r="BJ6">
             <v>5</v>
           </cell>
-          <cell r="AY6" t="str">
-            <v>Boss-召唤蜜蜂</v>
-          </cell>
-          <cell r="AZ6" t="str">
-            <v>蜜蜂1、蜜蜂2、蜘蛛1、鬼1、种子1、蜜蜂3</v>
-          </cell>
-          <cell r="BA6" t="str">
+          <cell r="BK6" t="str">
+            <v>回收</v>
+          </cell>
+          <cell r="BL6" t="str">
+            <v xml:space="preserve">种子1   蝙蝠1   蜘蛛1   蛋1         </v>
+          </cell>
+          <cell r="BM6" t="str">
             <v>哥布林</v>
           </cell>
-          <cell r="BB6" t="str">
-            <v>火焰塔</v>
-          </cell>
-          <cell r="BC6">
+          <cell r="BO6">
             <v>200</v>
           </cell>
-          <cell r="BD6">
+          <cell r="BP6">
             <v>30</v>
           </cell>
-          <cell r="BE6" t="str">
-            <v>鬼1</v>
-          </cell>
-          <cell r="BF6" t="str">
-            <v>种子1</v>
-          </cell>
-          <cell r="BG6" t="str">
-            <v>蜜蜂3</v>
+          <cell r="BQ6" t="str">
+            <v>蝙蝠1</v>
+          </cell>
+          <cell r="BR6" t="str">
+            <v>蜘蛛1</v>
+          </cell>
+          <cell r="BS6" t="str">
+            <v>蛋1</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="AV7" t="str">
+          <cell r="BH7" t="str">
             <v>0_6</v>
           </cell>
-          <cell r="AW7">
+          <cell r="BI7">
             <v>0</v>
           </cell>
-          <cell r="AX7">
+          <cell r="BJ7">
             <v>6</v>
           </cell>
-          <cell r="AY7" t="str">
-            <v>死亡弱化</v>
-          </cell>
-          <cell r="AZ7" t="str">
-            <v>蝙蝠1、蛋1</v>
-          </cell>
-          <cell r="BA7" t="str">
+          <cell r="BK7" t="str">
+            <v>精准击杀</v>
+          </cell>
+          <cell r="BL7" t="str">
+            <v>种子1   蝙蝠1   蜘蛛1   蛋1      蜜蜂2   蜜蜂3</v>
+          </cell>
+          <cell r="BM7" t="str">
             <v>火焰塔</v>
           </cell>
-          <cell r="BB7" t="str">
-            <v>炸弹</v>
-          </cell>
-          <cell r="BC7">
+          <cell r="BN7" t="str">
+            <v>冰霜漩涡</v>
+          </cell>
+          <cell r="BO7">
             <v>260</v>
           </cell>
-          <cell r="BD7">
+          <cell r="BP7">
             <v>30</v>
           </cell>
-          <cell r="BE7" t="str">
-            <v>蝙蝠1</v>
-          </cell>
-          <cell r="BF7" t="str">
+          <cell r="BQ7" t="str">
             <v>蛋1</v>
+          </cell>
+          <cell r="BR7" t="str">
+            <v>蜜蜂2</v>
+          </cell>
+          <cell r="BS7" t="str">
+            <v>蜜蜂3</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="AV8" t="str">
+          <cell r="BH8" t="str">
             <v>0_7</v>
           </cell>
-          <cell r="AW8">
+          <cell r="BI8">
             <v>0</v>
           </cell>
-          <cell r="AX8">
+          <cell r="BJ8">
             <v>7</v>
           </cell>
-          <cell r="AY8" t="str">
-            <v>持续弱化</v>
-          </cell>
-          <cell r="AZ8" t="str">
-            <v>蝙蝠1、蛋1、蛋2</v>
-          </cell>
-          <cell r="BA8" t="str">
+          <cell r="BK8" t="str">
+            <v>新玩法</v>
+          </cell>
+          <cell r="BL8" t="str">
+            <v xml:space="preserve">蜘蛛1   蛋1   蜜蜂2   火精灵1         </v>
+          </cell>
+          <cell r="BM8" t="str">
             <v>炸弹</v>
           </cell>
-          <cell r="BB8" t="str">
-            <v>毒雾塔</v>
-          </cell>
-          <cell r="BC8">
+          <cell r="BO8">
             <v>330</v>
           </cell>
-          <cell r="BD8">
+          <cell r="BP8">
             <v>30</v>
           </cell>
-          <cell r="BE8" t="str">
-            <v>蝙蝠1</v>
-          </cell>
-          <cell r="BF8" t="str">
-            <v>蛋2</v>
+          <cell r="BQ8" t="str">
+            <v>蛋1</v>
+          </cell>
+          <cell r="BR8" t="str">
+            <v>蜜蜂2</v>
+          </cell>
+          <cell r="BS8" t="str">
+            <v>火精灵1</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="AV9" t="str">
+          <cell r="BH9" t="str">
             <v>0_8</v>
           </cell>
-          <cell r="AW9">
+          <cell r="BI9">
             <v>0</v>
           </cell>
-          <cell r="AX9">
+          <cell r="BJ9">
             <v>8</v>
           </cell>
-          <cell r="AY9" t="str">
-            <v>群体隐身</v>
-          </cell>
-          <cell r="AZ9" t="str">
-            <v>蝙蝠1、蛋1、蛋2、鬼2</v>
-          </cell>
-          <cell r="BA9" t="str">
+          <cell r="BK9" t="str">
+            <v>难度提升1</v>
+          </cell>
+          <cell r="BL9" t="str">
+            <v xml:space="preserve">蛋1   蜜蜂2   火精灵1   骷髅1         </v>
+          </cell>
+          <cell r="BM9" t="str">
             <v>毒雾塔</v>
           </cell>
-          <cell r="BB9" t="str">
-            <v>炼金塔</v>
-          </cell>
-          <cell r="BC9">
+          <cell r="BO9">
             <v>410</v>
           </cell>
-          <cell r="BD9">
+          <cell r="BP9">
             <v>30</v>
           </cell>
-          <cell r="BE9" t="str">
-            <v>蛋2</v>
-          </cell>
-          <cell r="BF9" t="str">
-            <v>鬼2</v>
+          <cell r="BQ9" t="str">
+            <v>蜜蜂2</v>
+          </cell>
+          <cell r="BR9" t="str">
+            <v>火精灵1</v>
+          </cell>
+          <cell r="BS9" t="str">
+            <v>骷髅1</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="AV10" t="str">
+          <cell r="BH10" t="str">
             <v>0_9</v>
           </cell>
-          <cell r="AW10">
+          <cell r="BI10">
             <v>0</v>
           </cell>
-          <cell r="AX10">
+          <cell r="BJ10">
             <v>9</v>
           </cell>
-          <cell r="AY10" t="str">
-            <v>群体治疗</v>
-          </cell>
-          <cell r="AZ10" t="str">
-            <v>蝙蝠1、蛋1、蛋2、鬼2、种子2</v>
-          </cell>
-          <cell r="BA10" t="str">
+          <cell r="BK10" t="str">
+            <v>难度提升1</v>
+          </cell>
+          <cell r="BL10" t="str">
+            <v xml:space="preserve">蜜蜂2   火精灵1   骷髅1   麻痹蝎1         </v>
+          </cell>
+          <cell r="BM10" t="str">
             <v>炼金塔</v>
           </cell>
-          <cell r="BC10">
+          <cell r="BN10" t="str">
+            <v>雷电塔</v>
+          </cell>
+          <cell r="BO10">
             <v>500</v>
           </cell>
-          <cell r="BD10">
+          <cell r="BP10">
             <v>30</v>
           </cell>
-          <cell r="BE10" t="str">
-            <v>蛋2</v>
-          </cell>
-          <cell r="BF10" t="str">
-            <v>鬼2</v>
-          </cell>
-          <cell r="BG10" t="str">
-            <v>种子2</v>
+          <cell r="BQ10" t="str">
+            <v>火精灵1</v>
+          </cell>
+          <cell r="BR10" t="str">
+            <v>骷髅1</v>
+          </cell>
+          <cell r="BS10" t="str">
+            <v>麻痹蝎1</v>
           </cell>
         </row>
         <row r="11">
-          <cell r="AV11" t="str">
+          <cell r="BH11" t="str">
             <v>0_10</v>
           </cell>
-          <cell r="AW11">
+          <cell r="BI11">
             <v>0</v>
           </cell>
-          <cell r="AX11">
+          <cell r="BJ11">
             <v>10</v>
           </cell>
-          <cell r="AY11" t="str">
-            <v>BOSS-眩晕1个塔</v>
-          </cell>
-          <cell r="AZ11" t="str">
-            <v>蝙蝠1、蛋1、蛋2、鬼2、种子2、蛋3</v>
-          </cell>
-          <cell r="BA11" t="str">
+          <cell r="BK11" t="str">
+            <v>难度提升1</v>
+          </cell>
+          <cell r="BL11" t="str">
+            <v xml:space="preserve">火精灵1   骷髅1   麻痹蝎1   蜘蛛2         </v>
+          </cell>
+          <cell r="BM11" t="str">
             <v>毒蝎塔</v>
           </cell>
-          <cell r="BB11" t="str">
-            <v>毒蝎塔</v>
-          </cell>
-          <cell r="BC11">
+          <cell r="BO11">
             <v>610</v>
           </cell>
-          <cell r="BD11">
+          <cell r="BP11">
             <v>30</v>
           </cell>
-          <cell r="BE11" t="str">
-            <v>鬼2</v>
-          </cell>
-          <cell r="BF11" t="str">
-            <v>种子2</v>
-          </cell>
-          <cell r="BG11" t="str">
-            <v>蛋3</v>
+          <cell r="BQ11" t="str">
+            <v>骷髅1</v>
+          </cell>
+          <cell r="BR11" t="str">
+            <v>麻痹蝎1</v>
+          </cell>
+          <cell r="BS11" t="str">
+            <v>蜘蛛2</v>
           </cell>
         </row>
         <row r="12">
-          <cell r="AV12" t="str">
-            <v>1_1</v>
-          </cell>
-          <cell r="AW12">
-            <v>1</v>
-          </cell>
-          <cell r="AX12">
-            <v>1</v>
-          </cell>
-          <cell r="AY12" t="str">
-            <v>加速</v>
-          </cell>
-          <cell r="AZ12" t="str">
-            <v>蜜蜂1、鸟1、蜘蛛1</v>
-          </cell>
-          <cell r="BC12">
-            <v>500</v>
-          </cell>
-          <cell r="BD12">
+          <cell r="BH12" t="str">
+            <v>0_11</v>
+          </cell>
+          <cell r="BI12">
+            <v>0</v>
+          </cell>
+          <cell r="BJ12">
+            <v>11</v>
+          </cell>
+          <cell r="BK12" t="str">
+            <v>新玩法</v>
+          </cell>
+          <cell r="BL12" t="str">
+            <v xml:space="preserve">骷髅1   麻痹蝎1   蜘蛛2   恶灵1         </v>
+          </cell>
+          <cell r="BO12">
+            <v>100</v>
+          </cell>
+          <cell r="BP12">
             <v>30</v>
           </cell>
-          <cell r="BE12" t="str">
-            <v>鸟1</v>
-          </cell>
-          <cell r="BF12" t="str">
-            <v>蜘蛛1</v>
+          <cell r="BQ12" t="str">
+            <v>麻痹蝎1</v>
+          </cell>
+          <cell r="BR12" t="str">
+            <v>蜘蛛2</v>
+          </cell>
+          <cell r="BS12" t="str">
+            <v>恶灵1</v>
           </cell>
         </row>
         <row r="13">
-          <cell r="AV13" t="str">
-            <v>1_2</v>
-          </cell>
-          <cell r="AW13">
-            <v>1</v>
-          </cell>
-          <cell r="AX13">
-            <v>2</v>
-          </cell>
-          <cell r="AZ13" t="str">
-            <v>蜜蜂1、鸟1、蜘蛛1、鬼1、种子1</v>
-          </cell>
-          <cell r="BC13">
-            <v>1000</v>
-          </cell>
-          <cell r="BD13">
+          <cell r="BH13" t="str">
+            <v>0_12</v>
+          </cell>
+          <cell r="BI13">
+            <v>0</v>
+          </cell>
+          <cell r="BJ13">
+            <v>12</v>
+          </cell>
+          <cell r="BK13" t="str">
+            <v>难度提升1</v>
+          </cell>
+          <cell r="BL13" t="str">
+            <v>骷髅1   麻痹蝎1   蜘蛛2   恶灵1      蝙蝠2   骷髅3</v>
+          </cell>
+          <cell r="BN13" t="str">
+            <v>火焰塔</v>
+          </cell>
+          <cell r="BO13">
+            <v>80</v>
+          </cell>
+          <cell r="BP13">
             <v>30</v>
           </cell>
-          <cell r="BE13" t="str">
-            <v>鸟1</v>
-          </cell>
-          <cell r="BF13" t="str">
-            <v>鬼1</v>
-          </cell>
-          <cell r="BG13" t="str">
-            <v>种子1</v>
+          <cell r="BQ13" t="str">
+            <v>恶灵1</v>
+          </cell>
+          <cell r="BR13" t="str">
+            <v>蝙蝠2</v>
+          </cell>
+          <cell r="BS13" t="str">
+            <v>骷髅3</v>
           </cell>
         </row>
         <row r="14">
-          <cell r="AV14" t="str">
-            <v>1_3</v>
-          </cell>
-          <cell r="AW14">
-            <v>1</v>
-          </cell>
-          <cell r="AX14">
-            <v>3</v>
-          </cell>
-          <cell r="AY14" t="str">
-            <v>群体加速</v>
-          </cell>
-          <cell r="AZ14" t="str">
-            <v>鸟2、蛋1、蛋2、鬼2</v>
-          </cell>
-          <cell r="BC14">
-            <v>1500</v>
-          </cell>
-          <cell r="BD14">
+          <cell r="BH14" t="str">
+            <v>0_13</v>
+          </cell>
+          <cell r="BI14">
+            <v>0</v>
+          </cell>
+          <cell r="BJ14">
+            <v>13</v>
+          </cell>
+          <cell r="BK14" t="str">
+            <v>难度提升1</v>
+          </cell>
+          <cell r="BL14" t="str">
+            <v xml:space="preserve">蜘蛛2   恶灵1   蝙蝠2   蛋2         </v>
+          </cell>
+          <cell r="BO14">
+            <v>110</v>
+          </cell>
+          <cell r="BP14">
             <v>30</v>
           </cell>
-          <cell r="BE14" t="str">
-            <v>鸟2</v>
-          </cell>
-          <cell r="BF14" t="str">
-            <v>蛋1</v>
-          </cell>
-          <cell r="BG14" t="str">
+          <cell r="BQ14" t="str">
+            <v>恶灵1</v>
+          </cell>
+          <cell r="BR14" t="str">
+            <v>蝙蝠2</v>
+          </cell>
+          <cell r="BS14" t="str">
             <v>蛋2</v>
           </cell>
         </row>
         <row r="15">
-          <cell r="AV15" t="str">
-            <v>1_4</v>
-          </cell>
-          <cell r="AW15">
-            <v>1</v>
-          </cell>
-          <cell r="AX15">
-            <v>4</v>
-          </cell>
-          <cell r="AZ15" t="str">
-            <v>鸟2、蛋1、蛋2、鬼2、种子2</v>
-          </cell>
-          <cell r="BC15">
-            <v>2100</v>
-          </cell>
-          <cell r="BD15">
+          <cell r="BH15" t="str">
+            <v>0_14</v>
+          </cell>
+          <cell r="BI15">
+            <v>0</v>
+          </cell>
+          <cell r="BJ15">
+            <v>14</v>
+          </cell>
+          <cell r="BK15" t="str">
+            <v>难度提升1</v>
+          </cell>
+          <cell r="BL15" t="str">
+            <v xml:space="preserve">恶灵1   蝙蝠2   蛋2   石像1         </v>
+          </cell>
+          <cell r="BO15">
+            <v>150</v>
+          </cell>
+          <cell r="BP15">
             <v>30</v>
           </cell>
-          <cell r="BE15" t="str">
-            <v>鸟2</v>
-          </cell>
-          <cell r="BF15" t="str">
-            <v>鬼2</v>
-          </cell>
-          <cell r="BG15" t="str">
-            <v>种子2</v>
+          <cell r="BQ15" t="str">
+            <v>蝙蝠2</v>
+          </cell>
+          <cell r="BR15" t="str">
+            <v>蛋2</v>
+          </cell>
+          <cell r="BS15" t="str">
+            <v>石像1</v>
           </cell>
         </row>
         <row r="16">
-          <cell r="AV16" t="str">
-            <v>1_5</v>
-          </cell>
-          <cell r="AW16">
-            <v>1</v>
-          </cell>
-          <cell r="AX16">
-            <v>5</v>
-          </cell>
-          <cell r="AY16" t="str">
-            <v>BOSS-群体霸体</v>
-          </cell>
-          <cell r="AZ16" t="str">
-            <v>蝙蝠1、蛋1、蛋2、鬼2、种子2、鸟3</v>
-          </cell>
-          <cell r="BA16" t="str">
-            <v>魔像</v>
-          </cell>
-          <cell r="BB16" t="str">
-            <v>魔像</v>
-          </cell>
-          <cell r="BC16">
-            <v>2600</v>
-          </cell>
-          <cell r="BD16">
+          <cell r="BH16" t="str">
+            <v>0_15</v>
+          </cell>
+          <cell r="BI16">
+            <v>0</v>
+          </cell>
+          <cell r="BJ16">
+            <v>15</v>
+          </cell>
+          <cell r="BK16" t="str">
+            <v>玩法变难</v>
+          </cell>
+          <cell r="BL16" t="str">
+            <v xml:space="preserve">蝙蝠2   蛋2   石像1   鬼2         </v>
+          </cell>
+          <cell r="BN16" t="str">
+            <v>时空结界</v>
+          </cell>
+          <cell r="BO16">
+            <v>200</v>
+          </cell>
+          <cell r="BP16">
             <v>30</v>
           </cell>
-          <cell r="BE16" t="str">
+          <cell r="BQ16" t="str">
+            <v>蛋2</v>
+          </cell>
+          <cell r="BR16" t="str">
+            <v>石像1</v>
+          </cell>
+          <cell r="BS16" t="str">
             <v>鬼2</v>
-          </cell>
-          <cell r="BF16" t="str">
-            <v>种子2</v>
-          </cell>
-          <cell r="BG16" t="str">
-            <v>鸟3</v>
           </cell>
         </row>
         <row r="17">
-          <cell r="AV17" t="str">
-            <v>2_1</v>
-          </cell>
-          <cell r="AW17">
-            <v>2</v>
-          </cell>
-          <cell r="AX17">
-            <v>1</v>
-          </cell>
-          <cell r="AY17" t="str">
-            <v>高攻击</v>
-          </cell>
-          <cell r="AZ17" t="str">
-            <v>蜜蜂1、龙1、蜘蛛1</v>
-          </cell>
-          <cell r="BC17">
-            <v>500</v>
-          </cell>
-          <cell r="BD17">
+          <cell r="BH17" t="str">
+            <v>0_16</v>
+          </cell>
+          <cell r="BI17">
+            <v>0</v>
+          </cell>
+          <cell r="BJ17">
+            <v>16</v>
+          </cell>
+          <cell r="BK17" t="str">
+            <v>难度提升1</v>
+          </cell>
+          <cell r="BL17" t="str">
+            <v xml:space="preserve">蛋2   石像1   鬼2   麻痹蝎2         </v>
+          </cell>
+          <cell r="BO17">
+            <v>260</v>
+          </cell>
+          <cell r="BP17">
             <v>30</v>
           </cell>
-          <cell r="BE17" t="str">
-            <v>龙1</v>
-          </cell>
-          <cell r="BF17" t="str">
-            <v>蜘蛛1</v>
+          <cell r="BQ17" t="str">
+            <v>石像1</v>
+          </cell>
+          <cell r="BR17" t="str">
+            <v>鬼2</v>
+          </cell>
+          <cell r="BS17" t="str">
+            <v>麻痹蝎2</v>
           </cell>
         </row>
         <row r="18">
-          <cell r="AV18" t="str">
-            <v>2_2</v>
-          </cell>
-          <cell r="AW18">
-            <v>2</v>
-          </cell>
-          <cell r="AX18">
-            <v>2</v>
-          </cell>
-          <cell r="AY18" t="str">
-            <v>治疗</v>
-          </cell>
-          <cell r="AZ18" t="str">
-            <v>蜜蜂1、龙1、蜘蛛1、鬼1、种子1</v>
-          </cell>
-          <cell r="BC18">
-            <v>1000</v>
-          </cell>
-          <cell r="BD18">
+          <cell r="BH18" t="str">
+            <v>0_17</v>
+          </cell>
+          <cell r="BI18">
+            <v>0</v>
+          </cell>
+          <cell r="BJ18">
+            <v>17</v>
+          </cell>
+          <cell r="BK18" t="str">
+            <v>难度提升1</v>
+          </cell>
+          <cell r="BL18" t="str">
+            <v xml:space="preserve">石像1   鬼2   麻痹蝎2   小恶魔1         </v>
+          </cell>
+          <cell r="BO18">
+            <v>330</v>
+          </cell>
+          <cell r="BP18">
             <v>30</v>
           </cell>
-          <cell r="BE18" t="str">
-            <v>龙1</v>
-          </cell>
-          <cell r="BF18" t="str">
-            <v>鬼1</v>
-          </cell>
-          <cell r="BG18" t="str">
-            <v>种子1</v>
+          <cell r="BQ18" t="str">
+            <v>鬼2</v>
+          </cell>
+          <cell r="BR18" t="str">
+            <v>麻痹蝎2</v>
+          </cell>
+          <cell r="BS18" t="str">
+            <v>小恶魔1</v>
           </cell>
         </row>
         <row r="19">
-          <cell r="AV19" t="str">
-            <v>2_3</v>
-          </cell>
-          <cell r="AW19">
-            <v>2</v>
-          </cell>
-          <cell r="AX19">
-            <v>3</v>
-          </cell>
-          <cell r="AY19" t="str">
-            <v>持续弱化</v>
-          </cell>
-          <cell r="AZ19" t="str">
-            <v>龙2、蛋1、蛋2、鬼2</v>
-          </cell>
-          <cell r="BC19">
-            <v>1500</v>
-          </cell>
-          <cell r="BD19">
+          <cell r="BH19" t="str">
+            <v>0_18</v>
+          </cell>
+          <cell r="BI19">
+            <v>0</v>
+          </cell>
+          <cell r="BJ19">
+            <v>18</v>
+          </cell>
+          <cell r="BK19" t="str">
+            <v>难度提升1</v>
+          </cell>
+          <cell r="BL19" t="str">
+            <v xml:space="preserve">鬼2   麻痹蝎2   小恶魔1   石像2         </v>
+          </cell>
+          <cell r="BO19">
+            <v>410</v>
+          </cell>
+          <cell r="BP19">
             <v>30</v>
           </cell>
-          <cell r="BE19" t="str">
-            <v>龙2</v>
-          </cell>
-          <cell r="BF19" t="str">
-            <v>蛋1</v>
-          </cell>
-          <cell r="BG19" t="str">
-            <v>蛋2</v>
+          <cell r="BQ19" t="str">
+            <v>麻痹蝎2</v>
+          </cell>
+          <cell r="BR19" t="str">
+            <v>小恶魔1</v>
+          </cell>
+          <cell r="BS19" t="str">
+            <v>石像2</v>
           </cell>
         </row>
         <row r="20">
-          <cell r="AV20" t="str">
-            <v>2_4</v>
-          </cell>
-          <cell r="AW20">
-            <v>2</v>
-          </cell>
-          <cell r="AX20">
-            <v>4</v>
-          </cell>
-          <cell r="AY20" t="str">
-            <v>群体加攻</v>
-          </cell>
-          <cell r="AZ20" t="str">
-            <v>龙2、蛋1、蛋2、鬼2、种子2</v>
-          </cell>
-          <cell r="BC20">
-            <v>2100</v>
-          </cell>
-          <cell r="BD20">
+          <cell r="BH20" t="str">
+            <v>0_19</v>
+          </cell>
+          <cell r="BI20">
+            <v>0</v>
+          </cell>
+          <cell r="BJ20">
+            <v>19</v>
+          </cell>
+          <cell r="BK20" t="str">
+            <v>全玩法</v>
+          </cell>
+          <cell r="BL20" t="str">
+            <v xml:space="preserve">麻痹蝎2   小恶魔1   石像2   恶灵2         </v>
+          </cell>
+          <cell r="BO20">
+            <v>500</v>
+          </cell>
+          <cell r="BP20">
             <v>30</v>
           </cell>
-          <cell r="BE20" t="str">
-            <v>龙2</v>
-          </cell>
-          <cell r="BF20" t="str">
-            <v>鬼2</v>
-          </cell>
-          <cell r="BG20" t="str">
-            <v>种子2</v>
+          <cell r="BQ20" t="str">
+            <v>小恶魔1</v>
+          </cell>
+          <cell r="BR20" t="str">
+            <v>石像2</v>
+          </cell>
+          <cell r="BS20" t="str">
+            <v>恶灵2</v>
           </cell>
         </row>
         <row r="21">
-          <cell r="AV21" t="str">
-            <v>2_5</v>
-          </cell>
-          <cell r="AW21">
-            <v>2</v>
-          </cell>
-          <cell r="AX21">
-            <v>5</v>
-          </cell>
-          <cell r="AY21" t="str">
-            <v>Boss-攻击塔</v>
-          </cell>
-          <cell r="AZ21" t="str">
-            <v>蝙蝠1、蛋1、蛋2、鬼2、种子2、龙3</v>
-          </cell>
-          <cell r="BA21" t="str">
-            <v>奥术天球</v>
-          </cell>
-          <cell r="BB21" t="str">
-            <v>奥术天球</v>
-          </cell>
-          <cell r="BC21">
-            <v>2600</v>
-          </cell>
-          <cell r="BD21">
+          <cell r="BH21" t="str">
+            <v>0_20</v>
+          </cell>
+          <cell r="BI21">
+            <v>0</v>
+          </cell>
+          <cell r="BJ21">
+            <v>20</v>
+          </cell>
+          <cell r="BK21" t="str">
+            <v>全玩法</v>
+          </cell>
+          <cell r="BL21" t="str">
+            <v>麻痹蝎2   小恶魔1   石像2   恶灵2      种子2   小恶魔3</v>
+          </cell>
+          <cell r="BN21" t="str">
+            <v>炸弹</v>
+          </cell>
+          <cell r="BO21">
+            <v>610</v>
+          </cell>
+          <cell r="BP21">
             <v>30</v>
           </cell>
-          <cell r="BE21" t="str">
-            <v>鬼2</v>
-          </cell>
-          <cell r="BF21" t="str">
+          <cell r="BQ21" t="str">
+            <v>恶灵2</v>
+          </cell>
+          <cell r="BR21" t="str">
             <v>种子2</v>
           </cell>
-          <cell r="BG21" t="str">
-            <v>龙3</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="AV22" t="str">
-            <v>3_1</v>
-          </cell>
-          <cell r="AW22">
-            <v>3</v>
-          </cell>
-          <cell r="AX22">
-            <v>1</v>
-          </cell>
-          <cell r="AY22" t="str">
-            <v>融化</v>
-          </cell>
-          <cell r="AZ22" t="str">
-            <v>蜜蜂1、雪人1、蜘蛛1</v>
-          </cell>
-          <cell r="BC22">
-            <v>500</v>
-          </cell>
-          <cell r="BD22">
-            <v>30</v>
-          </cell>
-          <cell r="BE22" t="str">
-            <v>雪人1</v>
-          </cell>
-          <cell r="BF22" t="str">
-            <v>蜘蛛1</v>
+          <cell r="BS21" t="str">
+            <v>小恶魔3</v>
           </cell>
         </row>
         <row r="23">
-          <cell r="AV23" t="str">
-            <v>3_2</v>
-          </cell>
-          <cell r="AW23">
-            <v>3</v>
-          </cell>
-          <cell r="AX23">
-            <v>2</v>
-          </cell>
-          <cell r="AY23" t="str">
-            <v>快速</v>
-          </cell>
-          <cell r="AZ23" t="str">
-            <v>蜜蜂1、雪人1、蜘蛛1、鬼1、种子1</v>
-          </cell>
-          <cell r="BC23">
-            <v>1000</v>
-          </cell>
-          <cell r="BD23">
+          <cell r="BH23" t="str">
+            <v>1_1</v>
+          </cell>
+          <cell r="BI23">
+            <v>1</v>
+          </cell>
+          <cell r="BJ23">
+            <v>1</v>
+          </cell>
+          <cell r="BK23" t="str">
+            <v>加速</v>
+          </cell>
+          <cell r="BL23" t="str">
+            <v>蜜蜂1、鸟1、蜘蛛1</v>
+          </cell>
+          <cell r="BO23">
+            <v>500</v>
+          </cell>
+          <cell r="BP23">
             <v>30</v>
           </cell>
-          <cell r="BE23" t="str">
-            <v>雪人1</v>
-          </cell>
-          <cell r="BF23" t="str">
-            <v>鬼1</v>
-          </cell>
-          <cell r="BG23" t="str">
-            <v>种子1</v>
+          <cell r="BQ23" t="str">
+            <v>鸟1</v>
+          </cell>
+          <cell r="BR23" t="str">
+            <v>蜘蛛1</v>
           </cell>
         </row>
         <row r="24">
-          <cell r="AV24" t="str">
-            <v>3_3</v>
-          </cell>
-          <cell r="AW24">
-            <v>3</v>
-          </cell>
-          <cell r="AX24">
-            <v>3</v>
-          </cell>
-          <cell r="AY24" t="str">
-            <v>隐身</v>
-          </cell>
-          <cell r="AZ24" t="str">
-            <v>雪人2、蛋1、蛋2、鬼2</v>
-          </cell>
-          <cell r="BC24">
-            <v>1500</v>
-          </cell>
-          <cell r="BD24">
+          <cell r="BH24" t="str">
+            <v>1_2</v>
+          </cell>
+          <cell r="BI24">
+            <v>1</v>
+          </cell>
+          <cell r="BJ24">
+            <v>2</v>
+          </cell>
+          <cell r="BL24" t="str">
+            <v>蜜蜂1、鸟1、蜘蛛1、鬼1、种子1</v>
+          </cell>
+          <cell r="BO24">
+            <v>1000</v>
+          </cell>
+          <cell r="BP24">
             <v>30</v>
           </cell>
-          <cell r="BE24" t="str">
-            <v>雪人2</v>
-          </cell>
-          <cell r="BF24" t="str">
-            <v>蛋1</v>
-          </cell>
-          <cell r="BG24" t="str">
-            <v>蛋2</v>
+          <cell r="BQ24" t="str">
+            <v>鸟1</v>
+          </cell>
+          <cell r="BR24" t="str">
+            <v>鬼1</v>
+          </cell>
+          <cell r="BS24" t="str">
+            <v>种子1</v>
           </cell>
         </row>
         <row r="25">
-          <cell r="AV25" t="str">
-            <v>3_4</v>
-          </cell>
-          <cell r="AW25">
+          <cell r="BH25" t="str">
+            <v>1_3</v>
+          </cell>
+          <cell r="BI25">
+            <v>1</v>
+          </cell>
+          <cell r="BJ25">
             <v>3</v>
           </cell>
-          <cell r="AX25">
-            <v>4</v>
-          </cell>
-          <cell r="AY25" t="str">
-            <v>出场限时护盾</v>
-          </cell>
-          <cell r="AZ25" t="str">
-            <v>雪人2、蛋1、蛋2、鬼2、种子2</v>
-          </cell>
-          <cell r="BC25">
-            <v>2100</v>
-          </cell>
-          <cell r="BD25">
+          <cell r="BK25" t="str">
+            <v>群体加速</v>
+          </cell>
+          <cell r="BL25" t="str">
+            <v>鸟2、蛋1、蛋2、鬼2</v>
+          </cell>
+          <cell r="BO25">
+            <v>1500</v>
+          </cell>
+          <cell r="BP25">
             <v>30</v>
           </cell>
-          <cell r="BE25" t="str">
-            <v>雪人2</v>
-          </cell>
-          <cell r="BF25" t="str">
-            <v>鬼2</v>
-          </cell>
-          <cell r="BG25" t="str">
-            <v>种子2</v>
+          <cell r="BQ25" t="str">
+            <v>鸟2</v>
+          </cell>
+          <cell r="BR25" t="str">
+            <v>蛋1</v>
+          </cell>
+          <cell r="BS25" t="str">
+            <v>蛋2</v>
           </cell>
         </row>
         <row r="26">
-          <cell r="AV26" t="str">
-            <v>3_5</v>
-          </cell>
-          <cell r="AW26">
-            <v>3</v>
-          </cell>
-          <cell r="AX26">
-            <v>5</v>
-          </cell>
-          <cell r="AY26" t="str">
-            <v>BOSS-范围冰冻</v>
-          </cell>
-          <cell r="AZ26" t="str">
-            <v>蝙蝠1、蛋1、蛋2、鬼2、种子2、雪人3</v>
-          </cell>
-          <cell r="BA26" t="str">
-            <v>火箭</v>
-          </cell>
-          <cell r="BB26" t="str">
-            <v>火箭塔</v>
-          </cell>
-          <cell r="BC26">
-            <v>2600</v>
-          </cell>
-          <cell r="BD26">
+          <cell r="BH26" t="str">
+            <v>1_4</v>
+          </cell>
+          <cell r="BI26">
+            <v>1</v>
+          </cell>
+          <cell r="BJ26">
+            <v>4</v>
+          </cell>
+          <cell r="BL26" t="str">
+            <v>鸟2、蛋1、蛋2、鬼2、种子2</v>
+          </cell>
+          <cell r="BO26">
+            <v>2100</v>
+          </cell>
+          <cell r="BP26">
             <v>30</v>
           </cell>
-          <cell r="BE26" t="str">
+          <cell r="BQ26" t="str">
+            <v>鸟2</v>
+          </cell>
+          <cell r="BR26" t="str">
             <v>鬼2</v>
           </cell>
-          <cell r="BF26" t="str">
+          <cell r="BS26" t="str">
             <v>种子2</v>
-          </cell>
-          <cell r="BG26" t="str">
-            <v>雪人3</v>
           </cell>
         </row>
         <row r="27">
-          <cell r="AV27" t="str">
-            <v>4_1</v>
-          </cell>
-          <cell r="AW27">
-            <v>4</v>
-          </cell>
-          <cell r="AX27">
+          <cell r="BH27" t="str">
+            <v>1_5</v>
+          </cell>
+          <cell r="BI27">
             <v>1</v>
           </cell>
-          <cell r="AY27" t="str">
-            <v>定期锁壳减伤</v>
-          </cell>
-          <cell r="AZ27" t="str">
-            <v>蜜蜂1、乌龟1、蜘蛛1</v>
-          </cell>
-          <cell r="BC27">
-            <v>500</v>
-          </cell>
-          <cell r="BD27">
+          <cell r="BJ27">
+            <v>5</v>
+          </cell>
+          <cell r="BK27" t="str">
+            <v>BOSS-群体霸体</v>
+          </cell>
+          <cell r="BL27" t="str">
+            <v>蝙蝠1、蛋1、蛋2、鬼2、种子2、鸟3</v>
+          </cell>
+          <cell r="BM27" t="str">
+            <v>魔像</v>
+          </cell>
+          <cell r="BN27" t="str">
+            <v>炼金塔</v>
+          </cell>
+          <cell r="BO27">
+            <v>2600</v>
+          </cell>
+          <cell r="BP27">
             <v>30</v>
           </cell>
-          <cell r="BE27" t="str">
-            <v>乌龟1</v>
-          </cell>
-          <cell r="BF27" t="str">
-            <v>蜘蛛1</v>
+          <cell r="BQ27" t="str">
+            <v>鬼2</v>
+          </cell>
+          <cell r="BR27" t="str">
+            <v>种子2</v>
+          </cell>
+          <cell r="BS27" t="str">
+            <v>鸟3</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="AV28" t="str">
-            <v>4_2</v>
-          </cell>
-          <cell r="AW28">
-            <v>4</v>
-          </cell>
-          <cell r="AX28">
+          <cell r="BH28" t="str">
+            <v>2_1</v>
+          </cell>
+          <cell r="BI28">
             <v>2</v>
           </cell>
-          <cell r="AY28" t="str">
-            <v>治疗</v>
-          </cell>
-          <cell r="AZ28" t="str">
-            <v>蜜蜂1、乌龟1、蜘蛛1、鬼1、种子1</v>
-          </cell>
-          <cell r="BC28">
-            <v>1000</v>
-          </cell>
-          <cell r="BD28">
+          <cell r="BJ28">
+            <v>1</v>
+          </cell>
+          <cell r="BK28" t="str">
+            <v>高攻击</v>
+          </cell>
+          <cell r="BL28" t="str">
+            <v>蜜蜂1、龙1、蜘蛛1</v>
+          </cell>
+          <cell r="BO28">
+            <v>500</v>
+          </cell>
+          <cell r="BP28">
             <v>30</v>
           </cell>
-          <cell r="BE28" t="str">
-            <v>乌龟1</v>
-          </cell>
-          <cell r="BF28" t="str">
-            <v>鬼1</v>
-          </cell>
-          <cell r="BG28" t="str">
-            <v>种子1</v>
+          <cell r="BQ28" t="str">
+            <v>龙1</v>
+          </cell>
+          <cell r="BR28" t="str">
+            <v>蜘蛛1</v>
           </cell>
         </row>
         <row r="29">
-          <cell r="AV29" t="str">
-            <v>4_3</v>
-          </cell>
-          <cell r="AW29">
-            <v>4</v>
-          </cell>
-          <cell r="AX29">
-            <v>3</v>
-          </cell>
-          <cell r="AY29" t="str">
-            <v>持续弱化</v>
-          </cell>
-          <cell r="AZ29" t="str">
-            <v>乌龟2、蛋1、蛋2、鬼2</v>
-          </cell>
-          <cell r="BC29">
-            <v>1500</v>
-          </cell>
-          <cell r="BD29">
+          <cell r="BH29" t="str">
+            <v>2_2</v>
+          </cell>
+          <cell r="BI29">
+            <v>2</v>
+          </cell>
+          <cell r="BJ29">
+            <v>2</v>
+          </cell>
+          <cell r="BK29" t="str">
+            <v>治疗</v>
+          </cell>
+          <cell r="BL29" t="str">
+            <v>蜜蜂1、龙1、蜘蛛1、鬼1、种子1</v>
+          </cell>
+          <cell r="BO29">
+            <v>1000</v>
+          </cell>
+          <cell r="BP29">
             <v>30</v>
           </cell>
-          <cell r="BE29" t="str">
-            <v>乌龟2</v>
-          </cell>
-          <cell r="BF29" t="str">
-            <v>蛋1</v>
-          </cell>
-          <cell r="BG29" t="str">
-            <v>蛋2</v>
+          <cell r="BQ29" t="str">
+            <v>龙1</v>
+          </cell>
+          <cell r="BR29" t="str">
+            <v>鬼1</v>
+          </cell>
+          <cell r="BS29" t="str">
+            <v>种子1</v>
           </cell>
         </row>
         <row r="30">
-          <cell r="AV30" t="str">
-            <v>4_4</v>
-          </cell>
-          <cell r="AW30">
-            <v>4</v>
-          </cell>
-          <cell r="AX30">
-            <v>4</v>
-          </cell>
-          <cell r="AY30" t="str">
-            <v>移动时减伤且快速</v>
-          </cell>
-          <cell r="AZ30" t="str">
-            <v>乌龟2、蛋1、蛋2、鬼2、种子2</v>
-          </cell>
-          <cell r="BC30">
-            <v>2100</v>
-          </cell>
-          <cell r="BD30">
+          <cell r="BH30" t="str">
+            <v>2_3</v>
+          </cell>
+          <cell r="BI30">
+            <v>2</v>
+          </cell>
+          <cell r="BJ30">
+            <v>3</v>
+          </cell>
+          <cell r="BK30" t="str">
+            <v>持续弱化</v>
+          </cell>
+          <cell r="BL30" t="str">
+            <v>龙2、蛋1、蛋2、鬼2</v>
+          </cell>
+          <cell r="BO30">
+            <v>1500</v>
+          </cell>
+          <cell r="BP30">
             <v>30</v>
           </cell>
-          <cell r="BE30" t="str">
-            <v>乌龟2</v>
-          </cell>
-          <cell r="BF30" t="str">
-            <v>鬼2</v>
-          </cell>
-          <cell r="BG30" t="str">
-            <v>种子2</v>
+          <cell r="BQ30" t="str">
+            <v>龙2</v>
+          </cell>
+          <cell r="BR30" t="str">
+            <v>蛋1</v>
+          </cell>
+          <cell r="BS30" t="str">
+            <v>蛋2</v>
           </cell>
         </row>
         <row r="31">
-          <cell r="AV31" t="str">
+          <cell r="BH31" t="str">
+            <v>2_4</v>
+          </cell>
+          <cell r="BI31">
+            <v>2</v>
+          </cell>
+          <cell r="BJ31">
+            <v>4</v>
+          </cell>
+          <cell r="BK31" t="str">
+            <v>群体加攻</v>
+          </cell>
+          <cell r="BL31" t="str">
+            <v>龙2、蛋1、蛋2、鬼2、种子2</v>
+          </cell>
+          <cell r="BO31">
+            <v>2100</v>
+          </cell>
+          <cell r="BP31">
+            <v>30</v>
+          </cell>
+          <cell r="BQ31" t="str">
+            <v>龙2</v>
+          </cell>
+          <cell r="BR31" t="str">
+            <v>鬼2</v>
+          </cell>
+          <cell r="BS31" t="str">
+            <v>种子2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="BH32" t="str">
+            <v>2_5</v>
+          </cell>
+          <cell r="BI32">
+            <v>2</v>
+          </cell>
+          <cell r="BJ32">
+            <v>5</v>
+          </cell>
+          <cell r="BK32" t="str">
+            <v>Boss-攻击塔</v>
+          </cell>
+          <cell r="BL32" t="str">
+            <v>蝙蝠1、蛋1、蛋2、鬼2、种子2、龙3</v>
+          </cell>
+          <cell r="BM32" t="str">
+            <v>奥术天球</v>
+          </cell>
+          <cell r="BN32" t="str">
+            <v>毒蝎塔</v>
+          </cell>
+          <cell r="BO32">
+            <v>2600</v>
+          </cell>
+          <cell r="BP32">
+            <v>30</v>
+          </cell>
+          <cell r="BQ32" t="str">
+            <v>鬼2</v>
+          </cell>
+          <cell r="BR32" t="str">
+            <v>种子2</v>
+          </cell>
+          <cell r="BS32" t="str">
+            <v>龙3</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="BH33" t="str">
+            <v>3_1</v>
+          </cell>
+          <cell r="BI33">
+            <v>3</v>
+          </cell>
+          <cell r="BJ33">
+            <v>1</v>
+          </cell>
+          <cell r="BK33" t="str">
+            <v>融化</v>
+          </cell>
+          <cell r="BL33" t="str">
+            <v>蜜蜂1、雪人1、蜘蛛1</v>
+          </cell>
+          <cell r="BO33">
+            <v>500</v>
+          </cell>
+          <cell r="BP33">
+            <v>30</v>
+          </cell>
+          <cell r="BQ33" t="str">
+            <v>雪人1</v>
+          </cell>
+          <cell r="BR33" t="str">
+            <v>蜘蛛1</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="BH34" t="str">
+            <v>3_2</v>
+          </cell>
+          <cell r="BI34">
+            <v>3</v>
+          </cell>
+          <cell r="BJ34">
+            <v>2</v>
+          </cell>
+          <cell r="BK34" t="str">
+            <v>快速</v>
+          </cell>
+          <cell r="BL34" t="str">
+            <v>蜜蜂1、雪人1、蜘蛛1、鬼1、种子1</v>
+          </cell>
+          <cell r="BO34">
+            <v>1000</v>
+          </cell>
+          <cell r="BP34">
+            <v>30</v>
+          </cell>
+          <cell r="BQ34" t="str">
+            <v>雪人1</v>
+          </cell>
+          <cell r="BR34" t="str">
+            <v>鬼1</v>
+          </cell>
+          <cell r="BS34" t="str">
+            <v>种子1</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="BH35" t="str">
+            <v>3_3</v>
+          </cell>
+          <cell r="BI35">
+            <v>3</v>
+          </cell>
+          <cell r="BJ35">
+            <v>3</v>
+          </cell>
+          <cell r="BK35" t="str">
+            <v>隐身</v>
+          </cell>
+          <cell r="BL35" t="str">
+            <v>雪人2、蛋1、蛋2、鬼2</v>
+          </cell>
+          <cell r="BO35">
+            <v>1500</v>
+          </cell>
+          <cell r="BP35">
+            <v>30</v>
+          </cell>
+          <cell r="BQ35" t="str">
+            <v>雪人2</v>
+          </cell>
+          <cell r="BR35" t="str">
+            <v>蛋1</v>
+          </cell>
+          <cell r="BS35" t="str">
+            <v>蛋2</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="BH36" t="str">
+            <v>3_4</v>
+          </cell>
+          <cell r="BI36">
+            <v>3</v>
+          </cell>
+          <cell r="BJ36">
+            <v>4</v>
+          </cell>
+          <cell r="BK36" t="str">
+            <v>出场限时护盾</v>
+          </cell>
+          <cell r="BL36" t="str">
+            <v>雪人2、蛋1、蛋2、鬼2、种子2</v>
+          </cell>
+          <cell r="BO36">
+            <v>2100</v>
+          </cell>
+          <cell r="BP36">
+            <v>30</v>
+          </cell>
+          <cell r="BQ36" t="str">
+            <v>雪人2</v>
+          </cell>
+          <cell r="BR36" t="str">
+            <v>鬼2</v>
+          </cell>
+          <cell r="BS36" t="str">
+            <v>种子2</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="BH37" t="str">
+            <v>3_5</v>
+          </cell>
+          <cell r="BI37">
+            <v>3</v>
+          </cell>
+          <cell r="BJ37">
+            <v>5</v>
+          </cell>
+          <cell r="BK37" t="str">
+            <v>BOSS-范围冰冻</v>
+          </cell>
+          <cell r="BL37" t="str">
+            <v>蝙蝠1、蛋1、蛋2、鬼2、种子2、雪人3</v>
+          </cell>
+          <cell r="BM37" t="str">
+            <v>火箭</v>
+          </cell>
+          <cell r="BN37" t="str">
+            <v>哥布林</v>
+          </cell>
+          <cell r="BO37">
+            <v>2600</v>
+          </cell>
+          <cell r="BP37">
+            <v>30</v>
+          </cell>
+          <cell r="BQ37" t="str">
+            <v>鬼2</v>
+          </cell>
+          <cell r="BR37" t="str">
+            <v>种子2</v>
+          </cell>
+          <cell r="BS37" t="str">
+            <v>雪人3</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="BH38" t="str">
+            <v>4_1</v>
+          </cell>
+          <cell r="BI38">
+            <v>4</v>
+          </cell>
+          <cell r="BJ38">
+            <v>1</v>
+          </cell>
+          <cell r="BK38" t="str">
+            <v>定期锁壳减伤</v>
+          </cell>
+          <cell r="BL38" t="str">
+            <v>蜜蜂1、乌龟1、蜘蛛1</v>
+          </cell>
+          <cell r="BO38">
+            <v>500</v>
+          </cell>
+          <cell r="BP38">
+            <v>30</v>
+          </cell>
+          <cell r="BQ38" t="str">
+            <v>乌龟1</v>
+          </cell>
+          <cell r="BR38" t="str">
+            <v>蜘蛛1</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="BH39" t="str">
+            <v>4_2</v>
+          </cell>
+          <cell r="BI39">
+            <v>4</v>
+          </cell>
+          <cell r="BJ39">
+            <v>2</v>
+          </cell>
+          <cell r="BK39" t="str">
+            <v>治疗</v>
+          </cell>
+          <cell r="BL39" t="str">
+            <v>蜜蜂1、乌龟1、蜘蛛1、鬼1、种子1</v>
+          </cell>
+          <cell r="BO39">
+            <v>1000</v>
+          </cell>
+          <cell r="BP39">
+            <v>30</v>
+          </cell>
+          <cell r="BQ39" t="str">
+            <v>乌龟1</v>
+          </cell>
+          <cell r="BR39" t="str">
+            <v>鬼1</v>
+          </cell>
+          <cell r="BS39" t="str">
+            <v>种子1</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="BH40" t="str">
+            <v>4_3</v>
+          </cell>
+          <cell r="BI40">
+            <v>4</v>
+          </cell>
+          <cell r="BJ40">
+            <v>3</v>
+          </cell>
+          <cell r="BK40" t="str">
+            <v>持续弱化</v>
+          </cell>
+          <cell r="BL40" t="str">
+            <v>乌龟2、蛋1、蛋2、鬼2</v>
+          </cell>
+          <cell r="BO40">
+            <v>1500</v>
+          </cell>
+          <cell r="BP40">
+            <v>30</v>
+          </cell>
+          <cell r="BQ40" t="str">
+            <v>乌龟2</v>
+          </cell>
+          <cell r="BR40" t="str">
+            <v>蛋1</v>
+          </cell>
+          <cell r="BS40" t="str">
+            <v>蛋2</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="BH41" t="str">
+            <v>4_4</v>
+          </cell>
+          <cell r="BI41">
+            <v>4</v>
+          </cell>
+          <cell r="BJ41">
+            <v>4</v>
+          </cell>
+          <cell r="BK41" t="str">
+            <v>移动时减伤且快速</v>
+          </cell>
+          <cell r="BL41" t="str">
+            <v>乌龟2、蛋1、蛋2、鬼2、种子2</v>
+          </cell>
+          <cell r="BO41">
+            <v>2100</v>
+          </cell>
+          <cell r="BP41">
+            <v>30</v>
+          </cell>
+          <cell r="BQ41" t="str">
+            <v>乌龟2</v>
+          </cell>
+          <cell r="BR41" t="str">
+            <v>鬼2</v>
+          </cell>
+          <cell r="BS41" t="str">
+            <v>种子2</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="BH42" t="str">
             <v>4_5</v>
           </cell>
-          <cell r="AW31">
+          <cell r="BI42">
             <v>4</v>
           </cell>
-          <cell r="AX31">
+          <cell r="BJ42">
             <v>5</v>
           </cell>
-          <cell r="AY31" t="str">
+          <cell r="BK42" t="str">
             <v>BOSS-范围护盾</v>
           </cell>
-          <cell r="AZ31" t="str">
+          <cell r="BL42" t="str">
             <v>蝙蝠1、蛋1、蛋2、鬼2、种子2、乌龟3</v>
           </cell>
-          <cell r="BA31" t="str">
+          <cell r="BM42" t="str">
             <v>水晶</v>
           </cell>
-          <cell r="BB31" t="str">
+          <cell r="BN42" t="str">
             <v>水晶</v>
           </cell>
-          <cell r="BC31">
+          <cell r="BO42">
             <v>2600</v>
           </cell>
-          <cell r="BD31">
+          <cell r="BP42">
             <v>30</v>
           </cell>
-          <cell r="BE31" t="str">
+          <cell r="BQ42" t="str">
             <v>鬼2</v>
           </cell>
-          <cell r="BF31" t="str">
+          <cell r="BR42" t="str">
             <v>种子2</v>
           </cell>
-          <cell r="BG31" t="str">
+          <cell r="BS42" t="str">
             <v>乌龟3</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="BN45" t="str">
+            <v>毒蝎塔</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="BN46" t="str">
+            <v>哥布林</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="BN47" t="str">
+            <v>炸弹</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="BN48" t="str">
+            <v>炼金塔</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3642,13 +3958,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1226A1-0D69-4D86-A5FA-3B31828C5F63}">
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:J127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3780,11 +4096,11 @@
         <v>DropAll</v>
       </c>
       <c r="D7" t="str">
-        <f>IF(VLOOKUP(H7&amp;"_"&amp;I7,[1]挑战模式!$AV:$BG,9-J7,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H7&amp;"_"&amp;I7,[1]挑战模式!$BH:$BS,9-J7,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E7">
-        <f>IF(VLOOKUP(H7&amp;"_"&amp;I7,[1]挑战模式!$AV:$BG,9-J7,FALSE)="","",IF(ISNUMBER(VLOOKUP(H7&amp;"_"&amp;I7,[1]挑战模式!$AV:$BG,9-J7,FALSE)),VLOOKUP(H7&amp;"_"&amp;I7,[1]挑战模式!$AV:$BG,9-J7,FALSE),1))</f>
+        <f>IF(VLOOKUP(H7&amp;"_"&amp;I7,[1]挑战模式!$BH:$BS,9-J7,FALSE)="","",IF(ISNUMBER(VLOOKUP(H7&amp;"_"&amp;I7,[1]挑战模式!$BH:$BS,9-J7,FALSE)),VLOOKUP(H7&amp;"_"&amp;I7,[1]挑战模式!$BH:$BS,9-J7,FALSE),1))</f>
         <v>100</v>
       </c>
       <c r="F7">
@@ -3792,7 +4108,7 @@
         <v>10000</v>
       </c>
       <c r="G7" t="str">
-        <f>IF(VLOOKUP(H7&amp;"_"&amp;I7,[1]挑战模式!$AV:$BG,9-J7,FALSE)="","",IF(ISNUMBER(VLOOKUP(H7&amp;"_"&amp;I7,[1]挑战模式!$AV:$BG,9-J7,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H7&amp;"_"&amp;I7,[1]挑战模式!$AV:$BG,9-J7,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H7&amp;"_"&amp;I7,[1]挑战模式!$BH:$BS,9-J7,FALSE)="","",IF(ISNUMBER(VLOOKUP(H7&amp;"_"&amp;I7,[1]挑战模式!$BH:$BS,9-J7,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H7&amp;"_"&amp;I7,[1]挑战模式!$BH:$BS,9-J7,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H7">
@@ -3807,28 +4123,28 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="str">
-        <f t="shared" ref="B8:B66" si="0">IF(I8&lt;&gt;I7,"DropItemRule_First_Season"&amp;H8&amp;"_Challenge"&amp;I8,"")</f>
+        <f t="shared" ref="B8:B86" si="0">IF(I8&lt;&gt;I7,"DropItemRule_First_Season"&amp;H8&amp;"_Challenge"&amp;I8,"")</f>
         <v/>
       </c>
       <c r="C8" t="str">
-        <f t="shared" ref="C8:C66" si="1">IF(B8="","","DropAll")</f>
+        <f t="shared" ref="C8:C86" si="1">IF(B8="","","DropAll")</f>
         <v/>
       </c>
       <c r="D8" t="str">
-        <f>IF(VLOOKUP(H8&amp;"_"&amp;I8,[1]挑战模式!$AV:$BG,9-J8,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H8&amp;"_"&amp;I8,[1]挑战模式!$BH:$BS,9-J8,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E8">
-        <f>IF(VLOOKUP(H8&amp;"_"&amp;I8,[1]挑战模式!$AV:$BG,9-J8,FALSE)="","",IF(ISNUMBER(VLOOKUP(H8&amp;"_"&amp;I8,[1]挑战模式!$AV:$BG,9-J8,FALSE)),VLOOKUP(H8&amp;"_"&amp;I8,[1]挑战模式!$AV:$BG,9-J8,FALSE),1))</f>
+        <f>IF(VLOOKUP(H8&amp;"_"&amp;I8,[1]挑战模式!$BH:$BS,9-J8,FALSE)="","",IF(ISNUMBER(VLOOKUP(H8&amp;"_"&amp;I8,[1]挑战模式!$BH:$BS,9-J8,FALSE)),VLOOKUP(H8&amp;"_"&amp;I8,[1]挑战模式!$BH:$BS,9-J8,FALSE),1))</f>
         <v>1</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:F66" si="2">IF(E8="","",10000)</f>
+        <f t="shared" ref="F8:F86" si="2">IF(E8="","",10000)</f>
         <v>10000</v>
       </c>
       <c r="G8" t="str">
-        <f>IF(VLOOKUP(H8&amp;"_"&amp;I8,[1]挑战模式!$AV:$BG,9-J8,FALSE)="","",IF(ISNUMBER(VLOOKUP(H8&amp;"_"&amp;I8,[1]挑战模式!$AV:$BG,9-J8,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H8&amp;"_"&amp;I8,[1]挑战模式!$AV:$BG,9-J8,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v>Tow5_1</v>
+        <f>IF(VLOOKUP(H8&amp;"_"&amp;I8,[1]挑战模式!$BH:$BS,9-J8,FALSE)="","",IF(ISNUMBER(VLOOKUP(H8&amp;"_"&amp;I8,[1]挑战模式!$BH:$BS,9-J8,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H8&amp;"_"&amp;I8,[1]挑战模式!$BH:$BS,9-J8,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Tow4_1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3850,11 +4166,11 @@
         <v>DropAll</v>
       </c>
       <c r="D9" t="str">
-        <f>IF(VLOOKUP(H9&amp;"_"&amp;I9,[1]挑战模式!$AV:$BG,9-J9,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H9&amp;"_"&amp;I9,[1]挑战模式!$BH:$BS,9-J9,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E9">
-        <f>IF(VLOOKUP(H9&amp;"_"&amp;I9,[1]挑战模式!$AV:$BG,9-J9,FALSE)="","",IF(ISNUMBER(VLOOKUP(H9&amp;"_"&amp;I9,[1]挑战模式!$AV:$BG,9-J9,FALSE)),VLOOKUP(H9&amp;"_"&amp;I9,[1]挑战模式!$AV:$BG,9-J9,FALSE),1))</f>
+        <f>IF(VLOOKUP(H9&amp;"_"&amp;I9,[1]挑战模式!$BH:$BS,9-J9,FALSE)="","",IF(ISNUMBER(VLOOKUP(H9&amp;"_"&amp;I9,[1]挑战模式!$BH:$BS,9-J9,FALSE)),VLOOKUP(H9&amp;"_"&amp;I9,[1]挑战模式!$BH:$BS,9-J9,FALSE),1))</f>
         <v>80</v>
       </c>
       <c r="F9">
@@ -3862,7 +4178,7 @@
         <v>10000</v>
       </c>
       <c r="G9" t="str">
-        <f>IF(VLOOKUP(H9&amp;"_"&amp;I9,[1]挑战模式!$AV:$BG,9-J9,FALSE)="","",IF(ISNUMBER(VLOOKUP(H9&amp;"_"&amp;I9,[1]挑战模式!$AV:$BG,9-J9,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H9&amp;"_"&amp;I9,[1]挑战模式!$AV:$BG,9-J9,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H9&amp;"_"&amp;I9,[1]挑战模式!$BH:$BS,9-J9,FALSE)="","",IF(ISNUMBER(VLOOKUP(H9&amp;"_"&amp;I9,[1]挑战模式!$BH:$BS,9-J9,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H9&amp;"_"&amp;I9,[1]挑战模式!$BH:$BS,9-J9,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H9">
@@ -3885,11 +4201,11 @@
         <v/>
       </c>
       <c r="D10" t="str">
-        <f>IF(VLOOKUP(H10&amp;"_"&amp;I10,[1]挑战模式!$AV:$BG,9-J10,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H10&amp;"_"&amp;I10,[1]挑战模式!$BH:$BS,9-J10,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E10">
-        <f>IF(VLOOKUP(H10&amp;"_"&amp;I10,[1]挑战模式!$AV:$BG,9-J10,FALSE)="","",IF(ISNUMBER(VLOOKUP(H10&amp;"_"&amp;I10,[1]挑战模式!$AV:$BG,9-J10,FALSE)),VLOOKUP(H10&amp;"_"&amp;I10,[1]挑战模式!$AV:$BG,9-J10,FALSE),1))</f>
+        <f>IF(VLOOKUP(H10&amp;"_"&amp;I10,[1]挑战模式!$BH:$BS,9-J10,FALSE)="","",IF(ISNUMBER(VLOOKUP(H10&amp;"_"&amp;I10,[1]挑战模式!$BH:$BS,9-J10,FALSE)),VLOOKUP(H10&amp;"_"&amp;I10,[1]挑战模式!$BH:$BS,9-J10,FALSE),1))</f>
         <v>1</v>
       </c>
       <c r="F10">
@@ -3897,8 +4213,8 @@
         <v>10000</v>
       </c>
       <c r="G10" t="str">
-        <f>IF(VLOOKUP(H10&amp;"_"&amp;I10,[1]挑战模式!$AV:$BG,9-J10,FALSE)="","",IF(ISNUMBER(VLOOKUP(H10&amp;"_"&amp;I10,[1]挑战模式!$AV:$BG,9-J10,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H10&amp;"_"&amp;I10,[1]挑战模式!$AV:$BG,9-J10,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v>Tow6_1</v>
+        <f>IF(VLOOKUP(H10&amp;"_"&amp;I10,[1]挑战模式!$BH:$BS,9-J10,FALSE)="","",IF(ISNUMBER(VLOOKUP(H10&amp;"_"&amp;I10,[1]挑战模式!$BH:$BS,9-J10,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H10&amp;"_"&amp;I10,[1]挑战模式!$BH:$BS,9-J10,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Tow8_1</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -3920,11 +4236,11 @@
         <v>DropAll</v>
       </c>
       <c r="D11" t="str">
-        <f>IF(VLOOKUP(H11&amp;"_"&amp;I11,[1]挑战模式!$AV:$BG,9-J11,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H11&amp;"_"&amp;I11,[1]挑战模式!$BH:$BS,9-J11,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E11">
-        <f>IF(VLOOKUP(H11&amp;"_"&amp;I11,[1]挑战模式!$AV:$BG,9-J11,FALSE)="","",IF(ISNUMBER(VLOOKUP(H11&amp;"_"&amp;I11,[1]挑战模式!$AV:$BG,9-J11,FALSE)),VLOOKUP(H11&amp;"_"&amp;I11,[1]挑战模式!$AV:$BG,9-J11,FALSE),1))</f>
+        <f>IF(VLOOKUP(H11&amp;"_"&amp;I11,[1]挑战模式!$BH:$BS,9-J11,FALSE)="","",IF(ISNUMBER(VLOOKUP(H11&amp;"_"&amp;I11,[1]挑战模式!$BH:$BS,9-J11,FALSE)),VLOOKUP(H11&amp;"_"&amp;I11,[1]挑战模式!$BH:$BS,9-J11,FALSE),1))</f>
         <v>110</v>
       </c>
       <c r="F11">
@@ -3932,7 +4248,7 @@
         <v>10000</v>
       </c>
       <c r="G11" t="str">
-        <f>IF(VLOOKUP(H11&amp;"_"&amp;I11,[1]挑战模式!$AV:$BG,9-J11,FALSE)="","",IF(ISNUMBER(VLOOKUP(H11&amp;"_"&amp;I11,[1]挑战模式!$AV:$BG,9-J11,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H11&amp;"_"&amp;I11,[1]挑战模式!$AV:$BG,9-J11,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H11&amp;"_"&amp;I11,[1]挑战模式!$BH:$BS,9-J11,FALSE)="","",IF(ISNUMBER(VLOOKUP(H11&amp;"_"&amp;I11,[1]挑战模式!$BH:$BS,9-J11,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H11&amp;"_"&amp;I11,[1]挑战模式!$BH:$BS,9-J11,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H11">
@@ -3955,11 +4271,11 @@
         <v/>
       </c>
       <c r="D12" t="str">
-        <f>IF(VLOOKUP(H12&amp;"_"&amp;I12,[1]挑战模式!$AV:$BG,9-J12,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H12&amp;"_"&amp;I12,[1]挑战模式!$BH:$BS,9-J12,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E12">
-        <f>IF(VLOOKUP(H12&amp;"_"&amp;I12,[1]挑战模式!$AV:$BG,9-J12,FALSE)="","",IF(ISNUMBER(VLOOKUP(H12&amp;"_"&amp;I12,[1]挑战模式!$AV:$BG,9-J12,FALSE)),VLOOKUP(H12&amp;"_"&amp;I12,[1]挑战模式!$AV:$BG,9-J12,FALSE),1))</f>
+        <f>IF(VLOOKUP(H12&amp;"_"&amp;I12,[1]挑战模式!$BH:$BS,9-J12,FALSE)="","",IF(ISNUMBER(VLOOKUP(H12&amp;"_"&amp;I12,[1]挑战模式!$BH:$BS,9-J12,FALSE)),VLOOKUP(H12&amp;"_"&amp;I12,[1]挑战模式!$BH:$BS,9-J12,FALSE),1))</f>
         <v>1</v>
       </c>
       <c r="F12">
@@ -3967,8 +4283,8 @@
         <v>10000</v>
       </c>
       <c r="G12" t="str">
-        <f>IF(VLOOKUP(H12&amp;"_"&amp;I12,[1]挑战模式!$AV:$BG,9-J12,FALSE)="","",IF(ISNUMBER(VLOOKUP(H12&amp;"_"&amp;I12,[1]挑战模式!$AV:$BG,9-J12,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H12&amp;"_"&amp;I12,[1]挑战模式!$AV:$BG,9-J12,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v>Tow8_1</v>
+        <f>IF(VLOOKUP(H12&amp;"_"&amp;I12,[1]挑战模式!$BH:$BS,9-J12,FALSE)="","",IF(ISNUMBER(VLOOKUP(H12&amp;"_"&amp;I12,[1]挑战模式!$BH:$BS,9-J12,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H12&amp;"_"&amp;I12,[1]挑战模式!$BH:$BS,9-J12,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Tow5_1</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -3990,11 +4306,11 @@
         <v>DropAll</v>
       </c>
       <c r="D13" t="str">
-        <f>IF(VLOOKUP(H13&amp;"_"&amp;I13,[1]挑战模式!$AV:$BG,9-J13,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H13&amp;"_"&amp;I13,[1]挑战模式!$BH:$BS,9-J13,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E13">
-        <f>IF(VLOOKUP(H13&amp;"_"&amp;I13,[1]挑战模式!$AV:$BG,9-J13,FALSE)="","",IF(ISNUMBER(VLOOKUP(H13&amp;"_"&amp;I13,[1]挑战模式!$AV:$BG,9-J13,FALSE)),VLOOKUP(H13&amp;"_"&amp;I13,[1]挑战模式!$AV:$BG,9-J13,FALSE),1))</f>
+        <f>IF(VLOOKUP(H13&amp;"_"&amp;I13,[1]挑战模式!$BH:$BS,9-J13,FALSE)="","",IF(ISNUMBER(VLOOKUP(H13&amp;"_"&amp;I13,[1]挑战模式!$BH:$BS,9-J13,FALSE)),VLOOKUP(H13&amp;"_"&amp;I13,[1]挑战模式!$BH:$BS,9-J13,FALSE),1))</f>
         <v>150</v>
       </c>
       <c r="F13">
@@ -4002,7 +4318,7 @@
         <v>10000</v>
       </c>
       <c r="G13" t="str">
-        <f>IF(VLOOKUP(H13&amp;"_"&amp;I13,[1]挑战模式!$AV:$BG,9-J13,FALSE)="","",IF(ISNUMBER(VLOOKUP(H13&amp;"_"&amp;I13,[1]挑战模式!$AV:$BG,9-J13,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H13&amp;"_"&amp;I13,[1]挑战模式!$AV:$BG,9-J13,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H13&amp;"_"&amp;I13,[1]挑战模式!$BH:$BS,9-J13,FALSE)="","",IF(ISNUMBER(VLOOKUP(H13&amp;"_"&amp;I13,[1]挑战模式!$BH:$BS,9-J13,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H13&amp;"_"&amp;I13,[1]挑战模式!$BH:$BS,9-J13,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H13">
@@ -4025,20 +4341,20 @@
         <v/>
       </c>
       <c r="D14" t="str">
-        <f>IF(VLOOKUP(H14&amp;"_"&amp;I14,[1]挑战模式!$AV:$BG,9-J14,FALSE)="","","DropItemOne")</f>
-        <v>DropItemOne</v>
-      </c>
-      <c r="E14">
-        <f>IF(VLOOKUP(H14&amp;"_"&amp;I14,[1]挑战模式!$AV:$BG,9-J14,FALSE)="","",IF(ISNUMBER(VLOOKUP(H14&amp;"_"&amp;I14,[1]挑战模式!$AV:$BG,9-J14,FALSE)),VLOOKUP(H14&amp;"_"&amp;I14,[1]挑战模式!$AV:$BG,9-J14,FALSE),1))</f>
-        <v>1</v>
-      </c>
-      <c r="F14">
+        <f>IF(VLOOKUP(H14&amp;"_"&amp;I14,[1]挑战模式!$BH:$BS,9-J14,FALSE)="","","DropItemOne")</f>
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <f>IF(VLOOKUP(H14&amp;"_"&amp;I14,[1]挑战模式!$BH:$BS,9-J14,FALSE)="","",IF(ISNUMBER(VLOOKUP(H14&amp;"_"&amp;I14,[1]挑战模式!$BH:$BS,9-J14,FALSE)),VLOOKUP(H14&amp;"_"&amp;I14,[1]挑战模式!$BH:$BS,9-J14,FALSE),1))</f>
+        <v/>
+      </c>
+      <c r="F14" t="str">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v/>
       </c>
       <c r="G14" t="str">
-        <f>IF(VLOOKUP(H14&amp;"_"&amp;I14,[1]挑战模式!$AV:$BG,9-J14,FALSE)="","",IF(ISNUMBER(VLOOKUP(H14&amp;"_"&amp;I14,[1]挑战模式!$AV:$BG,9-J14,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H14&amp;"_"&amp;I14,[1]挑战模式!$AV:$BG,9-J14,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v>Tow21_1</v>
+        <f>IF(VLOOKUP(H14&amp;"_"&amp;I14,[1]挑战模式!$BH:$BS,9-J14,FALSE)="","",IF(ISNUMBER(VLOOKUP(H14&amp;"_"&amp;I14,[1]挑战模式!$BH:$BS,9-J14,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H14&amp;"_"&amp;I14,[1]挑战模式!$BH:$BS,9-J14,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v/>
       </c>
       <c r="H14">
         <v>0</v>
@@ -4060,11 +4376,11 @@
         <v>DropAll</v>
       </c>
       <c r="D15" t="str">
-        <f>IF(VLOOKUP(H15&amp;"_"&amp;I15,[1]挑战模式!$AV:$BG,9-J15,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H15&amp;"_"&amp;I15,[1]挑战模式!$BH:$BS,9-J15,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E15">
-        <f>IF(VLOOKUP(H15&amp;"_"&amp;I15,[1]挑战模式!$AV:$BG,9-J15,FALSE)="","",IF(ISNUMBER(VLOOKUP(H15&amp;"_"&amp;I15,[1]挑战模式!$AV:$BG,9-J15,FALSE)),VLOOKUP(H15&amp;"_"&amp;I15,[1]挑战模式!$AV:$BG,9-J15,FALSE),1))</f>
+        <f>IF(VLOOKUP(H15&amp;"_"&amp;I15,[1]挑战模式!$BH:$BS,9-J15,FALSE)="","",IF(ISNUMBER(VLOOKUP(H15&amp;"_"&amp;I15,[1]挑战模式!$BH:$BS,9-J15,FALSE)),VLOOKUP(H15&amp;"_"&amp;I15,[1]挑战模式!$BH:$BS,9-J15,FALSE),1))</f>
         <v>200</v>
       </c>
       <c r="F15">
@@ -4072,7 +4388,7 @@
         <v>10000</v>
       </c>
       <c r="G15" t="str">
-        <f>IF(VLOOKUP(H15&amp;"_"&amp;I15,[1]挑战模式!$AV:$BG,9-J15,FALSE)="","",IF(ISNUMBER(VLOOKUP(H15&amp;"_"&amp;I15,[1]挑战模式!$AV:$BG,9-J15,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H15&amp;"_"&amp;I15,[1]挑战模式!$AV:$BG,9-J15,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H15&amp;"_"&amp;I15,[1]挑战模式!$BH:$BS,9-J15,FALSE)="","",IF(ISNUMBER(VLOOKUP(H15&amp;"_"&amp;I15,[1]挑战模式!$BH:$BS,9-J15,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H15&amp;"_"&amp;I15,[1]挑战模式!$BH:$BS,9-J15,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H15">
@@ -4095,20 +4411,20 @@
         <v/>
       </c>
       <c r="D16" t="str">
-        <f>IF(VLOOKUP(H16&amp;"_"&amp;I16,[1]挑战模式!$AV:$BG,9-J16,FALSE)="","","DropItemOne")</f>
-        <v>DropItemOne</v>
-      </c>
-      <c r="E16">
-        <f>IF(VLOOKUP(H16&amp;"_"&amp;I16,[1]挑战模式!$AV:$BG,9-J16,FALSE)="","",IF(ISNUMBER(VLOOKUP(H16&amp;"_"&amp;I16,[1]挑战模式!$AV:$BG,9-J16,FALSE)),VLOOKUP(H16&amp;"_"&amp;I16,[1]挑战模式!$AV:$BG,9-J16,FALSE),1))</f>
-        <v>1</v>
-      </c>
-      <c r="F16">
+        <f>IF(VLOOKUP(H16&amp;"_"&amp;I16,[1]挑战模式!$BH:$BS,9-J16,FALSE)="","","DropItemOne")</f>
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <f>IF(VLOOKUP(H16&amp;"_"&amp;I16,[1]挑战模式!$BH:$BS,9-J16,FALSE)="","",IF(ISNUMBER(VLOOKUP(H16&amp;"_"&amp;I16,[1]挑战模式!$BH:$BS,9-J16,FALSE)),VLOOKUP(H16&amp;"_"&amp;I16,[1]挑战模式!$BH:$BS,9-J16,FALSE),1))</f>
+        <v/>
+      </c>
+      <c r="F16" t="str">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v/>
       </c>
       <c r="G16" t="str">
-        <f>IF(VLOOKUP(H16&amp;"_"&amp;I16,[1]挑战模式!$AV:$BG,9-J16,FALSE)="","",IF(ISNUMBER(VLOOKUP(H16&amp;"_"&amp;I16,[1]挑战模式!$AV:$BG,9-J16,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H16&amp;"_"&amp;I16,[1]挑战模式!$AV:$BG,9-J16,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v>Tow3_1</v>
+        <f>IF(VLOOKUP(H16&amp;"_"&amp;I16,[1]挑战模式!$BH:$BS,9-J16,FALSE)="","",IF(ISNUMBER(VLOOKUP(H16&amp;"_"&amp;I16,[1]挑战模式!$BH:$BS,9-J16,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H16&amp;"_"&amp;I16,[1]挑战模式!$BH:$BS,9-J16,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v/>
       </c>
       <c r="H16">
         <v>0</v>
@@ -4130,11 +4446,11 @@
         <v>DropAll</v>
       </c>
       <c r="D17" t="str">
-        <f>IF(VLOOKUP(H17&amp;"_"&amp;I17,[1]挑战模式!$AV:$BG,9-J17,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H17&amp;"_"&amp;I17,[1]挑战模式!$BH:$BS,9-J17,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E17">
-        <f>IF(VLOOKUP(H17&amp;"_"&amp;I17,[1]挑战模式!$AV:$BG,9-J17,FALSE)="","",IF(ISNUMBER(VLOOKUP(H17&amp;"_"&amp;I17,[1]挑战模式!$AV:$BG,9-J17,FALSE)),VLOOKUP(H17&amp;"_"&amp;I17,[1]挑战模式!$AV:$BG,9-J17,FALSE),1))</f>
+        <f>IF(VLOOKUP(H17&amp;"_"&amp;I17,[1]挑战模式!$BH:$BS,9-J17,FALSE)="","",IF(ISNUMBER(VLOOKUP(H17&amp;"_"&amp;I17,[1]挑战模式!$BH:$BS,9-J17,FALSE)),VLOOKUP(H17&amp;"_"&amp;I17,[1]挑战模式!$BH:$BS,9-J17,FALSE),1))</f>
         <v>260</v>
       </c>
       <c r="F17">
@@ -4142,7 +4458,7 @@
         <v>10000</v>
       </c>
       <c r="G17" t="str">
-        <f>IF(VLOOKUP(H17&amp;"_"&amp;I17,[1]挑战模式!$AV:$BG,9-J17,FALSE)="","",IF(ISNUMBER(VLOOKUP(H17&amp;"_"&amp;I17,[1]挑战模式!$AV:$BG,9-J17,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H17&amp;"_"&amp;I17,[1]挑战模式!$AV:$BG,9-J17,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H17&amp;"_"&amp;I17,[1]挑战模式!$BH:$BS,9-J17,FALSE)="","",IF(ISNUMBER(VLOOKUP(H17&amp;"_"&amp;I17,[1]挑战模式!$BH:$BS,9-J17,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H17&amp;"_"&amp;I17,[1]挑战模式!$BH:$BS,9-J17,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H17">
@@ -4165,11 +4481,11 @@
         <v/>
       </c>
       <c r="D18" t="str">
-        <f>IF(VLOOKUP(H18&amp;"_"&amp;I18,[1]挑战模式!$AV:$BG,9-J18,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H18&amp;"_"&amp;I18,[1]挑战模式!$BH:$BS,9-J18,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E18">
-        <f>IF(VLOOKUP(H18&amp;"_"&amp;I18,[1]挑战模式!$AV:$BG,9-J18,FALSE)="","",IF(ISNUMBER(VLOOKUP(H18&amp;"_"&amp;I18,[1]挑战模式!$AV:$BG,9-J18,FALSE)),VLOOKUP(H18&amp;"_"&amp;I18,[1]挑战模式!$AV:$BG,9-J18,FALSE),1))</f>
+        <f>IF(VLOOKUP(H18&amp;"_"&amp;I18,[1]挑战模式!$BH:$BS,9-J18,FALSE)="","",IF(ISNUMBER(VLOOKUP(H18&amp;"_"&amp;I18,[1]挑战模式!$BH:$BS,9-J18,FALSE)),VLOOKUP(H18&amp;"_"&amp;I18,[1]挑战模式!$BH:$BS,9-J18,FALSE),1))</f>
         <v>1</v>
       </c>
       <c r="F18">
@@ -4177,8 +4493,8 @@
         <v>10000</v>
       </c>
       <c r="G18" t="str">
-        <f>IF(VLOOKUP(H18&amp;"_"&amp;I18,[1]挑战模式!$AV:$BG,9-J18,FALSE)="","",IF(ISNUMBER(VLOOKUP(H18&amp;"_"&amp;I18,[1]挑战模式!$AV:$BG,9-J18,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H18&amp;"_"&amp;I18,[1]挑战模式!$AV:$BG,9-J18,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v>Tow25_1</v>
+        <f>IF(VLOOKUP(H18&amp;"_"&amp;I18,[1]挑战模式!$BH:$BS,9-J18,FALSE)="","",IF(ISNUMBER(VLOOKUP(H18&amp;"_"&amp;I18,[1]挑战模式!$BH:$BS,9-J18,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H18&amp;"_"&amp;I18,[1]挑战模式!$BH:$BS,9-J18,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>PlayerSkill_IceBind</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -4200,11 +4516,11 @@
         <v>DropAll</v>
       </c>
       <c r="D19" t="str">
-        <f>IF(VLOOKUP(H19&amp;"_"&amp;I19,[1]挑战模式!$AV:$BG,9-J19,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H19&amp;"_"&amp;I19,[1]挑战模式!$BH:$BS,9-J19,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E19">
-        <f>IF(VLOOKUP(H19&amp;"_"&amp;I19,[1]挑战模式!$AV:$BG,9-J19,FALSE)="","",IF(ISNUMBER(VLOOKUP(H19&amp;"_"&amp;I19,[1]挑战模式!$AV:$BG,9-J19,FALSE)),VLOOKUP(H19&amp;"_"&amp;I19,[1]挑战模式!$AV:$BG,9-J19,FALSE),1))</f>
+        <f>IF(VLOOKUP(H19&amp;"_"&amp;I19,[1]挑战模式!$BH:$BS,9-J19,FALSE)="","",IF(ISNUMBER(VLOOKUP(H19&amp;"_"&amp;I19,[1]挑战模式!$BH:$BS,9-J19,FALSE)),VLOOKUP(H19&amp;"_"&amp;I19,[1]挑战模式!$BH:$BS,9-J19,FALSE),1))</f>
         <v>330</v>
       </c>
       <c r="F19">
@@ -4212,7 +4528,7 @@
         <v>10000</v>
       </c>
       <c r="G19" t="str">
-        <f>IF(VLOOKUP(H19&amp;"_"&amp;I19,[1]挑战模式!$AV:$BG,9-J19,FALSE)="","",IF(ISNUMBER(VLOOKUP(H19&amp;"_"&amp;I19,[1]挑战模式!$AV:$BG,9-J19,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H19&amp;"_"&amp;I19,[1]挑战模式!$AV:$BG,9-J19,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H19&amp;"_"&amp;I19,[1]挑战模式!$BH:$BS,9-J19,FALSE)="","",IF(ISNUMBER(VLOOKUP(H19&amp;"_"&amp;I19,[1]挑战模式!$BH:$BS,9-J19,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H19&amp;"_"&amp;I19,[1]挑战模式!$BH:$BS,9-J19,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H19">
@@ -4235,20 +4551,20 @@
         <v/>
       </c>
       <c r="D20" t="str">
-        <f>IF(VLOOKUP(H20&amp;"_"&amp;I20,[1]挑战模式!$AV:$BG,9-J20,FALSE)="","","DropItemOne")</f>
-        <v>DropItemOne</v>
-      </c>
-      <c r="E20">
-        <f>IF(VLOOKUP(H20&amp;"_"&amp;I20,[1]挑战模式!$AV:$BG,9-J20,FALSE)="","",IF(ISNUMBER(VLOOKUP(H20&amp;"_"&amp;I20,[1]挑战模式!$AV:$BG,9-J20,FALSE)),VLOOKUP(H20&amp;"_"&amp;I20,[1]挑战模式!$AV:$BG,9-J20,FALSE),1))</f>
-        <v>1</v>
-      </c>
-      <c r="F20">
+        <f>IF(VLOOKUP(H20&amp;"_"&amp;I20,[1]挑战模式!$BH:$BS,9-J20,FALSE)="","","DropItemOne")</f>
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <f>IF(VLOOKUP(H20&amp;"_"&amp;I20,[1]挑战模式!$BH:$BS,9-J20,FALSE)="","",IF(ISNUMBER(VLOOKUP(H20&amp;"_"&amp;I20,[1]挑战模式!$BH:$BS,9-J20,FALSE)),VLOOKUP(H20&amp;"_"&amp;I20,[1]挑战模式!$BH:$BS,9-J20,FALSE),1))</f>
+        <v/>
+      </c>
+      <c r="F20" t="str">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v/>
       </c>
       <c r="G20" t="str">
-        <f>IF(VLOOKUP(H20&amp;"_"&amp;I20,[1]挑战模式!$AV:$BG,9-J20,FALSE)="","",IF(ISNUMBER(VLOOKUP(H20&amp;"_"&amp;I20,[1]挑战模式!$AV:$BG,9-J20,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H20&amp;"_"&amp;I20,[1]挑战模式!$AV:$BG,9-J20,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v>Tow4_1</v>
+        <f>IF(VLOOKUP(H20&amp;"_"&amp;I20,[1]挑战模式!$BH:$BS,9-J20,FALSE)="","",IF(ISNUMBER(VLOOKUP(H20&amp;"_"&amp;I20,[1]挑战模式!$BH:$BS,9-J20,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H20&amp;"_"&amp;I20,[1]挑战模式!$BH:$BS,9-J20,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v/>
       </c>
       <c r="H20">
         <v>0</v>
@@ -4270,11 +4586,11 @@
         <v>DropAll</v>
       </c>
       <c r="D21" t="str">
-        <f>IF(VLOOKUP(H21&amp;"_"&amp;I21,[1]挑战模式!$AV:$BG,9-J21,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H21&amp;"_"&amp;I21,[1]挑战模式!$BH:$BS,9-J21,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E21">
-        <f>IF(VLOOKUP(H21&amp;"_"&amp;I21,[1]挑战模式!$AV:$BG,9-J21,FALSE)="","",IF(ISNUMBER(VLOOKUP(H21&amp;"_"&amp;I21,[1]挑战模式!$AV:$BG,9-J21,FALSE)),VLOOKUP(H21&amp;"_"&amp;I21,[1]挑战模式!$AV:$BG,9-J21,FALSE),1))</f>
+        <f>IF(VLOOKUP(H21&amp;"_"&amp;I21,[1]挑战模式!$BH:$BS,9-J21,FALSE)="","",IF(ISNUMBER(VLOOKUP(H21&amp;"_"&amp;I21,[1]挑战模式!$BH:$BS,9-J21,FALSE)),VLOOKUP(H21&amp;"_"&amp;I21,[1]挑战模式!$BH:$BS,9-J21,FALSE),1))</f>
         <v>410</v>
       </c>
       <c r="F21">
@@ -4282,7 +4598,7 @@
         <v>10000</v>
       </c>
       <c r="G21" t="str">
-        <f>IF(VLOOKUP(H21&amp;"_"&amp;I21,[1]挑战模式!$AV:$BG,9-J21,FALSE)="","",IF(ISNUMBER(VLOOKUP(H21&amp;"_"&amp;I21,[1]挑战模式!$AV:$BG,9-J21,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H21&amp;"_"&amp;I21,[1]挑战模式!$AV:$BG,9-J21,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H21&amp;"_"&amp;I21,[1]挑战模式!$BH:$BS,9-J21,FALSE)="","",IF(ISNUMBER(VLOOKUP(H21&amp;"_"&amp;I21,[1]挑战模式!$BH:$BS,9-J21,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H21&amp;"_"&amp;I21,[1]挑战模式!$BH:$BS,9-J21,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H21">
@@ -4305,20 +4621,20 @@
         <v/>
       </c>
       <c r="D22" t="str">
-        <f>IF(VLOOKUP(H22&amp;"_"&amp;I22,[1]挑战模式!$AV:$BG,9-J22,FALSE)="","","DropItemOne")</f>
-        <v>DropItemOne</v>
-      </c>
-      <c r="E22">
-        <f>IF(VLOOKUP(H22&amp;"_"&amp;I22,[1]挑战模式!$AV:$BG,9-J22,FALSE)="","",IF(ISNUMBER(VLOOKUP(H22&amp;"_"&amp;I22,[1]挑战模式!$AV:$BG,9-J22,FALSE)),VLOOKUP(H22&amp;"_"&amp;I22,[1]挑战模式!$AV:$BG,9-J22,FALSE),1))</f>
-        <v>1</v>
-      </c>
-      <c r="F22">
+        <f>IF(VLOOKUP(H22&amp;"_"&amp;I22,[1]挑战模式!$BH:$BS,9-J22,FALSE)="","","DropItemOne")</f>
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <f>IF(VLOOKUP(H22&amp;"_"&amp;I22,[1]挑战模式!$BH:$BS,9-J22,FALSE)="","",IF(ISNUMBER(VLOOKUP(H22&amp;"_"&amp;I22,[1]挑战模式!$BH:$BS,9-J22,FALSE)),VLOOKUP(H22&amp;"_"&amp;I22,[1]挑战模式!$BH:$BS,9-J22,FALSE),1))</f>
+        <v/>
+      </c>
+      <c r="F22" t="str">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v/>
       </c>
       <c r="G22" t="str">
-        <f>IF(VLOOKUP(H22&amp;"_"&amp;I22,[1]挑战模式!$AV:$BG,9-J22,FALSE)="","",IF(ISNUMBER(VLOOKUP(H22&amp;"_"&amp;I22,[1]挑战模式!$AV:$BG,9-J22,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H22&amp;"_"&amp;I22,[1]挑战模式!$AV:$BG,9-J22,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v>Tow10_1</v>
+        <f>IF(VLOOKUP(H22&amp;"_"&amp;I22,[1]挑战模式!$BH:$BS,9-J22,FALSE)="","",IF(ISNUMBER(VLOOKUP(H22&amp;"_"&amp;I22,[1]挑战模式!$BH:$BS,9-J22,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H22&amp;"_"&amp;I22,[1]挑战模式!$BH:$BS,9-J22,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v/>
       </c>
       <c r="H22">
         <v>0</v>
@@ -4340,11 +4656,11 @@
         <v>DropAll</v>
       </c>
       <c r="D23" t="str">
-        <f>IF(VLOOKUP(H23&amp;"_"&amp;I23,[1]挑战模式!$AV:$BG,9-J23,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H23&amp;"_"&amp;I23,[1]挑战模式!$BH:$BS,9-J23,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E23">
-        <f>IF(VLOOKUP(H23&amp;"_"&amp;I23,[1]挑战模式!$AV:$BG,9-J23,FALSE)="","",IF(ISNUMBER(VLOOKUP(H23&amp;"_"&amp;I23,[1]挑战模式!$AV:$BG,9-J23,FALSE)),VLOOKUP(H23&amp;"_"&amp;I23,[1]挑战模式!$AV:$BG,9-J23,FALSE),1))</f>
+        <f>IF(VLOOKUP(H23&amp;"_"&amp;I23,[1]挑战模式!$BH:$BS,9-J23,FALSE)="","",IF(ISNUMBER(VLOOKUP(H23&amp;"_"&amp;I23,[1]挑战模式!$BH:$BS,9-J23,FALSE)),VLOOKUP(H23&amp;"_"&amp;I23,[1]挑战模式!$BH:$BS,9-J23,FALSE),1))</f>
         <v>500</v>
       </c>
       <c r="F23">
@@ -4352,7 +4668,7 @@
         <v>10000</v>
       </c>
       <c r="G23" t="str">
-        <f>IF(VLOOKUP(H23&amp;"_"&amp;I23,[1]挑战模式!$AV:$BG,9-J23,FALSE)="","",IF(ISNUMBER(VLOOKUP(H23&amp;"_"&amp;I23,[1]挑战模式!$AV:$BG,9-J23,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H23&amp;"_"&amp;I23,[1]挑战模式!$AV:$BG,9-J23,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H23&amp;"_"&amp;I23,[1]挑战模式!$BH:$BS,9-J23,FALSE)="","",IF(ISNUMBER(VLOOKUP(H23&amp;"_"&amp;I23,[1]挑战模式!$BH:$BS,9-J23,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H23&amp;"_"&amp;I23,[1]挑战模式!$BH:$BS,9-J23,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H23">
@@ -4375,20 +4691,20 @@
         <v/>
       </c>
       <c r="D24" t="str">
-        <f>IF(VLOOKUP(H24&amp;"_"&amp;I24,[1]挑战模式!$AV:$BG,9-J24,FALSE)="","","DropItemOne")</f>
-        <v/>
-      </c>
-      <c r="E24" t="str">
-        <f>IF(VLOOKUP(H24&amp;"_"&amp;I24,[1]挑战模式!$AV:$BG,9-J24,FALSE)="","",IF(ISNUMBER(VLOOKUP(H24&amp;"_"&amp;I24,[1]挑战模式!$AV:$BG,9-J24,FALSE)),VLOOKUP(H24&amp;"_"&amp;I24,[1]挑战模式!$AV:$BG,9-J24,FALSE),1))</f>
-        <v/>
-      </c>
-      <c r="F24" t="str">
+        <f>IF(VLOOKUP(H24&amp;"_"&amp;I24,[1]挑战模式!$BH:$BS,9-J24,FALSE)="","","DropItemOne")</f>
+        <v>DropItemOne</v>
+      </c>
+      <c r="E24">
+        <f>IF(VLOOKUP(H24&amp;"_"&amp;I24,[1]挑战模式!$BH:$BS,9-J24,FALSE)="","",IF(ISNUMBER(VLOOKUP(H24&amp;"_"&amp;I24,[1]挑战模式!$BH:$BS,9-J24,FALSE)),VLOOKUP(H24&amp;"_"&amp;I24,[1]挑战模式!$BH:$BS,9-J24,FALSE),1))</f>
+        <v>1</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="2"/>
-        <v/>
+        <v>10000</v>
       </c>
       <c r="G24" t="str">
-        <f>IF(VLOOKUP(H24&amp;"_"&amp;I24,[1]挑战模式!$AV:$BG,9-J24,FALSE)="","",IF(ISNUMBER(VLOOKUP(H24&amp;"_"&amp;I24,[1]挑战模式!$AV:$BG,9-J24,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H24&amp;"_"&amp;I24,[1]挑战模式!$AV:$BG,9-J24,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v/>
+        <f>IF(VLOOKUP(H24&amp;"_"&amp;I24,[1]挑战模式!$BH:$BS,9-J24,FALSE)="","",IF(ISNUMBER(VLOOKUP(H24&amp;"_"&amp;I24,[1]挑战模式!$BH:$BS,9-J24,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H24&amp;"_"&amp;I24,[1]挑战模式!$BH:$BS,9-J24,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Tow6_1</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -4410,11 +4726,11 @@
         <v>DropAll</v>
       </c>
       <c r="D25" t="str">
-        <f>IF(VLOOKUP(H25&amp;"_"&amp;I25,[1]挑战模式!$AV:$BG,9-J25,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H25&amp;"_"&amp;I25,[1]挑战模式!$BH:$BS,9-J25,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E25">
-        <f>IF(VLOOKUP(H25&amp;"_"&amp;I25,[1]挑战模式!$AV:$BG,9-J25,FALSE)="","",IF(ISNUMBER(VLOOKUP(H25&amp;"_"&amp;I25,[1]挑战模式!$AV:$BG,9-J25,FALSE)),VLOOKUP(H25&amp;"_"&amp;I25,[1]挑战模式!$AV:$BG,9-J25,FALSE),1))</f>
+        <f>IF(VLOOKUP(H25&amp;"_"&amp;I25,[1]挑战模式!$BH:$BS,9-J25,FALSE)="","",IF(ISNUMBER(VLOOKUP(H25&amp;"_"&amp;I25,[1]挑战模式!$BH:$BS,9-J25,FALSE)),VLOOKUP(H25&amp;"_"&amp;I25,[1]挑战模式!$BH:$BS,9-J25,FALSE),1))</f>
         <v>610</v>
       </c>
       <c r="F25">
@@ -4422,7 +4738,7 @@
         <v>10000</v>
       </c>
       <c r="G25" t="str">
-        <f>IF(VLOOKUP(H25&amp;"_"&amp;I25,[1]挑战模式!$AV:$BG,9-J25,FALSE)="","",IF(ISNUMBER(VLOOKUP(H25&amp;"_"&amp;I25,[1]挑战模式!$AV:$BG,9-J25,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H25&amp;"_"&amp;I25,[1]挑战模式!$AV:$BG,9-J25,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H25&amp;"_"&amp;I25,[1]挑战模式!$BH:$BS,9-J25,FALSE)="","",IF(ISNUMBER(VLOOKUP(H25&amp;"_"&amp;I25,[1]挑战模式!$BH:$BS,9-J25,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H25&amp;"_"&amp;I25,[1]挑战模式!$BH:$BS,9-J25,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H25">
@@ -4445,20 +4761,20 @@
         <v/>
       </c>
       <c r="D26" t="str">
-        <f>IF(VLOOKUP(H26&amp;"_"&amp;I26,[1]挑战模式!$AV:$BG,9-J26,FALSE)="","","DropItemOne")</f>
-        <v>DropItemOne</v>
-      </c>
-      <c r="E26">
-        <f>IF(VLOOKUP(H26&amp;"_"&amp;I26,[1]挑战模式!$AV:$BG,9-J26,FALSE)="","",IF(ISNUMBER(VLOOKUP(H26&amp;"_"&amp;I26,[1]挑战模式!$AV:$BG,9-J26,FALSE)),VLOOKUP(H26&amp;"_"&amp;I26,[1]挑战模式!$AV:$BG,9-J26,FALSE),1))</f>
-        <v>1</v>
-      </c>
-      <c r="F26">
+        <f>IF(VLOOKUP(H26&amp;"_"&amp;I26,[1]挑战模式!$BH:$BS,9-J26,FALSE)="","","DropItemOne")</f>
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <f>IF(VLOOKUP(H26&amp;"_"&amp;I26,[1]挑战模式!$BH:$BS,9-J26,FALSE)="","",IF(ISNUMBER(VLOOKUP(H26&amp;"_"&amp;I26,[1]挑战模式!$BH:$BS,9-J26,FALSE)),VLOOKUP(H26&amp;"_"&amp;I26,[1]挑战模式!$BH:$BS,9-J26,FALSE),1))</f>
+        <v/>
+      </c>
+      <c r="F26" t="str">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v/>
       </c>
       <c r="G26" t="str">
-        <f>IF(VLOOKUP(H26&amp;"_"&amp;I26,[1]挑战模式!$AV:$BG,9-J26,FALSE)="","",IF(ISNUMBER(VLOOKUP(H26&amp;"_"&amp;I26,[1]挑战模式!$AV:$BG,9-J26,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H26&amp;"_"&amp;I26,[1]挑战模式!$AV:$BG,9-J26,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v>Tow11_1</v>
+        <f>IF(VLOOKUP(H26&amp;"_"&amp;I26,[1]挑战模式!$BH:$BS,9-J26,FALSE)="","",IF(ISNUMBER(VLOOKUP(H26&amp;"_"&amp;I26,[1]挑战模式!$BH:$BS,9-J26,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H26&amp;"_"&amp;I26,[1]挑战模式!$BH:$BS,9-J26,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v/>
       </c>
       <c r="H26">
         <v>0</v>
@@ -4472,34 +4788,34 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>DropItemRule_First_Season1_Challenge1</v>
+        <f>IF(I27&lt;&gt;I26,"DropItemRule_First_Season"&amp;H27&amp;"_Challenge"&amp;I27,"")</f>
+        <v>DropItemRule_First_Season0_Challenge11</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B27="","","DropAll")</f>
         <v>DropAll</v>
       </c>
       <c r="D27" t="str">
-        <f>IF(VLOOKUP(H27&amp;"_"&amp;I27,[1]挑战模式!$AV:$BG,9-J27,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H27&amp;"_"&amp;I27,[1]挑战模式!$BH:$BS,9-J27,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E27">
-        <f>IF(VLOOKUP(H27&amp;"_"&amp;I27,[1]挑战模式!$AV:$BG,9-J27,FALSE)="","",IF(ISNUMBER(VLOOKUP(H27&amp;"_"&amp;I27,[1]挑战模式!$AV:$BG,9-J27,FALSE)),VLOOKUP(H27&amp;"_"&amp;I27,[1]挑战模式!$AV:$BG,9-J27,FALSE),1))</f>
-        <v>500</v>
+        <f>IF(VLOOKUP(H27&amp;"_"&amp;I27,[1]挑战模式!$BH:$BS,9-J27,FALSE)="","",IF(ISNUMBER(VLOOKUP(H27&amp;"_"&amp;I27,[1]挑战模式!$BH:$BS,9-J27,FALSE)),VLOOKUP(H27&amp;"_"&amp;I27,[1]挑战模式!$BH:$BS,9-J27,FALSE),1))</f>
+        <v>100</v>
       </c>
       <c r="F27">
-        <f t="shared" si="2"/>
+        <f>IF(E27="","",10000)</f>
         <v>10000</v>
       </c>
       <c r="G27" t="str">
-        <f>IF(VLOOKUP(H27&amp;"_"&amp;I27,[1]挑战模式!$AV:$BG,9-J27,FALSE)="","",IF(ISNUMBER(VLOOKUP(H27&amp;"_"&amp;I27,[1]挑战模式!$AV:$BG,9-J27,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H27&amp;"_"&amp;I27,[1]挑战模式!$AV:$BG,9-J27,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H27&amp;"_"&amp;I27,[1]挑战模式!$BH:$BS,9-J27,FALSE)="","",IF(ISNUMBER(VLOOKUP(H27&amp;"_"&amp;I27,[1]挑战模式!$BH:$BS,9-J27,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H27&amp;"_"&amp;I27,[1]挑战模式!$BH:$BS,9-J27,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -4507,34 +4823,34 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B28:B46" si="3">IF(I28&lt;&gt;I27,"DropItemRule_First_Season"&amp;H28&amp;"_Challenge"&amp;I28,"")</f>
         <v/>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C28:C46" si="4">IF(B28="","","DropAll")</f>
         <v/>
       </c>
       <c r="D28" t="str">
-        <f>IF(VLOOKUP(H28&amp;"_"&amp;I28,[1]挑战模式!$AV:$BG,9-J28,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H28&amp;"_"&amp;I28,[1]挑战模式!$BH:$BS,9-J28,FALSE)="","","DropItemOne")</f>
         <v/>
       </c>
       <c r="E28" t="str">
-        <f>IF(VLOOKUP(H28&amp;"_"&amp;I28,[1]挑战模式!$AV:$BG,9-J28,FALSE)="","",IF(ISNUMBER(VLOOKUP(H28&amp;"_"&amp;I28,[1]挑战模式!$AV:$BG,9-J28,FALSE)),VLOOKUP(H28&amp;"_"&amp;I28,[1]挑战模式!$AV:$BG,9-J28,FALSE),1))</f>
+        <f>IF(VLOOKUP(H28&amp;"_"&amp;I28,[1]挑战模式!$BH:$BS,9-J28,FALSE)="","",IF(ISNUMBER(VLOOKUP(H28&amp;"_"&amp;I28,[1]挑战模式!$BH:$BS,9-J28,FALSE)),VLOOKUP(H28&amp;"_"&amp;I28,[1]挑战模式!$BH:$BS,9-J28,FALSE),1))</f>
         <v/>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F28:F46" si="5">IF(E28="","",10000)</f>
         <v/>
       </c>
       <c r="G28" t="str">
-        <f>IF(VLOOKUP(H28&amp;"_"&amp;I28,[1]挑战模式!$AV:$BG,9-J28,FALSE)="","",IF(ISNUMBER(VLOOKUP(H28&amp;"_"&amp;I28,[1]挑战模式!$AV:$BG,9-J28,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H28&amp;"_"&amp;I28,[1]挑战模式!$AV:$BG,9-J28,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H28&amp;"_"&amp;I28,[1]挑战模式!$BH:$BS,9-J28,FALSE)="","",IF(ISNUMBER(VLOOKUP(H28&amp;"_"&amp;I28,[1]挑战模式!$BH:$BS,9-J28,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H28&amp;"_"&amp;I28,[1]挑战模式!$BH:$BS,9-J28,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v/>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J28">
         <v>2</v>
@@ -4542,34 +4858,34 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>DropItemRule_First_Season1_Challenge2</v>
+        <f t="shared" si="3"/>
+        <v>DropItemRule_First_Season0_Challenge12</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>DropAll</v>
       </c>
       <c r="D29" t="str">
-        <f>IF(VLOOKUP(H29&amp;"_"&amp;I29,[1]挑战模式!$AV:$BG,9-J29,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H29&amp;"_"&amp;I29,[1]挑战模式!$BH:$BS,9-J29,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E29">
-        <f>IF(VLOOKUP(H29&amp;"_"&amp;I29,[1]挑战模式!$AV:$BG,9-J29,FALSE)="","",IF(ISNUMBER(VLOOKUP(H29&amp;"_"&amp;I29,[1]挑战模式!$AV:$BG,9-J29,FALSE)),VLOOKUP(H29&amp;"_"&amp;I29,[1]挑战模式!$AV:$BG,9-J29,FALSE),1))</f>
-        <v>1000</v>
+        <f>IF(VLOOKUP(H29&amp;"_"&amp;I29,[1]挑战模式!$BH:$BS,9-J29,FALSE)="","",IF(ISNUMBER(VLOOKUP(H29&amp;"_"&amp;I29,[1]挑战模式!$BH:$BS,9-J29,FALSE)),VLOOKUP(H29&amp;"_"&amp;I29,[1]挑战模式!$BH:$BS,9-J29,FALSE),1))</f>
+        <v>80</v>
       </c>
       <c r="F29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
       <c r="G29" t="str">
-        <f>IF(VLOOKUP(H29&amp;"_"&amp;I29,[1]挑战模式!$AV:$BG,9-J29,FALSE)="","",IF(ISNUMBER(VLOOKUP(H29&amp;"_"&amp;I29,[1]挑战模式!$AV:$BG,9-J29,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H29&amp;"_"&amp;I29,[1]挑战模式!$AV:$BG,9-J29,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H29&amp;"_"&amp;I29,[1]挑战模式!$BH:$BS,9-J29,FALSE)="","",IF(ISNUMBER(VLOOKUP(H29&amp;"_"&amp;I29,[1]挑战模式!$BH:$BS,9-J29,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H29&amp;"_"&amp;I29,[1]挑战模式!$BH:$BS,9-J29,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -4577,34 +4893,34 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D30" t="str">
-        <f>IF(VLOOKUP(H30&amp;"_"&amp;I30,[1]挑战模式!$AV:$BG,9-J30,FALSE)="","","DropItemOne")</f>
-        <v/>
-      </c>
-      <c r="E30" t="str">
-        <f>IF(VLOOKUP(H30&amp;"_"&amp;I30,[1]挑战模式!$AV:$BG,9-J30,FALSE)="","",IF(ISNUMBER(VLOOKUP(H30&amp;"_"&amp;I30,[1]挑战模式!$AV:$BG,9-J30,FALSE)),VLOOKUP(H30&amp;"_"&amp;I30,[1]挑战模式!$AV:$BG,9-J30,FALSE),1))</f>
-        <v/>
-      </c>
-      <c r="F30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>IF(VLOOKUP(H30&amp;"_"&amp;I30,[1]挑战模式!$BH:$BS,9-J30,FALSE)="","","DropItemOne")</f>
+        <v>DropItemOne</v>
+      </c>
+      <c r="E30">
+        <f>IF(VLOOKUP(H30&amp;"_"&amp;I30,[1]挑战模式!$BH:$BS,9-J30,FALSE)="","",IF(ISNUMBER(VLOOKUP(H30&amp;"_"&amp;I30,[1]挑战模式!$BH:$BS,9-J30,FALSE)),VLOOKUP(H30&amp;"_"&amp;I30,[1]挑战模式!$BH:$BS,9-J30,FALSE),1))</f>
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="5"/>
+        <v>10000</v>
       </c>
       <c r="G30" t="str">
-        <f>IF(VLOOKUP(H30&amp;"_"&amp;I30,[1]挑战模式!$AV:$BG,9-J30,FALSE)="","",IF(ISNUMBER(VLOOKUP(H30&amp;"_"&amp;I30,[1]挑战模式!$AV:$BG,9-J30,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H30&amp;"_"&amp;I30,[1]挑战模式!$AV:$BG,9-J30,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v/>
+        <f>IF(VLOOKUP(H30&amp;"_"&amp;I30,[1]挑战模式!$BH:$BS,9-J30,FALSE)="","",IF(ISNUMBER(VLOOKUP(H30&amp;"_"&amp;I30,[1]挑战模式!$BH:$BS,9-J30,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H30&amp;"_"&amp;I30,[1]挑战模式!$BH:$BS,9-J30,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Tow3_1</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -4612,34 +4928,34 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>DropItemRule_First_Season1_Challenge3</v>
+        <f t="shared" si="3"/>
+        <v>DropItemRule_First_Season0_Challenge13</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>DropAll</v>
       </c>
       <c r="D31" t="str">
-        <f>IF(VLOOKUP(H31&amp;"_"&amp;I31,[1]挑战模式!$AV:$BG,9-J31,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H31&amp;"_"&amp;I31,[1]挑战模式!$BH:$BS,9-J31,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E31">
-        <f>IF(VLOOKUP(H31&amp;"_"&amp;I31,[1]挑战模式!$AV:$BG,9-J31,FALSE)="","",IF(ISNUMBER(VLOOKUP(H31&amp;"_"&amp;I31,[1]挑战模式!$AV:$BG,9-J31,FALSE)),VLOOKUP(H31&amp;"_"&amp;I31,[1]挑战模式!$AV:$BG,9-J31,FALSE),1))</f>
-        <v>1500</v>
+        <f>IF(VLOOKUP(H31&amp;"_"&amp;I31,[1]挑战模式!$BH:$BS,9-J31,FALSE)="","",IF(ISNUMBER(VLOOKUP(H31&amp;"_"&amp;I31,[1]挑战模式!$BH:$BS,9-J31,FALSE)),VLOOKUP(H31&amp;"_"&amp;I31,[1]挑战模式!$BH:$BS,9-J31,FALSE),1))</f>
+        <v>110</v>
       </c>
       <c r="F31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
       <c r="G31" t="str">
-        <f>IF(VLOOKUP(H31&amp;"_"&amp;I31,[1]挑战模式!$AV:$BG,9-J31,FALSE)="","",IF(ISNUMBER(VLOOKUP(H31&amp;"_"&amp;I31,[1]挑战模式!$AV:$BG,9-J31,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H31&amp;"_"&amp;I31,[1]挑战模式!$AV:$BG,9-J31,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H31&amp;"_"&amp;I31,[1]挑战模式!$BH:$BS,9-J31,FALSE)="","",IF(ISNUMBER(VLOOKUP(H31&amp;"_"&amp;I31,[1]挑战模式!$BH:$BS,9-J31,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H31&amp;"_"&amp;I31,[1]挑战模式!$BH:$BS,9-J31,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -4647,34 +4963,34 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D32" t="str">
-        <f>IF(VLOOKUP(H32&amp;"_"&amp;I32,[1]挑战模式!$AV:$BG,9-J32,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H32&amp;"_"&amp;I32,[1]挑战模式!$BH:$BS,9-J32,FALSE)="","","DropItemOne")</f>
         <v/>
       </c>
       <c r="E32" t="str">
-        <f>IF(VLOOKUP(H32&amp;"_"&amp;I32,[1]挑战模式!$AV:$BG,9-J32,FALSE)="","",IF(ISNUMBER(VLOOKUP(H32&amp;"_"&amp;I32,[1]挑战模式!$AV:$BG,9-J32,FALSE)),VLOOKUP(H32&amp;"_"&amp;I32,[1]挑战模式!$AV:$BG,9-J32,FALSE),1))</f>
+        <f>IF(VLOOKUP(H32&amp;"_"&amp;I32,[1]挑战模式!$BH:$BS,9-J32,FALSE)="","",IF(ISNUMBER(VLOOKUP(H32&amp;"_"&amp;I32,[1]挑战模式!$BH:$BS,9-J32,FALSE)),VLOOKUP(H32&amp;"_"&amp;I32,[1]挑战模式!$BH:$BS,9-J32,FALSE),1))</f>
         <v/>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G32" t="str">
-        <f>IF(VLOOKUP(H32&amp;"_"&amp;I32,[1]挑战模式!$AV:$BG,9-J32,FALSE)="","",IF(ISNUMBER(VLOOKUP(H32&amp;"_"&amp;I32,[1]挑战模式!$AV:$BG,9-J32,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H32&amp;"_"&amp;I32,[1]挑战模式!$AV:$BG,9-J32,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H32&amp;"_"&amp;I32,[1]挑战模式!$BH:$BS,9-J32,FALSE)="","",IF(ISNUMBER(VLOOKUP(H32&amp;"_"&amp;I32,[1]挑战模式!$BH:$BS,9-J32,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H32&amp;"_"&amp;I32,[1]挑战模式!$BH:$BS,9-J32,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v/>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J32">
         <v>2</v>
@@ -4682,34 +4998,34 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>DropItemRule_First_Season1_Challenge4</v>
+        <f t="shared" si="3"/>
+        <v>DropItemRule_First_Season0_Challenge14</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>DropAll</v>
       </c>
       <c r="D33" t="str">
-        <f>IF(VLOOKUP(H33&amp;"_"&amp;I33,[1]挑战模式!$AV:$BG,9-J33,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H33&amp;"_"&amp;I33,[1]挑战模式!$BH:$BS,9-J33,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E33">
-        <f>IF(VLOOKUP(H33&amp;"_"&amp;I33,[1]挑战模式!$AV:$BG,9-J33,FALSE)="","",IF(ISNUMBER(VLOOKUP(H33&amp;"_"&amp;I33,[1]挑战模式!$AV:$BG,9-J33,FALSE)),VLOOKUP(H33&amp;"_"&amp;I33,[1]挑战模式!$AV:$BG,9-J33,FALSE),1))</f>
-        <v>2100</v>
+        <f>IF(VLOOKUP(H33&amp;"_"&amp;I33,[1]挑战模式!$BH:$BS,9-J33,FALSE)="","",IF(ISNUMBER(VLOOKUP(H33&amp;"_"&amp;I33,[1]挑战模式!$BH:$BS,9-J33,FALSE)),VLOOKUP(H33&amp;"_"&amp;I33,[1]挑战模式!$BH:$BS,9-J33,FALSE),1))</f>
+        <v>150</v>
       </c>
       <c r="F33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
       <c r="G33" t="str">
-        <f>IF(VLOOKUP(H33&amp;"_"&amp;I33,[1]挑战模式!$AV:$BG,9-J33,FALSE)="","",IF(ISNUMBER(VLOOKUP(H33&amp;"_"&amp;I33,[1]挑战模式!$AV:$BG,9-J33,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H33&amp;"_"&amp;I33,[1]挑战模式!$AV:$BG,9-J33,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H33&amp;"_"&amp;I33,[1]挑战模式!$BH:$BS,9-J33,FALSE)="","",IF(ISNUMBER(VLOOKUP(H33&amp;"_"&amp;I33,[1]挑战模式!$BH:$BS,9-J33,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H33&amp;"_"&amp;I33,[1]挑战模式!$BH:$BS,9-J33,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -4717,34 +5033,34 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D34" t="str">
-        <f>IF(VLOOKUP(H34&amp;"_"&amp;I34,[1]挑战模式!$AV:$BG,9-J34,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H34&amp;"_"&amp;I34,[1]挑战模式!$BH:$BS,9-J34,FALSE)="","","DropItemOne")</f>
         <v/>
       </c>
       <c r="E34" t="str">
-        <f>IF(VLOOKUP(H34&amp;"_"&amp;I34,[1]挑战模式!$AV:$BG,9-J34,FALSE)="","",IF(ISNUMBER(VLOOKUP(H34&amp;"_"&amp;I34,[1]挑战模式!$AV:$BG,9-J34,FALSE)),VLOOKUP(H34&amp;"_"&amp;I34,[1]挑战模式!$AV:$BG,9-J34,FALSE),1))</f>
+        <f>IF(VLOOKUP(H34&amp;"_"&amp;I34,[1]挑战模式!$BH:$BS,9-J34,FALSE)="","",IF(ISNUMBER(VLOOKUP(H34&amp;"_"&amp;I34,[1]挑战模式!$BH:$BS,9-J34,FALSE)),VLOOKUP(H34&amp;"_"&amp;I34,[1]挑战模式!$BH:$BS,9-J34,FALSE),1))</f>
         <v/>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G34" t="str">
-        <f>IF(VLOOKUP(H34&amp;"_"&amp;I34,[1]挑战模式!$AV:$BG,9-J34,FALSE)="","",IF(ISNUMBER(VLOOKUP(H34&amp;"_"&amp;I34,[1]挑战模式!$AV:$BG,9-J34,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H34&amp;"_"&amp;I34,[1]挑战模式!$AV:$BG,9-J34,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H34&amp;"_"&amp;I34,[1]挑战模式!$BH:$BS,9-J34,FALSE)="","",IF(ISNUMBER(VLOOKUP(H34&amp;"_"&amp;I34,[1]挑战模式!$BH:$BS,9-J34,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H34&amp;"_"&amp;I34,[1]挑战模式!$BH:$BS,9-J34,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v/>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -4752,34 +5068,34 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>DropItemRule_First_Season1_Challenge5</v>
+        <f t="shared" si="3"/>
+        <v>DropItemRule_First_Season0_Challenge15</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>DropAll</v>
       </c>
       <c r="D35" t="str">
-        <f>IF(VLOOKUP(H35&amp;"_"&amp;I35,[1]挑战模式!$AV:$BG,9-J35,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H35&amp;"_"&amp;I35,[1]挑战模式!$BH:$BS,9-J35,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E35">
-        <f>IF(VLOOKUP(H35&amp;"_"&amp;I35,[1]挑战模式!$AV:$BG,9-J35,FALSE)="","",IF(ISNUMBER(VLOOKUP(H35&amp;"_"&amp;I35,[1]挑战模式!$AV:$BG,9-J35,FALSE)),VLOOKUP(H35&amp;"_"&amp;I35,[1]挑战模式!$AV:$BG,9-J35,FALSE),1))</f>
-        <v>2600</v>
+        <f>IF(VLOOKUP(H35&amp;"_"&amp;I35,[1]挑战模式!$BH:$BS,9-J35,FALSE)="","",IF(ISNUMBER(VLOOKUP(H35&amp;"_"&amp;I35,[1]挑战模式!$BH:$BS,9-J35,FALSE)),VLOOKUP(H35&amp;"_"&amp;I35,[1]挑战模式!$BH:$BS,9-J35,FALSE),1))</f>
+        <v>200</v>
       </c>
       <c r="F35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
       <c r="G35" t="str">
-        <f>IF(VLOOKUP(H35&amp;"_"&amp;I35,[1]挑战模式!$AV:$BG,9-J35,FALSE)="","",IF(ISNUMBER(VLOOKUP(H35&amp;"_"&amp;I35,[1]挑战模式!$AV:$BG,9-J35,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H35&amp;"_"&amp;I35,[1]挑战模式!$AV:$BG,9-J35,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H35&amp;"_"&amp;I35,[1]挑战模式!$BH:$BS,9-J35,FALSE)="","",IF(ISNUMBER(VLOOKUP(H35&amp;"_"&amp;I35,[1]挑战模式!$BH:$BS,9-J35,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H35&amp;"_"&amp;I35,[1]挑战模式!$BH:$BS,9-J35,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -4787,34 +5103,34 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D36" t="str">
-        <f>IF(VLOOKUP(H36&amp;"_"&amp;I36,[1]挑战模式!$AV:$BG,9-J36,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H36&amp;"_"&amp;I36,[1]挑战模式!$BH:$BS,9-J36,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E36">
-        <f>IF(VLOOKUP(H36&amp;"_"&amp;I36,[1]挑战模式!$AV:$BG,9-J36,FALSE)="","",IF(ISNUMBER(VLOOKUP(H36&amp;"_"&amp;I36,[1]挑战模式!$AV:$BG,9-J36,FALSE)),VLOOKUP(H36&amp;"_"&amp;I36,[1]挑战模式!$AV:$BG,9-J36,FALSE),1))</f>
+        <f>IF(VLOOKUP(H36&amp;"_"&amp;I36,[1]挑战模式!$BH:$BS,9-J36,FALSE)="","",IF(ISNUMBER(VLOOKUP(H36&amp;"_"&amp;I36,[1]挑战模式!$BH:$BS,9-J36,FALSE)),VLOOKUP(H36&amp;"_"&amp;I36,[1]挑战模式!$BH:$BS,9-J36,FALSE),1))</f>
         <v>1</v>
       </c>
       <c r="F36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
       <c r="G36" t="str">
-        <f>IF(VLOOKUP(H36&amp;"_"&amp;I36,[1]挑战模式!$AV:$BG,9-J36,FALSE)="","",IF(ISNUMBER(VLOOKUP(H36&amp;"_"&amp;I36,[1]挑战模式!$AV:$BG,9-J36,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H36&amp;"_"&amp;I36,[1]挑战模式!$AV:$BG,9-J36,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v>Tow26_1</v>
+        <f>IF(VLOOKUP(H36&amp;"_"&amp;I36,[1]挑战模式!$BH:$BS,9-J36,FALSE)="","",IF(ISNUMBER(VLOOKUP(H36&amp;"_"&amp;I36,[1]挑战模式!$BH:$BS,9-J36,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H36&amp;"_"&amp;I36,[1]挑战模式!$BH:$BS,9-J36,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>PlayerSkill_TimeBarrier</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J36">
         <v>2</v>
@@ -4822,34 +5138,34 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>DropItemRule_First_Season2_Challenge1</v>
+        <f t="shared" si="3"/>
+        <v>DropItemRule_First_Season0_Challenge16</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>DropAll</v>
       </c>
       <c r="D37" t="str">
-        <f>IF(VLOOKUP(H37&amp;"_"&amp;I37,[1]挑战模式!$AV:$BG,9-J37,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H37&amp;"_"&amp;I37,[1]挑战模式!$BH:$BS,9-J37,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E37">
-        <f>IF(VLOOKUP(H37&amp;"_"&amp;I37,[1]挑战模式!$AV:$BG,9-J37,FALSE)="","",IF(ISNUMBER(VLOOKUP(H37&amp;"_"&amp;I37,[1]挑战模式!$AV:$BG,9-J37,FALSE)),VLOOKUP(H37&amp;"_"&amp;I37,[1]挑战模式!$AV:$BG,9-J37,FALSE),1))</f>
-        <v>500</v>
+        <f>IF(VLOOKUP(H37&amp;"_"&amp;I37,[1]挑战模式!$BH:$BS,9-J37,FALSE)="","",IF(ISNUMBER(VLOOKUP(H37&amp;"_"&amp;I37,[1]挑战模式!$BH:$BS,9-J37,FALSE)),VLOOKUP(H37&amp;"_"&amp;I37,[1]挑战模式!$BH:$BS,9-J37,FALSE),1))</f>
+        <v>260</v>
       </c>
       <c r="F37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
       <c r="G37" t="str">
-        <f>IF(VLOOKUP(H37&amp;"_"&amp;I37,[1]挑战模式!$AV:$BG,9-J37,FALSE)="","",IF(ISNUMBER(VLOOKUP(H37&amp;"_"&amp;I37,[1]挑战模式!$AV:$BG,9-J37,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H37&amp;"_"&amp;I37,[1]挑战模式!$AV:$BG,9-J37,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H37&amp;"_"&amp;I37,[1]挑战模式!$BH:$BS,9-J37,FALSE)="","",IF(ISNUMBER(VLOOKUP(H37&amp;"_"&amp;I37,[1]挑战模式!$BH:$BS,9-J37,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H37&amp;"_"&amp;I37,[1]挑战模式!$BH:$BS,9-J37,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -4857,34 +5173,34 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D38" t="str">
-        <f>IF(VLOOKUP(H38&amp;"_"&amp;I38,[1]挑战模式!$AV:$BG,9-J38,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H38&amp;"_"&amp;I38,[1]挑战模式!$BH:$BS,9-J38,FALSE)="","","DropItemOne")</f>
         <v/>
       </c>
       <c r="E38" t="str">
-        <f>IF(VLOOKUP(H38&amp;"_"&amp;I38,[1]挑战模式!$AV:$BG,9-J38,FALSE)="","",IF(ISNUMBER(VLOOKUP(H38&amp;"_"&amp;I38,[1]挑战模式!$AV:$BG,9-J38,FALSE)),VLOOKUP(H38&amp;"_"&amp;I38,[1]挑战模式!$AV:$BG,9-J38,FALSE),1))</f>
+        <f>IF(VLOOKUP(H38&amp;"_"&amp;I38,[1]挑战模式!$BH:$BS,9-J38,FALSE)="","",IF(ISNUMBER(VLOOKUP(H38&amp;"_"&amp;I38,[1]挑战模式!$BH:$BS,9-J38,FALSE)),VLOOKUP(H38&amp;"_"&amp;I38,[1]挑战模式!$BH:$BS,9-J38,FALSE),1))</f>
         <v/>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G38" t="str">
-        <f>IF(VLOOKUP(H38&amp;"_"&amp;I38,[1]挑战模式!$AV:$BG,9-J38,FALSE)="","",IF(ISNUMBER(VLOOKUP(H38&amp;"_"&amp;I38,[1]挑战模式!$AV:$BG,9-J38,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H38&amp;"_"&amp;I38,[1]挑战模式!$AV:$BG,9-J38,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H38&amp;"_"&amp;I38,[1]挑战模式!$BH:$BS,9-J38,FALSE)="","",IF(ISNUMBER(VLOOKUP(H38&amp;"_"&amp;I38,[1]挑战模式!$BH:$BS,9-J38,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H38&amp;"_"&amp;I38,[1]挑战模式!$BH:$BS,9-J38,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v/>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -4892,34 +5208,34 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>DropItemRule_First_Season2_Challenge2</v>
+        <f t="shared" si="3"/>
+        <v>DropItemRule_First_Season0_Challenge17</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>DropAll</v>
       </c>
       <c r="D39" t="str">
-        <f>IF(VLOOKUP(H39&amp;"_"&amp;I39,[1]挑战模式!$AV:$BG,9-J39,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H39&amp;"_"&amp;I39,[1]挑战模式!$BH:$BS,9-J39,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E39">
-        <f>IF(VLOOKUP(H39&amp;"_"&amp;I39,[1]挑战模式!$AV:$BG,9-J39,FALSE)="","",IF(ISNUMBER(VLOOKUP(H39&amp;"_"&amp;I39,[1]挑战模式!$AV:$BG,9-J39,FALSE)),VLOOKUP(H39&amp;"_"&amp;I39,[1]挑战模式!$AV:$BG,9-J39,FALSE),1))</f>
-        <v>1000</v>
+        <f>IF(VLOOKUP(H39&amp;"_"&amp;I39,[1]挑战模式!$BH:$BS,9-J39,FALSE)="","",IF(ISNUMBER(VLOOKUP(H39&amp;"_"&amp;I39,[1]挑战模式!$BH:$BS,9-J39,FALSE)),VLOOKUP(H39&amp;"_"&amp;I39,[1]挑战模式!$BH:$BS,9-J39,FALSE),1))</f>
+        <v>330</v>
       </c>
       <c r="F39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
       <c r="G39" t="str">
-        <f>IF(VLOOKUP(H39&amp;"_"&amp;I39,[1]挑战模式!$AV:$BG,9-J39,FALSE)="","",IF(ISNUMBER(VLOOKUP(H39&amp;"_"&amp;I39,[1]挑战模式!$AV:$BG,9-J39,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H39&amp;"_"&amp;I39,[1]挑战模式!$AV:$BG,9-J39,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H39&amp;"_"&amp;I39,[1]挑战模式!$BH:$BS,9-J39,FALSE)="","",IF(ISNUMBER(VLOOKUP(H39&amp;"_"&amp;I39,[1]挑战模式!$BH:$BS,9-J39,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H39&amp;"_"&amp;I39,[1]挑战模式!$BH:$BS,9-J39,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -4927,34 +5243,34 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D40" t="str">
-        <f>IF(VLOOKUP(H40&amp;"_"&amp;I40,[1]挑战模式!$AV:$BG,9-J40,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H40&amp;"_"&amp;I40,[1]挑战模式!$BH:$BS,9-J40,FALSE)="","","DropItemOne")</f>
         <v/>
       </c>
       <c r="E40" t="str">
-        <f>IF(VLOOKUP(H40&amp;"_"&amp;I40,[1]挑战模式!$AV:$BG,9-J40,FALSE)="","",IF(ISNUMBER(VLOOKUP(H40&amp;"_"&amp;I40,[1]挑战模式!$AV:$BG,9-J40,FALSE)),VLOOKUP(H40&amp;"_"&amp;I40,[1]挑战模式!$AV:$BG,9-J40,FALSE),1))</f>
+        <f>IF(VLOOKUP(H40&amp;"_"&amp;I40,[1]挑战模式!$BH:$BS,9-J40,FALSE)="","",IF(ISNUMBER(VLOOKUP(H40&amp;"_"&amp;I40,[1]挑战模式!$BH:$BS,9-J40,FALSE)),VLOOKUP(H40&amp;"_"&amp;I40,[1]挑战模式!$BH:$BS,9-J40,FALSE),1))</f>
         <v/>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G40" t="str">
-        <f>IF(VLOOKUP(H40&amp;"_"&amp;I40,[1]挑战模式!$AV:$BG,9-J40,FALSE)="","",IF(ISNUMBER(VLOOKUP(H40&amp;"_"&amp;I40,[1]挑战模式!$AV:$BG,9-J40,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H40&amp;"_"&amp;I40,[1]挑战模式!$AV:$BG,9-J40,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H40&amp;"_"&amp;I40,[1]挑战模式!$BH:$BS,9-J40,FALSE)="","",IF(ISNUMBER(VLOOKUP(H40&amp;"_"&amp;I40,[1]挑战模式!$BH:$BS,9-J40,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H40&amp;"_"&amp;I40,[1]挑战模式!$BH:$BS,9-J40,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v/>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J40">
         <v>2</v>
@@ -4962,34 +5278,34 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>DropItemRule_First_Season2_Challenge3</v>
+        <f t="shared" si="3"/>
+        <v>DropItemRule_First_Season0_Challenge18</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>DropAll</v>
       </c>
       <c r="D41" t="str">
-        <f>IF(VLOOKUP(H41&amp;"_"&amp;I41,[1]挑战模式!$AV:$BG,9-J41,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H41&amp;"_"&amp;I41,[1]挑战模式!$BH:$BS,9-J41,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E41">
-        <f>IF(VLOOKUP(H41&amp;"_"&amp;I41,[1]挑战模式!$AV:$BG,9-J41,FALSE)="","",IF(ISNUMBER(VLOOKUP(H41&amp;"_"&amp;I41,[1]挑战模式!$AV:$BG,9-J41,FALSE)),VLOOKUP(H41&amp;"_"&amp;I41,[1]挑战模式!$AV:$BG,9-J41,FALSE),1))</f>
-        <v>1500</v>
+        <f>IF(VLOOKUP(H41&amp;"_"&amp;I41,[1]挑战模式!$BH:$BS,9-J41,FALSE)="","",IF(ISNUMBER(VLOOKUP(H41&amp;"_"&amp;I41,[1]挑战模式!$BH:$BS,9-J41,FALSE)),VLOOKUP(H41&amp;"_"&amp;I41,[1]挑战模式!$BH:$BS,9-J41,FALSE),1))</f>
+        <v>410</v>
       </c>
       <c r="F41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
       <c r="G41" t="str">
-        <f>IF(VLOOKUP(H41&amp;"_"&amp;I41,[1]挑战模式!$AV:$BG,9-J41,FALSE)="","",IF(ISNUMBER(VLOOKUP(H41&amp;"_"&amp;I41,[1]挑战模式!$AV:$BG,9-J41,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H41&amp;"_"&amp;I41,[1]挑战模式!$AV:$BG,9-J41,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H41&amp;"_"&amp;I41,[1]挑战模式!$BH:$BS,9-J41,FALSE)="","",IF(ISNUMBER(VLOOKUP(H41&amp;"_"&amp;I41,[1]挑战模式!$BH:$BS,9-J41,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H41&amp;"_"&amp;I41,[1]挑战模式!$BH:$BS,9-J41,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -4997,34 +5313,34 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D42" t="str">
-        <f>IF(VLOOKUP(H42&amp;"_"&amp;I42,[1]挑战模式!$AV:$BG,9-J42,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H42&amp;"_"&amp;I42,[1]挑战模式!$BH:$BS,9-J42,FALSE)="","","DropItemOne")</f>
         <v/>
       </c>
       <c r="E42" t="str">
-        <f>IF(VLOOKUP(H42&amp;"_"&amp;I42,[1]挑战模式!$AV:$BG,9-J42,FALSE)="","",IF(ISNUMBER(VLOOKUP(H42&amp;"_"&amp;I42,[1]挑战模式!$AV:$BG,9-J42,FALSE)),VLOOKUP(H42&amp;"_"&amp;I42,[1]挑战模式!$AV:$BG,9-J42,FALSE),1))</f>
+        <f>IF(VLOOKUP(H42&amp;"_"&amp;I42,[1]挑战模式!$BH:$BS,9-J42,FALSE)="","",IF(ISNUMBER(VLOOKUP(H42&amp;"_"&amp;I42,[1]挑战模式!$BH:$BS,9-J42,FALSE)),VLOOKUP(H42&amp;"_"&amp;I42,[1]挑战模式!$BH:$BS,9-J42,FALSE),1))</f>
         <v/>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G42" t="str">
-        <f>IF(VLOOKUP(H42&amp;"_"&amp;I42,[1]挑战模式!$AV:$BG,9-J42,FALSE)="","",IF(ISNUMBER(VLOOKUP(H42&amp;"_"&amp;I42,[1]挑战模式!$AV:$BG,9-J42,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H42&amp;"_"&amp;I42,[1]挑战模式!$AV:$BG,9-J42,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H42&amp;"_"&amp;I42,[1]挑战模式!$BH:$BS,9-J42,FALSE)="","",IF(ISNUMBER(VLOOKUP(H42&amp;"_"&amp;I42,[1]挑战模式!$BH:$BS,9-J42,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H42&amp;"_"&amp;I42,[1]挑战模式!$BH:$BS,9-J42,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v/>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J42">
         <v>2</v>
@@ -5032,34 +5348,34 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>DropItemRule_First_Season2_Challenge4</v>
+        <f t="shared" si="3"/>
+        <v>DropItemRule_First_Season0_Challenge19</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>DropAll</v>
       </c>
       <c r="D43" t="str">
-        <f>IF(VLOOKUP(H43&amp;"_"&amp;I43,[1]挑战模式!$AV:$BG,9-J43,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H43&amp;"_"&amp;I43,[1]挑战模式!$BH:$BS,9-J43,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E43">
-        <f>IF(VLOOKUP(H43&amp;"_"&amp;I43,[1]挑战模式!$AV:$BG,9-J43,FALSE)="","",IF(ISNUMBER(VLOOKUP(H43&amp;"_"&amp;I43,[1]挑战模式!$AV:$BG,9-J43,FALSE)),VLOOKUP(H43&amp;"_"&amp;I43,[1]挑战模式!$AV:$BG,9-J43,FALSE),1))</f>
-        <v>2100</v>
+        <f>IF(VLOOKUP(H43&amp;"_"&amp;I43,[1]挑战模式!$BH:$BS,9-J43,FALSE)="","",IF(ISNUMBER(VLOOKUP(H43&amp;"_"&amp;I43,[1]挑战模式!$BH:$BS,9-J43,FALSE)),VLOOKUP(H43&amp;"_"&amp;I43,[1]挑战模式!$BH:$BS,9-J43,FALSE),1))</f>
+        <v>500</v>
       </c>
       <c r="F43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
       <c r="G43" t="str">
-        <f>IF(VLOOKUP(H43&amp;"_"&amp;I43,[1]挑战模式!$AV:$BG,9-J43,FALSE)="","",IF(ISNUMBER(VLOOKUP(H43&amp;"_"&amp;I43,[1]挑战模式!$AV:$BG,9-J43,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H43&amp;"_"&amp;I43,[1]挑战模式!$AV:$BG,9-J43,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H43&amp;"_"&amp;I43,[1]挑战模式!$BH:$BS,9-J43,FALSE)="","",IF(ISNUMBER(VLOOKUP(H43&amp;"_"&amp;I43,[1]挑战模式!$BH:$BS,9-J43,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H43&amp;"_"&amp;I43,[1]挑战模式!$BH:$BS,9-J43,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -5067,34 +5383,34 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D44" t="str">
-        <f>IF(VLOOKUP(H44&amp;"_"&amp;I44,[1]挑战模式!$AV:$BG,9-J44,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H44&amp;"_"&amp;I44,[1]挑战模式!$BH:$BS,9-J44,FALSE)="","","DropItemOne")</f>
         <v/>
       </c>
       <c r="E44" t="str">
-        <f>IF(VLOOKUP(H44&amp;"_"&amp;I44,[1]挑战模式!$AV:$BG,9-J44,FALSE)="","",IF(ISNUMBER(VLOOKUP(H44&amp;"_"&amp;I44,[1]挑战模式!$AV:$BG,9-J44,FALSE)),VLOOKUP(H44&amp;"_"&amp;I44,[1]挑战模式!$AV:$BG,9-J44,FALSE),1))</f>
+        <f>IF(VLOOKUP(H44&amp;"_"&amp;I44,[1]挑战模式!$BH:$BS,9-J44,FALSE)="","",IF(ISNUMBER(VLOOKUP(H44&amp;"_"&amp;I44,[1]挑战模式!$BH:$BS,9-J44,FALSE)),VLOOKUP(H44&amp;"_"&amp;I44,[1]挑战模式!$BH:$BS,9-J44,FALSE),1))</f>
         <v/>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G44" t="str">
-        <f>IF(VLOOKUP(H44&amp;"_"&amp;I44,[1]挑战模式!$AV:$BG,9-J44,FALSE)="","",IF(ISNUMBER(VLOOKUP(H44&amp;"_"&amp;I44,[1]挑战模式!$AV:$BG,9-J44,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H44&amp;"_"&amp;I44,[1]挑战模式!$AV:$BG,9-J44,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H44&amp;"_"&amp;I44,[1]挑战模式!$BH:$BS,9-J44,FALSE)="","",IF(ISNUMBER(VLOOKUP(H44&amp;"_"&amp;I44,[1]挑战模式!$BH:$BS,9-J44,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H44&amp;"_"&amp;I44,[1]挑战模式!$BH:$BS,9-J44,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v/>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="J44">
         <v>2</v>
@@ -5102,34 +5418,34 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>DropItemRule_First_Season2_Challenge5</v>
+        <f t="shared" si="3"/>
+        <v>DropItemRule_First_Season0_Challenge20</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>DropAll</v>
       </c>
       <c r="D45" t="str">
-        <f>IF(VLOOKUP(H45&amp;"_"&amp;I45,[1]挑战模式!$AV:$BG,9-J45,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H45&amp;"_"&amp;I45,[1]挑战模式!$BH:$BS,9-J45,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E45">
-        <f>IF(VLOOKUP(H45&amp;"_"&amp;I45,[1]挑战模式!$AV:$BG,9-J45,FALSE)="","",IF(ISNUMBER(VLOOKUP(H45&amp;"_"&amp;I45,[1]挑战模式!$AV:$BG,9-J45,FALSE)),VLOOKUP(H45&amp;"_"&amp;I45,[1]挑战模式!$AV:$BG,9-J45,FALSE),1))</f>
-        <v>2600</v>
+        <f>IF(VLOOKUP(H45&amp;"_"&amp;I45,[1]挑战模式!$BH:$BS,9-J45,FALSE)="","",IF(ISNUMBER(VLOOKUP(H45&amp;"_"&amp;I45,[1]挑战模式!$BH:$BS,9-J45,FALSE)),VLOOKUP(H45&amp;"_"&amp;I45,[1]挑战模式!$BH:$BS,9-J45,FALSE),1))</f>
+        <v>610</v>
       </c>
       <c r="F45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
       <c r="G45" t="str">
-        <f>IF(VLOOKUP(H45&amp;"_"&amp;I45,[1]挑战模式!$AV:$BG,9-J45,FALSE)="","",IF(ISNUMBER(VLOOKUP(H45&amp;"_"&amp;I45,[1]挑战模式!$AV:$BG,9-J45,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H45&amp;"_"&amp;I45,[1]挑战模式!$AV:$BG,9-J45,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H45&amp;"_"&amp;I45,[1]挑战模式!$BH:$BS,9-J45,FALSE)="","",IF(ISNUMBER(VLOOKUP(H45&amp;"_"&amp;I45,[1]挑战模式!$BH:$BS,9-J45,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H45&amp;"_"&amp;I45,[1]挑战模式!$BH:$BS,9-J45,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -5137,34 +5453,34 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D46" t="str">
-        <f>IF(VLOOKUP(H46&amp;"_"&amp;I46,[1]挑战模式!$AV:$BG,9-J46,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H46&amp;"_"&amp;I46,[1]挑战模式!$BH:$BS,9-J46,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E46">
-        <f>IF(VLOOKUP(H46&amp;"_"&amp;I46,[1]挑战模式!$AV:$BG,9-J46,FALSE)="","",IF(ISNUMBER(VLOOKUP(H46&amp;"_"&amp;I46,[1]挑战模式!$AV:$BG,9-J46,FALSE)),VLOOKUP(H46&amp;"_"&amp;I46,[1]挑战模式!$AV:$BG,9-J46,FALSE),1))</f>
+        <f>IF(VLOOKUP(H46&amp;"_"&amp;I46,[1]挑战模式!$BH:$BS,9-J46,FALSE)="","",IF(ISNUMBER(VLOOKUP(H46&amp;"_"&amp;I46,[1]挑战模式!$BH:$BS,9-J46,FALSE)),VLOOKUP(H46&amp;"_"&amp;I46,[1]挑战模式!$BH:$BS,9-J46,FALSE),1))</f>
         <v>1</v>
       </c>
       <c r="F46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
       <c r="G46" t="str">
-        <f>IF(VLOOKUP(H46&amp;"_"&amp;I46,[1]挑战模式!$AV:$BG,9-J46,FALSE)="","",IF(ISNUMBER(VLOOKUP(H46&amp;"_"&amp;I46,[1]挑战模式!$AV:$BG,9-J46,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H46&amp;"_"&amp;I46,[1]挑战模式!$AV:$BG,9-J46,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v>Tow9_1</v>
+        <f>IF(VLOOKUP(H46&amp;"_"&amp;I46,[1]挑战模式!$BH:$BS,9-J46,FALSE)="","",IF(ISNUMBER(VLOOKUP(H46&amp;"_"&amp;I46,[1]挑战模式!$BH:$BS,9-J46,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H46&amp;"_"&amp;I46,[1]挑战模式!$BH:$BS,9-J46,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Tow25_1</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J46">
         <v>2</v>
@@ -5172,19 +5488,19 @@
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>DropItemRule_First_Season3_Challenge1</v>
+        <f>IF(I47&lt;&gt;I26,"DropItemRule_First_Season"&amp;H47&amp;"_Challenge"&amp;I47,"")</f>
+        <v>DropItemRule_First_Season1_Challenge1</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="1"/>
         <v>DropAll</v>
       </c>
       <c r="D47" t="str">
-        <f>IF(VLOOKUP(H47&amp;"_"&amp;I47,[1]挑战模式!$AV:$BG,9-J47,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H47&amp;"_"&amp;I47,[1]挑战模式!$BH:$BS,9-J47,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E47">
-        <f>IF(VLOOKUP(H47&amp;"_"&amp;I47,[1]挑战模式!$AV:$BG,9-J47,FALSE)="","",IF(ISNUMBER(VLOOKUP(H47&amp;"_"&amp;I47,[1]挑战模式!$AV:$BG,9-J47,FALSE)),VLOOKUP(H47&amp;"_"&amp;I47,[1]挑战模式!$AV:$BG,9-J47,FALSE),1))</f>
+        <f>IF(VLOOKUP(H47&amp;"_"&amp;I47,[1]挑战模式!$BH:$BS,9-J47,FALSE)="","",IF(ISNUMBER(VLOOKUP(H47&amp;"_"&amp;I47,[1]挑战模式!$BH:$BS,9-J47,FALSE)),VLOOKUP(H47&amp;"_"&amp;I47,[1]挑战模式!$BH:$BS,9-J47,FALSE),1))</f>
         <v>500</v>
       </c>
       <c r="F47">
@@ -5192,11 +5508,11 @@
         <v>10000</v>
       </c>
       <c r="G47" t="str">
-        <f>IF(VLOOKUP(H47&amp;"_"&amp;I47,[1]挑战模式!$AV:$BG,9-J47,FALSE)="","",IF(ISNUMBER(VLOOKUP(H47&amp;"_"&amp;I47,[1]挑战模式!$AV:$BG,9-J47,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H47&amp;"_"&amp;I47,[1]挑战模式!$AV:$BG,9-J47,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H47&amp;"_"&amp;I47,[1]挑战模式!$BH:$BS,9-J47,FALSE)="","",IF(ISNUMBER(VLOOKUP(H47&amp;"_"&amp;I47,[1]挑战模式!$BH:$BS,9-J47,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H47&amp;"_"&amp;I47,[1]挑战模式!$BH:$BS,9-J47,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -5215,11 +5531,11 @@
         <v/>
       </c>
       <c r="D48" t="str">
-        <f>IF(VLOOKUP(H48&amp;"_"&amp;I48,[1]挑战模式!$AV:$BG,9-J48,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H48&amp;"_"&amp;I48,[1]挑战模式!$BH:$BS,9-J48,FALSE)="","","DropItemOne")</f>
         <v/>
       </c>
       <c r="E48" t="str">
-        <f>IF(VLOOKUP(H48&amp;"_"&amp;I48,[1]挑战模式!$AV:$BG,9-J48,FALSE)="","",IF(ISNUMBER(VLOOKUP(H48&amp;"_"&amp;I48,[1]挑战模式!$AV:$BG,9-J48,FALSE)),VLOOKUP(H48&amp;"_"&amp;I48,[1]挑战模式!$AV:$BG,9-J48,FALSE),1))</f>
+        <f>IF(VLOOKUP(H48&amp;"_"&amp;I48,[1]挑战模式!$BH:$BS,9-J48,FALSE)="","",IF(ISNUMBER(VLOOKUP(H48&amp;"_"&amp;I48,[1]挑战模式!$BH:$BS,9-J48,FALSE)),VLOOKUP(H48&amp;"_"&amp;I48,[1]挑战模式!$BH:$BS,9-J48,FALSE),1))</f>
         <v/>
       </c>
       <c r="F48" t="str">
@@ -5227,11 +5543,11 @@
         <v/>
       </c>
       <c r="G48" t="str">
-        <f>IF(VLOOKUP(H48&amp;"_"&amp;I48,[1]挑战模式!$AV:$BG,9-J48,FALSE)="","",IF(ISNUMBER(VLOOKUP(H48&amp;"_"&amp;I48,[1]挑战模式!$AV:$BG,9-J48,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H48&amp;"_"&amp;I48,[1]挑战模式!$AV:$BG,9-J48,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H48&amp;"_"&amp;I48,[1]挑战模式!$BH:$BS,9-J48,FALSE)="","",IF(ISNUMBER(VLOOKUP(H48&amp;"_"&amp;I48,[1]挑战模式!$BH:$BS,9-J48,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H48&amp;"_"&amp;I48,[1]挑战模式!$BH:$BS,9-J48,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v/>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -5243,18 +5559,18 @@
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>DropItemRule_First_Season3_Challenge2</v>
+        <v>DropItemRule_First_Season1_Challenge2</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="1"/>
         <v>DropAll</v>
       </c>
       <c r="D49" t="str">
-        <f>IF(VLOOKUP(H49&amp;"_"&amp;I49,[1]挑战模式!$AV:$BG,9-J49,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H49&amp;"_"&amp;I49,[1]挑战模式!$BH:$BS,9-J49,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E49">
-        <f>IF(VLOOKUP(H49&amp;"_"&amp;I49,[1]挑战模式!$AV:$BG,9-J49,FALSE)="","",IF(ISNUMBER(VLOOKUP(H49&amp;"_"&amp;I49,[1]挑战模式!$AV:$BG,9-J49,FALSE)),VLOOKUP(H49&amp;"_"&amp;I49,[1]挑战模式!$AV:$BG,9-J49,FALSE),1))</f>
+        <f>IF(VLOOKUP(H49&amp;"_"&amp;I49,[1]挑战模式!$BH:$BS,9-J49,FALSE)="","",IF(ISNUMBER(VLOOKUP(H49&amp;"_"&amp;I49,[1]挑战模式!$BH:$BS,9-J49,FALSE)),VLOOKUP(H49&amp;"_"&amp;I49,[1]挑战模式!$BH:$BS,9-J49,FALSE),1))</f>
         <v>1000</v>
       </c>
       <c r="F49">
@@ -5262,11 +5578,11 @@
         <v>10000</v>
       </c>
       <c r="G49" t="str">
-        <f>IF(VLOOKUP(H49&amp;"_"&amp;I49,[1]挑战模式!$AV:$BG,9-J49,FALSE)="","",IF(ISNUMBER(VLOOKUP(H49&amp;"_"&amp;I49,[1]挑战模式!$AV:$BG,9-J49,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H49&amp;"_"&amp;I49,[1]挑战模式!$AV:$BG,9-J49,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H49&amp;"_"&amp;I49,[1]挑战模式!$BH:$BS,9-J49,FALSE)="","",IF(ISNUMBER(VLOOKUP(H49&amp;"_"&amp;I49,[1]挑战模式!$BH:$BS,9-J49,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H49&amp;"_"&amp;I49,[1]挑战模式!$BH:$BS,9-J49,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>2</v>
@@ -5285,11 +5601,11 @@
         <v/>
       </c>
       <c r="D50" t="str">
-        <f>IF(VLOOKUP(H50&amp;"_"&amp;I50,[1]挑战模式!$AV:$BG,9-J50,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H50&amp;"_"&amp;I50,[1]挑战模式!$BH:$BS,9-J50,FALSE)="","","DropItemOne")</f>
         <v/>
       </c>
       <c r="E50" t="str">
-        <f>IF(VLOOKUP(H50&amp;"_"&amp;I50,[1]挑战模式!$AV:$BG,9-J50,FALSE)="","",IF(ISNUMBER(VLOOKUP(H50&amp;"_"&amp;I50,[1]挑战模式!$AV:$BG,9-J50,FALSE)),VLOOKUP(H50&amp;"_"&amp;I50,[1]挑战模式!$AV:$BG,9-J50,FALSE),1))</f>
+        <f>IF(VLOOKUP(H50&amp;"_"&amp;I50,[1]挑战模式!$BH:$BS,9-J50,FALSE)="","",IF(ISNUMBER(VLOOKUP(H50&amp;"_"&amp;I50,[1]挑战模式!$BH:$BS,9-J50,FALSE)),VLOOKUP(H50&amp;"_"&amp;I50,[1]挑战模式!$BH:$BS,9-J50,FALSE),1))</f>
         <v/>
       </c>
       <c r="F50" t="str">
@@ -5297,11 +5613,11 @@
         <v/>
       </c>
       <c r="G50" t="str">
-        <f>IF(VLOOKUP(H50&amp;"_"&amp;I50,[1]挑战模式!$AV:$BG,9-J50,FALSE)="","",IF(ISNUMBER(VLOOKUP(H50&amp;"_"&amp;I50,[1]挑战模式!$AV:$BG,9-J50,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H50&amp;"_"&amp;I50,[1]挑战模式!$AV:$BG,9-J50,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H50&amp;"_"&amp;I50,[1]挑战模式!$BH:$BS,9-J50,FALSE)="","",IF(ISNUMBER(VLOOKUP(H50&amp;"_"&amp;I50,[1]挑战模式!$BH:$BS,9-J50,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H50&amp;"_"&amp;I50,[1]挑战模式!$BH:$BS,9-J50,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v/>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>2</v>
@@ -5313,18 +5629,18 @@
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>DropItemRule_First_Season3_Challenge3</v>
+        <v>DropItemRule_First_Season1_Challenge3</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="1"/>
         <v>DropAll</v>
       </c>
       <c r="D51" t="str">
-        <f>IF(VLOOKUP(H51&amp;"_"&amp;I51,[1]挑战模式!$AV:$BG,9-J51,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H51&amp;"_"&amp;I51,[1]挑战模式!$BH:$BS,9-J51,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E51">
-        <f>IF(VLOOKUP(H51&amp;"_"&amp;I51,[1]挑战模式!$AV:$BG,9-J51,FALSE)="","",IF(ISNUMBER(VLOOKUP(H51&amp;"_"&amp;I51,[1]挑战模式!$AV:$BG,9-J51,FALSE)),VLOOKUP(H51&amp;"_"&amp;I51,[1]挑战模式!$AV:$BG,9-J51,FALSE),1))</f>
+        <f>IF(VLOOKUP(H51&amp;"_"&amp;I51,[1]挑战模式!$BH:$BS,9-J51,FALSE)="","",IF(ISNUMBER(VLOOKUP(H51&amp;"_"&amp;I51,[1]挑战模式!$BH:$BS,9-J51,FALSE)),VLOOKUP(H51&amp;"_"&amp;I51,[1]挑战模式!$BH:$BS,9-J51,FALSE),1))</f>
         <v>1500</v>
       </c>
       <c r="F51">
@@ -5332,11 +5648,11 @@
         <v>10000</v>
       </c>
       <c r="G51" t="str">
-        <f>IF(VLOOKUP(H51&amp;"_"&amp;I51,[1]挑战模式!$AV:$BG,9-J51,FALSE)="","",IF(ISNUMBER(VLOOKUP(H51&amp;"_"&amp;I51,[1]挑战模式!$AV:$BG,9-J51,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H51&amp;"_"&amp;I51,[1]挑战模式!$AV:$BG,9-J51,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H51&amp;"_"&amp;I51,[1]挑战模式!$BH:$BS,9-J51,FALSE)="","",IF(ISNUMBER(VLOOKUP(H51&amp;"_"&amp;I51,[1]挑战模式!$BH:$BS,9-J51,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H51&amp;"_"&amp;I51,[1]挑战模式!$BH:$BS,9-J51,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>3</v>
@@ -5355,11 +5671,11 @@
         <v/>
       </c>
       <c r="D52" t="str">
-        <f>IF(VLOOKUP(H52&amp;"_"&amp;I52,[1]挑战模式!$AV:$BG,9-J52,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H52&amp;"_"&amp;I52,[1]挑战模式!$BH:$BS,9-J52,FALSE)="","","DropItemOne")</f>
         <v/>
       </c>
       <c r="E52" t="str">
-        <f>IF(VLOOKUP(H52&amp;"_"&amp;I52,[1]挑战模式!$AV:$BG,9-J52,FALSE)="","",IF(ISNUMBER(VLOOKUP(H52&amp;"_"&amp;I52,[1]挑战模式!$AV:$BG,9-J52,FALSE)),VLOOKUP(H52&amp;"_"&amp;I52,[1]挑战模式!$AV:$BG,9-J52,FALSE),1))</f>
+        <f>IF(VLOOKUP(H52&amp;"_"&amp;I52,[1]挑战模式!$BH:$BS,9-J52,FALSE)="","",IF(ISNUMBER(VLOOKUP(H52&amp;"_"&amp;I52,[1]挑战模式!$BH:$BS,9-J52,FALSE)),VLOOKUP(H52&amp;"_"&amp;I52,[1]挑战模式!$BH:$BS,9-J52,FALSE),1))</f>
         <v/>
       </c>
       <c r="F52" t="str">
@@ -5367,11 +5683,11 @@
         <v/>
       </c>
       <c r="G52" t="str">
-        <f>IF(VLOOKUP(H52&amp;"_"&amp;I52,[1]挑战模式!$AV:$BG,9-J52,FALSE)="","",IF(ISNUMBER(VLOOKUP(H52&amp;"_"&amp;I52,[1]挑战模式!$AV:$BG,9-J52,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H52&amp;"_"&amp;I52,[1]挑战模式!$AV:$BG,9-J52,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H52&amp;"_"&amp;I52,[1]挑战模式!$BH:$BS,9-J52,FALSE)="","",IF(ISNUMBER(VLOOKUP(H52&amp;"_"&amp;I52,[1]挑战模式!$BH:$BS,9-J52,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H52&amp;"_"&amp;I52,[1]挑战模式!$BH:$BS,9-J52,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v/>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <v>3</v>
@@ -5383,18 +5699,18 @@
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>DropItemRule_First_Season3_Challenge4</v>
+        <v>DropItemRule_First_Season1_Challenge4</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="1"/>
         <v>DropAll</v>
       </c>
       <c r="D53" t="str">
-        <f>IF(VLOOKUP(H53&amp;"_"&amp;I53,[1]挑战模式!$AV:$BG,9-J53,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H53&amp;"_"&amp;I53,[1]挑战模式!$BH:$BS,9-J53,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E53">
-        <f>IF(VLOOKUP(H53&amp;"_"&amp;I53,[1]挑战模式!$AV:$BG,9-J53,FALSE)="","",IF(ISNUMBER(VLOOKUP(H53&amp;"_"&amp;I53,[1]挑战模式!$AV:$BG,9-J53,FALSE)),VLOOKUP(H53&amp;"_"&amp;I53,[1]挑战模式!$AV:$BG,9-J53,FALSE),1))</f>
+        <f>IF(VLOOKUP(H53&amp;"_"&amp;I53,[1]挑战模式!$BH:$BS,9-J53,FALSE)="","",IF(ISNUMBER(VLOOKUP(H53&amp;"_"&amp;I53,[1]挑战模式!$BH:$BS,9-J53,FALSE)),VLOOKUP(H53&amp;"_"&amp;I53,[1]挑战模式!$BH:$BS,9-J53,FALSE),1))</f>
         <v>2100</v>
       </c>
       <c r="F53">
@@ -5402,11 +5718,11 @@
         <v>10000</v>
       </c>
       <c r="G53" t="str">
-        <f>IF(VLOOKUP(H53&amp;"_"&amp;I53,[1]挑战模式!$AV:$BG,9-J53,FALSE)="","",IF(ISNUMBER(VLOOKUP(H53&amp;"_"&amp;I53,[1]挑战模式!$AV:$BG,9-J53,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H53&amp;"_"&amp;I53,[1]挑战模式!$AV:$BG,9-J53,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H53&amp;"_"&amp;I53,[1]挑战模式!$BH:$BS,9-J53,FALSE)="","",IF(ISNUMBER(VLOOKUP(H53&amp;"_"&amp;I53,[1]挑战模式!$BH:$BS,9-J53,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H53&amp;"_"&amp;I53,[1]挑战模式!$BH:$BS,9-J53,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I53">
         <v>4</v>
@@ -5425,11 +5741,11 @@
         <v/>
       </c>
       <c r="D54" t="str">
-        <f>IF(VLOOKUP(H54&amp;"_"&amp;I54,[1]挑战模式!$AV:$BG,9-J54,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H54&amp;"_"&amp;I54,[1]挑战模式!$BH:$BS,9-J54,FALSE)="","","DropItemOne")</f>
         <v/>
       </c>
       <c r="E54" t="str">
-        <f>IF(VLOOKUP(H54&amp;"_"&amp;I54,[1]挑战模式!$AV:$BG,9-J54,FALSE)="","",IF(ISNUMBER(VLOOKUP(H54&amp;"_"&amp;I54,[1]挑战模式!$AV:$BG,9-J54,FALSE)),VLOOKUP(H54&amp;"_"&amp;I54,[1]挑战模式!$AV:$BG,9-J54,FALSE),1))</f>
+        <f>IF(VLOOKUP(H54&amp;"_"&amp;I54,[1]挑战模式!$BH:$BS,9-J54,FALSE)="","",IF(ISNUMBER(VLOOKUP(H54&amp;"_"&amp;I54,[1]挑战模式!$BH:$BS,9-J54,FALSE)),VLOOKUP(H54&amp;"_"&amp;I54,[1]挑战模式!$BH:$BS,9-J54,FALSE),1))</f>
         <v/>
       </c>
       <c r="F54" t="str">
@@ -5437,11 +5753,11 @@
         <v/>
       </c>
       <c r="G54" t="str">
-        <f>IF(VLOOKUP(H54&amp;"_"&amp;I54,[1]挑战模式!$AV:$BG,9-J54,FALSE)="","",IF(ISNUMBER(VLOOKUP(H54&amp;"_"&amp;I54,[1]挑战模式!$AV:$BG,9-J54,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H54&amp;"_"&amp;I54,[1]挑战模式!$AV:$BG,9-J54,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H54&amp;"_"&amp;I54,[1]挑战模式!$BH:$BS,9-J54,FALSE)="","",IF(ISNUMBER(VLOOKUP(H54&amp;"_"&amp;I54,[1]挑战模式!$BH:$BS,9-J54,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H54&amp;"_"&amp;I54,[1]挑战模式!$BH:$BS,9-J54,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v/>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I54">
         <v>4</v>
@@ -5453,18 +5769,18 @@
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>DropItemRule_First_Season3_Challenge5</v>
+        <v>DropItemRule_First_Season1_Challenge5</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="1"/>
         <v>DropAll</v>
       </c>
       <c r="D55" t="str">
-        <f>IF(VLOOKUP(H55&amp;"_"&amp;I55,[1]挑战模式!$AV:$BG,9-J55,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H55&amp;"_"&amp;I55,[1]挑战模式!$BH:$BS,9-J55,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E55">
-        <f>IF(VLOOKUP(H55&amp;"_"&amp;I55,[1]挑战模式!$AV:$BG,9-J55,FALSE)="","",IF(ISNUMBER(VLOOKUP(H55&amp;"_"&amp;I55,[1]挑战模式!$AV:$BG,9-J55,FALSE)),VLOOKUP(H55&amp;"_"&amp;I55,[1]挑战模式!$AV:$BG,9-J55,FALSE),1))</f>
+        <f>IF(VLOOKUP(H55&amp;"_"&amp;I55,[1]挑战模式!$BH:$BS,9-J55,FALSE)="","",IF(ISNUMBER(VLOOKUP(H55&amp;"_"&amp;I55,[1]挑战模式!$BH:$BS,9-J55,FALSE)),VLOOKUP(H55&amp;"_"&amp;I55,[1]挑战模式!$BH:$BS,9-J55,FALSE),1))</f>
         <v>2600</v>
       </c>
       <c r="F55">
@@ -5472,11 +5788,11 @@
         <v>10000</v>
       </c>
       <c r="G55" t="str">
-        <f>IF(VLOOKUP(H55&amp;"_"&amp;I55,[1]挑战模式!$AV:$BG,9-J55,FALSE)="","",IF(ISNUMBER(VLOOKUP(H55&amp;"_"&amp;I55,[1]挑战模式!$AV:$BG,9-J55,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H55&amp;"_"&amp;I55,[1]挑战模式!$AV:$BG,9-J55,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H55&amp;"_"&amp;I55,[1]挑战模式!$BH:$BS,9-J55,FALSE)="","",IF(ISNUMBER(VLOOKUP(H55&amp;"_"&amp;I55,[1]挑战模式!$BH:$BS,9-J55,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H55&amp;"_"&amp;I55,[1]挑战模式!$BH:$BS,9-J55,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I55">
         <v>5</v>
@@ -5495,11 +5811,11 @@
         <v/>
       </c>
       <c r="D56" t="str">
-        <f>IF(VLOOKUP(H56&amp;"_"&amp;I56,[1]挑战模式!$AV:$BG,9-J56,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H56&amp;"_"&amp;I56,[1]挑战模式!$BH:$BS,9-J56,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E56">
-        <f>IF(VLOOKUP(H56&amp;"_"&amp;I56,[1]挑战模式!$AV:$BG,9-J56,FALSE)="","",IF(ISNUMBER(VLOOKUP(H56&amp;"_"&amp;I56,[1]挑战模式!$AV:$BG,9-J56,FALSE)),VLOOKUP(H56&amp;"_"&amp;I56,[1]挑战模式!$AV:$BG,9-J56,FALSE),1))</f>
+        <f>IF(VLOOKUP(H56&amp;"_"&amp;I56,[1]挑战模式!$BH:$BS,9-J56,FALSE)="","",IF(ISNUMBER(VLOOKUP(H56&amp;"_"&amp;I56,[1]挑战模式!$BH:$BS,9-J56,FALSE)),VLOOKUP(H56&amp;"_"&amp;I56,[1]挑战模式!$BH:$BS,9-J56,FALSE),1))</f>
         <v>1</v>
       </c>
       <c r="F56">
@@ -5507,11 +5823,11 @@
         <v>10000</v>
       </c>
       <c r="G56" t="str">
-        <f>IF(VLOOKUP(H56&amp;"_"&amp;I56,[1]挑战模式!$AV:$BG,9-J56,FALSE)="","",IF(ISNUMBER(VLOOKUP(H56&amp;"_"&amp;I56,[1]挑战模式!$AV:$BG,9-J56,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H56&amp;"_"&amp;I56,[1]挑战模式!$AV:$BG,9-J56,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v>Tow23_1</v>
+        <f>IF(VLOOKUP(H56&amp;"_"&amp;I56,[1]挑战模式!$BH:$BS,9-J56,FALSE)="","",IF(ISNUMBER(VLOOKUP(H56&amp;"_"&amp;I56,[1]挑战模式!$BH:$BS,9-J56,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H56&amp;"_"&amp;I56,[1]挑战模式!$BH:$BS,9-J56,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Tow10_1</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I56">
         <v>5</v>
@@ -5523,18 +5839,18 @@
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>DropItemRule_First_Season4_Challenge1</v>
+        <v>DropItemRule_First_Season2_Challenge1</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="1"/>
         <v>DropAll</v>
       </c>
       <c r="D57" t="str">
-        <f>IF(VLOOKUP(H57&amp;"_"&amp;I57,[1]挑战模式!$AV:$BG,9-J57,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H57&amp;"_"&amp;I57,[1]挑战模式!$BH:$BS,9-J57,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E57">
-        <f>IF(VLOOKUP(H57&amp;"_"&amp;I57,[1]挑战模式!$AV:$BG,9-J57,FALSE)="","",IF(ISNUMBER(VLOOKUP(H57&amp;"_"&amp;I57,[1]挑战模式!$AV:$BG,9-J57,FALSE)),VLOOKUP(H57&amp;"_"&amp;I57,[1]挑战模式!$AV:$BG,9-J57,FALSE),1))</f>
+        <f>IF(VLOOKUP(H57&amp;"_"&amp;I57,[1]挑战模式!$BH:$BS,9-J57,FALSE)="","",IF(ISNUMBER(VLOOKUP(H57&amp;"_"&amp;I57,[1]挑战模式!$BH:$BS,9-J57,FALSE)),VLOOKUP(H57&amp;"_"&amp;I57,[1]挑战模式!$BH:$BS,9-J57,FALSE),1))</f>
         <v>500</v>
       </c>
       <c r="F57">
@@ -5542,11 +5858,11 @@
         <v>10000</v>
       </c>
       <c r="G57" t="str">
-        <f>IF(VLOOKUP(H57&amp;"_"&amp;I57,[1]挑战模式!$AV:$BG,9-J57,FALSE)="","",IF(ISNUMBER(VLOOKUP(H57&amp;"_"&amp;I57,[1]挑战模式!$AV:$BG,9-J57,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H57&amp;"_"&amp;I57,[1]挑战模式!$AV:$BG,9-J57,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H57&amp;"_"&amp;I57,[1]挑战模式!$BH:$BS,9-J57,FALSE)="","",IF(ISNUMBER(VLOOKUP(H57&amp;"_"&amp;I57,[1]挑战模式!$BH:$BS,9-J57,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H57&amp;"_"&amp;I57,[1]挑战模式!$BH:$BS,9-J57,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -5565,11 +5881,11 @@
         <v/>
       </c>
       <c r="D58" t="str">
-        <f>IF(VLOOKUP(H58&amp;"_"&amp;I58,[1]挑战模式!$AV:$BG,9-J58,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H58&amp;"_"&amp;I58,[1]挑战模式!$BH:$BS,9-J58,FALSE)="","","DropItemOne")</f>
         <v/>
       </c>
       <c r="E58" t="str">
-        <f>IF(VLOOKUP(H58&amp;"_"&amp;I58,[1]挑战模式!$AV:$BG,9-J58,FALSE)="","",IF(ISNUMBER(VLOOKUP(H58&amp;"_"&amp;I58,[1]挑战模式!$AV:$BG,9-J58,FALSE)),VLOOKUP(H58&amp;"_"&amp;I58,[1]挑战模式!$AV:$BG,9-J58,FALSE),1))</f>
+        <f>IF(VLOOKUP(H58&amp;"_"&amp;I58,[1]挑战模式!$BH:$BS,9-J58,FALSE)="","",IF(ISNUMBER(VLOOKUP(H58&amp;"_"&amp;I58,[1]挑战模式!$BH:$BS,9-J58,FALSE)),VLOOKUP(H58&amp;"_"&amp;I58,[1]挑战模式!$BH:$BS,9-J58,FALSE),1))</f>
         <v/>
       </c>
       <c r="F58" t="str">
@@ -5577,11 +5893,11 @@
         <v/>
       </c>
       <c r="G58" t="str">
-        <f>IF(VLOOKUP(H58&amp;"_"&amp;I58,[1]挑战模式!$AV:$BG,9-J58,FALSE)="","",IF(ISNUMBER(VLOOKUP(H58&amp;"_"&amp;I58,[1]挑战模式!$AV:$BG,9-J58,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H58&amp;"_"&amp;I58,[1]挑战模式!$AV:$BG,9-J58,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H58&amp;"_"&amp;I58,[1]挑战模式!$BH:$BS,9-J58,FALSE)="","",IF(ISNUMBER(VLOOKUP(H58&amp;"_"&amp;I58,[1]挑战模式!$BH:$BS,9-J58,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H58&amp;"_"&amp;I58,[1]挑战模式!$BH:$BS,9-J58,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v/>
       </c>
       <c r="H58">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -5593,18 +5909,18 @@
     <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B59" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>DropItemRule_First_Season4_Challenge2</v>
+        <v>DropItemRule_First_Season2_Challenge2</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="1"/>
         <v>DropAll</v>
       </c>
       <c r="D59" t="str">
-        <f>IF(VLOOKUP(H59&amp;"_"&amp;I59,[1]挑战模式!$AV:$BG,9-J59,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H59&amp;"_"&amp;I59,[1]挑战模式!$BH:$BS,9-J59,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E59">
-        <f>IF(VLOOKUP(H59&amp;"_"&amp;I59,[1]挑战模式!$AV:$BG,9-J59,FALSE)="","",IF(ISNUMBER(VLOOKUP(H59&amp;"_"&amp;I59,[1]挑战模式!$AV:$BG,9-J59,FALSE)),VLOOKUP(H59&amp;"_"&amp;I59,[1]挑战模式!$AV:$BG,9-J59,FALSE),1))</f>
+        <f>IF(VLOOKUP(H59&amp;"_"&amp;I59,[1]挑战模式!$BH:$BS,9-J59,FALSE)="","",IF(ISNUMBER(VLOOKUP(H59&amp;"_"&amp;I59,[1]挑战模式!$BH:$BS,9-J59,FALSE)),VLOOKUP(H59&amp;"_"&amp;I59,[1]挑战模式!$BH:$BS,9-J59,FALSE),1))</f>
         <v>1000</v>
       </c>
       <c r="F59">
@@ -5612,11 +5928,11 @@
         <v>10000</v>
       </c>
       <c r="G59" t="str">
-        <f>IF(VLOOKUP(H59&amp;"_"&amp;I59,[1]挑战模式!$AV:$BG,9-J59,FALSE)="","",IF(ISNUMBER(VLOOKUP(H59&amp;"_"&amp;I59,[1]挑战模式!$AV:$BG,9-J59,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H59&amp;"_"&amp;I59,[1]挑战模式!$AV:$BG,9-J59,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H59&amp;"_"&amp;I59,[1]挑战模式!$BH:$BS,9-J59,FALSE)="","",IF(ISNUMBER(VLOOKUP(H59&amp;"_"&amp;I59,[1]挑战模式!$BH:$BS,9-J59,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H59&amp;"_"&amp;I59,[1]挑战模式!$BH:$BS,9-J59,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I59">
         <v>2</v>
@@ -5635,11 +5951,11 @@
         <v/>
       </c>
       <c r="D60" t="str">
-        <f>IF(VLOOKUP(H60&amp;"_"&amp;I60,[1]挑战模式!$AV:$BG,9-J60,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H60&amp;"_"&amp;I60,[1]挑战模式!$BH:$BS,9-J60,FALSE)="","","DropItemOne")</f>
         <v/>
       </c>
       <c r="E60" t="str">
-        <f>IF(VLOOKUP(H60&amp;"_"&amp;I60,[1]挑战模式!$AV:$BG,9-J60,FALSE)="","",IF(ISNUMBER(VLOOKUP(H60&amp;"_"&amp;I60,[1]挑战模式!$AV:$BG,9-J60,FALSE)),VLOOKUP(H60&amp;"_"&amp;I60,[1]挑战模式!$AV:$BG,9-J60,FALSE),1))</f>
+        <f>IF(VLOOKUP(H60&amp;"_"&amp;I60,[1]挑战模式!$BH:$BS,9-J60,FALSE)="","",IF(ISNUMBER(VLOOKUP(H60&amp;"_"&amp;I60,[1]挑战模式!$BH:$BS,9-J60,FALSE)),VLOOKUP(H60&amp;"_"&amp;I60,[1]挑战模式!$BH:$BS,9-J60,FALSE),1))</f>
         <v/>
       </c>
       <c r="F60" t="str">
@@ -5647,11 +5963,11 @@
         <v/>
       </c>
       <c r="G60" t="str">
-        <f>IF(VLOOKUP(H60&amp;"_"&amp;I60,[1]挑战模式!$AV:$BG,9-J60,FALSE)="","",IF(ISNUMBER(VLOOKUP(H60&amp;"_"&amp;I60,[1]挑战模式!$AV:$BG,9-J60,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H60&amp;"_"&amp;I60,[1]挑战模式!$AV:$BG,9-J60,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H60&amp;"_"&amp;I60,[1]挑战模式!$BH:$BS,9-J60,FALSE)="","",IF(ISNUMBER(VLOOKUP(H60&amp;"_"&amp;I60,[1]挑战模式!$BH:$BS,9-J60,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H60&amp;"_"&amp;I60,[1]挑战模式!$BH:$BS,9-J60,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v/>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I60">
         <v>2</v>
@@ -5663,18 +5979,18 @@
     <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B61" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>DropItemRule_First_Season4_Challenge3</v>
+        <v>DropItemRule_First_Season2_Challenge3</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="1"/>
         <v>DropAll</v>
       </c>
       <c r="D61" t="str">
-        <f>IF(VLOOKUP(H61&amp;"_"&amp;I61,[1]挑战模式!$AV:$BG,9-J61,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H61&amp;"_"&amp;I61,[1]挑战模式!$BH:$BS,9-J61,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E61">
-        <f>IF(VLOOKUP(H61&amp;"_"&amp;I61,[1]挑战模式!$AV:$BG,9-J61,FALSE)="","",IF(ISNUMBER(VLOOKUP(H61&amp;"_"&amp;I61,[1]挑战模式!$AV:$BG,9-J61,FALSE)),VLOOKUP(H61&amp;"_"&amp;I61,[1]挑战模式!$AV:$BG,9-J61,FALSE),1))</f>
+        <f>IF(VLOOKUP(H61&amp;"_"&amp;I61,[1]挑战模式!$BH:$BS,9-J61,FALSE)="","",IF(ISNUMBER(VLOOKUP(H61&amp;"_"&amp;I61,[1]挑战模式!$BH:$BS,9-J61,FALSE)),VLOOKUP(H61&amp;"_"&amp;I61,[1]挑战模式!$BH:$BS,9-J61,FALSE),1))</f>
         <v>1500</v>
       </c>
       <c r="F61">
@@ -5682,11 +5998,11 @@
         <v>10000</v>
       </c>
       <c r="G61" t="str">
-        <f>IF(VLOOKUP(H61&amp;"_"&amp;I61,[1]挑战模式!$AV:$BG,9-J61,FALSE)="","",IF(ISNUMBER(VLOOKUP(H61&amp;"_"&amp;I61,[1]挑战模式!$AV:$BG,9-J61,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H61&amp;"_"&amp;I61,[1]挑战模式!$AV:$BG,9-J61,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H61&amp;"_"&amp;I61,[1]挑战模式!$BH:$BS,9-J61,FALSE)="","",IF(ISNUMBER(VLOOKUP(H61&amp;"_"&amp;I61,[1]挑战模式!$BH:$BS,9-J61,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H61&amp;"_"&amp;I61,[1]挑战模式!$BH:$BS,9-J61,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I61">
         <v>3</v>
@@ -5705,11 +6021,11 @@
         <v/>
       </c>
       <c r="D62" t="str">
-        <f>IF(VLOOKUP(H62&amp;"_"&amp;I62,[1]挑战模式!$AV:$BG,9-J62,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H62&amp;"_"&amp;I62,[1]挑战模式!$BH:$BS,9-J62,FALSE)="","","DropItemOne")</f>
         <v/>
       </c>
       <c r="E62" t="str">
-        <f>IF(VLOOKUP(H62&amp;"_"&amp;I62,[1]挑战模式!$AV:$BG,9-J62,FALSE)="","",IF(ISNUMBER(VLOOKUP(H62&amp;"_"&amp;I62,[1]挑战模式!$AV:$BG,9-J62,FALSE)),VLOOKUP(H62&amp;"_"&amp;I62,[1]挑战模式!$AV:$BG,9-J62,FALSE),1))</f>
+        <f>IF(VLOOKUP(H62&amp;"_"&amp;I62,[1]挑战模式!$BH:$BS,9-J62,FALSE)="","",IF(ISNUMBER(VLOOKUP(H62&amp;"_"&amp;I62,[1]挑战模式!$BH:$BS,9-J62,FALSE)),VLOOKUP(H62&amp;"_"&amp;I62,[1]挑战模式!$BH:$BS,9-J62,FALSE),1))</f>
         <v/>
       </c>
       <c r="F62" t="str">
@@ -5717,11 +6033,11 @@
         <v/>
       </c>
       <c r="G62" t="str">
-        <f>IF(VLOOKUP(H62&amp;"_"&amp;I62,[1]挑战模式!$AV:$BG,9-J62,FALSE)="","",IF(ISNUMBER(VLOOKUP(H62&amp;"_"&amp;I62,[1]挑战模式!$AV:$BG,9-J62,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H62&amp;"_"&amp;I62,[1]挑战模式!$AV:$BG,9-J62,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H62&amp;"_"&amp;I62,[1]挑战模式!$BH:$BS,9-J62,FALSE)="","",IF(ISNUMBER(VLOOKUP(H62&amp;"_"&amp;I62,[1]挑战模式!$BH:$BS,9-J62,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H62&amp;"_"&amp;I62,[1]挑战模式!$BH:$BS,9-J62,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v/>
       </c>
       <c r="H62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I62">
         <v>3</v>
@@ -5733,18 +6049,18 @@
     <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B63" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>DropItemRule_First_Season4_Challenge4</v>
+        <v>DropItemRule_First_Season2_Challenge4</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="1"/>
         <v>DropAll</v>
       </c>
       <c r="D63" t="str">
-        <f>IF(VLOOKUP(H63&amp;"_"&amp;I63,[1]挑战模式!$AV:$BG,9-J63,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H63&amp;"_"&amp;I63,[1]挑战模式!$BH:$BS,9-J63,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E63">
-        <f>IF(VLOOKUP(H63&amp;"_"&amp;I63,[1]挑战模式!$AV:$BG,9-J63,FALSE)="","",IF(ISNUMBER(VLOOKUP(H63&amp;"_"&amp;I63,[1]挑战模式!$AV:$BG,9-J63,FALSE)),VLOOKUP(H63&amp;"_"&amp;I63,[1]挑战模式!$AV:$BG,9-J63,FALSE),1))</f>
+        <f>IF(VLOOKUP(H63&amp;"_"&amp;I63,[1]挑战模式!$BH:$BS,9-J63,FALSE)="","",IF(ISNUMBER(VLOOKUP(H63&amp;"_"&amp;I63,[1]挑战模式!$BH:$BS,9-J63,FALSE)),VLOOKUP(H63&amp;"_"&amp;I63,[1]挑战模式!$BH:$BS,9-J63,FALSE),1))</f>
         <v>2100</v>
       </c>
       <c r="F63">
@@ -5752,11 +6068,11 @@
         <v>10000</v>
       </c>
       <c r="G63" t="str">
-        <f>IF(VLOOKUP(H63&amp;"_"&amp;I63,[1]挑战模式!$AV:$BG,9-J63,FALSE)="","",IF(ISNUMBER(VLOOKUP(H63&amp;"_"&amp;I63,[1]挑战模式!$AV:$BG,9-J63,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H63&amp;"_"&amp;I63,[1]挑战模式!$AV:$BG,9-J63,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H63&amp;"_"&amp;I63,[1]挑战模式!$BH:$BS,9-J63,FALSE)="","",IF(ISNUMBER(VLOOKUP(H63&amp;"_"&amp;I63,[1]挑战模式!$BH:$BS,9-J63,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H63&amp;"_"&amp;I63,[1]挑战模式!$BH:$BS,9-J63,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I63">
         <v>4</v>
@@ -5775,11 +6091,11 @@
         <v/>
       </c>
       <c r="D64" t="str">
-        <f>IF(VLOOKUP(H64&amp;"_"&amp;I64,[1]挑战模式!$AV:$BG,9-J64,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H64&amp;"_"&amp;I64,[1]挑战模式!$BH:$BS,9-J64,FALSE)="","","DropItemOne")</f>
         <v/>
       </c>
       <c r="E64" t="str">
-        <f>IF(VLOOKUP(H64&amp;"_"&amp;I64,[1]挑战模式!$AV:$BG,9-J64,FALSE)="","",IF(ISNUMBER(VLOOKUP(H64&amp;"_"&amp;I64,[1]挑战模式!$AV:$BG,9-J64,FALSE)),VLOOKUP(H64&amp;"_"&amp;I64,[1]挑战模式!$AV:$BG,9-J64,FALSE),1))</f>
+        <f>IF(VLOOKUP(H64&amp;"_"&amp;I64,[1]挑战模式!$BH:$BS,9-J64,FALSE)="","",IF(ISNUMBER(VLOOKUP(H64&amp;"_"&amp;I64,[1]挑战模式!$BH:$BS,9-J64,FALSE)),VLOOKUP(H64&amp;"_"&amp;I64,[1]挑战模式!$BH:$BS,9-J64,FALSE),1))</f>
         <v/>
       </c>
       <c r="F64" t="str">
@@ -5787,11 +6103,11 @@
         <v/>
       </c>
       <c r="G64" t="str">
-        <f>IF(VLOOKUP(H64&amp;"_"&amp;I64,[1]挑战模式!$AV:$BG,9-J64,FALSE)="","",IF(ISNUMBER(VLOOKUP(H64&amp;"_"&amp;I64,[1]挑战模式!$AV:$BG,9-J64,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H64&amp;"_"&amp;I64,[1]挑战模式!$AV:$BG,9-J64,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H64&amp;"_"&amp;I64,[1]挑战模式!$BH:$BS,9-J64,FALSE)="","",IF(ISNUMBER(VLOOKUP(H64&amp;"_"&amp;I64,[1]挑战模式!$BH:$BS,9-J64,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H64&amp;"_"&amp;I64,[1]挑战模式!$BH:$BS,9-J64,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v/>
       </c>
       <c r="H64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I64">
         <v>4</v>
@@ -5803,18 +6119,18 @@
     <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B65" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>DropItemRule_First_Season4_Challenge5</v>
+        <v>DropItemRule_First_Season2_Challenge5</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="1"/>
         <v>DropAll</v>
       </c>
       <c r="D65" t="str">
-        <f>IF(VLOOKUP(H65&amp;"_"&amp;I65,[1]挑战模式!$AV:$BG,9-J65,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H65&amp;"_"&amp;I65,[1]挑战模式!$BH:$BS,9-J65,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E65">
-        <f>IF(VLOOKUP(H65&amp;"_"&amp;I65,[1]挑战模式!$AV:$BG,9-J65,FALSE)="","",IF(ISNUMBER(VLOOKUP(H65&amp;"_"&amp;I65,[1]挑战模式!$AV:$BG,9-J65,FALSE)),VLOOKUP(H65&amp;"_"&amp;I65,[1]挑战模式!$AV:$BG,9-J65,FALSE),1))</f>
+        <f>IF(VLOOKUP(H65&amp;"_"&amp;I65,[1]挑战模式!$BH:$BS,9-J65,FALSE)="","",IF(ISNUMBER(VLOOKUP(H65&amp;"_"&amp;I65,[1]挑战模式!$BH:$BS,9-J65,FALSE)),VLOOKUP(H65&amp;"_"&amp;I65,[1]挑战模式!$BH:$BS,9-J65,FALSE),1))</f>
         <v>2600</v>
       </c>
       <c r="F65">
@@ -5822,11 +6138,11 @@
         <v>10000</v>
       </c>
       <c r="G65" t="str">
-        <f>IF(VLOOKUP(H65&amp;"_"&amp;I65,[1]挑战模式!$AV:$BG,9-J65,FALSE)="","",IF(ISNUMBER(VLOOKUP(H65&amp;"_"&amp;I65,[1]挑战模式!$AV:$BG,9-J65,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H65&amp;"_"&amp;I65,[1]挑战模式!$AV:$BG,9-J65,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H65&amp;"_"&amp;I65,[1]挑战模式!$BH:$BS,9-J65,FALSE)="","",IF(ISNUMBER(VLOOKUP(H65&amp;"_"&amp;I65,[1]挑战模式!$BH:$BS,9-J65,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H65&amp;"_"&amp;I65,[1]挑战模式!$BH:$BS,9-J65,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I65">
         <v>5</v>
@@ -5845,11 +6161,11 @@
         <v/>
       </c>
       <c r="D66" t="str">
-        <f>IF(VLOOKUP(H66&amp;"_"&amp;I66,[1]挑战模式!$AV:$BG,9-J66,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H66&amp;"_"&amp;I66,[1]挑战模式!$BH:$BS,9-J66,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E66">
-        <f>IF(VLOOKUP(H66&amp;"_"&amp;I66,[1]挑战模式!$AV:$BG,9-J66,FALSE)="","",IF(ISNUMBER(VLOOKUP(H66&amp;"_"&amp;I66,[1]挑战模式!$AV:$BG,9-J66,FALSE)),VLOOKUP(H66&amp;"_"&amp;I66,[1]挑战模式!$AV:$BG,9-J66,FALSE),1))</f>
+        <f>IF(VLOOKUP(H66&amp;"_"&amp;I66,[1]挑战模式!$BH:$BS,9-J66,FALSE)="","",IF(ISNUMBER(VLOOKUP(H66&amp;"_"&amp;I66,[1]挑战模式!$BH:$BS,9-J66,FALSE)),VLOOKUP(H66&amp;"_"&amp;I66,[1]挑战模式!$BH:$BS,9-J66,FALSE),1))</f>
         <v>1</v>
       </c>
       <c r="F66">
@@ -5857,11 +6173,11 @@
         <v>10000</v>
       </c>
       <c r="G66" t="str">
-        <f>IF(VLOOKUP(H66&amp;"_"&amp;I66,[1]挑战模式!$AV:$BG,9-J66,FALSE)="","",IF(ISNUMBER(VLOOKUP(H66&amp;"_"&amp;I66,[1]挑战模式!$AV:$BG,9-J66,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H66&amp;"_"&amp;I66,[1]挑战模式!$AV:$BG,9-J66,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v>Tow17_1</v>
+        <f>IF(VLOOKUP(H66&amp;"_"&amp;I66,[1]挑战模式!$BH:$BS,9-J66,FALSE)="","",IF(ISNUMBER(VLOOKUP(H66&amp;"_"&amp;I66,[1]挑战模式!$BH:$BS,9-J66,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H66&amp;"_"&amp;I66,[1]挑战模式!$BH:$BS,9-J66,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Tow11_1</v>
       </c>
       <c r="H66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I66">
         <v>5</v>
@@ -5870,68 +6186,103 @@
         <v>2</v>
       </c>
     </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B67" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>DropItemRule_First_Season3_Challenge1</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="1"/>
+        <v>DropAll</v>
+      </c>
+      <c r="D67" t="str">
+        <f>IF(VLOOKUP(H67&amp;"_"&amp;I67,[1]挑战模式!$BH:$BS,9-J67,FALSE)="","","DropItemOne")</f>
+        <v>DropItemOne</v>
+      </c>
+      <c r="E67">
+        <f>IF(VLOOKUP(H67&amp;"_"&amp;I67,[1]挑战模式!$BH:$BS,9-J67,FALSE)="","",IF(ISNUMBER(VLOOKUP(H67&amp;"_"&amp;I67,[1]挑战模式!$BH:$BS,9-J67,FALSE)),VLOOKUP(H67&amp;"_"&amp;I67,[1]挑战模式!$BH:$BS,9-J67,FALSE),1))</f>
+        <v>500</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="G67" t="str">
+        <f>IF(VLOOKUP(H67&amp;"_"&amp;I67,[1]挑战模式!$BH:$BS,9-J67,FALSE)="","",IF(ISNUMBER(VLOOKUP(H67&amp;"_"&amp;I67,[1]挑战模式!$BH:$BS,9-J67,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H67&amp;"_"&amp;I67,[1]挑战模式!$BH:$BS,9-J67,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Token_Diamond</v>
+      </c>
+      <c r="H67">
+        <v>3</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+    </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B68" s="9" t="str">
-        <f>IF(I68&lt;&gt;I67,"DropItemRule_Common_Season"&amp;H68&amp;"_Challenge"&amp;I68,"")</f>
-        <v>DropItemRule_Common_Season0_Challenge1</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C68" t="str">
-        <f>IF(B68="","","DropAll")</f>
-        <v>DropAll</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="D68" t="str">
-        <f>IF(VLOOKUP(H68&amp;"_"&amp;I68,[1]挑战模式!$AV:$BG,10-J68,FALSE)="","","DropItemOne")</f>
-        <v>DropItemOne</v>
-      </c>
-      <c r="E68">
-        <f>IF(VLOOKUP(H68&amp;"_"&amp;I68,[1]挑战模式!$AV:$BG,10-J68,FALSE)="","",IF(ISNUMBER(VLOOKUP(H68&amp;"_"&amp;I68,[1]挑战模式!$AV:$BG,10-J68,FALSE)),VLOOKUP(H68&amp;"_"&amp;I68,[1]挑战模式!$AV:$BG,10-J68,FALSE),1))</f>
-        <v>30</v>
-      </c>
-      <c r="F68">
-        <f>IF(E68="","",10000)</f>
-        <v>10000</v>
+        <f>IF(VLOOKUP(H68&amp;"_"&amp;I68,[1]挑战模式!$BH:$BS,9-J68,FALSE)="","","DropItemOne")</f>
+        <v/>
+      </c>
+      <c r="E68" t="str">
+        <f>IF(VLOOKUP(H68&amp;"_"&amp;I68,[1]挑战模式!$BH:$BS,9-J68,FALSE)="","",IF(ISNUMBER(VLOOKUP(H68&amp;"_"&amp;I68,[1]挑战模式!$BH:$BS,9-J68,FALSE)),VLOOKUP(H68&amp;"_"&amp;I68,[1]挑战模式!$BH:$BS,9-J68,FALSE),1))</f>
+        <v/>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="G68" t="str">
-        <f>IF(VLOOKUP(H68&amp;"_"&amp;I68,[1]挑战模式!$AV:$BG,10-J68,FALSE)="","",IF(ISNUMBER(VLOOKUP(H68&amp;"_"&amp;I68,[1]挑战模式!$AV:$BG,10-J68,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H68&amp;"_"&amp;I68,[1]挑战模式!$AV:$BG,10-J68,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v>Token_Diamond</v>
+        <f>IF(VLOOKUP(H68&amp;"_"&amp;I68,[1]挑战模式!$BH:$BS,9-J68,FALSE)="","",IF(ISNUMBER(VLOOKUP(H68&amp;"_"&amp;I68,[1]挑战模式!$BH:$BS,9-J68,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H68&amp;"_"&amp;I68,[1]挑战模式!$BH:$BS,9-J68,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v/>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B69" s="9" t="str">
-        <f t="shared" ref="B69:B97" si="3">IF(I69&lt;&gt;I68,"DropItemRule_Common_Season"&amp;H69&amp;"_Challenge"&amp;I69,"")</f>
-        <v>DropItemRule_Common_Season0_Challenge2</v>
+        <f t="shared" si="0"/>
+        <v>DropItemRule_First_Season3_Challenge2</v>
       </c>
       <c r="C69" t="str">
-        <f t="shared" ref="C69:C97" si="4">IF(B69="","","DropAll")</f>
+        <f t="shared" si="1"/>
         <v>DropAll</v>
       </c>
       <c r="D69" t="str">
-        <f>IF(VLOOKUP(H69&amp;"_"&amp;I69,[1]挑战模式!$AV:$BG,10-J69,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H69&amp;"_"&amp;I69,[1]挑战模式!$BH:$BS,9-J69,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E69">
-        <f>IF(VLOOKUP(H69&amp;"_"&amp;I69,[1]挑战模式!$AV:$BG,10-J69,FALSE)="","",IF(ISNUMBER(VLOOKUP(H69&amp;"_"&amp;I69,[1]挑战模式!$AV:$BG,10-J69,FALSE)),VLOOKUP(H69&amp;"_"&amp;I69,[1]挑战模式!$AV:$BG,10-J69,FALSE),1))</f>
-        <v>30</v>
+        <f>IF(VLOOKUP(H69&amp;"_"&amp;I69,[1]挑战模式!$BH:$BS,9-J69,FALSE)="","",IF(ISNUMBER(VLOOKUP(H69&amp;"_"&amp;I69,[1]挑战模式!$BH:$BS,9-J69,FALSE)),VLOOKUP(H69&amp;"_"&amp;I69,[1]挑战模式!$BH:$BS,9-J69,FALSE),1))</f>
+        <v>1000</v>
       </c>
       <c r="F69">
-        <f t="shared" ref="F69:F97" si="5">IF(E69="","",10000)</f>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="G69" t="str">
-        <f>IF(VLOOKUP(H69&amp;"_"&amp;I69,[1]挑战模式!$AV:$BG,10-J69,FALSE)="","",IF(ISNUMBER(VLOOKUP(H69&amp;"_"&amp;I69,[1]挑战模式!$AV:$BG,10-J69,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H69&amp;"_"&amp;I69,[1]挑战模式!$AV:$BG,10-J69,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H69&amp;"_"&amp;I69,[1]挑战模式!$BH:$BS,9-J69,FALSE)="","",IF(ISNUMBER(VLOOKUP(H69&amp;"_"&amp;I69,[1]挑战模式!$BH:$BS,9-J69,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H69&amp;"_"&amp;I69,[1]挑战模式!$BH:$BS,9-J69,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I69">
         <v>2</v>
@@ -5942,69 +6293,69 @@
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B70" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>DropItemRule_Common_Season0_Challenge3</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C70" t="str">
-        <f t="shared" si="4"/>
-        <v>DropAll</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="D70" t="str">
-        <f>IF(VLOOKUP(H70&amp;"_"&amp;I70,[1]挑战模式!$AV:$BG,10-J70,FALSE)="","","DropItemOne")</f>
-        <v>DropItemOne</v>
-      </c>
-      <c r="E70">
-        <f>IF(VLOOKUP(H70&amp;"_"&amp;I70,[1]挑战模式!$AV:$BG,10-J70,FALSE)="","",IF(ISNUMBER(VLOOKUP(H70&amp;"_"&amp;I70,[1]挑战模式!$AV:$BG,10-J70,FALSE)),VLOOKUP(H70&amp;"_"&amp;I70,[1]挑战模式!$AV:$BG,10-J70,FALSE),1))</f>
-        <v>30</v>
-      </c>
-      <c r="F70">
-        <f t="shared" si="5"/>
-        <v>10000</v>
+        <f>IF(VLOOKUP(H70&amp;"_"&amp;I70,[1]挑战模式!$BH:$BS,9-J70,FALSE)="","","DropItemOne")</f>
+        <v/>
+      </c>
+      <c r="E70" t="str">
+        <f>IF(VLOOKUP(H70&amp;"_"&amp;I70,[1]挑战模式!$BH:$BS,9-J70,FALSE)="","",IF(ISNUMBER(VLOOKUP(H70&amp;"_"&amp;I70,[1]挑战模式!$BH:$BS,9-J70,FALSE)),VLOOKUP(H70&amp;"_"&amp;I70,[1]挑战模式!$BH:$BS,9-J70,FALSE),1))</f>
+        <v/>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="G70" t="str">
-        <f>IF(VLOOKUP(H70&amp;"_"&amp;I70,[1]挑战模式!$AV:$BG,10-J70,FALSE)="","",IF(ISNUMBER(VLOOKUP(H70&amp;"_"&amp;I70,[1]挑战模式!$AV:$BG,10-J70,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H70&amp;"_"&amp;I70,[1]挑战模式!$AV:$BG,10-J70,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v>Token_Diamond</v>
+        <f>IF(VLOOKUP(H70&amp;"_"&amp;I70,[1]挑战模式!$BH:$BS,9-J70,FALSE)="","",IF(ISNUMBER(VLOOKUP(H70&amp;"_"&amp;I70,[1]挑战模式!$BH:$BS,9-J70,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H70&amp;"_"&amp;I70,[1]挑战模式!$BH:$BS,9-J70,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v/>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B71" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>DropItemRule_Common_Season0_Challenge4</v>
+        <f t="shared" si="0"/>
+        <v>DropItemRule_First_Season3_Challenge3</v>
       </c>
       <c r="C71" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>DropAll</v>
       </c>
       <c r="D71" t="str">
-        <f>IF(VLOOKUP(H71&amp;"_"&amp;I71,[1]挑战模式!$AV:$BG,10-J71,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H71&amp;"_"&amp;I71,[1]挑战模式!$BH:$BS,9-J71,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E71">
-        <f>IF(VLOOKUP(H71&amp;"_"&amp;I71,[1]挑战模式!$AV:$BG,10-J71,FALSE)="","",IF(ISNUMBER(VLOOKUP(H71&amp;"_"&amp;I71,[1]挑战模式!$AV:$BG,10-J71,FALSE)),VLOOKUP(H71&amp;"_"&amp;I71,[1]挑战模式!$AV:$BG,10-J71,FALSE),1))</f>
-        <v>30</v>
+        <f>IF(VLOOKUP(H71&amp;"_"&amp;I71,[1]挑战模式!$BH:$BS,9-J71,FALSE)="","",IF(ISNUMBER(VLOOKUP(H71&amp;"_"&amp;I71,[1]挑战模式!$BH:$BS,9-J71,FALSE)),VLOOKUP(H71&amp;"_"&amp;I71,[1]挑战模式!$BH:$BS,9-J71,FALSE),1))</f>
+        <v>1500</v>
       </c>
       <c r="F71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="G71" t="str">
-        <f>IF(VLOOKUP(H71&amp;"_"&amp;I71,[1]挑战模式!$AV:$BG,10-J71,FALSE)="","",IF(ISNUMBER(VLOOKUP(H71&amp;"_"&amp;I71,[1]挑战模式!$AV:$BG,10-J71,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H71&amp;"_"&amp;I71,[1]挑战模式!$AV:$BG,10-J71,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H71&amp;"_"&amp;I71,[1]挑战模式!$BH:$BS,9-J71,FALSE)="","",IF(ISNUMBER(VLOOKUP(H71&amp;"_"&amp;I71,[1]挑战模式!$BH:$BS,9-J71,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H71&amp;"_"&amp;I71,[1]挑战模式!$BH:$BS,9-J71,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -6012,69 +6363,69 @@
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B72" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>DropItemRule_Common_Season0_Challenge5</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C72" t="str">
-        <f t="shared" si="4"/>
-        <v>DropAll</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="D72" t="str">
-        <f>IF(VLOOKUP(H72&amp;"_"&amp;I72,[1]挑战模式!$AV:$BG,10-J72,FALSE)="","","DropItemOne")</f>
-        <v>DropItemOne</v>
-      </c>
-      <c r="E72">
-        <f>IF(VLOOKUP(H72&amp;"_"&amp;I72,[1]挑战模式!$AV:$BG,10-J72,FALSE)="","",IF(ISNUMBER(VLOOKUP(H72&amp;"_"&amp;I72,[1]挑战模式!$AV:$BG,10-J72,FALSE)),VLOOKUP(H72&amp;"_"&amp;I72,[1]挑战模式!$AV:$BG,10-J72,FALSE),1))</f>
-        <v>30</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="5"/>
-        <v>10000</v>
+        <f>IF(VLOOKUP(H72&amp;"_"&amp;I72,[1]挑战模式!$BH:$BS,9-J72,FALSE)="","","DropItemOne")</f>
+        <v/>
+      </c>
+      <c r="E72" t="str">
+        <f>IF(VLOOKUP(H72&amp;"_"&amp;I72,[1]挑战模式!$BH:$BS,9-J72,FALSE)="","",IF(ISNUMBER(VLOOKUP(H72&amp;"_"&amp;I72,[1]挑战模式!$BH:$BS,9-J72,FALSE)),VLOOKUP(H72&amp;"_"&amp;I72,[1]挑战模式!$BH:$BS,9-J72,FALSE),1))</f>
+        <v/>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="G72" t="str">
-        <f>IF(VLOOKUP(H72&amp;"_"&amp;I72,[1]挑战模式!$AV:$BG,10-J72,FALSE)="","",IF(ISNUMBER(VLOOKUP(H72&amp;"_"&amp;I72,[1]挑战模式!$AV:$BG,10-J72,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H72&amp;"_"&amp;I72,[1]挑战模式!$AV:$BG,10-J72,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v>Token_Diamond</v>
+        <f>IF(VLOOKUP(H72&amp;"_"&amp;I72,[1]挑战模式!$BH:$BS,9-J72,FALSE)="","",IF(ISNUMBER(VLOOKUP(H72&amp;"_"&amp;I72,[1]挑战模式!$BH:$BS,9-J72,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H72&amp;"_"&amp;I72,[1]挑战模式!$BH:$BS,9-J72,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v/>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B73" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>DropItemRule_Common_Season0_Challenge6</v>
+        <f t="shared" si="0"/>
+        <v>DropItemRule_First_Season3_Challenge4</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>DropAll</v>
       </c>
       <c r="D73" t="str">
-        <f>IF(VLOOKUP(H73&amp;"_"&amp;I73,[1]挑战模式!$AV:$BG,10-J73,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H73&amp;"_"&amp;I73,[1]挑战模式!$BH:$BS,9-J73,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E73">
-        <f>IF(VLOOKUP(H73&amp;"_"&amp;I73,[1]挑战模式!$AV:$BG,10-J73,FALSE)="","",IF(ISNUMBER(VLOOKUP(H73&amp;"_"&amp;I73,[1]挑战模式!$AV:$BG,10-J73,FALSE)),VLOOKUP(H73&amp;"_"&amp;I73,[1]挑战模式!$AV:$BG,10-J73,FALSE),1))</f>
-        <v>30</v>
+        <f>IF(VLOOKUP(H73&amp;"_"&amp;I73,[1]挑战模式!$BH:$BS,9-J73,FALSE)="","",IF(ISNUMBER(VLOOKUP(H73&amp;"_"&amp;I73,[1]挑战模式!$BH:$BS,9-J73,FALSE)),VLOOKUP(H73&amp;"_"&amp;I73,[1]挑战模式!$BH:$BS,9-J73,FALSE),1))</f>
+        <v>2100</v>
       </c>
       <c r="F73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="G73" t="str">
-        <f>IF(VLOOKUP(H73&amp;"_"&amp;I73,[1]挑战模式!$AV:$BG,10-J73,FALSE)="","",IF(ISNUMBER(VLOOKUP(H73&amp;"_"&amp;I73,[1]挑战模式!$AV:$BG,10-J73,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H73&amp;"_"&amp;I73,[1]挑战模式!$AV:$BG,10-J73,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H73&amp;"_"&amp;I73,[1]挑战模式!$BH:$BS,9-J73,FALSE)="","",IF(ISNUMBER(VLOOKUP(H73&amp;"_"&amp;I73,[1]挑战模式!$BH:$BS,9-J73,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H73&amp;"_"&amp;I73,[1]挑战模式!$BH:$BS,9-J73,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I73">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -6082,69 +6433,69 @@
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B74" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>DropItemRule_Common_Season0_Challenge7</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C74" t="str">
-        <f t="shared" si="4"/>
-        <v>DropAll</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="D74" t="str">
-        <f>IF(VLOOKUP(H74&amp;"_"&amp;I74,[1]挑战模式!$AV:$BG,10-J74,FALSE)="","","DropItemOne")</f>
-        <v>DropItemOne</v>
-      </c>
-      <c r="E74">
-        <f>IF(VLOOKUP(H74&amp;"_"&amp;I74,[1]挑战模式!$AV:$BG,10-J74,FALSE)="","",IF(ISNUMBER(VLOOKUP(H74&amp;"_"&amp;I74,[1]挑战模式!$AV:$BG,10-J74,FALSE)),VLOOKUP(H74&amp;"_"&amp;I74,[1]挑战模式!$AV:$BG,10-J74,FALSE),1))</f>
-        <v>30</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="5"/>
-        <v>10000</v>
+        <f>IF(VLOOKUP(H74&amp;"_"&amp;I74,[1]挑战模式!$BH:$BS,9-J74,FALSE)="","","DropItemOne")</f>
+        <v/>
+      </c>
+      <c r="E74" t="str">
+        <f>IF(VLOOKUP(H74&amp;"_"&amp;I74,[1]挑战模式!$BH:$BS,9-J74,FALSE)="","",IF(ISNUMBER(VLOOKUP(H74&amp;"_"&amp;I74,[1]挑战模式!$BH:$BS,9-J74,FALSE)),VLOOKUP(H74&amp;"_"&amp;I74,[1]挑战模式!$BH:$BS,9-J74,FALSE),1))</f>
+        <v/>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="G74" t="str">
-        <f>IF(VLOOKUP(H74&amp;"_"&amp;I74,[1]挑战模式!$AV:$BG,10-J74,FALSE)="","",IF(ISNUMBER(VLOOKUP(H74&amp;"_"&amp;I74,[1]挑战模式!$AV:$BG,10-J74,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H74&amp;"_"&amp;I74,[1]挑战模式!$AV:$BG,10-J74,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v>Token_Diamond</v>
+        <f>IF(VLOOKUP(H74&amp;"_"&amp;I74,[1]挑战模式!$BH:$BS,9-J74,FALSE)="","",IF(ISNUMBER(VLOOKUP(H74&amp;"_"&amp;I74,[1]挑战模式!$BH:$BS,9-J74,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H74&amp;"_"&amp;I74,[1]挑战模式!$BH:$BS,9-J74,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v/>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I74">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B75" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>DropItemRule_Common_Season0_Challenge8</v>
+        <f t="shared" si="0"/>
+        <v>DropItemRule_First_Season3_Challenge5</v>
       </c>
       <c r="C75" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>DropAll</v>
       </c>
       <c r="D75" t="str">
-        <f>IF(VLOOKUP(H75&amp;"_"&amp;I75,[1]挑战模式!$AV:$BG,10-J75,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H75&amp;"_"&amp;I75,[1]挑战模式!$BH:$BS,9-J75,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E75">
-        <f>IF(VLOOKUP(H75&amp;"_"&amp;I75,[1]挑战模式!$AV:$BG,10-J75,FALSE)="","",IF(ISNUMBER(VLOOKUP(H75&amp;"_"&amp;I75,[1]挑战模式!$AV:$BG,10-J75,FALSE)),VLOOKUP(H75&amp;"_"&amp;I75,[1]挑战模式!$AV:$BG,10-J75,FALSE),1))</f>
-        <v>30</v>
+        <f>IF(VLOOKUP(H75&amp;"_"&amp;I75,[1]挑战模式!$BH:$BS,9-J75,FALSE)="","",IF(ISNUMBER(VLOOKUP(H75&amp;"_"&amp;I75,[1]挑战模式!$BH:$BS,9-J75,FALSE)),VLOOKUP(H75&amp;"_"&amp;I75,[1]挑战模式!$BH:$BS,9-J75,FALSE),1))</f>
+        <v>2600</v>
       </c>
       <c r="F75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="G75" t="str">
-        <f>IF(VLOOKUP(H75&amp;"_"&amp;I75,[1]挑战模式!$AV:$BG,10-J75,FALSE)="","",IF(ISNUMBER(VLOOKUP(H75&amp;"_"&amp;I75,[1]挑战模式!$AV:$BG,10-J75,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H75&amp;"_"&amp;I75,[1]挑战模式!$AV:$BG,10-J75,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H75&amp;"_"&amp;I75,[1]挑战模式!$BH:$BS,9-J75,FALSE)="","",IF(ISNUMBER(VLOOKUP(H75&amp;"_"&amp;I75,[1]挑战模式!$BH:$BS,9-J75,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H75&amp;"_"&amp;I75,[1]挑战模式!$BH:$BS,9-J75,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I75">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -6152,69 +6503,69 @@
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B76" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>DropItemRule_Common_Season0_Challenge9</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C76" t="str">
-        <f t="shared" si="4"/>
-        <v>DropAll</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="D76" t="str">
-        <f>IF(VLOOKUP(H76&amp;"_"&amp;I76,[1]挑战模式!$AV:$BG,10-J76,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H76&amp;"_"&amp;I76,[1]挑战模式!$BH:$BS,9-J76,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E76">
-        <f>IF(VLOOKUP(H76&amp;"_"&amp;I76,[1]挑战模式!$AV:$BG,10-J76,FALSE)="","",IF(ISNUMBER(VLOOKUP(H76&amp;"_"&amp;I76,[1]挑战模式!$AV:$BG,10-J76,FALSE)),VLOOKUP(H76&amp;"_"&amp;I76,[1]挑战模式!$AV:$BG,10-J76,FALSE),1))</f>
-        <v>30</v>
+        <f>IF(VLOOKUP(H76&amp;"_"&amp;I76,[1]挑战模式!$BH:$BS,9-J76,FALSE)="","",IF(ISNUMBER(VLOOKUP(H76&amp;"_"&amp;I76,[1]挑战模式!$BH:$BS,9-J76,FALSE)),VLOOKUP(H76&amp;"_"&amp;I76,[1]挑战模式!$BH:$BS,9-J76,FALSE),1))</f>
+        <v>1</v>
       </c>
       <c r="F76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="G76" t="str">
-        <f>IF(VLOOKUP(H76&amp;"_"&amp;I76,[1]挑战模式!$AV:$BG,10-J76,FALSE)="","",IF(ISNUMBER(VLOOKUP(H76&amp;"_"&amp;I76,[1]挑战模式!$AV:$BG,10-J76,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H76&amp;"_"&amp;I76,[1]挑战模式!$AV:$BG,10-J76,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v>Token_Diamond</v>
+        <f>IF(VLOOKUP(H76&amp;"_"&amp;I76,[1]挑战模式!$BH:$BS,9-J76,FALSE)="","",IF(ISNUMBER(VLOOKUP(H76&amp;"_"&amp;I76,[1]挑战模式!$BH:$BS,9-J76,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H76&amp;"_"&amp;I76,[1]挑战模式!$BH:$BS,9-J76,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Tow21_1</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B77" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>DropItemRule_Common_Season0_Challenge10</v>
+        <f t="shared" si="0"/>
+        <v>DropItemRule_First_Season4_Challenge1</v>
       </c>
       <c r="C77" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>DropAll</v>
       </c>
       <c r="D77" t="str">
-        <f>IF(VLOOKUP(H77&amp;"_"&amp;I77,[1]挑战模式!$AV:$BG,10-J77,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H77&amp;"_"&amp;I77,[1]挑战模式!$BH:$BS,9-J77,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E77">
-        <f>IF(VLOOKUP(H77&amp;"_"&amp;I77,[1]挑战模式!$AV:$BG,10-J77,FALSE)="","",IF(ISNUMBER(VLOOKUP(H77&amp;"_"&amp;I77,[1]挑战模式!$AV:$BG,10-J77,FALSE)),VLOOKUP(H77&amp;"_"&amp;I77,[1]挑战模式!$AV:$BG,10-J77,FALSE),1))</f>
-        <v>30</v>
+        <f>IF(VLOOKUP(H77&amp;"_"&amp;I77,[1]挑战模式!$BH:$BS,9-J77,FALSE)="","",IF(ISNUMBER(VLOOKUP(H77&amp;"_"&amp;I77,[1]挑战模式!$BH:$BS,9-J77,FALSE)),VLOOKUP(H77&amp;"_"&amp;I77,[1]挑战模式!$BH:$BS,9-J77,FALSE),1))</f>
+        <v>500</v>
       </c>
       <c r="F77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="G77" t="str">
-        <f>IF(VLOOKUP(H77&amp;"_"&amp;I77,[1]挑战模式!$AV:$BG,10-J77,FALSE)="","",IF(ISNUMBER(VLOOKUP(H77&amp;"_"&amp;I77,[1]挑战模式!$AV:$BG,10-J77,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H77&amp;"_"&amp;I77,[1]挑战模式!$AV:$BG,10-J77,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H77&amp;"_"&amp;I77,[1]挑战模式!$BH:$BS,9-J77,FALSE)="","",IF(ISNUMBER(VLOOKUP(H77&amp;"_"&amp;I77,[1]挑战模式!$BH:$BS,9-J77,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H77&amp;"_"&amp;I77,[1]挑战模式!$BH:$BS,9-J77,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I77">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -6222,66 +6573,66 @@
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B78" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>DropItemRule_Common_Season1_Challenge1</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C78" t="str">
-        <f t="shared" si="4"/>
-        <v>DropAll</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="D78" t="str">
-        <f>IF(VLOOKUP(H78&amp;"_"&amp;I78,[1]挑战模式!$AV:$BG,10-J78,FALSE)="","","DropItemOne")</f>
-        <v>DropItemOne</v>
-      </c>
-      <c r="E78">
-        <f>IF(VLOOKUP(H78&amp;"_"&amp;I78,[1]挑战模式!$AV:$BG,10-J78,FALSE)="","",IF(ISNUMBER(VLOOKUP(H78&amp;"_"&amp;I78,[1]挑战模式!$AV:$BG,10-J78,FALSE)),VLOOKUP(H78&amp;"_"&amp;I78,[1]挑战模式!$AV:$BG,10-J78,FALSE),1))</f>
-        <v>30</v>
-      </c>
-      <c r="F78">
-        <f t="shared" si="5"/>
-        <v>10000</v>
+        <f>IF(VLOOKUP(H78&amp;"_"&amp;I78,[1]挑战模式!$BH:$BS,9-J78,FALSE)="","","DropItemOne")</f>
+        <v/>
+      </c>
+      <c r="E78" t="str">
+        <f>IF(VLOOKUP(H78&amp;"_"&amp;I78,[1]挑战模式!$BH:$BS,9-J78,FALSE)="","",IF(ISNUMBER(VLOOKUP(H78&amp;"_"&amp;I78,[1]挑战模式!$BH:$BS,9-J78,FALSE)),VLOOKUP(H78&amp;"_"&amp;I78,[1]挑战模式!$BH:$BS,9-J78,FALSE),1))</f>
+        <v/>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="G78" t="str">
-        <f>IF(VLOOKUP(H78&amp;"_"&amp;I78,[1]挑战模式!$AV:$BG,10-J78,FALSE)="","",IF(ISNUMBER(VLOOKUP(H78&amp;"_"&amp;I78,[1]挑战模式!$AV:$BG,10-J78,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H78&amp;"_"&amp;I78,[1]挑战模式!$AV:$BG,10-J78,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v>Token_Diamond</v>
+        <f>IF(VLOOKUP(H78&amp;"_"&amp;I78,[1]挑战模式!$BH:$BS,9-J78,FALSE)="","",IF(ISNUMBER(VLOOKUP(H78&amp;"_"&amp;I78,[1]挑战模式!$BH:$BS,9-J78,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H78&amp;"_"&amp;I78,[1]挑战模式!$BH:$BS,9-J78,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v/>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I78">
         <v>1</v>
       </c>
       <c r="J78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B79" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>DropItemRule_Common_Season1_Challenge2</v>
+        <f t="shared" si="0"/>
+        <v>DropItemRule_First_Season4_Challenge2</v>
       </c>
       <c r="C79" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>DropAll</v>
       </c>
       <c r="D79" t="str">
-        <f>IF(VLOOKUP(H79&amp;"_"&amp;I79,[1]挑战模式!$AV:$BG,10-J79,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H79&amp;"_"&amp;I79,[1]挑战模式!$BH:$BS,9-J79,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E79">
-        <f>IF(VLOOKUP(H79&amp;"_"&amp;I79,[1]挑战模式!$AV:$BG,10-J79,FALSE)="","",IF(ISNUMBER(VLOOKUP(H79&amp;"_"&amp;I79,[1]挑战模式!$AV:$BG,10-J79,FALSE)),VLOOKUP(H79&amp;"_"&amp;I79,[1]挑战模式!$AV:$BG,10-J79,FALSE),1))</f>
-        <v>30</v>
+        <f>IF(VLOOKUP(H79&amp;"_"&amp;I79,[1]挑战模式!$BH:$BS,9-J79,FALSE)="","",IF(ISNUMBER(VLOOKUP(H79&amp;"_"&amp;I79,[1]挑战模式!$BH:$BS,9-J79,FALSE)),VLOOKUP(H79&amp;"_"&amp;I79,[1]挑战模式!$BH:$BS,9-J79,FALSE),1))</f>
+        <v>1000</v>
       </c>
       <c r="F79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="G79" t="str">
-        <f>IF(VLOOKUP(H79&amp;"_"&amp;I79,[1]挑战模式!$AV:$BG,10-J79,FALSE)="","",IF(ISNUMBER(VLOOKUP(H79&amp;"_"&amp;I79,[1]挑战模式!$AV:$BG,10-J79,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H79&amp;"_"&amp;I79,[1]挑战模式!$AV:$BG,10-J79,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H79&amp;"_"&amp;I79,[1]挑战模式!$BH:$BS,9-J79,FALSE)="","",IF(ISNUMBER(VLOOKUP(H79&amp;"_"&amp;I79,[1]挑战模式!$BH:$BS,9-J79,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H79&amp;"_"&amp;I79,[1]挑战模式!$BH:$BS,9-J79,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I79">
         <v>2</v>
@@ -6292,69 +6643,69 @@
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B80" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>DropItemRule_Common_Season1_Challenge3</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C80" t="str">
-        <f t="shared" si="4"/>
-        <v>DropAll</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="D80" t="str">
-        <f>IF(VLOOKUP(H80&amp;"_"&amp;I80,[1]挑战模式!$AV:$BG,10-J80,FALSE)="","","DropItemOne")</f>
-        <v>DropItemOne</v>
-      </c>
-      <c r="E80">
-        <f>IF(VLOOKUP(H80&amp;"_"&amp;I80,[1]挑战模式!$AV:$BG,10-J80,FALSE)="","",IF(ISNUMBER(VLOOKUP(H80&amp;"_"&amp;I80,[1]挑战模式!$AV:$BG,10-J80,FALSE)),VLOOKUP(H80&amp;"_"&amp;I80,[1]挑战模式!$AV:$BG,10-J80,FALSE),1))</f>
-        <v>30</v>
-      </c>
-      <c r="F80">
-        <f t="shared" si="5"/>
-        <v>10000</v>
+        <f>IF(VLOOKUP(H80&amp;"_"&amp;I80,[1]挑战模式!$BH:$BS,9-J80,FALSE)="","","DropItemOne")</f>
+        <v/>
+      </c>
+      <c r="E80" t="str">
+        <f>IF(VLOOKUP(H80&amp;"_"&amp;I80,[1]挑战模式!$BH:$BS,9-J80,FALSE)="","",IF(ISNUMBER(VLOOKUP(H80&amp;"_"&amp;I80,[1]挑战模式!$BH:$BS,9-J80,FALSE)),VLOOKUP(H80&amp;"_"&amp;I80,[1]挑战模式!$BH:$BS,9-J80,FALSE),1))</f>
+        <v/>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="G80" t="str">
-        <f>IF(VLOOKUP(H80&amp;"_"&amp;I80,[1]挑战模式!$AV:$BG,10-J80,FALSE)="","",IF(ISNUMBER(VLOOKUP(H80&amp;"_"&amp;I80,[1]挑战模式!$AV:$BG,10-J80,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H80&amp;"_"&amp;I80,[1]挑战模式!$AV:$BG,10-J80,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v>Token_Diamond</v>
+        <f>IF(VLOOKUP(H80&amp;"_"&amp;I80,[1]挑战模式!$BH:$BS,9-J80,FALSE)="","",IF(ISNUMBER(VLOOKUP(H80&amp;"_"&amp;I80,[1]挑战模式!$BH:$BS,9-J80,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H80&amp;"_"&amp;I80,[1]挑战模式!$BH:$BS,9-J80,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v/>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J80">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B81" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>DropItemRule_Common_Season1_Challenge4</v>
+        <f t="shared" si="0"/>
+        <v>DropItemRule_First_Season4_Challenge3</v>
       </c>
       <c r="C81" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>DropAll</v>
       </c>
       <c r="D81" t="str">
-        <f>IF(VLOOKUP(H81&amp;"_"&amp;I81,[1]挑战模式!$AV:$BG,10-J81,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H81&amp;"_"&amp;I81,[1]挑战模式!$BH:$BS,9-J81,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E81">
-        <f>IF(VLOOKUP(H81&amp;"_"&amp;I81,[1]挑战模式!$AV:$BG,10-J81,FALSE)="","",IF(ISNUMBER(VLOOKUP(H81&amp;"_"&amp;I81,[1]挑战模式!$AV:$BG,10-J81,FALSE)),VLOOKUP(H81&amp;"_"&amp;I81,[1]挑战模式!$AV:$BG,10-J81,FALSE),1))</f>
-        <v>30</v>
+        <f>IF(VLOOKUP(H81&amp;"_"&amp;I81,[1]挑战模式!$BH:$BS,9-J81,FALSE)="","",IF(ISNUMBER(VLOOKUP(H81&amp;"_"&amp;I81,[1]挑战模式!$BH:$BS,9-J81,FALSE)),VLOOKUP(H81&amp;"_"&amp;I81,[1]挑战模式!$BH:$BS,9-J81,FALSE),1))</f>
+        <v>1500</v>
       </c>
       <c r="F81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="G81" t="str">
-        <f>IF(VLOOKUP(H81&amp;"_"&amp;I81,[1]挑战模式!$AV:$BG,10-J81,FALSE)="","",IF(ISNUMBER(VLOOKUP(H81&amp;"_"&amp;I81,[1]挑战模式!$AV:$BG,10-J81,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H81&amp;"_"&amp;I81,[1]挑战模式!$AV:$BG,10-J81,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H81&amp;"_"&amp;I81,[1]挑战模式!$BH:$BS,9-J81,FALSE)="","",IF(ISNUMBER(VLOOKUP(H81&amp;"_"&amp;I81,[1]挑战模式!$BH:$BS,9-J81,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H81&amp;"_"&amp;I81,[1]挑战模式!$BH:$BS,9-J81,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J81">
         <v>1</v>
@@ -6362,69 +6713,69 @@
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B82" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>DropItemRule_Common_Season1_Challenge5</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C82" t="str">
-        <f t="shared" si="4"/>
-        <v>DropAll</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="D82" t="str">
-        <f>IF(VLOOKUP(H82&amp;"_"&amp;I82,[1]挑战模式!$AV:$BG,10-J82,FALSE)="","","DropItemOne")</f>
-        <v>DropItemOne</v>
-      </c>
-      <c r="E82">
-        <f>IF(VLOOKUP(H82&amp;"_"&amp;I82,[1]挑战模式!$AV:$BG,10-J82,FALSE)="","",IF(ISNUMBER(VLOOKUP(H82&amp;"_"&amp;I82,[1]挑战模式!$AV:$BG,10-J82,FALSE)),VLOOKUP(H82&amp;"_"&amp;I82,[1]挑战模式!$AV:$BG,10-J82,FALSE),1))</f>
-        <v>30</v>
-      </c>
-      <c r="F82">
-        <f t="shared" si="5"/>
-        <v>10000</v>
+        <f>IF(VLOOKUP(H82&amp;"_"&amp;I82,[1]挑战模式!$BH:$BS,9-J82,FALSE)="","","DropItemOne")</f>
+        <v/>
+      </c>
+      <c r="E82" t="str">
+        <f>IF(VLOOKUP(H82&amp;"_"&amp;I82,[1]挑战模式!$BH:$BS,9-J82,FALSE)="","",IF(ISNUMBER(VLOOKUP(H82&amp;"_"&amp;I82,[1]挑战模式!$BH:$BS,9-J82,FALSE)),VLOOKUP(H82&amp;"_"&amp;I82,[1]挑战模式!$BH:$BS,9-J82,FALSE),1))</f>
+        <v/>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="G82" t="str">
-        <f>IF(VLOOKUP(H82&amp;"_"&amp;I82,[1]挑战模式!$AV:$BG,10-J82,FALSE)="","",IF(ISNUMBER(VLOOKUP(H82&amp;"_"&amp;I82,[1]挑战模式!$AV:$BG,10-J82,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H82&amp;"_"&amp;I82,[1]挑战模式!$AV:$BG,10-J82,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v>Token_Diamond</v>
+        <f>IF(VLOOKUP(H82&amp;"_"&amp;I82,[1]挑战模式!$BH:$BS,9-J82,FALSE)="","",IF(ISNUMBER(VLOOKUP(H82&amp;"_"&amp;I82,[1]挑战模式!$BH:$BS,9-J82,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H82&amp;"_"&amp;I82,[1]挑战模式!$BH:$BS,9-J82,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v/>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J82">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B83" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>DropItemRule_Common_Season2_Challenge1</v>
+        <f t="shared" si="0"/>
+        <v>DropItemRule_First_Season4_Challenge4</v>
       </c>
       <c r="C83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>DropAll</v>
       </c>
       <c r="D83" t="str">
-        <f>IF(VLOOKUP(H83&amp;"_"&amp;I83,[1]挑战模式!$AV:$BG,10-J83,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H83&amp;"_"&amp;I83,[1]挑战模式!$BH:$BS,9-J83,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E83">
-        <f>IF(VLOOKUP(H83&amp;"_"&amp;I83,[1]挑战模式!$AV:$BG,10-J83,FALSE)="","",IF(ISNUMBER(VLOOKUP(H83&amp;"_"&amp;I83,[1]挑战模式!$AV:$BG,10-J83,FALSE)),VLOOKUP(H83&amp;"_"&amp;I83,[1]挑战模式!$AV:$BG,10-J83,FALSE),1))</f>
-        <v>30</v>
+        <f>IF(VLOOKUP(H83&amp;"_"&amp;I83,[1]挑战模式!$BH:$BS,9-J83,FALSE)="","",IF(ISNUMBER(VLOOKUP(H83&amp;"_"&amp;I83,[1]挑战模式!$BH:$BS,9-J83,FALSE)),VLOOKUP(H83&amp;"_"&amp;I83,[1]挑战模式!$BH:$BS,9-J83,FALSE),1))</f>
+        <v>2100</v>
       </c>
       <c r="F83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="G83" t="str">
-        <f>IF(VLOOKUP(H83&amp;"_"&amp;I83,[1]挑战模式!$AV:$BG,10-J83,FALSE)="","",IF(ISNUMBER(VLOOKUP(H83&amp;"_"&amp;I83,[1]挑战模式!$AV:$BG,10-J83,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H83&amp;"_"&amp;I83,[1]挑战模式!$AV:$BG,10-J83,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H83&amp;"_"&amp;I83,[1]挑战模式!$BH:$BS,9-J83,FALSE)="","",IF(ISNUMBER(VLOOKUP(H83&amp;"_"&amp;I83,[1]挑战模式!$BH:$BS,9-J83,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H83&amp;"_"&amp;I83,[1]挑战模式!$BH:$BS,9-J83,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -6432,69 +6783,69 @@
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B84" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>DropItemRule_Common_Season2_Challenge2</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C84" t="str">
-        <f t="shared" si="4"/>
-        <v>DropAll</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="D84" t="str">
-        <f>IF(VLOOKUP(H84&amp;"_"&amp;I84,[1]挑战模式!$AV:$BG,10-J84,FALSE)="","","DropItemOne")</f>
-        <v>DropItemOne</v>
-      </c>
-      <c r="E84">
-        <f>IF(VLOOKUP(H84&amp;"_"&amp;I84,[1]挑战模式!$AV:$BG,10-J84,FALSE)="","",IF(ISNUMBER(VLOOKUP(H84&amp;"_"&amp;I84,[1]挑战模式!$AV:$BG,10-J84,FALSE)),VLOOKUP(H84&amp;"_"&amp;I84,[1]挑战模式!$AV:$BG,10-J84,FALSE),1))</f>
-        <v>30</v>
-      </c>
-      <c r="F84">
-        <f t="shared" si="5"/>
-        <v>10000</v>
+        <f>IF(VLOOKUP(H84&amp;"_"&amp;I84,[1]挑战模式!$BH:$BS,9-J84,FALSE)="","","DropItemOne")</f>
+        <v/>
+      </c>
+      <c r="E84" t="str">
+        <f>IF(VLOOKUP(H84&amp;"_"&amp;I84,[1]挑战模式!$BH:$BS,9-J84,FALSE)="","",IF(ISNUMBER(VLOOKUP(H84&amp;"_"&amp;I84,[1]挑战模式!$BH:$BS,9-J84,FALSE)),VLOOKUP(H84&amp;"_"&amp;I84,[1]挑战模式!$BH:$BS,9-J84,FALSE),1))</f>
+        <v/>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="G84" t="str">
-        <f>IF(VLOOKUP(H84&amp;"_"&amp;I84,[1]挑战模式!$AV:$BG,10-J84,FALSE)="","",IF(ISNUMBER(VLOOKUP(H84&amp;"_"&amp;I84,[1]挑战模式!$AV:$BG,10-J84,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H84&amp;"_"&amp;I84,[1]挑战模式!$AV:$BG,10-J84,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v>Token_Diamond</v>
+        <f>IF(VLOOKUP(H84&amp;"_"&amp;I84,[1]挑战模式!$BH:$BS,9-J84,FALSE)="","",IF(ISNUMBER(VLOOKUP(H84&amp;"_"&amp;I84,[1]挑战模式!$BH:$BS,9-J84,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H84&amp;"_"&amp;I84,[1]挑战模式!$BH:$BS,9-J84,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v/>
       </c>
       <c r="H84">
+        <v>4</v>
+      </c>
+      <c r="I84">
+        <v>4</v>
+      </c>
+      <c r="J84">
         <v>2</v>
-      </c>
-      <c r="I84">
-        <v>2</v>
-      </c>
-      <c r="J84">
-        <v>1</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B85" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>DropItemRule_Common_Season2_Challenge3</v>
+        <f t="shared" si="0"/>
+        <v>DropItemRule_First_Season4_Challenge5</v>
       </c>
       <c r="C85" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>DropAll</v>
       </c>
       <c r="D85" t="str">
-        <f>IF(VLOOKUP(H85&amp;"_"&amp;I85,[1]挑战模式!$AV:$BG,10-J85,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H85&amp;"_"&amp;I85,[1]挑战模式!$BH:$BS,9-J85,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E85">
-        <f>IF(VLOOKUP(H85&amp;"_"&amp;I85,[1]挑战模式!$AV:$BG,10-J85,FALSE)="","",IF(ISNUMBER(VLOOKUP(H85&amp;"_"&amp;I85,[1]挑战模式!$AV:$BG,10-J85,FALSE)),VLOOKUP(H85&amp;"_"&amp;I85,[1]挑战模式!$AV:$BG,10-J85,FALSE),1))</f>
-        <v>30</v>
+        <f>IF(VLOOKUP(H85&amp;"_"&amp;I85,[1]挑战模式!$BH:$BS,9-J85,FALSE)="","",IF(ISNUMBER(VLOOKUP(H85&amp;"_"&amp;I85,[1]挑战模式!$BH:$BS,9-J85,FALSE)),VLOOKUP(H85&amp;"_"&amp;I85,[1]挑战模式!$BH:$BS,9-J85,FALSE),1))</f>
+        <v>2600</v>
       </c>
       <c r="F85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="G85" t="str">
-        <f>IF(VLOOKUP(H85&amp;"_"&amp;I85,[1]挑战模式!$AV:$BG,10-J85,FALSE)="","",IF(ISNUMBER(VLOOKUP(H85&amp;"_"&amp;I85,[1]挑战模式!$AV:$BG,10-J85,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H85&amp;"_"&amp;I85,[1]挑战模式!$AV:$BG,10-J85,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H85&amp;"_"&amp;I85,[1]挑战模式!$BH:$BS,9-J85,FALSE)="","",IF(ISNUMBER(VLOOKUP(H85&amp;"_"&amp;I85,[1]挑战模式!$BH:$BS,9-J85,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H85&amp;"_"&amp;I85,[1]挑战模式!$BH:$BS,9-J85,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J85">
         <v>1</v>
@@ -6502,101 +6853,66 @@
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B86" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>DropItemRule_Common_Season2_Challenge4</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C86" t="str">
-        <f t="shared" si="4"/>
-        <v>DropAll</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="D86" t="str">
-        <f>IF(VLOOKUP(H86&amp;"_"&amp;I86,[1]挑战模式!$AV:$BG,10-J86,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H86&amp;"_"&amp;I86,[1]挑战模式!$BH:$BS,9-J86,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E86">
-        <f>IF(VLOOKUP(H86&amp;"_"&amp;I86,[1]挑战模式!$AV:$BG,10-J86,FALSE)="","",IF(ISNUMBER(VLOOKUP(H86&amp;"_"&amp;I86,[1]挑战模式!$AV:$BG,10-J86,FALSE)),VLOOKUP(H86&amp;"_"&amp;I86,[1]挑战模式!$AV:$BG,10-J86,FALSE),1))</f>
-        <v>30</v>
+        <f>IF(VLOOKUP(H86&amp;"_"&amp;I86,[1]挑战模式!$BH:$BS,9-J86,FALSE)="","",IF(ISNUMBER(VLOOKUP(H86&amp;"_"&amp;I86,[1]挑战模式!$BH:$BS,9-J86,FALSE)),VLOOKUP(H86&amp;"_"&amp;I86,[1]挑战模式!$BH:$BS,9-J86,FALSE),1))</f>
+        <v>1</v>
       </c>
       <c r="F86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="G86" t="str">
-        <f>IF(VLOOKUP(H86&amp;"_"&amp;I86,[1]挑战模式!$AV:$BG,10-J86,FALSE)="","",IF(ISNUMBER(VLOOKUP(H86&amp;"_"&amp;I86,[1]挑战模式!$AV:$BG,10-J86,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H86&amp;"_"&amp;I86,[1]挑战模式!$AV:$BG,10-J86,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v>Token_Diamond</v>
+        <f>IF(VLOOKUP(H86&amp;"_"&amp;I86,[1]挑战模式!$BH:$BS,9-J86,FALSE)="","",IF(ISNUMBER(VLOOKUP(H86&amp;"_"&amp;I86,[1]挑战模式!$BH:$BS,9-J86,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H86&amp;"_"&amp;I86,[1]挑战模式!$BH:$BS,9-J86,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Tow17_1</v>
       </c>
       <c r="H86">
+        <v>4</v>
+      </c>
+      <c r="I86">
+        <v>5</v>
+      </c>
+      <c r="J86">
         <v>2</v>
-      </c>
-      <c r="I86">
-        <v>4</v>
-      </c>
-      <c r="J86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B87" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>DropItemRule_Common_Season2_Challenge5</v>
-      </c>
-      <c r="C87" t="str">
-        <f t="shared" si="4"/>
-        <v>DropAll</v>
-      </c>
-      <c r="D87" t="str">
-        <f>IF(VLOOKUP(H87&amp;"_"&amp;I87,[1]挑战模式!$AV:$BG,10-J87,FALSE)="","","DropItemOne")</f>
-        <v>DropItemOne</v>
-      </c>
-      <c r="E87">
-        <f>IF(VLOOKUP(H87&amp;"_"&amp;I87,[1]挑战模式!$AV:$BG,10-J87,FALSE)="","",IF(ISNUMBER(VLOOKUP(H87&amp;"_"&amp;I87,[1]挑战模式!$AV:$BG,10-J87,FALSE)),VLOOKUP(H87&amp;"_"&amp;I87,[1]挑战模式!$AV:$BG,10-J87,FALSE),1))</f>
-        <v>30</v>
-      </c>
-      <c r="F87">
-        <f t="shared" si="5"/>
-        <v>10000</v>
-      </c>
-      <c r="G87" t="str">
-        <f>IF(VLOOKUP(H87&amp;"_"&amp;I87,[1]挑战模式!$AV:$BG,10-J87,FALSE)="","",IF(ISNUMBER(VLOOKUP(H87&amp;"_"&amp;I87,[1]挑战模式!$AV:$BG,10-J87,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H87&amp;"_"&amp;I87,[1]挑战模式!$AV:$BG,10-J87,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v>Token_Diamond</v>
-      </c>
-      <c r="H87">
-        <v>2</v>
-      </c>
-      <c r="I87">
-        <v>5</v>
-      </c>
-      <c r="J87">
-        <v>1</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B88" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>DropItemRule_Common_Season3_Challenge1</v>
+        <f>IF(I88&lt;&gt;I87,"DropItemRule_Common_Season"&amp;H88&amp;"_Challenge"&amp;I88,"")</f>
+        <v>DropItemRule_Common_Season0_Challenge1</v>
       </c>
       <c r="C88" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(B88="","","DropAll")</f>
         <v>DropAll</v>
       </c>
       <c r="D88" t="str">
-        <f>IF(VLOOKUP(H88&amp;"_"&amp;I88,[1]挑战模式!$AV:$BG,10-J88,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H88&amp;"_"&amp;I88,[1]挑战模式!$BH:$BS,10-J88,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E88">
-        <f>IF(VLOOKUP(H88&amp;"_"&amp;I88,[1]挑战模式!$AV:$BG,10-J88,FALSE)="","",IF(ISNUMBER(VLOOKUP(H88&amp;"_"&amp;I88,[1]挑战模式!$AV:$BG,10-J88,FALSE)),VLOOKUP(H88&amp;"_"&amp;I88,[1]挑战模式!$AV:$BG,10-J88,FALSE),1))</f>
+        <f>IF(VLOOKUP(H88&amp;"_"&amp;I88,[1]挑战模式!$BH:$BS,10-J88,FALSE)="","",IF(ISNUMBER(VLOOKUP(H88&amp;"_"&amp;I88,[1]挑战模式!$BH:$BS,10-J88,FALSE)),VLOOKUP(H88&amp;"_"&amp;I88,[1]挑战模式!$BH:$BS,10-J88,FALSE),1))</f>
         <v>30</v>
       </c>
       <c r="F88">
-        <f t="shared" si="5"/>
+        <f>IF(E88="","",10000)</f>
         <v>10000</v>
       </c>
       <c r="G88" t="str">
-        <f>IF(VLOOKUP(H88&amp;"_"&amp;I88,[1]挑战模式!$AV:$BG,10-J88,FALSE)="","",IF(ISNUMBER(VLOOKUP(H88&amp;"_"&amp;I88,[1]挑战模式!$AV:$BG,10-J88,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H88&amp;"_"&amp;I88,[1]挑战模式!$AV:$BG,10-J88,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H88&amp;"_"&amp;I88,[1]挑战模式!$BH:$BS,10-J88,FALSE)="","",IF(ISNUMBER(VLOOKUP(H88&amp;"_"&amp;I88,[1]挑战模式!$BH:$BS,10-J88,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H88&amp;"_"&amp;I88,[1]挑战模式!$BH:$BS,10-J88,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -6607,31 +6923,31 @@
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B89" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>DropItemRule_Common_Season3_Challenge2</v>
+        <f t="shared" ref="B89:B127" si="6">IF(I89&lt;&gt;I88,"DropItemRule_Common_Season"&amp;H89&amp;"_Challenge"&amp;I89,"")</f>
+        <v>DropItemRule_Common_Season0_Challenge2</v>
       </c>
       <c r="C89" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="C89:C127" si="7">IF(B89="","","DropAll")</f>
         <v>DropAll</v>
       </c>
       <c r="D89" t="str">
-        <f>IF(VLOOKUP(H89&amp;"_"&amp;I89,[1]挑战模式!$AV:$BG,10-J89,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H89&amp;"_"&amp;I89,[1]挑战模式!$BH:$BS,10-J89,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E89">
-        <f>IF(VLOOKUP(H89&amp;"_"&amp;I89,[1]挑战模式!$AV:$BG,10-J89,FALSE)="","",IF(ISNUMBER(VLOOKUP(H89&amp;"_"&amp;I89,[1]挑战模式!$AV:$BG,10-J89,FALSE)),VLOOKUP(H89&amp;"_"&amp;I89,[1]挑战模式!$AV:$BG,10-J89,FALSE),1))</f>
+        <f>IF(VLOOKUP(H89&amp;"_"&amp;I89,[1]挑战模式!$BH:$BS,10-J89,FALSE)="","",IF(ISNUMBER(VLOOKUP(H89&amp;"_"&amp;I89,[1]挑战模式!$BH:$BS,10-J89,FALSE)),VLOOKUP(H89&amp;"_"&amp;I89,[1]挑战模式!$BH:$BS,10-J89,FALSE),1))</f>
         <v>30</v>
       </c>
       <c r="F89">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="F89:F127" si="8">IF(E89="","",10000)</f>
         <v>10000</v>
       </c>
       <c r="G89" t="str">
-        <f>IF(VLOOKUP(H89&amp;"_"&amp;I89,[1]挑战模式!$AV:$BG,10-J89,FALSE)="","",IF(ISNUMBER(VLOOKUP(H89&amp;"_"&amp;I89,[1]挑战模式!$AV:$BG,10-J89,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H89&amp;"_"&amp;I89,[1]挑战模式!$AV:$BG,10-J89,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H89&amp;"_"&amp;I89,[1]挑战模式!$BH:$BS,10-J89,FALSE)="","",IF(ISNUMBER(VLOOKUP(H89&amp;"_"&amp;I89,[1]挑战模式!$BH:$BS,10-J89,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H89&amp;"_"&amp;I89,[1]挑战模式!$BH:$BS,10-J89,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>2</v>
@@ -6642,31 +6958,31 @@
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B90" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>DropItemRule_Common_Season3_Challenge3</v>
+        <f t="shared" si="6"/>
+        <v>DropItemRule_Common_Season0_Challenge3</v>
       </c>
       <c r="C90" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>DropAll</v>
       </c>
       <c r="D90" t="str">
-        <f>IF(VLOOKUP(H90&amp;"_"&amp;I90,[1]挑战模式!$AV:$BG,10-J90,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H90&amp;"_"&amp;I90,[1]挑战模式!$BH:$BS,10-J90,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E90">
-        <f>IF(VLOOKUP(H90&amp;"_"&amp;I90,[1]挑战模式!$AV:$BG,10-J90,FALSE)="","",IF(ISNUMBER(VLOOKUP(H90&amp;"_"&amp;I90,[1]挑战模式!$AV:$BG,10-J90,FALSE)),VLOOKUP(H90&amp;"_"&amp;I90,[1]挑战模式!$AV:$BG,10-J90,FALSE),1))</f>
+        <f>IF(VLOOKUP(H90&amp;"_"&amp;I90,[1]挑战模式!$BH:$BS,10-J90,FALSE)="","",IF(ISNUMBER(VLOOKUP(H90&amp;"_"&amp;I90,[1]挑战模式!$BH:$BS,10-J90,FALSE)),VLOOKUP(H90&amp;"_"&amp;I90,[1]挑战模式!$BH:$BS,10-J90,FALSE),1))</f>
         <v>30</v>
       </c>
       <c r="F90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10000</v>
       </c>
       <c r="G90" t="str">
-        <f>IF(VLOOKUP(H90&amp;"_"&amp;I90,[1]挑战模式!$AV:$BG,10-J90,FALSE)="","",IF(ISNUMBER(VLOOKUP(H90&amp;"_"&amp;I90,[1]挑战模式!$AV:$BG,10-J90,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H90&amp;"_"&amp;I90,[1]挑战模式!$AV:$BG,10-J90,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H90&amp;"_"&amp;I90,[1]挑战模式!$BH:$BS,10-J90,FALSE)="","",IF(ISNUMBER(VLOOKUP(H90&amp;"_"&amp;I90,[1]挑战模式!$BH:$BS,10-J90,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H90&amp;"_"&amp;I90,[1]挑战模式!$BH:$BS,10-J90,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>3</v>
@@ -6677,31 +6993,31 @@
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B91" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>DropItemRule_Common_Season3_Challenge4</v>
+        <f t="shared" si="6"/>
+        <v>DropItemRule_Common_Season0_Challenge4</v>
       </c>
       <c r="C91" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>DropAll</v>
       </c>
       <c r="D91" t="str">
-        <f>IF(VLOOKUP(H91&amp;"_"&amp;I91,[1]挑战模式!$AV:$BG,10-J91,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H91&amp;"_"&amp;I91,[1]挑战模式!$BH:$BS,10-J91,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E91">
-        <f>IF(VLOOKUP(H91&amp;"_"&amp;I91,[1]挑战模式!$AV:$BG,10-J91,FALSE)="","",IF(ISNUMBER(VLOOKUP(H91&amp;"_"&amp;I91,[1]挑战模式!$AV:$BG,10-J91,FALSE)),VLOOKUP(H91&amp;"_"&amp;I91,[1]挑战模式!$AV:$BG,10-J91,FALSE),1))</f>
+        <f>IF(VLOOKUP(H91&amp;"_"&amp;I91,[1]挑战模式!$BH:$BS,10-J91,FALSE)="","",IF(ISNUMBER(VLOOKUP(H91&amp;"_"&amp;I91,[1]挑战模式!$BH:$BS,10-J91,FALSE)),VLOOKUP(H91&amp;"_"&amp;I91,[1]挑战模式!$BH:$BS,10-J91,FALSE),1))</f>
         <v>30</v>
       </c>
       <c r="F91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10000</v>
       </c>
       <c r="G91" t="str">
-        <f>IF(VLOOKUP(H91&amp;"_"&amp;I91,[1]挑战模式!$AV:$BG,10-J91,FALSE)="","",IF(ISNUMBER(VLOOKUP(H91&amp;"_"&amp;I91,[1]挑战模式!$AV:$BG,10-J91,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H91&amp;"_"&amp;I91,[1]挑战模式!$AV:$BG,10-J91,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H91&amp;"_"&amp;I91,[1]挑战模式!$BH:$BS,10-J91,FALSE)="","",IF(ISNUMBER(VLOOKUP(H91&amp;"_"&amp;I91,[1]挑战模式!$BH:$BS,10-J91,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H91&amp;"_"&amp;I91,[1]挑战模式!$BH:$BS,10-J91,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>4</v>
@@ -6712,31 +7028,31 @@
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B92" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>DropItemRule_Common_Season3_Challenge5</v>
+        <f t="shared" si="6"/>
+        <v>DropItemRule_Common_Season0_Challenge5</v>
       </c>
       <c r="C92" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>DropAll</v>
       </c>
       <c r="D92" t="str">
-        <f>IF(VLOOKUP(H92&amp;"_"&amp;I92,[1]挑战模式!$AV:$BG,10-J92,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H92&amp;"_"&amp;I92,[1]挑战模式!$BH:$BS,10-J92,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E92">
-        <f>IF(VLOOKUP(H92&amp;"_"&amp;I92,[1]挑战模式!$AV:$BG,10-J92,FALSE)="","",IF(ISNUMBER(VLOOKUP(H92&amp;"_"&amp;I92,[1]挑战模式!$AV:$BG,10-J92,FALSE)),VLOOKUP(H92&amp;"_"&amp;I92,[1]挑战模式!$AV:$BG,10-J92,FALSE),1))</f>
+        <f>IF(VLOOKUP(H92&amp;"_"&amp;I92,[1]挑战模式!$BH:$BS,10-J92,FALSE)="","",IF(ISNUMBER(VLOOKUP(H92&amp;"_"&amp;I92,[1]挑战模式!$BH:$BS,10-J92,FALSE)),VLOOKUP(H92&amp;"_"&amp;I92,[1]挑战模式!$BH:$BS,10-J92,FALSE),1))</f>
         <v>30</v>
       </c>
       <c r="F92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10000</v>
       </c>
       <c r="G92" t="str">
-        <f>IF(VLOOKUP(H92&amp;"_"&amp;I92,[1]挑战模式!$AV:$BG,10-J92,FALSE)="","",IF(ISNUMBER(VLOOKUP(H92&amp;"_"&amp;I92,[1]挑战模式!$AV:$BG,10-J92,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H92&amp;"_"&amp;I92,[1]挑战模式!$AV:$BG,10-J92,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H92&amp;"_"&amp;I92,[1]挑战模式!$BH:$BS,10-J92,FALSE)="","",IF(ISNUMBER(VLOOKUP(H92&amp;"_"&amp;I92,[1]挑战模式!$BH:$BS,10-J92,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H92&amp;"_"&amp;I92,[1]挑战模式!$BH:$BS,10-J92,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>5</v>
@@ -6747,34 +7063,34 @@
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B93" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>DropItemRule_Common_Season4_Challenge1</v>
+        <f t="shared" si="6"/>
+        <v>DropItemRule_Common_Season0_Challenge6</v>
       </c>
       <c r="C93" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>DropAll</v>
       </c>
       <c r="D93" t="str">
-        <f>IF(VLOOKUP(H93&amp;"_"&amp;I93,[1]挑战模式!$AV:$BG,10-J93,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H93&amp;"_"&amp;I93,[1]挑战模式!$BH:$BS,10-J93,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E93">
-        <f>IF(VLOOKUP(H93&amp;"_"&amp;I93,[1]挑战模式!$AV:$BG,10-J93,FALSE)="","",IF(ISNUMBER(VLOOKUP(H93&amp;"_"&amp;I93,[1]挑战模式!$AV:$BG,10-J93,FALSE)),VLOOKUP(H93&amp;"_"&amp;I93,[1]挑战模式!$AV:$BG,10-J93,FALSE),1))</f>
+        <f>IF(VLOOKUP(H93&amp;"_"&amp;I93,[1]挑战模式!$BH:$BS,10-J93,FALSE)="","",IF(ISNUMBER(VLOOKUP(H93&amp;"_"&amp;I93,[1]挑战模式!$BH:$BS,10-J93,FALSE)),VLOOKUP(H93&amp;"_"&amp;I93,[1]挑战模式!$BH:$BS,10-J93,FALSE),1))</f>
         <v>30</v>
       </c>
       <c r="F93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10000</v>
       </c>
       <c r="G93" t="str">
-        <f>IF(VLOOKUP(H93&amp;"_"&amp;I93,[1]挑战模式!$AV:$BG,10-J93,FALSE)="","",IF(ISNUMBER(VLOOKUP(H93&amp;"_"&amp;I93,[1]挑战模式!$AV:$BG,10-J93,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H93&amp;"_"&amp;I93,[1]挑战模式!$AV:$BG,10-J93,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H93&amp;"_"&amp;I93,[1]挑战模式!$BH:$BS,10-J93,FALSE)="","",IF(ISNUMBER(VLOOKUP(H93&amp;"_"&amp;I93,[1]挑战模式!$BH:$BS,10-J93,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H93&amp;"_"&amp;I93,[1]挑战模式!$BH:$BS,10-J93,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H93">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J93">
         <v>1</v>
@@ -6782,34 +7098,34 @@
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B94" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>DropItemRule_Common_Season4_Challenge2</v>
+        <f t="shared" si="6"/>
+        <v>DropItemRule_Common_Season0_Challenge7</v>
       </c>
       <c r="C94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>DropAll</v>
       </c>
       <c r="D94" t="str">
-        <f>IF(VLOOKUP(H94&amp;"_"&amp;I94,[1]挑战模式!$AV:$BG,10-J94,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H94&amp;"_"&amp;I94,[1]挑战模式!$BH:$BS,10-J94,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E94">
-        <f>IF(VLOOKUP(H94&amp;"_"&amp;I94,[1]挑战模式!$AV:$BG,10-J94,FALSE)="","",IF(ISNUMBER(VLOOKUP(H94&amp;"_"&amp;I94,[1]挑战模式!$AV:$BG,10-J94,FALSE)),VLOOKUP(H94&amp;"_"&amp;I94,[1]挑战模式!$AV:$BG,10-J94,FALSE),1))</f>
+        <f>IF(VLOOKUP(H94&amp;"_"&amp;I94,[1]挑战模式!$BH:$BS,10-J94,FALSE)="","",IF(ISNUMBER(VLOOKUP(H94&amp;"_"&amp;I94,[1]挑战模式!$BH:$BS,10-J94,FALSE)),VLOOKUP(H94&amp;"_"&amp;I94,[1]挑战模式!$BH:$BS,10-J94,FALSE),1))</f>
         <v>30</v>
       </c>
       <c r="F94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10000</v>
       </c>
       <c r="G94" t="str">
-        <f>IF(VLOOKUP(H94&amp;"_"&amp;I94,[1]挑战模式!$AV:$BG,10-J94,FALSE)="","",IF(ISNUMBER(VLOOKUP(H94&amp;"_"&amp;I94,[1]挑战模式!$AV:$BG,10-J94,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H94&amp;"_"&amp;I94,[1]挑战模式!$AV:$BG,10-J94,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H94&amp;"_"&amp;I94,[1]挑战模式!$BH:$BS,10-J94,FALSE)="","",IF(ISNUMBER(VLOOKUP(H94&amp;"_"&amp;I94,[1]挑战模式!$BH:$BS,10-J94,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H94&amp;"_"&amp;I94,[1]挑战模式!$BH:$BS,10-J94,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H94">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J94">
         <v>1</v>
@@ -6817,34 +7133,34 @@
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B95" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>DropItemRule_Common_Season4_Challenge3</v>
+        <f t="shared" si="6"/>
+        <v>DropItemRule_Common_Season0_Challenge8</v>
       </c>
       <c r="C95" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>DropAll</v>
       </c>
       <c r="D95" t="str">
-        <f>IF(VLOOKUP(H95&amp;"_"&amp;I95,[1]挑战模式!$AV:$BG,10-J95,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H95&amp;"_"&amp;I95,[1]挑战模式!$BH:$BS,10-J95,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E95">
-        <f>IF(VLOOKUP(H95&amp;"_"&amp;I95,[1]挑战模式!$AV:$BG,10-J95,FALSE)="","",IF(ISNUMBER(VLOOKUP(H95&amp;"_"&amp;I95,[1]挑战模式!$AV:$BG,10-J95,FALSE)),VLOOKUP(H95&amp;"_"&amp;I95,[1]挑战模式!$AV:$BG,10-J95,FALSE),1))</f>
+        <f>IF(VLOOKUP(H95&amp;"_"&amp;I95,[1]挑战模式!$BH:$BS,10-J95,FALSE)="","",IF(ISNUMBER(VLOOKUP(H95&amp;"_"&amp;I95,[1]挑战模式!$BH:$BS,10-J95,FALSE)),VLOOKUP(H95&amp;"_"&amp;I95,[1]挑战模式!$BH:$BS,10-J95,FALSE),1))</f>
         <v>30</v>
       </c>
       <c r="F95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10000</v>
       </c>
       <c r="G95" t="str">
-        <f>IF(VLOOKUP(H95&amp;"_"&amp;I95,[1]挑战模式!$AV:$BG,10-J95,FALSE)="","",IF(ISNUMBER(VLOOKUP(H95&amp;"_"&amp;I95,[1]挑战模式!$AV:$BG,10-J95,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H95&amp;"_"&amp;I95,[1]挑战模式!$AV:$BG,10-J95,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H95&amp;"_"&amp;I95,[1]挑战模式!$BH:$BS,10-J95,FALSE)="","",IF(ISNUMBER(VLOOKUP(H95&amp;"_"&amp;I95,[1]挑战模式!$BH:$BS,10-J95,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H95&amp;"_"&amp;I95,[1]挑战模式!$BH:$BS,10-J95,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H95">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -6852,34 +7168,34 @@
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B96" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>DropItemRule_Common_Season4_Challenge4</v>
+        <f t="shared" si="6"/>
+        <v>DropItemRule_Common_Season0_Challenge9</v>
       </c>
       <c r="C96" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>DropAll</v>
       </c>
       <c r="D96" t="str">
-        <f>IF(VLOOKUP(H96&amp;"_"&amp;I96,[1]挑战模式!$AV:$BG,10-J96,FALSE)="","","DropItemOne")</f>
+        <f>IF(VLOOKUP(H96&amp;"_"&amp;I96,[1]挑战模式!$BH:$BS,10-J96,FALSE)="","","DropItemOne")</f>
         <v>DropItemOne</v>
       </c>
       <c r="E96">
-        <f>IF(VLOOKUP(H96&amp;"_"&amp;I96,[1]挑战模式!$AV:$BG,10-J96,FALSE)="","",IF(ISNUMBER(VLOOKUP(H96&amp;"_"&amp;I96,[1]挑战模式!$AV:$BG,10-J96,FALSE)),VLOOKUP(H96&amp;"_"&amp;I96,[1]挑战模式!$AV:$BG,10-J96,FALSE),1))</f>
+        <f>IF(VLOOKUP(H96&amp;"_"&amp;I96,[1]挑战模式!$BH:$BS,10-J96,FALSE)="","",IF(ISNUMBER(VLOOKUP(H96&amp;"_"&amp;I96,[1]挑战模式!$BH:$BS,10-J96,FALSE)),VLOOKUP(H96&amp;"_"&amp;I96,[1]挑战模式!$BH:$BS,10-J96,FALSE),1))</f>
         <v>30</v>
       </c>
       <c r="F96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10000</v>
       </c>
       <c r="G96" t="str">
-        <f>IF(VLOOKUP(H96&amp;"_"&amp;I96,[1]挑战模式!$AV:$BG,10-J96,FALSE)="","",IF(ISNUMBER(VLOOKUP(H96&amp;"_"&amp;I96,[1]挑战模式!$AV:$BG,10-J96,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H96&amp;"_"&amp;I96,[1]挑战模式!$AV:$BG,10-J96,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <f>IF(VLOOKUP(H96&amp;"_"&amp;I96,[1]挑战模式!$BH:$BS,10-J96,FALSE)="","",IF(ISNUMBER(VLOOKUP(H96&amp;"_"&amp;I96,[1]挑战模式!$BH:$BS,10-J96,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H96&amp;"_"&amp;I96,[1]挑战模式!$BH:$BS,10-J96,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
       <c r="H96">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J96">
         <v>1</v>
@@ -6887,36 +7203,1086 @@
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B97" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
+        <v>DropItemRule_Common_Season0_Challenge10</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="7"/>
+        <v>DropAll</v>
+      </c>
+      <c r="D97" t="str">
+        <f>IF(VLOOKUP(H97&amp;"_"&amp;I97,[1]挑战模式!$BH:$BS,10-J97,FALSE)="","","DropItemOne")</f>
+        <v>DropItemOne</v>
+      </c>
+      <c r="E97">
+        <f>IF(VLOOKUP(H97&amp;"_"&amp;I97,[1]挑战模式!$BH:$BS,10-J97,FALSE)="","",IF(ISNUMBER(VLOOKUP(H97&amp;"_"&amp;I97,[1]挑战模式!$BH:$BS,10-J97,FALSE)),VLOOKUP(H97&amp;"_"&amp;I97,[1]挑战模式!$BH:$BS,10-J97,FALSE),1))</f>
+        <v>30</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="G97" t="str">
+        <f>IF(VLOOKUP(H97&amp;"_"&amp;I97,[1]挑战模式!$BH:$BS,10-J97,FALSE)="","",IF(ISNUMBER(VLOOKUP(H97&amp;"_"&amp;I97,[1]挑战模式!$BH:$BS,10-J97,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H97&amp;"_"&amp;I97,[1]挑战模式!$BH:$BS,10-J97,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Token_Diamond</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>10</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B98" s="9" t="str">
+        <f>IF(I98&lt;&gt;I97,"DropItemRule_Common_Season"&amp;H98&amp;"_Challenge"&amp;I98,"")</f>
+        <v>DropItemRule_Common_Season0_Challenge11</v>
+      </c>
+      <c r="C98" t="str">
+        <f>IF(B98="","","DropAll")</f>
+        <v>DropAll</v>
+      </c>
+      <c r="D98" t="str">
+        <f>IF(VLOOKUP(H98&amp;"_"&amp;I98,[1]挑战模式!$BH:$BS,10-J98,FALSE)="","","DropItemOne")</f>
+        <v>DropItemOne</v>
+      </c>
+      <c r="E98">
+        <f>IF(VLOOKUP(H98&amp;"_"&amp;I98,[1]挑战模式!$BH:$BS,10-J98,FALSE)="","",IF(ISNUMBER(VLOOKUP(H98&amp;"_"&amp;I98,[1]挑战模式!$BH:$BS,10-J98,FALSE)),VLOOKUP(H98&amp;"_"&amp;I98,[1]挑战模式!$BH:$BS,10-J98,FALSE),1))</f>
+        <v>30</v>
+      </c>
+      <c r="F98">
+        <f>IF(E98="","",10000)</f>
+        <v>10000</v>
+      </c>
+      <c r="G98" t="str">
+        <f>IF(VLOOKUP(H98&amp;"_"&amp;I98,[1]挑战模式!$BH:$BS,10-J98,FALSE)="","",IF(ISNUMBER(VLOOKUP(H98&amp;"_"&amp;I98,[1]挑战模式!$BH:$BS,10-J98,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H98&amp;"_"&amp;I98,[1]挑战模式!$BH:$BS,10-J98,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Token_Diamond</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>11</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B99" s="9" t="str">
+        <f t="shared" ref="B99:B107" si="9">IF(I99&lt;&gt;I98,"DropItemRule_Common_Season"&amp;H99&amp;"_Challenge"&amp;I99,"")</f>
+        <v>DropItemRule_Common_Season0_Challenge12</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" ref="C99:C107" si="10">IF(B99="","","DropAll")</f>
+        <v>DropAll</v>
+      </c>
+      <c r="D99" t="str">
+        <f>IF(VLOOKUP(H99&amp;"_"&amp;I99,[1]挑战模式!$BH:$BS,10-J99,FALSE)="","","DropItemOne")</f>
+        <v>DropItemOne</v>
+      </c>
+      <c r="E99">
+        <f>IF(VLOOKUP(H99&amp;"_"&amp;I99,[1]挑战模式!$BH:$BS,10-J99,FALSE)="","",IF(ISNUMBER(VLOOKUP(H99&amp;"_"&amp;I99,[1]挑战模式!$BH:$BS,10-J99,FALSE)),VLOOKUP(H99&amp;"_"&amp;I99,[1]挑战模式!$BH:$BS,10-J99,FALSE),1))</f>
+        <v>30</v>
+      </c>
+      <c r="F99">
+        <f t="shared" ref="F99:F107" si="11">IF(E99="","",10000)</f>
+        <v>10000</v>
+      </c>
+      <c r="G99" t="str">
+        <f>IF(VLOOKUP(H99&amp;"_"&amp;I99,[1]挑战模式!$BH:$BS,10-J99,FALSE)="","",IF(ISNUMBER(VLOOKUP(H99&amp;"_"&amp;I99,[1]挑战模式!$BH:$BS,10-J99,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H99&amp;"_"&amp;I99,[1]挑战模式!$BH:$BS,10-J99,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Token_Diamond</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>12</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B100" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>DropItemRule_Common_Season0_Challenge13</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="10"/>
+        <v>DropAll</v>
+      </c>
+      <c r="D100" t="str">
+        <f>IF(VLOOKUP(H100&amp;"_"&amp;I100,[1]挑战模式!$BH:$BS,10-J100,FALSE)="","","DropItemOne")</f>
+        <v>DropItemOne</v>
+      </c>
+      <c r="E100">
+        <f>IF(VLOOKUP(H100&amp;"_"&amp;I100,[1]挑战模式!$BH:$BS,10-J100,FALSE)="","",IF(ISNUMBER(VLOOKUP(H100&amp;"_"&amp;I100,[1]挑战模式!$BH:$BS,10-J100,FALSE)),VLOOKUP(H100&amp;"_"&amp;I100,[1]挑战模式!$BH:$BS,10-J100,FALSE),1))</f>
+        <v>30</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="11"/>
+        <v>10000</v>
+      </c>
+      <c r="G100" t="str">
+        <f>IF(VLOOKUP(H100&amp;"_"&amp;I100,[1]挑战模式!$BH:$BS,10-J100,FALSE)="","",IF(ISNUMBER(VLOOKUP(H100&amp;"_"&amp;I100,[1]挑战模式!$BH:$BS,10-J100,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H100&amp;"_"&amp;I100,[1]挑战模式!$BH:$BS,10-J100,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Token_Diamond</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>13</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B101" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>DropItemRule_Common_Season0_Challenge14</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="10"/>
+        <v>DropAll</v>
+      </c>
+      <c r="D101" t="str">
+        <f>IF(VLOOKUP(H101&amp;"_"&amp;I101,[1]挑战模式!$BH:$BS,10-J101,FALSE)="","","DropItemOne")</f>
+        <v>DropItemOne</v>
+      </c>
+      <c r="E101">
+        <f>IF(VLOOKUP(H101&amp;"_"&amp;I101,[1]挑战模式!$BH:$BS,10-J101,FALSE)="","",IF(ISNUMBER(VLOOKUP(H101&amp;"_"&amp;I101,[1]挑战模式!$BH:$BS,10-J101,FALSE)),VLOOKUP(H101&amp;"_"&amp;I101,[1]挑战模式!$BH:$BS,10-J101,FALSE),1))</f>
+        <v>30</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="11"/>
+        <v>10000</v>
+      </c>
+      <c r="G101" t="str">
+        <f>IF(VLOOKUP(H101&amp;"_"&amp;I101,[1]挑战模式!$BH:$BS,10-J101,FALSE)="","",IF(ISNUMBER(VLOOKUP(H101&amp;"_"&amp;I101,[1]挑战模式!$BH:$BS,10-J101,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H101&amp;"_"&amp;I101,[1]挑战模式!$BH:$BS,10-J101,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Token_Diamond</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>14</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B102" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>DropItemRule_Common_Season0_Challenge15</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="10"/>
+        <v>DropAll</v>
+      </c>
+      <c r="D102" t="str">
+        <f>IF(VLOOKUP(H102&amp;"_"&amp;I102,[1]挑战模式!$BH:$BS,10-J102,FALSE)="","","DropItemOne")</f>
+        <v>DropItemOne</v>
+      </c>
+      <c r="E102">
+        <f>IF(VLOOKUP(H102&amp;"_"&amp;I102,[1]挑战模式!$BH:$BS,10-J102,FALSE)="","",IF(ISNUMBER(VLOOKUP(H102&amp;"_"&amp;I102,[1]挑战模式!$BH:$BS,10-J102,FALSE)),VLOOKUP(H102&amp;"_"&amp;I102,[1]挑战模式!$BH:$BS,10-J102,FALSE),1))</f>
+        <v>30</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="11"/>
+        <v>10000</v>
+      </c>
+      <c r="G102" t="str">
+        <f>IF(VLOOKUP(H102&amp;"_"&amp;I102,[1]挑战模式!$BH:$BS,10-J102,FALSE)="","",IF(ISNUMBER(VLOOKUP(H102&amp;"_"&amp;I102,[1]挑战模式!$BH:$BS,10-J102,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H102&amp;"_"&amp;I102,[1]挑战模式!$BH:$BS,10-J102,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Token_Diamond</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>15</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B103" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>DropItemRule_Common_Season0_Challenge16</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="10"/>
+        <v>DropAll</v>
+      </c>
+      <c r="D103" t="str">
+        <f>IF(VLOOKUP(H103&amp;"_"&amp;I103,[1]挑战模式!$BH:$BS,10-J103,FALSE)="","","DropItemOne")</f>
+        <v>DropItemOne</v>
+      </c>
+      <c r="E103">
+        <f>IF(VLOOKUP(H103&amp;"_"&amp;I103,[1]挑战模式!$BH:$BS,10-J103,FALSE)="","",IF(ISNUMBER(VLOOKUP(H103&amp;"_"&amp;I103,[1]挑战模式!$BH:$BS,10-J103,FALSE)),VLOOKUP(H103&amp;"_"&amp;I103,[1]挑战模式!$BH:$BS,10-J103,FALSE),1))</f>
+        <v>30</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="11"/>
+        <v>10000</v>
+      </c>
+      <c r="G103" t="str">
+        <f>IF(VLOOKUP(H103&amp;"_"&amp;I103,[1]挑战模式!$BH:$BS,10-J103,FALSE)="","",IF(ISNUMBER(VLOOKUP(H103&amp;"_"&amp;I103,[1]挑战模式!$BH:$BS,10-J103,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H103&amp;"_"&amp;I103,[1]挑战模式!$BH:$BS,10-J103,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Token_Diamond</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>16</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B104" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>DropItemRule_Common_Season0_Challenge17</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="10"/>
+        <v>DropAll</v>
+      </c>
+      <c r="D104" t="str">
+        <f>IF(VLOOKUP(H104&amp;"_"&amp;I104,[1]挑战模式!$BH:$BS,10-J104,FALSE)="","","DropItemOne")</f>
+        <v>DropItemOne</v>
+      </c>
+      <c r="E104">
+        <f>IF(VLOOKUP(H104&amp;"_"&amp;I104,[1]挑战模式!$BH:$BS,10-J104,FALSE)="","",IF(ISNUMBER(VLOOKUP(H104&amp;"_"&amp;I104,[1]挑战模式!$BH:$BS,10-J104,FALSE)),VLOOKUP(H104&amp;"_"&amp;I104,[1]挑战模式!$BH:$BS,10-J104,FALSE),1))</f>
+        <v>30</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="11"/>
+        <v>10000</v>
+      </c>
+      <c r="G104" t="str">
+        <f>IF(VLOOKUP(H104&amp;"_"&amp;I104,[1]挑战模式!$BH:$BS,10-J104,FALSE)="","",IF(ISNUMBER(VLOOKUP(H104&amp;"_"&amp;I104,[1]挑战模式!$BH:$BS,10-J104,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H104&amp;"_"&amp;I104,[1]挑战模式!$BH:$BS,10-J104,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Token_Diamond</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>17</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B105" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>DropItemRule_Common_Season0_Challenge18</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="10"/>
+        <v>DropAll</v>
+      </c>
+      <c r="D105" t="str">
+        <f>IF(VLOOKUP(H105&amp;"_"&amp;I105,[1]挑战模式!$BH:$BS,10-J105,FALSE)="","","DropItemOne")</f>
+        <v>DropItemOne</v>
+      </c>
+      <c r="E105">
+        <f>IF(VLOOKUP(H105&amp;"_"&amp;I105,[1]挑战模式!$BH:$BS,10-J105,FALSE)="","",IF(ISNUMBER(VLOOKUP(H105&amp;"_"&amp;I105,[1]挑战模式!$BH:$BS,10-J105,FALSE)),VLOOKUP(H105&amp;"_"&amp;I105,[1]挑战模式!$BH:$BS,10-J105,FALSE),1))</f>
+        <v>30</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="11"/>
+        <v>10000</v>
+      </c>
+      <c r="G105" t="str">
+        <f>IF(VLOOKUP(H105&amp;"_"&amp;I105,[1]挑战模式!$BH:$BS,10-J105,FALSE)="","",IF(ISNUMBER(VLOOKUP(H105&amp;"_"&amp;I105,[1]挑战模式!$BH:$BS,10-J105,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H105&amp;"_"&amp;I105,[1]挑战模式!$BH:$BS,10-J105,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Token_Diamond</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>18</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B106" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>DropItemRule_Common_Season0_Challenge19</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="10"/>
+        <v>DropAll</v>
+      </c>
+      <c r="D106" t="str">
+        <f>IF(VLOOKUP(H106&amp;"_"&amp;I106,[1]挑战模式!$BH:$BS,10-J106,FALSE)="","","DropItemOne")</f>
+        <v>DropItemOne</v>
+      </c>
+      <c r="E106">
+        <f>IF(VLOOKUP(H106&amp;"_"&amp;I106,[1]挑战模式!$BH:$BS,10-J106,FALSE)="","",IF(ISNUMBER(VLOOKUP(H106&amp;"_"&amp;I106,[1]挑战模式!$BH:$BS,10-J106,FALSE)),VLOOKUP(H106&amp;"_"&amp;I106,[1]挑战模式!$BH:$BS,10-J106,FALSE),1))</f>
+        <v>30</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="11"/>
+        <v>10000</v>
+      </c>
+      <c r="G106" t="str">
+        <f>IF(VLOOKUP(H106&amp;"_"&amp;I106,[1]挑战模式!$BH:$BS,10-J106,FALSE)="","",IF(ISNUMBER(VLOOKUP(H106&amp;"_"&amp;I106,[1]挑战模式!$BH:$BS,10-J106,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H106&amp;"_"&amp;I106,[1]挑战模式!$BH:$BS,10-J106,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Token_Diamond</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>19</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B107" s="9" t="str">
+        <f t="shared" si="9"/>
+        <v>DropItemRule_Common_Season0_Challenge20</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="10"/>
+        <v>DropAll</v>
+      </c>
+      <c r="D107" t="str">
+        <f>IF(VLOOKUP(H107&amp;"_"&amp;I107,[1]挑战模式!$BH:$BS,10-J107,FALSE)="","","DropItemOne")</f>
+        <v>DropItemOne</v>
+      </c>
+      <c r="E107">
+        <f>IF(VLOOKUP(H107&amp;"_"&amp;I107,[1]挑战模式!$BH:$BS,10-J107,FALSE)="","",IF(ISNUMBER(VLOOKUP(H107&amp;"_"&amp;I107,[1]挑战模式!$BH:$BS,10-J107,FALSE)),VLOOKUP(H107&amp;"_"&amp;I107,[1]挑战模式!$BH:$BS,10-J107,FALSE),1))</f>
+        <v>30</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="11"/>
+        <v>10000</v>
+      </c>
+      <c r="G107" t="str">
+        <f>IF(VLOOKUP(H107&amp;"_"&amp;I107,[1]挑战模式!$BH:$BS,10-J107,FALSE)="","",IF(ISNUMBER(VLOOKUP(H107&amp;"_"&amp;I107,[1]挑战模式!$BH:$BS,10-J107,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H107&amp;"_"&amp;I107,[1]挑战模式!$BH:$BS,10-J107,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Token_Diamond</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>20</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B108" s="9" t="str">
+        <f>IF(I108&lt;&gt;I97,"DropItemRule_Common_Season"&amp;H108&amp;"_Challenge"&amp;I108,"")</f>
+        <v>DropItemRule_Common_Season1_Challenge1</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="7"/>
+        <v>DropAll</v>
+      </c>
+      <c r="D108" t="str">
+        <f>IF(VLOOKUP(H108&amp;"_"&amp;I108,[1]挑战模式!$BH:$BS,10-J108,FALSE)="","","DropItemOne")</f>
+        <v>DropItemOne</v>
+      </c>
+      <c r="E108">
+        <f>IF(VLOOKUP(H108&amp;"_"&amp;I108,[1]挑战模式!$BH:$BS,10-J108,FALSE)="","",IF(ISNUMBER(VLOOKUP(H108&amp;"_"&amp;I108,[1]挑战模式!$BH:$BS,10-J108,FALSE)),VLOOKUP(H108&amp;"_"&amp;I108,[1]挑战模式!$BH:$BS,10-J108,FALSE),1))</f>
+        <v>30</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="G108" t="str">
+        <f>IF(VLOOKUP(H108&amp;"_"&amp;I108,[1]挑战模式!$BH:$BS,10-J108,FALSE)="","",IF(ISNUMBER(VLOOKUP(H108&amp;"_"&amp;I108,[1]挑战模式!$BH:$BS,10-J108,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H108&amp;"_"&amp;I108,[1]挑战模式!$BH:$BS,10-J108,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Token_Diamond</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B109" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>DropItemRule_Common_Season1_Challenge2</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="7"/>
+        <v>DropAll</v>
+      </c>
+      <c r="D109" t="str">
+        <f>IF(VLOOKUP(H109&amp;"_"&amp;I109,[1]挑战模式!$BH:$BS,10-J109,FALSE)="","","DropItemOne")</f>
+        <v>DropItemOne</v>
+      </c>
+      <c r="E109">
+        <f>IF(VLOOKUP(H109&amp;"_"&amp;I109,[1]挑战模式!$BH:$BS,10-J109,FALSE)="","",IF(ISNUMBER(VLOOKUP(H109&amp;"_"&amp;I109,[1]挑战模式!$BH:$BS,10-J109,FALSE)),VLOOKUP(H109&amp;"_"&amp;I109,[1]挑战模式!$BH:$BS,10-J109,FALSE),1))</f>
+        <v>30</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="G109" t="str">
+        <f>IF(VLOOKUP(H109&amp;"_"&amp;I109,[1]挑战模式!$BH:$BS,10-J109,FALSE)="","",IF(ISNUMBER(VLOOKUP(H109&amp;"_"&amp;I109,[1]挑战模式!$BH:$BS,10-J109,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H109&amp;"_"&amp;I109,[1]挑战模式!$BH:$BS,10-J109,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Token_Diamond</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B110" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>DropItemRule_Common_Season1_Challenge3</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="7"/>
+        <v>DropAll</v>
+      </c>
+      <c r="D110" t="str">
+        <f>IF(VLOOKUP(H110&amp;"_"&amp;I110,[1]挑战模式!$BH:$BS,10-J110,FALSE)="","","DropItemOne")</f>
+        <v>DropItemOne</v>
+      </c>
+      <c r="E110">
+        <f>IF(VLOOKUP(H110&amp;"_"&amp;I110,[1]挑战模式!$BH:$BS,10-J110,FALSE)="","",IF(ISNUMBER(VLOOKUP(H110&amp;"_"&amp;I110,[1]挑战模式!$BH:$BS,10-J110,FALSE)),VLOOKUP(H110&amp;"_"&amp;I110,[1]挑战模式!$BH:$BS,10-J110,FALSE),1))</f>
+        <v>30</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="G110" t="str">
+        <f>IF(VLOOKUP(H110&amp;"_"&amp;I110,[1]挑战模式!$BH:$BS,10-J110,FALSE)="","",IF(ISNUMBER(VLOOKUP(H110&amp;"_"&amp;I110,[1]挑战模式!$BH:$BS,10-J110,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H110&amp;"_"&amp;I110,[1]挑战模式!$BH:$BS,10-J110,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Token_Diamond</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <v>3</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B111" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>DropItemRule_Common_Season1_Challenge4</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="7"/>
+        <v>DropAll</v>
+      </c>
+      <c r="D111" t="str">
+        <f>IF(VLOOKUP(H111&amp;"_"&amp;I111,[1]挑战模式!$BH:$BS,10-J111,FALSE)="","","DropItemOne")</f>
+        <v>DropItemOne</v>
+      </c>
+      <c r="E111">
+        <f>IF(VLOOKUP(H111&amp;"_"&amp;I111,[1]挑战模式!$BH:$BS,10-J111,FALSE)="","",IF(ISNUMBER(VLOOKUP(H111&amp;"_"&amp;I111,[1]挑战模式!$BH:$BS,10-J111,FALSE)),VLOOKUP(H111&amp;"_"&amp;I111,[1]挑战模式!$BH:$BS,10-J111,FALSE),1))</f>
+        <v>30</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="G111" t="str">
+        <f>IF(VLOOKUP(H111&amp;"_"&amp;I111,[1]挑战模式!$BH:$BS,10-J111,FALSE)="","",IF(ISNUMBER(VLOOKUP(H111&amp;"_"&amp;I111,[1]挑战模式!$BH:$BS,10-J111,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H111&amp;"_"&amp;I111,[1]挑战模式!$BH:$BS,10-J111,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Token_Diamond</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>4</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B112" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>DropItemRule_Common_Season1_Challenge5</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="7"/>
+        <v>DropAll</v>
+      </c>
+      <c r="D112" t="str">
+        <f>IF(VLOOKUP(H112&amp;"_"&amp;I112,[1]挑战模式!$BH:$BS,10-J112,FALSE)="","","DropItemOne")</f>
+        <v>DropItemOne</v>
+      </c>
+      <c r="E112">
+        <f>IF(VLOOKUP(H112&amp;"_"&amp;I112,[1]挑战模式!$BH:$BS,10-J112,FALSE)="","",IF(ISNUMBER(VLOOKUP(H112&amp;"_"&amp;I112,[1]挑战模式!$BH:$BS,10-J112,FALSE)),VLOOKUP(H112&amp;"_"&amp;I112,[1]挑战模式!$BH:$BS,10-J112,FALSE),1))</f>
+        <v>30</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="G112" t="str">
+        <f>IF(VLOOKUP(H112&amp;"_"&amp;I112,[1]挑战模式!$BH:$BS,10-J112,FALSE)="","",IF(ISNUMBER(VLOOKUP(H112&amp;"_"&amp;I112,[1]挑战模式!$BH:$BS,10-J112,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H112&amp;"_"&amp;I112,[1]挑战模式!$BH:$BS,10-J112,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Token_Diamond</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>5</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B113" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>DropItemRule_Common_Season2_Challenge1</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="7"/>
+        <v>DropAll</v>
+      </c>
+      <c r="D113" t="str">
+        <f>IF(VLOOKUP(H113&amp;"_"&amp;I113,[1]挑战模式!$BH:$BS,10-J113,FALSE)="","","DropItemOne")</f>
+        <v>DropItemOne</v>
+      </c>
+      <c r="E113">
+        <f>IF(VLOOKUP(H113&amp;"_"&amp;I113,[1]挑战模式!$BH:$BS,10-J113,FALSE)="","",IF(ISNUMBER(VLOOKUP(H113&amp;"_"&amp;I113,[1]挑战模式!$BH:$BS,10-J113,FALSE)),VLOOKUP(H113&amp;"_"&amp;I113,[1]挑战模式!$BH:$BS,10-J113,FALSE),1))</f>
+        <v>30</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="G113" t="str">
+        <f>IF(VLOOKUP(H113&amp;"_"&amp;I113,[1]挑战模式!$BH:$BS,10-J113,FALSE)="","",IF(ISNUMBER(VLOOKUP(H113&amp;"_"&amp;I113,[1]挑战模式!$BH:$BS,10-J113,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H113&amp;"_"&amp;I113,[1]挑战模式!$BH:$BS,10-J113,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Token_Diamond</v>
+      </c>
+      <c r="H113">
+        <v>2</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B114" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>DropItemRule_Common_Season2_Challenge2</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="7"/>
+        <v>DropAll</v>
+      </c>
+      <c r="D114" t="str">
+        <f>IF(VLOOKUP(H114&amp;"_"&amp;I114,[1]挑战模式!$BH:$BS,10-J114,FALSE)="","","DropItemOne")</f>
+        <v>DropItemOne</v>
+      </c>
+      <c r="E114">
+        <f>IF(VLOOKUP(H114&amp;"_"&amp;I114,[1]挑战模式!$BH:$BS,10-J114,FALSE)="","",IF(ISNUMBER(VLOOKUP(H114&amp;"_"&amp;I114,[1]挑战模式!$BH:$BS,10-J114,FALSE)),VLOOKUP(H114&amp;"_"&amp;I114,[1]挑战模式!$BH:$BS,10-J114,FALSE),1))</f>
+        <v>30</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="G114" t="str">
+        <f>IF(VLOOKUP(H114&amp;"_"&amp;I114,[1]挑战模式!$BH:$BS,10-J114,FALSE)="","",IF(ISNUMBER(VLOOKUP(H114&amp;"_"&amp;I114,[1]挑战模式!$BH:$BS,10-J114,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H114&amp;"_"&amp;I114,[1]挑战模式!$BH:$BS,10-J114,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Token_Diamond</v>
+      </c>
+      <c r="H114">
+        <v>2</v>
+      </c>
+      <c r="I114">
+        <v>2</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B115" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>DropItemRule_Common_Season2_Challenge3</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="7"/>
+        <v>DropAll</v>
+      </c>
+      <c r="D115" t="str">
+        <f>IF(VLOOKUP(H115&amp;"_"&amp;I115,[1]挑战模式!$BH:$BS,10-J115,FALSE)="","","DropItemOne")</f>
+        <v>DropItemOne</v>
+      </c>
+      <c r="E115">
+        <f>IF(VLOOKUP(H115&amp;"_"&amp;I115,[1]挑战模式!$BH:$BS,10-J115,FALSE)="","",IF(ISNUMBER(VLOOKUP(H115&amp;"_"&amp;I115,[1]挑战模式!$BH:$BS,10-J115,FALSE)),VLOOKUP(H115&amp;"_"&amp;I115,[1]挑战模式!$BH:$BS,10-J115,FALSE),1))</f>
+        <v>30</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="G115" t="str">
+        <f>IF(VLOOKUP(H115&amp;"_"&amp;I115,[1]挑战模式!$BH:$BS,10-J115,FALSE)="","",IF(ISNUMBER(VLOOKUP(H115&amp;"_"&amp;I115,[1]挑战模式!$BH:$BS,10-J115,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H115&amp;"_"&amp;I115,[1]挑战模式!$BH:$BS,10-J115,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Token_Diamond</v>
+      </c>
+      <c r="H115">
+        <v>2</v>
+      </c>
+      <c r="I115">
+        <v>3</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B116" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>DropItemRule_Common_Season2_Challenge4</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="7"/>
+        <v>DropAll</v>
+      </c>
+      <c r="D116" t="str">
+        <f>IF(VLOOKUP(H116&amp;"_"&amp;I116,[1]挑战模式!$BH:$BS,10-J116,FALSE)="","","DropItemOne")</f>
+        <v>DropItemOne</v>
+      </c>
+      <c r="E116">
+        <f>IF(VLOOKUP(H116&amp;"_"&amp;I116,[1]挑战模式!$BH:$BS,10-J116,FALSE)="","",IF(ISNUMBER(VLOOKUP(H116&amp;"_"&amp;I116,[1]挑战模式!$BH:$BS,10-J116,FALSE)),VLOOKUP(H116&amp;"_"&amp;I116,[1]挑战模式!$BH:$BS,10-J116,FALSE),1))</f>
+        <v>30</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="G116" t="str">
+        <f>IF(VLOOKUP(H116&amp;"_"&amp;I116,[1]挑战模式!$BH:$BS,10-J116,FALSE)="","",IF(ISNUMBER(VLOOKUP(H116&amp;"_"&amp;I116,[1]挑战模式!$BH:$BS,10-J116,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H116&amp;"_"&amp;I116,[1]挑战模式!$BH:$BS,10-J116,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Token_Diamond</v>
+      </c>
+      <c r="H116">
+        <v>2</v>
+      </c>
+      <c r="I116">
+        <v>4</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B117" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>DropItemRule_Common_Season2_Challenge5</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="7"/>
+        <v>DropAll</v>
+      </c>
+      <c r="D117" t="str">
+        <f>IF(VLOOKUP(H117&amp;"_"&amp;I117,[1]挑战模式!$BH:$BS,10-J117,FALSE)="","","DropItemOne")</f>
+        <v>DropItemOne</v>
+      </c>
+      <c r="E117">
+        <f>IF(VLOOKUP(H117&amp;"_"&amp;I117,[1]挑战模式!$BH:$BS,10-J117,FALSE)="","",IF(ISNUMBER(VLOOKUP(H117&amp;"_"&amp;I117,[1]挑战模式!$BH:$BS,10-J117,FALSE)),VLOOKUP(H117&amp;"_"&amp;I117,[1]挑战模式!$BH:$BS,10-J117,FALSE),1))</f>
+        <v>30</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="G117" t="str">
+        <f>IF(VLOOKUP(H117&amp;"_"&amp;I117,[1]挑战模式!$BH:$BS,10-J117,FALSE)="","",IF(ISNUMBER(VLOOKUP(H117&amp;"_"&amp;I117,[1]挑战模式!$BH:$BS,10-J117,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H117&amp;"_"&amp;I117,[1]挑战模式!$BH:$BS,10-J117,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Token_Diamond</v>
+      </c>
+      <c r="H117">
+        <v>2</v>
+      </c>
+      <c r="I117">
+        <v>5</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B118" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>DropItemRule_Common_Season3_Challenge1</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="7"/>
+        <v>DropAll</v>
+      </c>
+      <c r="D118" t="str">
+        <f>IF(VLOOKUP(H118&amp;"_"&amp;I118,[1]挑战模式!$BH:$BS,10-J118,FALSE)="","","DropItemOne")</f>
+        <v>DropItemOne</v>
+      </c>
+      <c r="E118">
+        <f>IF(VLOOKUP(H118&amp;"_"&amp;I118,[1]挑战模式!$BH:$BS,10-J118,FALSE)="","",IF(ISNUMBER(VLOOKUP(H118&amp;"_"&amp;I118,[1]挑战模式!$BH:$BS,10-J118,FALSE)),VLOOKUP(H118&amp;"_"&amp;I118,[1]挑战模式!$BH:$BS,10-J118,FALSE),1))</f>
+        <v>30</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="G118" t="str">
+        <f>IF(VLOOKUP(H118&amp;"_"&amp;I118,[1]挑战模式!$BH:$BS,10-J118,FALSE)="","",IF(ISNUMBER(VLOOKUP(H118&amp;"_"&amp;I118,[1]挑战模式!$BH:$BS,10-J118,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H118&amp;"_"&amp;I118,[1]挑战模式!$BH:$BS,10-J118,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Token_Diamond</v>
+      </c>
+      <c r="H118">
+        <v>3</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B119" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>DropItemRule_Common_Season3_Challenge2</v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" si="7"/>
+        <v>DropAll</v>
+      </c>
+      <c r="D119" t="str">
+        <f>IF(VLOOKUP(H119&amp;"_"&amp;I119,[1]挑战模式!$BH:$BS,10-J119,FALSE)="","","DropItemOne")</f>
+        <v>DropItemOne</v>
+      </c>
+      <c r="E119">
+        <f>IF(VLOOKUP(H119&amp;"_"&amp;I119,[1]挑战模式!$BH:$BS,10-J119,FALSE)="","",IF(ISNUMBER(VLOOKUP(H119&amp;"_"&amp;I119,[1]挑战模式!$BH:$BS,10-J119,FALSE)),VLOOKUP(H119&amp;"_"&amp;I119,[1]挑战模式!$BH:$BS,10-J119,FALSE),1))</f>
+        <v>30</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="G119" t="str">
+        <f>IF(VLOOKUP(H119&amp;"_"&amp;I119,[1]挑战模式!$BH:$BS,10-J119,FALSE)="","",IF(ISNUMBER(VLOOKUP(H119&amp;"_"&amp;I119,[1]挑战模式!$BH:$BS,10-J119,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H119&amp;"_"&amp;I119,[1]挑战模式!$BH:$BS,10-J119,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Token_Diamond</v>
+      </c>
+      <c r="H119">
+        <v>3</v>
+      </c>
+      <c r="I119">
+        <v>2</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B120" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>DropItemRule_Common_Season3_Challenge3</v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" si="7"/>
+        <v>DropAll</v>
+      </c>
+      <c r="D120" t="str">
+        <f>IF(VLOOKUP(H120&amp;"_"&amp;I120,[1]挑战模式!$BH:$BS,10-J120,FALSE)="","","DropItemOne")</f>
+        <v>DropItemOne</v>
+      </c>
+      <c r="E120">
+        <f>IF(VLOOKUP(H120&amp;"_"&amp;I120,[1]挑战模式!$BH:$BS,10-J120,FALSE)="","",IF(ISNUMBER(VLOOKUP(H120&amp;"_"&amp;I120,[1]挑战模式!$BH:$BS,10-J120,FALSE)),VLOOKUP(H120&amp;"_"&amp;I120,[1]挑战模式!$BH:$BS,10-J120,FALSE),1))</f>
+        <v>30</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="G120" t="str">
+        <f>IF(VLOOKUP(H120&amp;"_"&amp;I120,[1]挑战模式!$BH:$BS,10-J120,FALSE)="","",IF(ISNUMBER(VLOOKUP(H120&amp;"_"&amp;I120,[1]挑战模式!$BH:$BS,10-J120,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H120&amp;"_"&amp;I120,[1]挑战模式!$BH:$BS,10-J120,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Token_Diamond</v>
+      </c>
+      <c r="H120">
+        <v>3</v>
+      </c>
+      <c r="I120">
+        <v>3</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B121" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>DropItemRule_Common_Season3_Challenge4</v>
+      </c>
+      <c r="C121" t="str">
+        <f t="shared" si="7"/>
+        <v>DropAll</v>
+      </c>
+      <c r="D121" t="str">
+        <f>IF(VLOOKUP(H121&amp;"_"&amp;I121,[1]挑战模式!$BH:$BS,10-J121,FALSE)="","","DropItemOne")</f>
+        <v>DropItemOne</v>
+      </c>
+      <c r="E121">
+        <f>IF(VLOOKUP(H121&amp;"_"&amp;I121,[1]挑战模式!$BH:$BS,10-J121,FALSE)="","",IF(ISNUMBER(VLOOKUP(H121&amp;"_"&amp;I121,[1]挑战模式!$BH:$BS,10-J121,FALSE)),VLOOKUP(H121&amp;"_"&amp;I121,[1]挑战模式!$BH:$BS,10-J121,FALSE),1))</f>
+        <v>30</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="G121" t="str">
+        <f>IF(VLOOKUP(H121&amp;"_"&amp;I121,[1]挑战模式!$BH:$BS,10-J121,FALSE)="","",IF(ISNUMBER(VLOOKUP(H121&amp;"_"&amp;I121,[1]挑战模式!$BH:$BS,10-J121,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H121&amp;"_"&amp;I121,[1]挑战模式!$BH:$BS,10-J121,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Token_Diamond</v>
+      </c>
+      <c r="H121">
+        <v>3</v>
+      </c>
+      <c r="I121">
+        <v>4</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B122" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>DropItemRule_Common_Season3_Challenge5</v>
+      </c>
+      <c r="C122" t="str">
+        <f t="shared" si="7"/>
+        <v>DropAll</v>
+      </c>
+      <c r="D122" t="str">
+        <f>IF(VLOOKUP(H122&amp;"_"&amp;I122,[1]挑战模式!$BH:$BS,10-J122,FALSE)="","","DropItemOne")</f>
+        <v>DropItemOne</v>
+      </c>
+      <c r="E122">
+        <f>IF(VLOOKUP(H122&amp;"_"&amp;I122,[1]挑战模式!$BH:$BS,10-J122,FALSE)="","",IF(ISNUMBER(VLOOKUP(H122&amp;"_"&amp;I122,[1]挑战模式!$BH:$BS,10-J122,FALSE)),VLOOKUP(H122&amp;"_"&amp;I122,[1]挑战模式!$BH:$BS,10-J122,FALSE),1))</f>
+        <v>30</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="G122" t="str">
+        <f>IF(VLOOKUP(H122&amp;"_"&amp;I122,[1]挑战模式!$BH:$BS,10-J122,FALSE)="","",IF(ISNUMBER(VLOOKUP(H122&amp;"_"&amp;I122,[1]挑战模式!$BH:$BS,10-J122,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H122&amp;"_"&amp;I122,[1]挑战模式!$BH:$BS,10-J122,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Token_Diamond</v>
+      </c>
+      <c r="H122">
+        <v>3</v>
+      </c>
+      <c r="I122">
+        <v>5</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B123" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>DropItemRule_Common_Season4_Challenge1</v>
+      </c>
+      <c r="C123" t="str">
+        <f t="shared" si="7"/>
+        <v>DropAll</v>
+      </c>
+      <c r="D123" t="str">
+        <f>IF(VLOOKUP(H123&amp;"_"&amp;I123,[1]挑战模式!$BH:$BS,10-J123,FALSE)="","","DropItemOne")</f>
+        <v>DropItemOne</v>
+      </c>
+      <c r="E123">
+        <f>IF(VLOOKUP(H123&amp;"_"&amp;I123,[1]挑战模式!$BH:$BS,10-J123,FALSE)="","",IF(ISNUMBER(VLOOKUP(H123&amp;"_"&amp;I123,[1]挑战模式!$BH:$BS,10-J123,FALSE)),VLOOKUP(H123&amp;"_"&amp;I123,[1]挑战模式!$BH:$BS,10-J123,FALSE),1))</f>
+        <v>30</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="G123" t="str">
+        <f>IF(VLOOKUP(H123&amp;"_"&amp;I123,[1]挑战模式!$BH:$BS,10-J123,FALSE)="","",IF(ISNUMBER(VLOOKUP(H123&amp;"_"&amp;I123,[1]挑战模式!$BH:$BS,10-J123,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H123&amp;"_"&amp;I123,[1]挑战模式!$BH:$BS,10-J123,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Token_Diamond</v>
+      </c>
+      <c r="H123">
+        <v>4</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B124" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>DropItemRule_Common_Season4_Challenge2</v>
+      </c>
+      <c r="C124" t="str">
+        <f t="shared" si="7"/>
+        <v>DropAll</v>
+      </c>
+      <c r="D124" t="str">
+        <f>IF(VLOOKUP(H124&amp;"_"&amp;I124,[1]挑战模式!$BH:$BS,10-J124,FALSE)="","","DropItemOne")</f>
+        <v>DropItemOne</v>
+      </c>
+      <c r="E124">
+        <f>IF(VLOOKUP(H124&amp;"_"&amp;I124,[1]挑战模式!$BH:$BS,10-J124,FALSE)="","",IF(ISNUMBER(VLOOKUP(H124&amp;"_"&amp;I124,[1]挑战模式!$BH:$BS,10-J124,FALSE)),VLOOKUP(H124&amp;"_"&amp;I124,[1]挑战模式!$BH:$BS,10-J124,FALSE),1))</f>
+        <v>30</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="G124" t="str">
+        <f>IF(VLOOKUP(H124&amp;"_"&amp;I124,[1]挑战模式!$BH:$BS,10-J124,FALSE)="","",IF(ISNUMBER(VLOOKUP(H124&amp;"_"&amp;I124,[1]挑战模式!$BH:$BS,10-J124,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H124&amp;"_"&amp;I124,[1]挑战模式!$BH:$BS,10-J124,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Token_Diamond</v>
+      </c>
+      <c r="H124">
+        <v>4</v>
+      </c>
+      <c r="I124">
+        <v>2</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B125" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>DropItemRule_Common_Season4_Challenge3</v>
+      </c>
+      <c r="C125" t="str">
+        <f t="shared" si="7"/>
+        <v>DropAll</v>
+      </c>
+      <c r="D125" t="str">
+        <f>IF(VLOOKUP(H125&amp;"_"&amp;I125,[1]挑战模式!$BH:$BS,10-J125,FALSE)="","","DropItemOne")</f>
+        <v>DropItemOne</v>
+      </c>
+      <c r="E125">
+        <f>IF(VLOOKUP(H125&amp;"_"&amp;I125,[1]挑战模式!$BH:$BS,10-J125,FALSE)="","",IF(ISNUMBER(VLOOKUP(H125&amp;"_"&amp;I125,[1]挑战模式!$BH:$BS,10-J125,FALSE)),VLOOKUP(H125&amp;"_"&amp;I125,[1]挑战模式!$BH:$BS,10-J125,FALSE),1))</f>
+        <v>30</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="G125" t="str">
+        <f>IF(VLOOKUP(H125&amp;"_"&amp;I125,[1]挑战模式!$BH:$BS,10-J125,FALSE)="","",IF(ISNUMBER(VLOOKUP(H125&amp;"_"&amp;I125,[1]挑战模式!$BH:$BS,10-J125,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H125&amp;"_"&amp;I125,[1]挑战模式!$BH:$BS,10-J125,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Token_Diamond</v>
+      </c>
+      <c r="H125">
+        <v>4</v>
+      </c>
+      <c r="I125">
+        <v>3</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B126" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>DropItemRule_Common_Season4_Challenge4</v>
+      </c>
+      <c r="C126" t="str">
+        <f t="shared" si="7"/>
+        <v>DropAll</v>
+      </c>
+      <c r="D126" t="str">
+        <f>IF(VLOOKUP(H126&amp;"_"&amp;I126,[1]挑战模式!$BH:$BS,10-J126,FALSE)="","","DropItemOne")</f>
+        <v>DropItemOne</v>
+      </c>
+      <c r="E126">
+        <f>IF(VLOOKUP(H126&amp;"_"&amp;I126,[1]挑战模式!$BH:$BS,10-J126,FALSE)="","",IF(ISNUMBER(VLOOKUP(H126&amp;"_"&amp;I126,[1]挑战模式!$BH:$BS,10-J126,FALSE)),VLOOKUP(H126&amp;"_"&amp;I126,[1]挑战模式!$BH:$BS,10-J126,FALSE),1))</f>
+        <v>30</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="G126" t="str">
+        <f>IF(VLOOKUP(H126&amp;"_"&amp;I126,[1]挑战模式!$BH:$BS,10-J126,FALSE)="","",IF(ISNUMBER(VLOOKUP(H126&amp;"_"&amp;I126,[1]挑战模式!$BH:$BS,10-J126,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H126&amp;"_"&amp;I126,[1]挑战模式!$BH:$BS,10-J126,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+        <v>Token_Diamond</v>
+      </c>
+      <c r="H126">
+        <v>4</v>
+      </c>
+      <c r="I126">
+        <v>4</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B127" s="9" t="str">
+        <f t="shared" si="6"/>
         <v>DropItemRule_Common_Season4_Challenge5</v>
       </c>
-      <c r="C97" t="str">
-        <f t="shared" si="4"/>
+      <c r="C127" t="str">
+        <f t="shared" si="7"/>
         <v>DropAll</v>
       </c>
-      <c r="D97" t="str">
-        <f>IF(VLOOKUP(H97&amp;"_"&amp;I97,[1]挑战模式!$AV:$BG,10-J97,FALSE)="","","DropItemOne")</f>
-        <v>DropItemOne</v>
-      </c>
-      <c r="E97">
-        <f>IF(VLOOKUP(H97&amp;"_"&amp;I97,[1]挑战模式!$AV:$BG,10-J97,FALSE)="","",IF(ISNUMBER(VLOOKUP(H97&amp;"_"&amp;I97,[1]挑战模式!$AV:$BG,10-J97,FALSE)),VLOOKUP(H97&amp;"_"&amp;I97,[1]挑战模式!$AV:$BG,10-J97,FALSE),1))</f>
+      <c r="D127" t="str">
+        <f>IF(VLOOKUP(H127&amp;"_"&amp;I127,[1]挑战模式!$BH:$BS,10-J127,FALSE)="","","DropItemOne")</f>
+        <v>DropItemOne</v>
+      </c>
+      <c r="E127">
+        <f>IF(VLOOKUP(H127&amp;"_"&amp;I127,[1]挑战模式!$BH:$BS,10-J127,FALSE)="","",IF(ISNUMBER(VLOOKUP(H127&amp;"_"&amp;I127,[1]挑战模式!$BH:$BS,10-J127,FALSE)),VLOOKUP(H127&amp;"_"&amp;I127,[1]挑战模式!$BH:$BS,10-J127,FALSE),1))</f>
         <v>30</v>
       </c>
-      <c r="F97">
-        <f t="shared" si="5"/>
-        <v>10000</v>
-      </c>
-      <c r="G97" t="str">
-        <f>IF(VLOOKUP(H97&amp;"_"&amp;I97,[1]挑战模式!$AV:$BG,10-J97,FALSE)="","",IF(ISNUMBER(VLOOKUP(H97&amp;"_"&amp;I97,[1]挑战模式!$AV:$BG,10-J97,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H97&amp;"_"&amp;I97,[1]挑战模式!$AV:$BG,10-J97,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
+      <c r="F127">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="G127" t="str">
+        <f>IF(VLOOKUP(H127&amp;"_"&amp;I127,[1]挑战模式!$BH:$BS,10-J127,FALSE)="","",IF(ISNUMBER(VLOOKUP(H127&amp;"_"&amp;I127,[1]挑战模式!$BH:$BS,10-J127,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H127&amp;"_"&amp;I127,[1]挑战模式!$BH:$BS,10-J127,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
         <v>Token_Diamond</v>
       </c>
-      <c r="H97">
+      <c r="H127">
         <v>4</v>
       </c>
-      <c r="I97">
+      <c r="I127">
         <v>5</v>
       </c>
-      <c r="J97">
+      <c r="J127">
         <v>1</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/DropRuleConfig/DropRuleCfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/DropRuleConfig/DropRuleCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\DropRuleConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90830A7D-28A5-4AD9-95D2-AF48896E3C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EA414C-38EE-4876-83EB-1478E013633C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rule" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="79">
   <si>
     <t>##var</t>
   </si>
@@ -296,6 +296,9 @@
   <si>
     <t>Token_Diamond</t>
   </si>
+  <si>
+    <t>DropItemRule_Mail_Thanksgiving</t>
+  </si>
 </sst>
 </file>
 
@@ -501,6 +504,7 @@
       <sheetName val="无限模式"/>
       <sheetName val="挑战模式"/>
       <sheetName val="引导"/>
+      <sheetName val="商业化"/>
       <sheetName val="参考"/>
     </sheetNames>
     <sheetDataSet>
@@ -1679,10 +1683,10 @@
             <v>1</v>
           </cell>
           <cell r="BK2" t="str">
-            <v>放塔</v>
+            <v>放塔/技能</v>
           </cell>
           <cell r="BL2" t="str">
-            <v xml:space="preserve">蜜蜂1                  </v>
+            <v xml:space="preserve">蜜蜂1   鬼1               </v>
           </cell>
           <cell r="BM2" t="str">
             <v>弩箭塔、加农炮、冰魔塔</v>
@@ -1694,10 +1698,13 @@
             <v>100</v>
           </cell>
           <cell r="BP2">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ2" t="str">
             <v>蜜蜂1</v>
+          </cell>
+          <cell r="BR2" t="str">
+            <v>鬼1</v>
           </cell>
         </row>
         <row r="3">
@@ -1711,25 +1718,25 @@
             <v>2</v>
           </cell>
           <cell r="BK3" t="str">
-            <v>技能</v>
+            <v>升级</v>
           </cell>
           <cell r="BL3" t="str">
-            <v xml:space="preserve">蜜蜂1   鬼1               </v>
+            <v xml:space="preserve">鬼1   种子1               </v>
           </cell>
           <cell r="BN3" t="str">
             <v>加速塔</v>
           </cell>
           <cell r="BO3">
+            <v>110</v>
+          </cell>
+          <cell r="BP3">
             <v>80</v>
           </cell>
-          <cell r="BP3">
-            <v>30</v>
-          </cell>
           <cell r="BQ3" t="str">
-            <v>蜜蜂1</v>
+            <v>鬼1</v>
           </cell>
           <cell r="BR3" t="str">
-            <v>鬼1</v>
+            <v>种子1</v>
           </cell>
         </row>
         <row r="4">
@@ -1743,10 +1750,10 @@
             <v>3</v>
           </cell>
           <cell r="BK4" t="str">
-            <v>升级</v>
+            <v>拖动</v>
           </cell>
           <cell r="BL4" t="str">
-            <v xml:space="preserve">蜜蜂1   鬼1   种子1   蝙蝠1         </v>
+            <v xml:space="preserve">鬼1   种子1   蝙蝠1   蜘蛛1         </v>
           </cell>
           <cell r="BM4" t="str">
             <v>雷电塔</v>
@@ -1755,19 +1762,19 @@
             <v>龙击炮</v>
           </cell>
           <cell r="BO4">
-            <v>110</v>
+            <v>120</v>
           </cell>
           <cell r="BP4">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ4" t="str">
-            <v>鬼1</v>
+            <v>种子1</v>
           </cell>
           <cell r="BR4" t="str">
-            <v>种子1</v>
+            <v>蝙蝠1</v>
           </cell>
           <cell r="BS4" t="str">
-            <v>蝙蝠1</v>
+            <v>蜘蛛1</v>
           </cell>
         </row>
         <row r="5">
@@ -1781,25 +1788,25 @@
             <v>4</v>
           </cell>
           <cell r="BK5" t="str">
-            <v>拖动</v>
+            <v>回收</v>
           </cell>
           <cell r="BL5" t="str">
-            <v xml:space="preserve">鬼1   种子1   蝙蝠1   蜘蛛1         </v>
+            <v xml:space="preserve">种子1   蝙蝠1   蜘蛛1   蛋1         </v>
           </cell>
           <cell r="BO5">
-            <v>150</v>
+            <v>130</v>
           </cell>
           <cell r="BP5">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ5" t="str">
-            <v>种子1</v>
+            <v>蝙蝠1</v>
           </cell>
           <cell r="BR5" t="str">
-            <v>蝙蝠1</v>
+            <v>蜘蛛1</v>
           </cell>
           <cell r="BS5" t="str">
-            <v>蜘蛛1</v>
+            <v>蛋1</v>
           </cell>
         </row>
         <row r="6">
@@ -1813,28 +1820,31 @@
             <v>5</v>
           </cell>
           <cell r="BK6" t="str">
-            <v>回收</v>
+            <v>/</v>
           </cell>
           <cell r="BL6" t="str">
-            <v xml:space="preserve">种子1   蝙蝠1   蜘蛛1   蛋1         </v>
+            <v xml:space="preserve">蝙蝠1   蜘蛛1   蛋1   蜜蜂2         </v>
           </cell>
           <cell r="BM6" t="str">
             <v>哥布林</v>
           </cell>
+          <cell r="BN6" t="str">
+            <v>冰霜漩涡</v>
+          </cell>
           <cell r="BO6">
-            <v>200</v>
+            <v>140</v>
           </cell>
           <cell r="BP6">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ6" t="str">
-            <v>蝙蝠1</v>
+            <v>蜘蛛1</v>
           </cell>
           <cell r="BR6" t="str">
-            <v>蜘蛛1</v>
+            <v>蛋1</v>
           </cell>
           <cell r="BS6" t="str">
-            <v>蛋1</v>
+            <v>蜜蜂2</v>
           </cell>
         </row>
         <row r="7">
@@ -1856,14 +1866,12 @@
           <cell r="BM7" t="str">
             <v>火焰塔</v>
           </cell>
-          <cell r="BN7" t="str">
-            <v>冰霜漩涡</v>
-          </cell>
+          <cell r="BN7"/>
           <cell r="BO7">
-            <v>260</v>
+            <v>150</v>
           </cell>
           <cell r="BP7">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ7" t="str">
             <v>蛋1</v>
@@ -1889,16 +1897,19 @@
             <v>新玩法</v>
           </cell>
           <cell r="BL8" t="str">
-            <v xml:space="preserve">蜘蛛1   蛋1   蜜蜂2   火精灵1         </v>
+            <v xml:space="preserve">蜘蛛1   蛋1   蜜蜂2   恶灵1         </v>
           </cell>
           <cell r="BM8" t="str">
             <v>炸弹</v>
           </cell>
+          <cell r="BN8" t="str">
+            <v>雷电塔</v>
+          </cell>
           <cell r="BO8">
-            <v>330</v>
+            <v>160</v>
           </cell>
           <cell r="BP8">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ8" t="str">
             <v>蛋1</v>
@@ -1907,7 +1918,7 @@
             <v>蜜蜂2</v>
           </cell>
           <cell r="BS8" t="str">
-            <v>火精灵1</v>
+            <v>恶灵1</v>
           </cell>
         </row>
         <row r="9">
@@ -1924,22 +1935,23 @@
             <v>难度提升1</v>
           </cell>
           <cell r="BL9" t="str">
-            <v xml:space="preserve">蛋1   蜜蜂2   火精灵1   骷髅1         </v>
+            <v xml:space="preserve">蛋1   蜜蜂2   恶灵1   骷髅1         </v>
           </cell>
           <cell r="BM9" t="str">
             <v>毒雾塔</v>
           </cell>
+          <cell r="BN9"/>
           <cell r="BO9">
-            <v>410</v>
+            <v>170</v>
           </cell>
           <cell r="BP9">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ9" t="str">
             <v>蜜蜂2</v>
           </cell>
           <cell r="BR9" t="str">
-            <v>火精灵1</v>
+            <v>恶灵1</v>
           </cell>
           <cell r="BS9" t="str">
             <v>骷髅1</v>
@@ -1959,22 +1971,22 @@
             <v>难度提升1</v>
           </cell>
           <cell r="BL10" t="str">
-            <v xml:space="preserve">蜜蜂2   火精灵1   骷髅1   麻痹蝎1         </v>
+            <v xml:space="preserve">蜜蜂2   恶灵1   骷髅1   麻痹蝎1         </v>
           </cell>
           <cell r="BM10" t="str">
             <v>炼金塔</v>
           </cell>
           <cell r="BN10" t="str">
-            <v>雷电塔</v>
+            <v>火焰塔</v>
           </cell>
           <cell r="BO10">
-            <v>500</v>
+            <v>180</v>
           </cell>
           <cell r="BP10">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ10" t="str">
-            <v>火精灵1</v>
+            <v>恶灵1</v>
           </cell>
           <cell r="BR10" t="str">
             <v>骷髅1</v>
@@ -1997,16 +2009,16 @@
             <v>难度提升1</v>
           </cell>
           <cell r="BL11" t="str">
-            <v xml:space="preserve">火精灵1   骷髅1   麻痹蝎1   蜘蛛2         </v>
+            <v xml:space="preserve">恶灵1   骷髅1   麻痹蝎1   蜘蛛2         </v>
           </cell>
           <cell r="BM11" t="str">
             <v>毒蝎塔</v>
           </cell>
           <cell r="BO11">
-            <v>610</v>
+            <v>190</v>
           </cell>
           <cell r="BP11">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ11" t="str">
             <v>骷髅1</v>
@@ -2032,13 +2044,14 @@
             <v>新玩法</v>
           </cell>
           <cell r="BL12" t="str">
-            <v xml:space="preserve">骷髅1   麻痹蝎1   蜘蛛2   恶灵1         </v>
-          </cell>
+            <v xml:space="preserve">骷髅1   麻痹蝎1   蜘蛛2   火精灵1         </v>
+          </cell>
+          <cell r="BN12"/>
           <cell r="BO12">
-            <v>100</v>
+            <v>200</v>
           </cell>
           <cell r="BP12">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ12" t="str">
             <v>麻痹蝎1</v>
@@ -2047,7 +2060,7 @@
             <v>蜘蛛2</v>
           </cell>
           <cell r="BS12" t="str">
-            <v>恶灵1</v>
+            <v>火精灵1</v>
           </cell>
         </row>
         <row r="13">
@@ -2064,19 +2077,20 @@
             <v>难度提升1</v>
           </cell>
           <cell r="BL13" t="str">
-            <v>骷髅1   麻痹蝎1   蜘蛛2   恶灵1      蝙蝠2   骷髅3</v>
-          </cell>
+            <v>骷髅1   麻痹蝎1   蜘蛛2   火精灵1      蝙蝠2   骷髅3</v>
+          </cell>
+          <cell r="BM13"/>
           <cell r="BN13" t="str">
-            <v>火焰塔</v>
+            <v>时空结界</v>
           </cell>
           <cell r="BO13">
+            <v>210</v>
+          </cell>
+          <cell r="BP13">
             <v>80</v>
           </cell>
-          <cell r="BP13">
-            <v>30</v>
-          </cell>
           <cell r="BQ13" t="str">
-            <v>恶灵1</v>
+            <v>火精灵1</v>
           </cell>
           <cell r="BR13" t="str">
             <v>蝙蝠2</v>
@@ -2099,16 +2113,17 @@
             <v>难度提升1</v>
           </cell>
           <cell r="BL14" t="str">
-            <v xml:space="preserve">蜘蛛2   恶灵1   蝙蝠2   蛋2         </v>
-          </cell>
+            <v xml:space="preserve">蜘蛛2   火精灵1   蝙蝠2   蛋2         </v>
+          </cell>
+          <cell r="BN14"/>
           <cell r="BO14">
-            <v>110</v>
+            <v>220</v>
           </cell>
           <cell r="BP14">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ14" t="str">
-            <v>恶灵1</v>
+            <v>火精灵1</v>
           </cell>
           <cell r="BR14" t="str">
             <v>蝙蝠2</v>
@@ -2131,13 +2146,14 @@
             <v>难度提升1</v>
           </cell>
           <cell r="BL15" t="str">
-            <v xml:space="preserve">恶灵1   蝙蝠2   蛋2   石像1         </v>
-          </cell>
+            <v xml:space="preserve">火精灵1   蝙蝠2   蛋2   石像1         </v>
+          </cell>
+          <cell r="BN15"/>
           <cell r="BO15">
-            <v>150</v>
+            <v>230</v>
           </cell>
           <cell r="BP15">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ15" t="str">
             <v>蝙蝠2</v>
@@ -2165,14 +2181,12 @@
           <cell r="BL16" t="str">
             <v xml:space="preserve">蝙蝠2   蛋2   石像1   鬼2         </v>
           </cell>
-          <cell r="BN16" t="str">
-            <v>时空结界</v>
-          </cell>
+          <cell r="BN16"/>
           <cell r="BO16">
-            <v>200</v>
+            <v>240</v>
           </cell>
           <cell r="BP16">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ16" t="str">
             <v>蛋2</v>
@@ -2200,11 +2214,14 @@
           <cell r="BL17" t="str">
             <v xml:space="preserve">蛋2   石像1   鬼2   麻痹蝎2         </v>
           </cell>
+          <cell r="BN17" t="str">
+            <v>炸弹</v>
+          </cell>
           <cell r="BO17">
-            <v>260</v>
+            <v>250</v>
           </cell>
           <cell r="BP17">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ17" t="str">
             <v>石像1</v>
@@ -2232,11 +2249,12 @@
           <cell r="BL18" t="str">
             <v xml:space="preserve">石像1   鬼2   麻痹蝎2   小恶魔1         </v>
           </cell>
+          <cell r="BN18"/>
           <cell r="BO18">
-            <v>330</v>
+            <v>260</v>
           </cell>
           <cell r="BP18">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ18" t="str">
             <v>鬼2</v>
@@ -2264,11 +2282,12 @@
           <cell r="BL19" t="str">
             <v xml:space="preserve">鬼2   麻痹蝎2   小恶魔1   石像2         </v>
           </cell>
+          <cell r="BN19"/>
           <cell r="BO19">
-            <v>410</v>
+            <v>270</v>
           </cell>
           <cell r="BP19">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ19" t="str">
             <v>麻痹蝎2</v>
@@ -2296,11 +2315,12 @@
           <cell r="BL20" t="str">
             <v xml:space="preserve">麻痹蝎2   小恶魔1   石像2   恶灵2         </v>
           </cell>
+          <cell r="BN20"/>
           <cell r="BO20">
-            <v>500</v>
+            <v>280</v>
           </cell>
           <cell r="BP20">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ20" t="str">
             <v>小恶魔1</v>
@@ -2329,13 +2349,13 @@
             <v>麻痹蝎2   小恶魔1   石像2   恶灵2      种子2   小恶魔3</v>
           </cell>
           <cell r="BN21" t="str">
-            <v>炸弹</v>
+            <v>毒蝎塔</v>
           </cell>
           <cell r="BO21">
-            <v>610</v>
+            <v>300</v>
           </cell>
           <cell r="BP21">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ21" t="str">
             <v>恶灵2</v>
@@ -2361,19 +2381,23 @@
             <v>加速</v>
           </cell>
           <cell r="BL23" t="str">
-            <v>蜜蜂1、鸟1、蜘蛛1</v>
-          </cell>
+            <v xml:space="preserve">蝙蝠1   蜘蛛1   鸟1   石像1         </v>
+          </cell>
+          <cell r="BN23"/>
           <cell r="BO23">
-            <v>500</v>
+            <v>180</v>
           </cell>
           <cell r="BP23">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ23" t="str">
-            <v>鸟1</v>
+            <v>蝙蝠1</v>
           </cell>
           <cell r="BR23" t="str">
             <v>蜘蛛1</v>
+          </cell>
+          <cell r="BS23" t="str">
+            <v>鸟1</v>
           </cell>
         </row>
         <row r="24">
@@ -2386,23 +2410,26 @@
           <cell r="BJ24">
             <v>2</v>
           </cell>
+          <cell r="BK24"/>
           <cell r="BL24" t="str">
-            <v>蜜蜂1、鸟1、蜘蛛1、鬼1、种子1</v>
-          </cell>
+            <v xml:space="preserve">蜘蛛1   鸟1   石像1   小恶魔1         </v>
+          </cell>
+          <cell r="BM24"/>
+          <cell r="BN24"/>
           <cell r="BO24">
-            <v>1000</v>
+            <v>180</v>
           </cell>
           <cell r="BP24">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ24" t="str">
+            <v>蜘蛛1</v>
+          </cell>
+          <cell r="BR24" t="str">
             <v>鸟1</v>
           </cell>
-          <cell r="BR24" t="str">
-            <v>鬼1</v>
-          </cell>
           <cell r="BS24" t="str">
-            <v>种子1</v>
+            <v>石像1</v>
           </cell>
         </row>
         <row r="25">
@@ -2419,22 +2446,22 @@
             <v>群体加速</v>
           </cell>
           <cell r="BL25" t="str">
-            <v>鸟2、蛋1、蛋2、鬼2</v>
+            <v xml:space="preserve">鸟1   石像1   小恶魔1   恶灵1         </v>
           </cell>
           <cell r="BO25">
-            <v>1500</v>
+            <v>180</v>
           </cell>
           <cell r="BP25">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ25" t="str">
-            <v>鸟2</v>
+            <v>鸟1</v>
           </cell>
           <cell r="BR25" t="str">
-            <v>蛋1</v>
+            <v>石像1</v>
           </cell>
           <cell r="BS25" t="str">
-            <v>蛋2</v>
+            <v>小恶魔1</v>
           </cell>
         </row>
         <row r="26">
@@ -2447,23 +2474,24 @@
           <cell r="BJ26">
             <v>4</v>
           </cell>
+          <cell r="BK26"/>
           <cell r="BL26" t="str">
-            <v>鸟2、蛋1、蛋2、鬼2、种子2</v>
+            <v>鸟1   石像1   小恶魔1   恶灵2      鸟2   石像3</v>
           </cell>
           <cell r="BO26">
-            <v>2100</v>
+            <v>180</v>
           </cell>
           <cell r="BP26">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ26" t="str">
-            <v>鸟2</v>
+            <v>石像1</v>
           </cell>
           <cell r="BR26" t="str">
-            <v>鬼2</v>
+            <v>小恶魔1</v>
           </cell>
           <cell r="BS26" t="str">
-            <v>种子2</v>
+            <v>恶灵1</v>
           </cell>
         </row>
         <row r="27">
@@ -2480,28 +2508,26 @@
             <v>BOSS-群体霸体</v>
           </cell>
           <cell r="BL27" t="str">
-            <v>蝙蝠1、蛋1、蛋2、鬼2、种子2、鸟3</v>
-          </cell>
-          <cell r="BM27" t="str">
-            <v>魔像</v>
-          </cell>
+            <v xml:space="preserve">种子1   蜜蜂1   龙1   麻痹蝎1         </v>
+          </cell>
+          <cell r="BM27"/>
           <cell r="BN27" t="str">
-            <v>炼金塔</v>
+            <v>哥布林</v>
           </cell>
           <cell r="BO27">
-            <v>2600</v>
+            <v>180</v>
           </cell>
           <cell r="BP27">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ27" t="str">
-            <v>鬼2</v>
+            <v>恶灵2</v>
           </cell>
           <cell r="BR27" t="str">
-            <v>种子2</v>
+            <v>鸟2</v>
           </cell>
           <cell r="BS27" t="str">
-            <v>鸟3</v>
+            <v>石像3</v>
           </cell>
         </row>
         <row r="28">
@@ -2518,19 +2544,24 @@
             <v>高攻击</v>
           </cell>
           <cell r="BL28" t="str">
-            <v>蜜蜂1、龙1、蜘蛛1</v>
-          </cell>
+            <v xml:space="preserve">蜜蜂1   龙1   麻痹蝎1   蛋2         </v>
+          </cell>
+          <cell r="BM28"/>
+          <cell r="BN28"/>
           <cell r="BO28">
-            <v>500</v>
+            <v>180</v>
           </cell>
           <cell r="BP28">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ28" t="str">
+            <v>蜜蜂1</v>
+          </cell>
+          <cell r="BR28" t="str">
             <v>龙1</v>
           </cell>
-          <cell r="BR28" t="str">
-            <v>蜘蛛1</v>
+          <cell r="BS28" t="str">
+            <v>麻痹蝎1</v>
           </cell>
         </row>
         <row r="29">
@@ -2547,22 +2578,24 @@
             <v>治疗</v>
           </cell>
           <cell r="BL29" t="str">
-            <v>蜜蜂1、龙1、蜘蛛1、鬼1、种子1</v>
-          </cell>
+            <v xml:space="preserve">龙1   麻痹蝎1   蛋2   石像2         </v>
+          </cell>
+          <cell r="BM29"/>
+          <cell r="BN29"/>
           <cell r="BO29">
-            <v>1000</v>
+            <v>180</v>
           </cell>
           <cell r="BP29">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ29" t="str">
             <v>龙1</v>
           </cell>
           <cell r="BR29" t="str">
-            <v>鬼1</v>
+            <v>麻痹蝎1</v>
           </cell>
           <cell r="BS29" t="str">
-            <v>种子1</v>
+            <v>蛋2</v>
           </cell>
         </row>
         <row r="30">
@@ -2579,22 +2612,24 @@
             <v>持续弱化</v>
           </cell>
           <cell r="BL30" t="str">
-            <v>龙2、蛋1、蛋2、鬼2</v>
-          </cell>
+            <v xml:space="preserve">麻痹蝎1   蛋2   石像2   鬼2         </v>
+          </cell>
+          <cell r="BM30"/>
+          <cell r="BN30"/>
           <cell r="BO30">
-            <v>1500</v>
+            <v>180</v>
           </cell>
           <cell r="BP30">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ30" t="str">
-            <v>龙2</v>
+            <v>麻痹蝎1</v>
           </cell>
           <cell r="BR30" t="str">
-            <v>蛋1</v>
+            <v>蛋2</v>
           </cell>
           <cell r="BS30" t="str">
-            <v>蛋2</v>
+            <v>石像2</v>
           </cell>
         </row>
         <row r="31">
@@ -2611,22 +2646,24 @@
             <v>群体加攻</v>
           </cell>
           <cell r="BL31" t="str">
-            <v>龙2、蛋1、蛋2、鬼2、种子2</v>
-          </cell>
+            <v>麻痹蝎1   蛋2   石像2   小恶魔2      火精灵2   龙3</v>
+          </cell>
+          <cell r="BM31"/>
+          <cell r="BN31"/>
           <cell r="BO31">
-            <v>2100</v>
+            <v>180</v>
           </cell>
           <cell r="BP31">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ31" t="str">
-            <v>龙2</v>
+            <v>蛋2</v>
           </cell>
           <cell r="BR31" t="str">
+            <v>石像2</v>
+          </cell>
+          <cell r="BS31" t="str">
             <v>鬼2</v>
-          </cell>
-          <cell r="BS31" t="str">
-            <v>种子2</v>
           </cell>
         </row>
         <row r="32">
@@ -2643,25 +2680,22 @@
             <v>Boss-攻击塔</v>
           </cell>
           <cell r="BL32" t="str">
-            <v>蝙蝠1、蛋1、蛋2、鬼2、种子2、龙3</v>
-          </cell>
-          <cell r="BM32" t="str">
-            <v>奥术天球</v>
+            <v xml:space="preserve">蜜蜂1   蝙蝠1   蜘蛛1   雪人1         </v>
           </cell>
           <cell r="BN32" t="str">
-            <v>毒蝎塔</v>
+            <v>炼金塔</v>
           </cell>
           <cell r="BO32">
-            <v>2600</v>
+            <v>180</v>
           </cell>
           <cell r="BP32">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ32" t="str">
-            <v>鬼2</v>
+            <v>小恶魔2</v>
           </cell>
           <cell r="BR32" t="str">
-            <v>种子2</v>
+            <v>火精灵2</v>
           </cell>
           <cell r="BS32" t="str">
             <v>龙3</v>
@@ -2681,19 +2715,24 @@
             <v>融化</v>
           </cell>
           <cell r="BL33" t="str">
-            <v>蜜蜂1、雪人1、蜘蛛1</v>
-          </cell>
+            <v xml:space="preserve">蝙蝠1   蜘蛛1   雪人1   蜘蛛2         </v>
+          </cell>
+          <cell r="BM33"/>
+          <cell r="BN33"/>
           <cell r="BO33">
-            <v>500</v>
+            <v>180</v>
           </cell>
           <cell r="BP33">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ33" t="str">
-            <v>雪人1</v>
+            <v>蝙蝠1</v>
           </cell>
           <cell r="BR33" t="str">
             <v>蜘蛛1</v>
+          </cell>
+          <cell r="BS33" t="str">
+            <v>雪人1</v>
           </cell>
         </row>
         <row r="34">
@@ -2710,22 +2749,24 @@
             <v>快速</v>
           </cell>
           <cell r="BL34" t="str">
-            <v>蜜蜂1、雪人1、蜘蛛1、鬼1、种子1</v>
-          </cell>
+            <v xml:space="preserve">蜘蛛1   雪人1   蜘蛛2   骷髅2         </v>
+          </cell>
+          <cell r="BM34"/>
+          <cell r="BN34"/>
           <cell r="BO34">
-            <v>1000</v>
+            <v>180</v>
           </cell>
           <cell r="BP34">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ34" t="str">
+            <v>蜘蛛1</v>
+          </cell>
+          <cell r="BR34" t="str">
             <v>雪人1</v>
           </cell>
-          <cell r="BR34" t="str">
-            <v>鬼1</v>
-          </cell>
           <cell r="BS34" t="str">
-            <v>种子1</v>
+            <v>蜘蛛2</v>
           </cell>
         </row>
         <row r="35">
@@ -2742,22 +2783,24 @@
             <v>隐身</v>
           </cell>
           <cell r="BL35" t="str">
-            <v>雪人2、蛋1、蛋2、鬼2</v>
-          </cell>
+            <v xml:space="preserve">雪人1   蜘蛛2   骷髅2   恶灵1         </v>
+          </cell>
+          <cell r="BM35"/>
+          <cell r="BN35"/>
           <cell r="BO35">
-            <v>1500</v>
+            <v>180</v>
           </cell>
           <cell r="BP35">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ35" t="str">
-            <v>雪人2</v>
+            <v>雪人1</v>
           </cell>
           <cell r="BR35" t="str">
-            <v>蛋1</v>
+            <v>蜘蛛2</v>
           </cell>
           <cell r="BS35" t="str">
-            <v>蛋2</v>
+            <v>骷髅2</v>
           </cell>
         </row>
         <row r="36">
@@ -2774,22 +2817,24 @@
             <v>出场限时护盾</v>
           </cell>
           <cell r="BL36" t="str">
-            <v>雪人2、蛋1、蛋2、鬼2、种子2</v>
-          </cell>
+            <v>雪人1   蜘蛛2   骷髅2   恶灵2      雪人2   雪人3</v>
+          </cell>
+          <cell r="BM36"/>
+          <cell r="BN36"/>
           <cell r="BO36">
-            <v>2100</v>
+            <v>180</v>
           </cell>
           <cell r="BP36">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ36" t="str">
-            <v>雪人2</v>
+            <v>蜘蛛2</v>
           </cell>
           <cell r="BR36" t="str">
-            <v>鬼2</v>
+            <v>骷髅2</v>
           </cell>
           <cell r="BS36" t="str">
-            <v>种子2</v>
+            <v>恶灵1</v>
           </cell>
         </row>
         <row r="37">
@@ -2806,25 +2851,22 @@
             <v>BOSS-范围冰冻</v>
           </cell>
           <cell r="BL37" t="str">
-            <v>蝙蝠1、蛋1、蛋2、鬼2、种子2、雪人3</v>
-          </cell>
-          <cell r="BM37" t="str">
-            <v>火箭</v>
+            <v xml:space="preserve">蝙蝠1   火精灵1   鬼1   乌龟1         </v>
           </cell>
           <cell r="BN37" t="str">
-            <v>哥布林</v>
+            <v>火箭塔</v>
           </cell>
           <cell r="BO37">
-            <v>2600</v>
+            <v>180</v>
           </cell>
           <cell r="BP37">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ37" t="str">
-            <v>鬼2</v>
+            <v>恶灵2</v>
           </cell>
           <cell r="BR37" t="str">
-            <v>种子2</v>
+            <v>雪人2</v>
           </cell>
           <cell r="BS37" t="str">
             <v>雪人3</v>
@@ -2844,19 +2886,24 @@
             <v>定期锁壳减伤</v>
           </cell>
           <cell r="BL38" t="str">
-            <v>蜜蜂1、乌龟1、蜘蛛1</v>
-          </cell>
+            <v xml:space="preserve">火精灵1   鬼1   乌龟1   蜜蜂2         </v>
+          </cell>
+          <cell r="BM38"/>
+          <cell r="BN38"/>
           <cell r="BO38">
-            <v>500</v>
+            <v>180</v>
           </cell>
           <cell r="BP38">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ38" t="str">
+            <v>火精灵1</v>
+          </cell>
+          <cell r="BR38" t="str">
+            <v>鬼1</v>
+          </cell>
+          <cell r="BS38" t="str">
             <v>乌龟1</v>
-          </cell>
-          <cell r="BR38" t="str">
-            <v>蜘蛛1</v>
           </cell>
         </row>
         <row r="39">
@@ -2873,22 +2920,24 @@
             <v>治疗</v>
           </cell>
           <cell r="BL39" t="str">
-            <v>蜜蜂1、乌龟1、蜘蛛1、鬼1、种子1</v>
-          </cell>
+            <v xml:space="preserve">鬼1   乌龟1   蜜蜂2   乌龟2         </v>
+          </cell>
+          <cell r="BM39"/>
+          <cell r="BN39"/>
           <cell r="BO39">
-            <v>1000</v>
+            <v>180</v>
           </cell>
           <cell r="BP39">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ39" t="str">
+            <v>鬼1</v>
+          </cell>
+          <cell r="BR39" t="str">
             <v>乌龟1</v>
           </cell>
-          <cell r="BR39" t="str">
-            <v>鬼1</v>
-          </cell>
           <cell r="BS39" t="str">
-            <v>种子1</v>
+            <v>蜜蜂2</v>
           </cell>
         </row>
         <row r="40">
@@ -2905,22 +2954,24 @@
             <v>持续弱化</v>
           </cell>
           <cell r="BL40" t="str">
-            <v>乌龟2、蛋1、蛋2、鬼2</v>
-          </cell>
+            <v xml:space="preserve">乌龟1   蜜蜂2   乌龟2   鬼2         </v>
+          </cell>
+          <cell r="BM40"/>
+          <cell r="BN40"/>
           <cell r="BO40">
-            <v>1500</v>
+            <v>180</v>
           </cell>
           <cell r="BP40">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ40" t="str">
+            <v>乌龟1</v>
+          </cell>
+          <cell r="BR40" t="str">
+            <v>蜜蜂2</v>
+          </cell>
+          <cell r="BS40" t="str">
             <v>乌龟2</v>
-          </cell>
-          <cell r="BR40" t="str">
-            <v>蛋1</v>
-          </cell>
-          <cell r="BS40" t="str">
-            <v>蛋2</v>
           </cell>
         </row>
         <row r="41">
@@ -2937,22 +2988,24 @@
             <v>移动时减伤且快速</v>
           </cell>
           <cell r="BL41" t="str">
-            <v>乌龟2、蛋1、蛋2、鬼2、种子2</v>
-          </cell>
+            <v>乌龟1   蜜蜂2   乌龟2   小恶魔2      种子2   乌龟3</v>
+          </cell>
+          <cell r="BM41"/>
+          <cell r="BN41"/>
           <cell r="BO41">
-            <v>2100</v>
+            <v>180</v>
           </cell>
           <cell r="BP41">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ41" t="str">
+            <v>蜜蜂2</v>
+          </cell>
+          <cell r="BR41" t="str">
             <v>乌龟2</v>
           </cell>
-          <cell r="BR41" t="str">
+          <cell r="BS41" t="str">
             <v>鬼2</v>
-          </cell>
-          <cell r="BS41" t="str">
-            <v>种子2</v>
           </cell>
         </row>
         <row r="42">
@@ -2969,22 +3022,19 @@
             <v>BOSS-范围护盾</v>
           </cell>
           <cell r="BL42" t="str">
-            <v>蝙蝠1、蛋1、蛋2、鬼2、种子2、乌龟3</v>
-          </cell>
-          <cell r="BM42" t="str">
-            <v>水晶</v>
+            <v xml:space="preserve">                  </v>
           </cell>
           <cell r="BN42" t="str">
             <v>水晶</v>
           </cell>
           <cell r="BO42">
-            <v>2600</v>
+            <v>180</v>
           </cell>
           <cell r="BP42">
-            <v>30</v>
+            <v>80</v>
           </cell>
           <cell r="BQ42" t="str">
-            <v>鬼2</v>
+            <v>小恶魔2</v>
           </cell>
           <cell r="BR42" t="str">
             <v>种子2</v>
@@ -2993,29 +3043,228 @@
             <v>乌龟3</v>
           </cell>
         </row>
-        <row r="45">
-          <cell r="BN45" t="str">
-            <v>毒蝎塔</v>
-          </cell>
-        </row>
         <row r="46">
-          <cell r="BN46" t="str">
-            <v>哥布林</v>
-          </cell>
+          <cell r="BM46"/>
+          <cell r="BR46"/>
+          <cell r="BS46"/>
         </row>
         <row r="47">
-          <cell r="BN47" t="str">
-            <v>炸弹</v>
-          </cell>
+          <cell r="BM47"/>
+          <cell r="BR47"/>
+          <cell r="BS47"/>
         </row>
         <row r="48">
-          <cell r="BN48" t="str">
-            <v>炼金塔</v>
-          </cell>
+          <cell r="BQ48"/>
+          <cell r="BR48"/>
+          <cell r="BS48"/>
+        </row>
+        <row r="49">
+          <cell r="BQ49"/>
+          <cell r="BR49"/>
+          <cell r="BS49"/>
+        </row>
+        <row r="50">
+          <cell r="BQ50"/>
+          <cell r="BR50"/>
+          <cell r="BS50"/>
+        </row>
+        <row r="51">
+          <cell r="BQ51"/>
+          <cell r="BR51"/>
+          <cell r="BS51"/>
+        </row>
+        <row r="52">
+          <cell r="BQ52"/>
+          <cell r="BR52"/>
+          <cell r="BS52"/>
+        </row>
+        <row r="53">
+          <cell r="BQ53"/>
+          <cell r="BR53"/>
+          <cell r="BS53"/>
+        </row>
+        <row r="54">
+          <cell r="BQ54"/>
+          <cell r="BR54"/>
+          <cell r="BS54"/>
+        </row>
+        <row r="55">
+          <cell r="BQ55"/>
+          <cell r="BR55"/>
+          <cell r="BS55"/>
+        </row>
+        <row r="56">
+          <cell r="BQ56"/>
+          <cell r="BR56"/>
+          <cell r="BS56"/>
+        </row>
+        <row r="57">
+          <cell r="BQ57"/>
+          <cell r="BR57"/>
+          <cell r="BS57"/>
+        </row>
+        <row r="58">
+          <cell r="BQ58"/>
+          <cell r="BR58"/>
+          <cell r="BS58"/>
+        </row>
+        <row r="59">
+          <cell r="BQ59"/>
+          <cell r="BR59"/>
+          <cell r="BS59"/>
+        </row>
+        <row r="60">
+          <cell r="BQ60"/>
+          <cell r="BR60"/>
+          <cell r="BS60"/>
+        </row>
+        <row r="61">
+          <cell r="BQ61"/>
+          <cell r="BR61"/>
+          <cell r="BS61"/>
+        </row>
+        <row r="62">
+          <cell r="BQ62"/>
+          <cell r="BR62"/>
+          <cell r="BS62"/>
+        </row>
+        <row r="63">
+          <cell r="BQ63"/>
+          <cell r="BR63"/>
+          <cell r="BS63"/>
+        </row>
+        <row r="64">
+          <cell r="BQ64"/>
+          <cell r="BR64"/>
+          <cell r="BS64"/>
+        </row>
+        <row r="65">
+          <cell r="BQ65"/>
+          <cell r="BR65"/>
+          <cell r="BS65"/>
+        </row>
+        <row r="66">
+          <cell r="BQ66"/>
+        </row>
+        <row r="67">
+          <cell r="BQ67"/>
+        </row>
+        <row r="68">
+          <cell r="BQ68"/>
+        </row>
+        <row r="128">
+          <cell r="BI128"/>
+          <cell r="BJ128"/>
+          <cell r="BK128"/>
+        </row>
+        <row r="129">
+          <cell r="BI129"/>
+          <cell r="BJ129"/>
+          <cell r="BK129"/>
+        </row>
+        <row r="130">
+          <cell r="BI130"/>
+          <cell r="BJ130"/>
+          <cell r="BK130"/>
+        </row>
+        <row r="131">
+          <cell r="BI131"/>
+          <cell r="BJ131"/>
+          <cell r="BK131"/>
+        </row>
+        <row r="132">
+          <cell r="BI132"/>
+          <cell r="BJ132"/>
+          <cell r="BK132"/>
+        </row>
+        <row r="159">
+          <cell r="BL159"/>
+        </row>
+        <row r="160">
+          <cell r="BI160"/>
+          <cell r="BJ160"/>
+          <cell r="BK160"/>
+        </row>
+        <row r="161">
+          <cell r="BI161"/>
+          <cell r="BJ161"/>
+          <cell r="BK161"/>
+        </row>
+        <row r="162">
+          <cell r="BI162"/>
+          <cell r="BJ162"/>
+          <cell r="BK162"/>
+        </row>
+        <row r="163">
+          <cell r="BI163"/>
+          <cell r="BJ163"/>
+          <cell r="BK163"/>
+        </row>
+        <row r="164">
+          <cell r="BI164"/>
+          <cell r="BJ164"/>
+          <cell r="BK164"/>
+        </row>
+        <row r="191">
+          <cell r="BL191"/>
+        </row>
+        <row r="192">
+          <cell r="BI192"/>
+          <cell r="BJ192"/>
+          <cell r="BK192"/>
+        </row>
+        <row r="193">
+          <cell r="BI193"/>
+          <cell r="BJ193"/>
+          <cell r="BK193"/>
+        </row>
+        <row r="194">
+          <cell r="BI194"/>
+          <cell r="BJ194"/>
+          <cell r="BK194"/>
+        </row>
+        <row r="195">
+          <cell r="BI195"/>
+          <cell r="BJ195"/>
+          <cell r="BK195"/>
+        </row>
+        <row r="196">
+          <cell r="BI196"/>
+          <cell r="BJ196"/>
+          <cell r="BK196"/>
+        </row>
+        <row r="223">
+          <cell r="BL223"/>
+        </row>
+        <row r="224">
+          <cell r="BI224"/>
+          <cell r="BJ224"/>
+          <cell r="BK224"/>
+        </row>
+        <row r="225">
+          <cell r="BI225"/>
+          <cell r="BJ225"/>
+          <cell r="BK225"/>
+        </row>
+        <row r="226">
+          <cell r="BI226"/>
+          <cell r="BJ226"/>
+          <cell r="BK226"/>
+        </row>
+        <row r="227">
+          <cell r="BI227"/>
+          <cell r="BJ227"/>
+          <cell r="BK227"/>
+        </row>
+        <row r="228">
+          <cell r="BI228"/>
+          <cell r="BJ228"/>
+          <cell r="BK228"/>
         </row>
       </sheetData>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3284,13 +3533,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
+      <selection pane="bottomRight" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3938,6 +4187,26 @@
         <v>10000</v>
       </c>
       <c r="G40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42">
+        <v>3000</v>
+      </c>
+      <c r="F42">
+        <v>10000</v>
+      </c>
+      <c r="G42" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3960,8 +4229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1226A1-0D69-4D86-A5FA-3B31828C5F63}">
   <dimension ref="A1:J127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="G56" sqref="G56"/>
@@ -4171,7 +4440,7 @@
       </c>
       <c r="E9">
         <f>IF(VLOOKUP(H9&amp;"_"&amp;I9,[1]挑战模式!$BH:$BS,9-J9,FALSE)="","",IF(ISNUMBER(VLOOKUP(H9&amp;"_"&amp;I9,[1]挑战模式!$BH:$BS,9-J9,FALSE)),VLOOKUP(H9&amp;"_"&amp;I9,[1]挑战模式!$BH:$BS,9-J9,FALSE),1))</f>
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
@@ -4241,7 +4510,7 @@
       </c>
       <c r="E11">
         <f>IF(VLOOKUP(H11&amp;"_"&amp;I11,[1]挑战模式!$BH:$BS,9-J11,FALSE)="","",IF(ISNUMBER(VLOOKUP(H11&amp;"_"&amp;I11,[1]挑战模式!$BH:$BS,9-J11,FALSE)),VLOOKUP(H11&amp;"_"&amp;I11,[1]挑战模式!$BH:$BS,9-J11,FALSE),1))</f>
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
@@ -4311,7 +4580,7 @@
       </c>
       <c r="E13">
         <f>IF(VLOOKUP(H13&amp;"_"&amp;I13,[1]挑战模式!$BH:$BS,9-J13,FALSE)="","",IF(ISNUMBER(VLOOKUP(H13&amp;"_"&amp;I13,[1]挑战模式!$BH:$BS,9-J13,FALSE)),VLOOKUP(H13&amp;"_"&amp;I13,[1]挑战模式!$BH:$BS,9-J13,FALSE),1))</f>
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
@@ -4381,7 +4650,7 @@
       </c>
       <c r="E15">
         <f>IF(VLOOKUP(H15&amp;"_"&amp;I15,[1]挑战模式!$BH:$BS,9-J15,FALSE)="","",IF(ISNUMBER(VLOOKUP(H15&amp;"_"&amp;I15,[1]挑战模式!$BH:$BS,9-J15,FALSE)),VLOOKUP(H15&amp;"_"&amp;I15,[1]挑战模式!$BH:$BS,9-J15,FALSE),1))</f>
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
@@ -4412,19 +4681,19 @@
       </c>
       <c r="D16" t="str">
         <f>IF(VLOOKUP(H16&amp;"_"&amp;I16,[1]挑战模式!$BH:$BS,9-J16,FALSE)="","","DropItemOne")</f>
-        <v/>
-      </c>
-      <c r="E16" t="str">
+        <v>DropItemOne</v>
+      </c>
+      <c r="E16">
         <f>IF(VLOOKUP(H16&amp;"_"&amp;I16,[1]挑战模式!$BH:$BS,9-J16,FALSE)="","",IF(ISNUMBER(VLOOKUP(H16&amp;"_"&amp;I16,[1]挑战模式!$BH:$BS,9-J16,FALSE)),VLOOKUP(H16&amp;"_"&amp;I16,[1]挑战模式!$BH:$BS,9-J16,FALSE),1))</f>
-        <v/>
-      </c>
-      <c r="F16" t="str">
+        <v>1</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="2"/>
-        <v/>
+        <v>10000</v>
       </c>
       <c r="G16" t="str">
         <f>IF(VLOOKUP(H16&amp;"_"&amp;I16,[1]挑战模式!$BH:$BS,9-J16,FALSE)="","",IF(ISNUMBER(VLOOKUP(H16&amp;"_"&amp;I16,[1]挑战模式!$BH:$BS,9-J16,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H16&amp;"_"&amp;I16,[1]挑战模式!$BH:$BS,9-J16,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v/>
+        <v>PlayerSkill_IceBind</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -4451,7 +4720,7 @@
       </c>
       <c r="E17">
         <f>IF(VLOOKUP(H17&amp;"_"&amp;I17,[1]挑战模式!$BH:$BS,9-J17,FALSE)="","",IF(ISNUMBER(VLOOKUP(H17&amp;"_"&amp;I17,[1]挑战模式!$BH:$BS,9-J17,FALSE)),VLOOKUP(H17&amp;"_"&amp;I17,[1]挑战模式!$BH:$BS,9-J17,FALSE),1))</f>
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
@@ -4482,19 +4751,19 @@
       </c>
       <c r="D18" t="str">
         <f>IF(VLOOKUP(H18&amp;"_"&amp;I18,[1]挑战模式!$BH:$BS,9-J18,FALSE)="","","DropItemOne")</f>
-        <v>DropItemOne</v>
-      </c>
-      <c r="E18">
+        <v/>
+      </c>
+      <c r="E18" t="str">
         <f>IF(VLOOKUP(H18&amp;"_"&amp;I18,[1]挑战模式!$BH:$BS,9-J18,FALSE)="","",IF(ISNUMBER(VLOOKUP(H18&amp;"_"&amp;I18,[1]挑战模式!$BH:$BS,9-J18,FALSE)),VLOOKUP(H18&amp;"_"&amp;I18,[1]挑战模式!$BH:$BS,9-J18,FALSE),1))</f>
-        <v>1</v>
-      </c>
-      <c r="F18">
+        <v/>
+      </c>
+      <c r="F18" t="str">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v/>
       </c>
       <c r="G18" t="str">
         <f>IF(VLOOKUP(H18&amp;"_"&amp;I18,[1]挑战模式!$BH:$BS,9-J18,FALSE)="","",IF(ISNUMBER(VLOOKUP(H18&amp;"_"&amp;I18,[1]挑战模式!$BH:$BS,9-J18,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H18&amp;"_"&amp;I18,[1]挑战模式!$BH:$BS,9-J18,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v>PlayerSkill_IceBind</v>
+        <v/>
       </c>
       <c r="H18">
         <v>0</v>
@@ -4521,7 +4790,7 @@
       </c>
       <c r="E19">
         <f>IF(VLOOKUP(H19&amp;"_"&amp;I19,[1]挑战模式!$BH:$BS,9-J19,FALSE)="","",IF(ISNUMBER(VLOOKUP(H19&amp;"_"&amp;I19,[1]挑战模式!$BH:$BS,9-J19,FALSE)),VLOOKUP(H19&amp;"_"&amp;I19,[1]挑战模式!$BH:$BS,9-J19,FALSE),1))</f>
-        <v>330</v>
+        <v>160</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
@@ -4552,19 +4821,19 @@
       </c>
       <c r="D20" t="str">
         <f>IF(VLOOKUP(H20&amp;"_"&amp;I20,[1]挑战模式!$BH:$BS,9-J20,FALSE)="","","DropItemOne")</f>
-        <v/>
-      </c>
-      <c r="E20" t="str">
+        <v>DropItemOne</v>
+      </c>
+      <c r="E20">
         <f>IF(VLOOKUP(H20&amp;"_"&amp;I20,[1]挑战模式!$BH:$BS,9-J20,FALSE)="","",IF(ISNUMBER(VLOOKUP(H20&amp;"_"&amp;I20,[1]挑战模式!$BH:$BS,9-J20,FALSE)),VLOOKUP(H20&amp;"_"&amp;I20,[1]挑战模式!$BH:$BS,9-J20,FALSE),1))</f>
-        <v/>
-      </c>
-      <c r="F20" t="str">
+        <v>1</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="2"/>
-        <v/>
+        <v>10000</v>
       </c>
       <c r="G20" t="str">
         <f>IF(VLOOKUP(H20&amp;"_"&amp;I20,[1]挑战模式!$BH:$BS,9-J20,FALSE)="","",IF(ISNUMBER(VLOOKUP(H20&amp;"_"&amp;I20,[1]挑战模式!$BH:$BS,9-J20,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H20&amp;"_"&amp;I20,[1]挑战模式!$BH:$BS,9-J20,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v/>
+        <v>Tow6_1</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -4591,7 +4860,7 @@
       </c>
       <c r="E21">
         <f>IF(VLOOKUP(H21&amp;"_"&amp;I21,[1]挑战模式!$BH:$BS,9-J21,FALSE)="","",IF(ISNUMBER(VLOOKUP(H21&amp;"_"&amp;I21,[1]挑战模式!$BH:$BS,9-J21,FALSE)),VLOOKUP(H21&amp;"_"&amp;I21,[1]挑战模式!$BH:$BS,9-J21,FALSE),1))</f>
-        <v>410</v>
+        <v>170</v>
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
@@ -4661,7 +4930,7 @@
       </c>
       <c r="E23">
         <f>IF(VLOOKUP(H23&amp;"_"&amp;I23,[1]挑战模式!$BH:$BS,9-J23,FALSE)="","",IF(ISNUMBER(VLOOKUP(H23&amp;"_"&amp;I23,[1]挑战模式!$BH:$BS,9-J23,FALSE)),VLOOKUP(H23&amp;"_"&amp;I23,[1]挑战模式!$BH:$BS,9-J23,FALSE),1))</f>
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="F23">
         <f t="shared" si="2"/>
@@ -4704,7 +4973,7 @@
       </c>
       <c r="G24" t="str">
         <f>IF(VLOOKUP(H24&amp;"_"&amp;I24,[1]挑战模式!$BH:$BS,9-J24,FALSE)="","",IF(ISNUMBER(VLOOKUP(H24&amp;"_"&amp;I24,[1]挑战模式!$BH:$BS,9-J24,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H24&amp;"_"&amp;I24,[1]挑战模式!$BH:$BS,9-J24,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v>Tow6_1</v>
+        <v>Tow3_1</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -4731,7 +5000,7 @@
       </c>
       <c r="E25">
         <f>IF(VLOOKUP(H25&amp;"_"&amp;I25,[1]挑战模式!$BH:$BS,9-J25,FALSE)="","",IF(ISNUMBER(VLOOKUP(H25&amp;"_"&amp;I25,[1]挑战模式!$BH:$BS,9-J25,FALSE)),VLOOKUP(H25&amp;"_"&amp;I25,[1]挑战模式!$BH:$BS,9-J25,FALSE),1))</f>
-        <v>610</v>
+        <v>190</v>
       </c>
       <c r="F25">
         <f t="shared" si="2"/>
@@ -4801,7 +5070,7 @@
       </c>
       <c r="E27">
         <f>IF(VLOOKUP(H27&amp;"_"&amp;I27,[1]挑战模式!$BH:$BS,9-J27,FALSE)="","",IF(ISNUMBER(VLOOKUP(H27&amp;"_"&amp;I27,[1]挑战模式!$BH:$BS,9-J27,FALSE)),VLOOKUP(H27&amp;"_"&amp;I27,[1]挑战模式!$BH:$BS,9-J27,FALSE),1))</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F27">
         <f>IF(E27="","",10000)</f>
@@ -4871,7 +5140,7 @@
       </c>
       <c r="E29">
         <f>IF(VLOOKUP(H29&amp;"_"&amp;I29,[1]挑战模式!$BH:$BS,9-J29,FALSE)="","",IF(ISNUMBER(VLOOKUP(H29&amp;"_"&amp;I29,[1]挑战模式!$BH:$BS,9-J29,FALSE)),VLOOKUP(H29&amp;"_"&amp;I29,[1]挑战模式!$BH:$BS,9-J29,FALSE),1))</f>
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="F29">
         <f t="shared" si="5"/>
@@ -4914,7 +5183,7 @@
       </c>
       <c r="G30" t="str">
         <f>IF(VLOOKUP(H30&amp;"_"&amp;I30,[1]挑战模式!$BH:$BS,9-J30,FALSE)="","",IF(ISNUMBER(VLOOKUP(H30&amp;"_"&amp;I30,[1]挑战模式!$BH:$BS,9-J30,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H30&amp;"_"&amp;I30,[1]挑战模式!$BH:$BS,9-J30,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v>Tow3_1</v>
+        <v>PlayerSkill_TimeBarrier</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -4941,7 +5210,7 @@
       </c>
       <c r="E31">
         <f>IF(VLOOKUP(H31&amp;"_"&amp;I31,[1]挑战模式!$BH:$BS,9-J31,FALSE)="","",IF(ISNUMBER(VLOOKUP(H31&amp;"_"&amp;I31,[1]挑战模式!$BH:$BS,9-J31,FALSE)),VLOOKUP(H31&amp;"_"&amp;I31,[1]挑战模式!$BH:$BS,9-J31,FALSE),1))</f>
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="F31">
         <f t="shared" si="5"/>
@@ -5011,7 +5280,7 @@
       </c>
       <c r="E33">
         <f>IF(VLOOKUP(H33&amp;"_"&amp;I33,[1]挑战模式!$BH:$BS,9-J33,FALSE)="","",IF(ISNUMBER(VLOOKUP(H33&amp;"_"&amp;I33,[1]挑战模式!$BH:$BS,9-J33,FALSE)),VLOOKUP(H33&amp;"_"&amp;I33,[1]挑战模式!$BH:$BS,9-J33,FALSE),1))</f>
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="F33">
         <f t="shared" si="5"/>
@@ -5081,7 +5350,7 @@
       </c>
       <c r="E35">
         <f>IF(VLOOKUP(H35&amp;"_"&amp;I35,[1]挑战模式!$BH:$BS,9-J35,FALSE)="","",IF(ISNUMBER(VLOOKUP(H35&amp;"_"&amp;I35,[1]挑战模式!$BH:$BS,9-J35,FALSE)),VLOOKUP(H35&amp;"_"&amp;I35,[1]挑战模式!$BH:$BS,9-J35,FALSE),1))</f>
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F35">
         <f t="shared" si="5"/>
@@ -5112,19 +5381,19 @@
       </c>
       <c r="D36" t="str">
         <f>IF(VLOOKUP(H36&amp;"_"&amp;I36,[1]挑战模式!$BH:$BS,9-J36,FALSE)="","","DropItemOne")</f>
-        <v>DropItemOne</v>
-      </c>
-      <c r="E36">
+        <v/>
+      </c>
+      <c r="E36" t="str">
         <f>IF(VLOOKUP(H36&amp;"_"&amp;I36,[1]挑战模式!$BH:$BS,9-J36,FALSE)="","",IF(ISNUMBER(VLOOKUP(H36&amp;"_"&amp;I36,[1]挑战模式!$BH:$BS,9-J36,FALSE)),VLOOKUP(H36&amp;"_"&amp;I36,[1]挑战模式!$BH:$BS,9-J36,FALSE),1))</f>
-        <v>1</v>
-      </c>
-      <c r="F36">
+        <v/>
+      </c>
+      <c r="F36" t="str">
         <f t="shared" si="5"/>
-        <v>10000</v>
+        <v/>
       </c>
       <c r="G36" t="str">
         <f>IF(VLOOKUP(H36&amp;"_"&amp;I36,[1]挑战模式!$BH:$BS,9-J36,FALSE)="","",IF(ISNUMBER(VLOOKUP(H36&amp;"_"&amp;I36,[1]挑战模式!$BH:$BS,9-J36,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H36&amp;"_"&amp;I36,[1]挑战模式!$BH:$BS,9-J36,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v>PlayerSkill_TimeBarrier</v>
+        <v/>
       </c>
       <c r="H36">
         <v>0</v>
@@ -5151,7 +5420,7 @@
       </c>
       <c r="E37">
         <f>IF(VLOOKUP(H37&amp;"_"&amp;I37,[1]挑战模式!$BH:$BS,9-J37,FALSE)="","",IF(ISNUMBER(VLOOKUP(H37&amp;"_"&amp;I37,[1]挑战模式!$BH:$BS,9-J37,FALSE)),VLOOKUP(H37&amp;"_"&amp;I37,[1]挑战模式!$BH:$BS,9-J37,FALSE),1))</f>
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="F37">
         <f t="shared" si="5"/>
@@ -5182,19 +5451,19 @@
       </c>
       <c r="D38" t="str">
         <f>IF(VLOOKUP(H38&amp;"_"&amp;I38,[1]挑战模式!$BH:$BS,9-J38,FALSE)="","","DropItemOne")</f>
-        <v/>
-      </c>
-      <c r="E38" t="str">
+        <v>DropItemOne</v>
+      </c>
+      <c r="E38">
         <f>IF(VLOOKUP(H38&amp;"_"&amp;I38,[1]挑战模式!$BH:$BS,9-J38,FALSE)="","",IF(ISNUMBER(VLOOKUP(H38&amp;"_"&amp;I38,[1]挑战模式!$BH:$BS,9-J38,FALSE)),VLOOKUP(H38&amp;"_"&amp;I38,[1]挑战模式!$BH:$BS,9-J38,FALSE),1))</f>
-        <v/>
-      </c>
-      <c r="F38" t="str">
+        <v>1</v>
+      </c>
+      <c r="F38">
         <f t="shared" si="5"/>
-        <v/>
+        <v>10000</v>
       </c>
       <c r="G38" t="str">
         <f>IF(VLOOKUP(H38&amp;"_"&amp;I38,[1]挑战模式!$BH:$BS,9-J38,FALSE)="","",IF(ISNUMBER(VLOOKUP(H38&amp;"_"&amp;I38,[1]挑战模式!$BH:$BS,9-J38,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H38&amp;"_"&amp;I38,[1]挑战模式!$BH:$BS,9-J38,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v/>
+        <v>Tow25_1</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -5221,7 +5490,7 @@
       </c>
       <c r="E39">
         <f>IF(VLOOKUP(H39&amp;"_"&amp;I39,[1]挑战模式!$BH:$BS,9-J39,FALSE)="","",IF(ISNUMBER(VLOOKUP(H39&amp;"_"&amp;I39,[1]挑战模式!$BH:$BS,9-J39,FALSE)),VLOOKUP(H39&amp;"_"&amp;I39,[1]挑战模式!$BH:$BS,9-J39,FALSE),1))</f>
-        <v>330</v>
+        <v>260</v>
       </c>
       <c r="F39">
         <f t="shared" si="5"/>
@@ -5291,7 +5560,7 @@
       </c>
       <c r="E41">
         <f>IF(VLOOKUP(H41&amp;"_"&amp;I41,[1]挑战模式!$BH:$BS,9-J41,FALSE)="","",IF(ISNUMBER(VLOOKUP(H41&amp;"_"&amp;I41,[1]挑战模式!$BH:$BS,9-J41,FALSE)),VLOOKUP(H41&amp;"_"&amp;I41,[1]挑战模式!$BH:$BS,9-J41,FALSE),1))</f>
-        <v>410</v>
+        <v>270</v>
       </c>
       <c r="F41">
         <f t="shared" si="5"/>
@@ -5361,7 +5630,7 @@
       </c>
       <c r="E43">
         <f>IF(VLOOKUP(H43&amp;"_"&amp;I43,[1]挑战模式!$BH:$BS,9-J43,FALSE)="","",IF(ISNUMBER(VLOOKUP(H43&amp;"_"&amp;I43,[1]挑战模式!$BH:$BS,9-J43,FALSE)),VLOOKUP(H43&amp;"_"&amp;I43,[1]挑战模式!$BH:$BS,9-J43,FALSE),1))</f>
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="F43">
         <f t="shared" si="5"/>
@@ -5431,7 +5700,7 @@
       </c>
       <c r="E45">
         <f>IF(VLOOKUP(H45&amp;"_"&amp;I45,[1]挑战模式!$BH:$BS,9-J45,FALSE)="","",IF(ISNUMBER(VLOOKUP(H45&amp;"_"&amp;I45,[1]挑战模式!$BH:$BS,9-J45,FALSE)),VLOOKUP(H45&amp;"_"&amp;I45,[1]挑战模式!$BH:$BS,9-J45,FALSE),1))</f>
-        <v>610</v>
+        <v>300</v>
       </c>
       <c r="F45">
         <f t="shared" si="5"/>
@@ -5474,7 +5743,7 @@
       </c>
       <c r="G46" t="str">
         <f>IF(VLOOKUP(H46&amp;"_"&amp;I46,[1]挑战模式!$BH:$BS,9-J46,FALSE)="","",IF(ISNUMBER(VLOOKUP(H46&amp;"_"&amp;I46,[1]挑战模式!$BH:$BS,9-J46,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H46&amp;"_"&amp;I46,[1]挑战模式!$BH:$BS,9-J46,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v>Tow25_1</v>
+        <v>Tow11_1</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -5501,7 +5770,7 @@
       </c>
       <c r="E47">
         <f>IF(VLOOKUP(H47&amp;"_"&amp;I47,[1]挑战模式!$BH:$BS,9-J47,FALSE)="","",IF(ISNUMBER(VLOOKUP(H47&amp;"_"&amp;I47,[1]挑战模式!$BH:$BS,9-J47,FALSE)),VLOOKUP(H47&amp;"_"&amp;I47,[1]挑战模式!$BH:$BS,9-J47,FALSE),1))</f>
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="F47">
         <f t="shared" si="2"/>
@@ -5571,7 +5840,7 @@
       </c>
       <c r="E49">
         <f>IF(VLOOKUP(H49&amp;"_"&amp;I49,[1]挑战模式!$BH:$BS,9-J49,FALSE)="","",IF(ISNUMBER(VLOOKUP(H49&amp;"_"&amp;I49,[1]挑战模式!$BH:$BS,9-J49,FALSE)),VLOOKUP(H49&amp;"_"&amp;I49,[1]挑战模式!$BH:$BS,9-J49,FALSE),1))</f>
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="F49">
         <f t="shared" si="2"/>
@@ -5641,7 +5910,7 @@
       </c>
       <c r="E51">
         <f>IF(VLOOKUP(H51&amp;"_"&amp;I51,[1]挑战模式!$BH:$BS,9-J51,FALSE)="","",IF(ISNUMBER(VLOOKUP(H51&amp;"_"&amp;I51,[1]挑战模式!$BH:$BS,9-J51,FALSE)),VLOOKUP(H51&amp;"_"&amp;I51,[1]挑战模式!$BH:$BS,9-J51,FALSE),1))</f>
-        <v>1500</v>
+        <v>180</v>
       </c>
       <c r="F51">
         <f t="shared" si="2"/>
@@ -5711,7 +5980,7 @@
       </c>
       <c r="E53">
         <f>IF(VLOOKUP(H53&amp;"_"&amp;I53,[1]挑战模式!$BH:$BS,9-J53,FALSE)="","",IF(ISNUMBER(VLOOKUP(H53&amp;"_"&amp;I53,[1]挑战模式!$BH:$BS,9-J53,FALSE)),VLOOKUP(H53&amp;"_"&amp;I53,[1]挑战模式!$BH:$BS,9-J53,FALSE),1))</f>
-        <v>2100</v>
+        <v>180</v>
       </c>
       <c r="F53">
         <f t="shared" si="2"/>
@@ -5781,7 +6050,7 @@
       </c>
       <c r="E55">
         <f>IF(VLOOKUP(H55&amp;"_"&amp;I55,[1]挑战模式!$BH:$BS,9-J55,FALSE)="","",IF(ISNUMBER(VLOOKUP(H55&amp;"_"&amp;I55,[1]挑战模式!$BH:$BS,9-J55,FALSE)),VLOOKUP(H55&amp;"_"&amp;I55,[1]挑战模式!$BH:$BS,9-J55,FALSE),1))</f>
-        <v>2600</v>
+        <v>180</v>
       </c>
       <c r="F55">
         <f t="shared" si="2"/>
@@ -5824,7 +6093,7 @@
       </c>
       <c r="G56" t="str">
         <f>IF(VLOOKUP(H56&amp;"_"&amp;I56,[1]挑战模式!$BH:$BS,9-J56,FALSE)="","",IF(ISNUMBER(VLOOKUP(H56&amp;"_"&amp;I56,[1]挑战模式!$BH:$BS,9-J56,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H56&amp;"_"&amp;I56,[1]挑战模式!$BH:$BS,9-J56,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v>Tow10_1</v>
+        <v>Tow21_1</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5851,7 +6120,7 @@
       </c>
       <c r="E57">
         <f>IF(VLOOKUP(H57&amp;"_"&amp;I57,[1]挑战模式!$BH:$BS,9-J57,FALSE)="","",IF(ISNUMBER(VLOOKUP(H57&amp;"_"&amp;I57,[1]挑战模式!$BH:$BS,9-J57,FALSE)),VLOOKUP(H57&amp;"_"&amp;I57,[1]挑战模式!$BH:$BS,9-J57,FALSE),1))</f>
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="F57">
         <f t="shared" si="2"/>
@@ -5921,7 +6190,7 @@
       </c>
       <c r="E59">
         <f>IF(VLOOKUP(H59&amp;"_"&amp;I59,[1]挑战模式!$BH:$BS,9-J59,FALSE)="","",IF(ISNUMBER(VLOOKUP(H59&amp;"_"&amp;I59,[1]挑战模式!$BH:$BS,9-J59,FALSE)),VLOOKUP(H59&amp;"_"&amp;I59,[1]挑战模式!$BH:$BS,9-J59,FALSE),1))</f>
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="F59">
         <f t="shared" si="2"/>
@@ -5991,7 +6260,7 @@
       </c>
       <c r="E61">
         <f>IF(VLOOKUP(H61&amp;"_"&amp;I61,[1]挑战模式!$BH:$BS,9-J61,FALSE)="","",IF(ISNUMBER(VLOOKUP(H61&amp;"_"&amp;I61,[1]挑战模式!$BH:$BS,9-J61,FALSE)),VLOOKUP(H61&amp;"_"&amp;I61,[1]挑战模式!$BH:$BS,9-J61,FALSE),1))</f>
-        <v>1500</v>
+        <v>180</v>
       </c>
       <c r="F61">
         <f t="shared" si="2"/>
@@ -6061,7 +6330,7 @@
       </c>
       <c r="E63">
         <f>IF(VLOOKUP(H63&amp;"_"&amp;I63,[1]挑战模式!$BH:$BS,9-J63,FALSE)="","",IF(ISNUMBER(VLOOKUP(H63&amp;"_"&amp;I63,[1]挑战模式!$BH:$BS,9-J63,FALSE)),VLOOKUP(H63&amp;"_"&amp;I63,[1]挑战模式!$BH:$BS,9-J63,FALSE),1))</f>
-        <v>2100</v>
+        <v>180</v>
       </c>
       <c r="F63">
         <f t="shared" si="2"/>
@@ -6131,7 +6400,7 @@
       </c>
       <c r="E65">
         <f>IF(VLOOKUP(H65&amp;"_"&amp;I65,[1]挑战模式!$BH:$BS,9-J65,FALSE)="","",IF(ISNUMBER(VLOOKUP(H65&amp;"_"&amp;I65,[1]挑战模式!$BH:$BS,9-J65,FALSE)),VLOOKUP(H65&amp;"_"&amp;I65,[1]挑战模式!$BH:$BS,9-J65,FALSE),1))</f>
-        <v>2600</v>
+        <v>180</v>
       </c>
       <c r="F65">
         <f t="shared" si="2"/>
@@ -6174,7 +6443,7 @@
       </c>
       <c r="G66" t="str">
         <f>IF(VLOOKUP(H66&amp;"_"&amp;I66,[1]挑战模式!$BH:$BS,9-J66,FALSE)="","",IF(ISNUMBER(VLOOKUP(H66&amp;"_"&amp;I66,[1]挑战模式!$BH:$BS,9-J66,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H66&amp;"_"&amp;I66,[1]挑战模式!$BH:$BS,9-J66,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v>Tow11_1</v>
+        <v>Tow10_1</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6201,7 +6470,7 @@
       </c>
       <c r="E67">
         <f>IF(VLOOKUP(H67&amp;"_"&amp;I67,[1]挑战模式!$BH:$BS,9-J67,FALSE)="","",IF(ISNUMBER(VLOOKUP(H67&amp;"_"&amp;I67,[1]挑战模式!$BH:$BS,9-J67,FALSE)),VLOOKUP(H67&amp;"_"&amp;I67,[1]挑战模式!$BH:$BS,9-J67,FALSE),1))</f>
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="F67">
         <f t="shared" si="2"/>
@@ -6271,7 +6540,7 @@
       </c>
       <c r="E69">
         <f>IF(VLOOKUP(H69&amp;"_"&amp;I69,[1]挑战模式!$BH:$BS,9-J69,FALSE)="","",IF(ISNUMBER(VLOOKUP(H69&amp;"_"&amp;I69,[1]挑战模式!$BH:$BS,9-J69,FALSE)),VLOOKUP(H69&amp;"_"&amp;I69,[1]挑战模式!$BH:$BS,9-J69,FALSE),1))</f>
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="F69">
         <f t="shared" si="2"/>
@@ -6341,7 +6610,7 @@
       </c>
       <c r="E71">
         <f>IF(VLOOKUP(H71&amp;"_"&amp;I71,[1]挑战模式!$BH:$BS,9-J71,FALSE)="","",IF(ISNUMBER(VLOOKUP(H71&amp;"_"&amp;I71,[1]挑战模式!$BH:$BS,9-J71,FALSE)),VLOOKUP(H71&amp;"_"&amp;I71,[1]挑战模式!$BH:$BS,9-J71,FALSE),1))</f>
-        <v>1500</v>
+        <v>180</v>
       </c>
       <c r="F71">
         <f t="shared" si="2"/>
@@ -6411,7 +6680,7 @@
       </c>
       <c r="E73">
         <f>IF(VLOOKUP(H73&amp;"_"&amp;I73,[1]挑战模式!$BH:$BS,9-J73,FALSE)="","",IF(ISNUMBER(VLOOKUP(H73&amp;"_"&amp;I73,[1]挑战模式!$BH:$BS,9-J73,FALSE)),VLOOKUP(H73&amp;"_"&amp;I73,[1]挑战模式!$BH:$BS,9-J73,FALSE),1))</f>
-        <v>2100</v>
+        <v>180</v>
       </c>
       <c r="F73">
         <f t="shared" si="2"/>
@@ -6481,7 +6750,7 @@
       </c>
       <c r="E75">
         <f>IF(VLOOKUP(H75&amp;"_"&amp;I75,[1]挑战模式!$BH:$BS,9-J75,FALSE)="","",IF(ISNUMBER(VLOOKUP(H75&amp;"_"&amp;I75,[1]挑战模式!$BH:$BS,9-J75,FALSE)),VLOOKUP(H75&amp;"_"&amp;I75,[1]挑战模式!$BH:$BS,9-J75,FALSE),1))</f>
-        <v>2600</v>
+        <v>180</v>
       </c>
       <c r="F75">
         <f t="shared" si="2"/>
@@ -6524,7 +6793,7 @@
       </c>
       <c r="G76" t="str">
         <f>IF(VLOOKUP(H76&amp;"_"&amp;I76,[1]挑战模式!$BH:$BS,9-J76,FALSE)="","",IF(ISNUMBER(VLOOKUP(H76&amp;"_"&amp;I76,[1]挑战模式!$BH:$BS,9-J76,FALSE)),"Token_Diamond",VLOOKUP(VLOOKUP(H76&amp;"_"&amp;I76,[1]挑战模式!$BH:$BS,9-J76,FALSE),[1]防御塔!$A:$U,21,FALSE)))</f>
-        <v>Tow21_1</v>
+        <v>Tow23_1</v>
       </c>
       <c r="H76">
         <v>3</v>
@@ -6551,7 +6820,7 @@
       </c>
       <c r="E77">
         <f>IF(VLOOKUP(H77&amp;"_"&amp;I77,[1]挑战模式!$BH:$BS,9-J77,FALSE)="","",IF(ISNUMBER(VLOOKUP(H77&amp;"_"&amp;I77,[1]挑战模式!$BH:$BS,9-J77,FALSE)),VLOOKUP(H77&amp;"_"&amp;I77,[1]挑战模式!$BH:$BS,9-J77,FALSE),1))</f>
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="F77">
         <f t="shared" si="2"/>
@@ -6621,7 +6890,7 @@
       </c>
       <c r="E79">
         <f>IF(VLOOKUP(H79&amp;"_"&amp;I79,[1]挑战模式!$BH:$BS,9-J79,FALSE)="","",IF(ISNUMBER(VLOOKUP(H79&amp;"_"&amp;I79,[1]挑战模式!$BH:$BS,9-J79,FALSE)),VLOOKUP(H79&amp;"_"&amp;I79,[1]挑战模式!$BH:$BS,9-J79,FALSE),1))</f>
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="F79">
         <f t="shared" si="2"/>
@@ -6691,7 +6960,7 @@
       </c>
       <c r="E81">
         <f>IF(VLOOKUP(H81&amp;"_"&amp;I81,[1]挑战模式!$BH:$BS,9-J81,FALSE)="","",IF(ISNUMBER(VLOOKUP(H81&amp;"_"&amp;I81,[1]挑战模式!$BH:$BS,9-J81,FALSE)),VLOOKUP(H81&amp;"_"&amp;I81,[1]挑战模式!$BH:$BS,9-J81,FALSE),1))</f>
-        <v>1500</v>
+        <v>180</v>
       </c>
       <c r="F81">
         <f t="shared" si="2"/>
@@ -6761,7 +7030,7 @@
       </c>
       <c r="E83">
         <f>IF(VLOOKUP(H83&amp;"_"&amp;I83,[1]挑战模式!$BH:$BS,9-J83,FALSE)="","",IF(ISNUMBER(VLOOKUP(H83&amp;"_"&amp;I83,[1]挑战模式!$BH:$BS,9-J83,FALSE)),VLOOKUP(H83&amp;"_"&amp;I83,[1]挑战模式!$BH:$BS,9-J83,FALSE),1))</f>
-        <v>2100</v>
+        <v>180</v>
       </c>
       <c r="F83">
         <f t="shared" si="2"/>
@@ -6831,7 +7100,7 @@
       </c>
       <c r="E85">
         <f>IF(VLOOKUP(H85&amp;"_"&amp;I85,[1]挑战模式!$BH:$BS,9-J85,FALSE)="","",IF(ISNUMBER(VLOOKUP(H85&amp;"_"&amp;I85,[1]挑战模式!$BH:$BS,9-J85,FALSE)),VLOOKUP(H85&amp;"_"&amp;I85,[1]挑战模式!$BH:$BS,9-J85,FALSE),1))</f>
-        <v>2600</v>
+        <v>180</v>
       </c>
       <c r="F85">
         <f t="shared" si="2"/>
@@ -6901,7 +7170,7 @@
       </c>
       <c r="E88">
         <f>IF(VLOOKUP(H88&amp;"_"&amp;I88,[1]挑战模式!$BH:$BS,10-J88,FALSE)="","",IF(ISNUMBER(VLOOKUP(H88&amp;"_"&amp;I88,[1]挑战模式!$BH:$BS,10-J88,FALSE)),VLOOKUP(H88&amp;"_"&amp;I88,[1]挑战模式!$BH:$BS,10-J88,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F88">
         <f>IF(E88="","",10000)</f>
@@ -6936,7 +7205,7 @@
       </c>
       <c r="E89">
         <f>IF(VLOOKUP(H89&amp;"_"&amp;I89,[1]挑战模式!$BH:$BS,10-J89,FALSE)="","",IF(ISNUMBER(VLOOKUP(H89&amp;"_"&amp;I89,[1]挑战模式!$BH:$BS,10-J89,FALSE)),VLOOKUP(H89&amp;"_"&amp;I89,[1]挑战模式!$BH:$BS,10-J89,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F89">
         <f t="shared" ref="F89:F127" si="8">IF(E89="","",10000)</f>
@@ -6971,7 +7240,7 @@
       </c>
       <c r="E90">
         <f>IF(VLOOKUP(H90&amp;"_"&amp;I90,[1]挑战模式!$BH:$BS,10-J90,FALSE)="","",IF(ISNUMBER(VLOOKUP(H90&amp;"_"&amp;I90,[1]挑战模式!$BH:$BS,10-J90,FALSE)),VLOOKUP(H90&amp;"_"&amp;I90,[1]挑战模式!$BH:$BS,10-J90,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F90">
         <f t="shared" si="8"/>
@@ -7006,7 +7275,7 @@
       </c>
       <c r="E91">
         <f>IF(VLOOKUP(H91&amp;"_"&amp;I91,[1]挑战模式!$BH:$BS,10-J91,FALSE)="","",IF(ISNUMBER(VLOOKUP(H91&amp;"_"&amp;I91,[1]挑战模式!$BH:$BS,10-J91,FALSE)),VLOOKUP(H91&amp;"_"&amp;I91,[1]挑战模式!$BH:$BS,10-J91,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F91">
         <f t="shared" si="8"/>
@@ -7041,7 +7310,7 @@
       </c>
       <c r="E92">
         <f>IF(VLOOKUP(H92&amp;"_"&amp;I92,[1]挑战模式!$BH:$BS,10-J92,FALSE)="","",IF(ISNUMBER(VLOOKUP(H92&amp;"_"&amp;I92,[1]挑战模式!$BH:$BS,10-J92,FALSE)),VLOOKUP(H92&amp;"_"&amp;I92,[1]挑战模式!$BH:$BS,10-J92,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F92">
         <f t="shared" si="8"/>
@@ -7076,7 +7345,7 @@
       </c>
       <c r="E93">
         <f>IF(VLOOKUP(H93&amp;"_"&amp;I93,[1]挑战模式!$BH:$BS,10-J93,FALSE)="","",IF(ISNUMBER(VLOOKUP(H93&amp;"_"&amp;I93,[1]挑战模式!$BH:$BS,10-J93,FALSE)),VLOOKUP(H93&amp;"_"&amp;I93,[1]挑战模式!$BH:$BS,10-J93,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F93">
         <f t="shared" si="8"/>
@@ -7111,7 +7380,7 @@
       </c>
       <c r="E94">
         <f>IF(VLOOKUP(H94&amp;"_"&amp;I94,[1]挑战模式!$BH:$BS,10-J94,FALSE)="","",IF(ISNUMBER(VLOOKUP(H94&amp;"_"&amp;I94,[1]挑战模式!$BH:$BS,10-J94,FALSE)),VLOOKUP(H94&amp;"_"&amp;I94,[1]挑战模式!$BH:$BS,10-J94,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F94">
         <f t="shared" si="8"/>
@@ -7146,7 +7415,7 @@
       </c>
       <c r="E95">
         <f>IF(VLOOKUP(H95&amp;"_"&amp;I95,[1]挑战模式!$BH:$BS,10-J95,FALSE)="","",IF(ISNUMBER(VLOOKUP(H95&amp;"_"&amp;I95,[1]挑战模式!$BH:$BS,10-J95,FALSE)),VLOOKUP(H95&amp;"_"&amp;I95,[1]挑战模式!$BH:$BS,10-J95,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F95">
         <f t="shared" si="8"/>
@@ -7181,7 +7450,7 @@
       </c>
       <c r="E96">
         <f>IF(VLOOKUP(H96&amp;"_"&amp;I96,[1]挑战模式!$BH:$BS,10-J96,FALSE)="","",IF(ISNUMBER(VLOOKUP(H96&amp;"_"&amp;I96,[1]挑战模式!$BH:$BS,10-J96,FALSE)),VLOOKUP(H96&amp;"_"&amp;I96,[1]挑战模式!$BH:$BS,10-J96,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F96">
         <f t="shared" si="8"/>
@@ -7216,7 +7485,7 @@
       </c>
       <c r="E97">
         <f>IF(VLOOKUP(H97&amp;"_"&amp;I97,[1]挑战模式!$BH:$BS,10-J97,FALSE)="","",IF(ISNUMBER(VLOOKUP(H97&amp;"_"&amp;I97,[1]挑战模式!$BH:$BS,10-J97,FALSE)),VLOOKUP(H97&amp;"_"&amp;I97,[1]挑战模式!$BH:$BS,10-J97,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F97">
         <f t="shared" si="8"/>
@@ -7251,7 +7520,7 @@
       </c>
       <c r="E98">
         <f>IF(VLOOKUP(H98&amp;"_"&amp;I98,[1]挑战模式!$BH:$BS,10-J98,FALSE)="","",IF(ISNUMBER(VLOOKUP(H98&amp;"_"&amp;I98,[1]挑战模式!$BH:$BS,10-J98,FALSE)),VLOOKUP(H98&amp;"_"&amp;I98,[1]挑战模式!$BH:$BS,10-J98,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F98">
         <f>IF(E98="","",10000)</f>
@@ -7286,7 +7555,7 @@
       </c>
       <c r="E99">
         <f>IF(VLOOKUP(H99&amp;"_"&amp;I99,[1]挑战模式!$BH:$BS,10-J99,FALSE)="","",IF(ISNUMBER(VLOOKUP(H99&amp;"_"&amp;I99,[1]挑战模式!$BH:$BS,10-J99,FALSE)),VLOOKUP(H99&amp;"_"&amp;I99,[1]挑战模式!$BH:$BS,10-J99,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F99">
         <f t="shared" ref="F99:F107" si="11">IF(E99="","",10000)</f>
@@ -7321,7 +7590,7 @@
       </c>
       <c r="E100">
         <f>IF(VLOOKUP(H100&amp;"_"&amp;I100,[1]挑战模式!$BH:$BS,10-J100,FALSE)="","",IF(ISNUMBER(VLOOKUP(H100&amp;"_"&amp;I100,[1]挑战模式!$BH:$BS,10-J100,FALSE)),VLOOKUP(H100&amp;"_"&amp;I100,[1]挑战模式!$BH:$BS,10-J100,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F100">
         <f t="shared" si="11"/>
@@ -7356,7 +7625,7 @@
       </c>
       <c r="E101">
         <f>IF(VLOOKUP(H101&amp;"_"&amp;I101,[1]挑战模式!$BH:$BS,10-J101,FALSE)="","",IF(ISNUMBER(VLOOKUP(H101&amp;"_"&amp;I101,[1]挑战模式!$BH:$BS,10-J101,FALSE)),VLOOKUP(H101&amp;"_"&amp;I101,[1]挑战模式!$BH:$BS,10-J101,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F101">
         <f t="shared" si="11"/>
@@ -7391,7 +7660,7 @@
       </c>
       <c r="E102">
         <f>IF(VLOOKUP(H102&amp;"_"&amp;I102,[1]挑战模式!$BH:$BS,10-J102,FALSE)="","",IF(ISNUMBER(VLOOKUP(H102&amp;"_"&amp;I102,[1]挑战模式!$BH:$BS,10-J102,FALSE)),VLOOKUP(H102&amp;"_"&amp;I102,[1]挑战模式!$BH:$BS,10-J102,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F102">
         <f t="shared" si="11"/>
@@ -7426,7 +7695,7 @@
       </c>
       <c r="E103">
         <f>IF(VLOOKUP(H103&amp;"_"&amp;I103,[1]挑战模式!$BH:$BS,10-J103,FALSE)="","",IF(ISNUMBER(VLOOKUP(H103&amp;"_"&amp;I103,[1]挑战模式!$BH:$BS,10-J103,FALSE)),VLOOKUP(H103&amp;"_"&amp;I103,[1]挑战模式!$BH:$BS,10-J103,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F103">
         <f t="shared" si="11"/>
@@ -7461,7 +7730,7 @@
       </c>
       <c r="E104">
         <f>IF(VLOOKUP(H104&amp;"_"&amp;I104,[1]挑战模式!$BH:$BS,10-J104,FALSE)="","",IF(ISNUMBER(VLOOKUP(H104&amp;"_"&amp;I104,[1]挑战模式!$BH:$BS,10-J104,FALSE)),VLOOKUP(H104&amp;"_"&amp;I104,[1]挑战模式!$BH:$BS,10-J104,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F104">
         <f t="shared" si="11"/>
@@ -7496,7 +7765,7 @@
       </c>
       <c r="E105">
         <f>IF(VLOOKUP(H105&amp;"_"&amp;I105,[1]挑战模式!$BH:$BS,10-J105,FALSE)="","",IF(ISNUMBER(VLOOKUP(H105&amp;"_"&amp;I105,[1]挑战模式!$BH:$BS,10-J105,FALSE)),VLOOKUP(H105&amp;"_"&amp;I105,[1]挑战模式!$BH:$BS,10-J105,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F105">
         <f t="shared" si="11"/>
@@ -7531,7 +7800,7 @@
       </c>
       <c r="E106">
         <f>IF(VLOOKUP(H106&amp;"_"&amp;I106,[1]挑战模式!$BH:$BS,10-J106,FALSE)="","",IF(ISNUMBER(VLOOKUP(H106&amp;"_"&amp;I106,[1]挑战模式!$BH:$BS,10-J106,FALSE)),VLOOKUP(H106&amp;"_"&amp;I106,[1]挑战模式!$BH:$BS,10-J106,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F106">
         <f t="shared" si="11"/>
@@ -7566,7 +7835,7 @@
       </c>
       <c r="E107">
         <f>IF(VLOOKUP(H107&amp;"_"&amp;I107,[1]挑战模式!$BH:$BS,10-J107,FALSE)="","",IF(ISNUMBER(VLOOKUP(H107&amp;"_"&amp;I107,[1]挑战模式!$BH:$BS,10-J107,FALSE)),VLOOKUP(H107&amp;"_"&amp;I107,[1]挑战模式!$BH:$BS,10-J107,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F107">
         <f t="shared" si="11"/>
@@ -7601,7 +7870,7 @@
       </c>
       <c r="E108">
         <f>IF(VLOOKUP(H108&amp;"_"&amp;I108,[1]挑战模式!$BH:$BS,10-J108,FALSE)="","",IF(ISNUMBER(VLOOKUP(H108&amp;"_"&amp;I108,[1]挑战模式!$BH:$BS,10-J108,FALSE)),VLOOKUP(H108&amp;"_"&amp;I108,[1]挑战模式!$BH:$BS,10-J108,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F108">
         <f t="shared" si="8"/>
@@ -7636,7 +7905,7 @@
       </c>
       <c r="E109">
         <f>IF(VLOOKUP(H109&amp;"_"&amp;I109,[1]挑战模式!$BH:$BS,10-J109,FALSE)="","",IF(ISNUMBER(VLOOKUP(H109&amp;"_"&amp;I109,[1]挑战模式!$BH:$BS,10-J109,FALSE)),VLOOKUP(H109&amp;"_"&amp;I109,[1]挑战模式!$BH:$BS,10-J109,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F109">
         <f t="shared" si="8"/>
@@ -7671,7 +7940,7 @@
       </c>
       <c r="E110">
         <f>IF(VLOOKUP(H110&amp;"_"&amp;I110,[1]挑战模式!$BH:$BS,10-J110,FALSE)="","",IF(ISNUMBER(VLOOKUP(H110&amp;"_"&amp;I110,[1]挑战模式!$BH:$BS,10-J110,FALSE)),VLOOKUP(H110&amp;"_"&amp;I110,[1]挑战模式!$BH:$BS,10-J110,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F110">
         <f t="shared" si="8"/>
@@ -7706,7 +7975,7 @@
       </c>
       <c r="E111">
         <f>IF(VLOOKUP(H111&amp;"_"&amp;I111,[1]挑战模式!$BH:$BS,10-J111,FALSE)="","",IF(ISNUMBER(VLOOKUP(H111&amp;"_"&amp;I111,[1]挑战模式!$BH:$BS,10-J111,FALSE)),VLOOKUP(H111&amp;"_"&amp;I111,[1]挑战模式!$BH:$BS,10-J111,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F111">
         <f t="shared" si="8"/>
@@ -7741,7 +8010,7 @@
       </c>
       <c r="E112">
         <f>IF(VLOOKUP(H112&amp;"_"&amp;I112,[1]挑战模式!$BH:$BS,10-J112,FALSE)="","",IF(ISNUMBER(VLOOKUP(H112&amp;"_"&amp;I112,[1]挑战模式!$BH:$BS,10-J112,FALSE)),VLOOKUP(H112&amp;"_"&amp;I112,[1]挑战模式!$BH:$BS,10-J112,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F112">
         <f t="shared" si="8"/>
@@ -7776,7 +8045,7 @@
       </c>
       <c r="E113">
         <f>IF(VLOOKUP(H113&amp;"_"&amp;I113,[1]挑战模式!$BH:$BS,10-J113,FALSE)="","",IF(ISNUMBER(VLOOKUP(H113&amp;"_"&amp;I113,[1]挑战模式!$BH:$BS,10-J113,FALSE)),VLOOKUP(H113&amp;"_"&amp;I113,[1]挑战模式!$BH:$BS,10-J113,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F113">
         <f t="shared" si="8"/>
@@ -7811,7 +8080,7 @@
       </c>
       <c r="E114">
         <f>IF(VLOOKUP(H114&amp;"_"&amp;I114,[1]挑战模式!$BH:$BS,10-J114,FALSE)="","",IF(ISNUMBER(VLOOKUP(H114&amp;"_"&amp;I114,[1]挑战模式!$BH:$BS,10-J114,FALSE)),VLOOKUP(H114&amp;"_"&amp;I114,[1]挑战模式!$BH:$BS,10-J114,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F114">
         <f t="shared" si="8"/>
@@ -7846,7 +8115,7 @@
       </c>
       <c r="E115">
         <f>IF(VLOOKUP(H115&amp;"_"&amp;I115,[1]挑战模式!$BH:$BS,10-J115,FALSE)="","",IF(ISNUMBER(VLOOKUP(H115&amp;"_"&amp;I115,[1]挑战模式!$BH:$BS,10-J115,FALSE)),VLOOKUP(H115&amp;"_"&amp;I115,[1]挑战模式!$BH:$BS,10-J115,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F115">
         <f t="shared" si="8"/>
@@ -7881,7 +8150,7 @@
       </c>
       <c r="E116">
         <f>IF(VLOOKUP(H116&amp;"_"&amp;I116,[1]挑战模式!$BH:$BS,10-J116,FALSE)="","",IF(ISNUMBER(VLOOKUP(H116&amp;"_"&amp;I116,[1]挑战模式!$BH:$BS,10-J116,FALSE)),VLOOKUP(H116&amp;"_"&amp;I116,[1]挑战模式!$BH:$BS,10-J116,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F116">
         <f t="shared" si="8"/>
@@ -7916,7 +8185,7 @@
       </c>
       <c r="E117">
         <f>IF(VLOOKUP(H117&amp;"_"&amp;I117,[1]挑战模式!$BH:$BS,10-J117,FALSE)="","",IF(ISNUMBER(VLOOKUP(H117&amp;"_"&amp;I117,[1]挑战模式!$BH:$BS,10-J117,FALSE)),VLOOKUP(H117&amp;"_"&amp;I117,[1]挑战模式!$BH:$BS,10-J117,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F117">
         <f t="shared" si="8"/>
@@ -7951,7 +8220,7 @@
       </c>
       <c r="E118">
         <f>IF(VLOOKUP(H118&amp;"_"&amp;I118,[1]挑战模式!$BH:$BS,10-J118,FALSE)="","",IF(ISNUMBER(VLOOKUP(H118&amp;"_"&amp;I118,[1]挑战模式!$BH:$BS,10-J118,FALSE)),VLOOKUP(H118&amp;"_"&amp;I118,[1]挑战模式!$BH:$BS,10-J118,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F118">
         <f t="shared" si="8"/>
@@ -7986,7 +8255,7 @@
       </c>
       <c r="E119">
         <f>IF(VLOOKUP(H119&amp;"_"&amp;I119,[1]挑战模式!$BH:$BS,10-J119,FALSE)="","",IF(ISNUMBER(VLOOKUP(H119&amp;"_"&amp;I119,[1]挑战模式!$BH:$BS,10-J119,FALSE)),VLOOKUP(H119&amp;"_"&amp;I119,[1]挑战模式!$BH:$BS,10-J119,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F119">
         <f t="shared" si="8"/>
@@ -8021,7 +8290,7 @@
       </c>
       <c r="E120">
         <f>IF(VLOOKUP(H120&amp;"_"&amp;I120,[1]挑战模式!$BH:$BS,10-J120,FALSE)="","",IF(ISNUMBER(VLOOKUP(H120&amp;"_"&amp;I120,[1]挑战模式!$BH:$BS,10-J120,FALSE)),VLOOKUP(H120&amp;"_"&amp;I120,[1]挑战模式!$BH:$BS,10-J120,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F120">
         <f t="shared" si="8"/>
@@ -8056,7 +8325,7 @@
       </c>
       <c r="E121">
         <f>IF(VLOOKUP(H121&amp;"_"&amp;I121,[1]挑战模式!$BH:$BS,10-J121,FALSE)="","",IF(ISNUMBER(VLOOKUP(H121&amp;"_"&amp;I121,[1]挑战模式!$BH:$BS,10-J121,FALSE)),VLOOKUP(H121&amp;"_"&amp;I121,[1]挑战模式!$BH:$BS,10-J121,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F121">
         <f t="shared" si="8"/>
@@ -8091,7 +8360,7 @@
       </c>
       <c r="E122">
         <f>IF(VLOOKUP(H122&amp;"_"&amp;I122,[1]挑战模式!$BH:$BS,10-J122,FALSE)="","",IF(ISNUMBER(VLOOKUP(H122&amp;"_"&amp;I122,[1]挑战模式!$BH:$BS,10-J122,FALSE)),VLOOKUP(H122&amp;"_"&amp;I122,[1]挑战模式!$BH:$BS,10-J122,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F122">
         <f t="shared" si="8"/>
@@ -8126,7 +8395,7 @@
       </c>
       <c r="E123">
         <f>IF(VLOOKUP(H123&amp;"_"&amp;I123,[1]挑战模式!$BH:$BS,10-J123,FALSE)="","",IF(ISNUMBER(VLOOKUP(H123&amp;"_"&amp;I123,[1]挑战模式!$BH:$BS,10-J123,FALSE)),VLOOKUP(H123&amp;"_"&amp;I123,[1]挑战模式!$BH:$BS,10-J123,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F123">
         <f t="shared" si="8"/>
@@ -8161,7 +8430,7 @@
       </c>
       <c r="E124">
         <f>IF(VLOOKUP(H124&amp;"_"&amp;I124,[1]挑战模式!$BH:$BS,10-J124,FALSE)="","",IF(ISNUMBER(VLOOKUP(H124&amp;"_"&amp;I124,[1]挑战模式!$BH:$BS,10-J124,FALSE)),VLOOKUP(H124&amp;"_"&amp;I124,[1]挑战模式!$BH:$BS,10-J124,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F124">
         <f t="shared" si="8"/>
@@ -8196,7 +8465,7 @@
       </c>
       <c r="E125">
         <f>IF(VLOOKUP(H125&amp;"_"&amp;I125,[1]挑战模式!$BH:$BS,10-J125,FALSE)="","",IF(ISNUMBER(VLOOKUP(H125&amp;"_"&amp;I125,[1]挑战模式!$BH:$BS,10-J125,FALSE)),VLOOKUP(H125&amp;"_"&amp;I125,[1]挑战模式!$BH:$BS,10-J125,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F125">
         <f t="shared" si="8"/>
@@ -8231,7 +8500,7 @@
       </c>
       <c r="E126">
         <f>IF(VLOOKUP(H126&amp;"_"&amp;I126,[1]挑战模式!$BH:$BS,10-J126,FALSE)="","",IF(ISNUMBER(VLOOKUP(H126&amp;"_"&amp;I126,[1]挑战模式!$BH:$BS,10-J126,FALSE)),VLOOKUP(H126&amp;"_"&amp;I126,[1]挑战模式!$BH:$BS,10-J126,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F126">
         <f t="shared" si="8"/>
@@ -8266,7 +8535,7 @@
       </c>
       <c r="E127">
         <f>IF(VLOOKUP(H127&amp;"_"&amp;I127,[1]挑战模式!$BH:$BS,10-J127,FALSE)="","",IF(ISNUMBER(VLOOKUP(H127&amp;"_"&amp;I127,[1]挑战模式!$BH:$BS,10-J127,FALSE)),VLOOKUP(H127&amp;"_"&amp;I127,[1]挑战模式!$BH:$BS,10-J127,FALSE),1))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F127">
         <f t="shared" si="8"/>
